--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="215">
   <si>
     <t>#</t>
   </si>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1118,9 +1118,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1137,9 +1134,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1148,6 +1142,9 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1461,7 +1458,7 @@
     <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="101" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="100" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="17"/>
     <col min="12" max="12" width="17.140625" style="17" customWidth="1"/>
@@ -2989,7 +2986,7 @@
       <c r="H40" s="40">
         <v>0.83</v>
       </c>
-      <c r="I40" s="104" t="s">
+      <c r="I40" s="103" t="s">
         <v>86</v>
       </c>
       <c r="J40" s="25" t="s">
@@ -3087,7 +3084,7 @@
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A43" s="100"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="14">
         <f t="shared" si="5"/>
         <v>41</v>
@@ -3128,7 +3125,7 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A44" s="100"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="14">
         <f t="shared" si="5"/>
         <v>42</v>
@@ -3504,7 +3501,7 @@
       <c r="G53" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="102">
+      <c r="H53" s="101">
         <v>0.97</v>
       </c>
       <c r="I53" s="97" t="s">
@@ -3710,7 +3707,7 @@
         <v>10</v>
       </c>
       <c r="L58" s="48">
-        <f t="shared" ref="L58:L90" si="6">ROUND(K58/28,1)</f>
+        <f t="shared" ref="L58:L91" si="6">ROUND(K58/28,1)</f>
         <v>0.4</v>
       </c>
     </row>
@@ -3735,7 +3732,7 @@
       <c r="G59" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="107">
+      <c r="H59" s="105">
         <v>0.93</v>
       </c>
       <c r="I59" s="55" t="s">
@@ -4057,7 +4054,7 @@
         <v>82</v>
       </c>
       <c r="K67" s="47">
-        <f t="shared" ref="K67:K90" si="7">E67*F67</f>
+        <f t="shared" ref="K67:K91" si="7">E67*F67</f>
         <v>20</v>
       </c>
       <c r="L67" s="48">
@@ -4068,7 +4065,7 @@
     <row r="68" spans="1:12" ht="38.25">
       <c r="A68" s="7"/>
       <c r="B68" s="35">
-        <f t="shared" ref="B68:B90" si="8">B67+1</f>
+        <f t="shared" ref="B68:B91" si="8">B67+1</f>
         <v>66</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -4902,7 +4899,7 @@
       <c r="F89" s="52">
         <v>15</v>
       </c>
-      <c r="G89" s="103" t="s">
+      <c r="G89" s="102" t="s">
         <v>112</v>
       </c>
       <c r="H89" s="89">
@@ -4962,19 +4959,44 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" ht="25.5">
       <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
+      <c r="B91" s="14">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="35">
+        <v>3</v>
+      </c>
+      <c r="F91" s="52">
+        <v>3</v>
+      </c>
+      <c r="G91" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H91" s="53">
+        <v>1</v>
+      </c>
+      <c r="I91" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J91" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K91" s="48">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="L91" s="48">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="7"/>
@@ -5680,7 +5702,9 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5763,68 +5787,68 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" s="8"/>
       <c r="B4" s="35">
-        <f t="shared" ref="B4:B16" si="0">B3+1</f>
+        <f t="shared" ref="B4:B18" si="0">B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="84">
-        <v>8</v>
-      </c>
-      <c r="F4" s="84">
+      <c r="C4" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="52">
         <v>4</v>
       </c>
-      <c r="G4" s="86">
-        <v>0.59</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="78">
-        <v>32</v>
-      </c>
-      <c r="J4" s="73">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5">
+      <c r="F4" s="52">
+        <v>1</v>
+      </c>
+      <c r="G4" s="53">
+        <v>1</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="42">
+        <f>E4*F4</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="35">
+        <f>ROUND(I4/28,1)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="8"/>
       <c r="B5" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="56" t="s">
+      <c r="C5" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="52">
-        <v>6</v>
-      </c>
-      <c r="F5" s="52">
-        <v>3</v>
-      </c>
-      <c r="G5" s="53">
-        <v>0.91</v>
-      </c>
-      <c r="H5" s="95" t="s">
-        <v>82</v>
+      <c r="E5" s="84">
+        <v>8</v>
+      </c>
+      <c r="F5" s="84">
+        <v>4</v>
+      </c>
+      <c r="G5" s="86">
+        <v>0.59</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>158</v>
       </c>
       <c r="I5" s="78">
-        <f>E5*F5</f>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J5" s="87">
-        <f>ROUND(I5/28,1)</f>
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5">
@@ -5833,64 +5857,64 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>200</v>
+      <c r="C6" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="E6" s="42">
         <v>6</v>
       </c>
       <c r="F6" s="42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="40">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="H6" s="95" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="I6" s="78">
         <f>E6*F6</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J6" s="73">
         <f>ROUND(I6/28,1)</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" s="8"/>
       <c r="B7" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>209</v>
+      <c r="C7" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>200</v>
       </c>
       <c r="E7" s="42">
+        <v>6</v>
+      </c>
+      <c r="F7" s="42">
         <v>5</v>
       </c>
-      <c r="F7" s="42">
-        <v>3</v>
-      </c>
       <c r="G7" s="40">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="H7" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="I7" s="42">
+        <v>201</v>
+      </c>
+      <c r="I7" s="78">
         <f>E7*F7</f>
-        <v>15</v>
-      </c>
-      <c r="J7" s="35">
+        <v>30</v>
+      </c>
+      <c r="J7" s="73">
         <f>ROUND(I7/28,1)</f>
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5899,29 +5923,31 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="76">
+      <c r="C8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="42">
         <v>5</v>
       </c>
-      <c r="F8" s="76">
-        <v>8</v>
-      </c>
-      <c r="G8" s="94">
-        <v>0.85</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="78">
-        <v>40</v>
-      </c>
-      <c r="J8" s="73">
-        <v>1.4</v>
+      <c r="F8" s="42">
+        <v>3</v>
+      </c>
+      <c r="G8" s="40">
+        <v>0.97</v>
+      </c>
+      <c r="H8" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="42">
+        <f>E8*F8</f>
+        <v>15</v>
+      </c>
+      <c r="J8" s="35">
+        <f>ROUND(I8/28,1)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5930,97 +5956,95 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="76">
         <v>5</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="76">
         <v>8</v>
       </c>
-      <c r="G9" s="85">
-        <v>0.81</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="94">
+        <v>0.85</v>
+      </c>
+      <c r="H9" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="47">
-        <f t="shared" ref="I9:I14" si="1">E9*F9</f>
+      <c r="I9" s="78">
         <v>40</v>
       </c>
-      <c r="J9" s="49">
-        <f t="shared" ref="J9:J14" si="2">ROUND(I9/28,1)</f>
+      <c r="J9" s="73">
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="8"/>
       <c r="B10" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="52">
+      <c r="C10" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="24">
+        <v>5</v>
+      </c>
+      <c r="F10" s="24">
         <v>8</v>
       </c>
-      <c r="F10" s="52">
-        <v>8</v>
-      </c>
-      <c r="G10" s="40">
-        <v>0.88</v>
-      </c>
-      <c r="H10" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="78">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="J10" s="73">
-        <f t="shared" si="2"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="25.5">
+      <c r="G10" s="85">
+        <v>0.81</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="47">
+        <f t="shared" ref="I10:I16" si="1">E10*F10</f>
+        <v>40</v>
+      </c>
+      <c r="J10" s="49">
+        <f t="shared" ref="J10:J16" si="2">ROUND(I10/28,1)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="26.25">
       <c r="A11" s="8"/>
       <c r="B11" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="24">
-        <v>1</v>
-      </c>
-      <c r="F11" s="24">
-        <v>5</v>
-      </c>
-      <c r="G11" s="82">
-        <v>1</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="47">
+      <c r="C11" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="52">
+        <v>8</v>
+      </c>
+      <c r="F11" s="52">
+        <v>8</v>
+      </c>
+      <c r="G11" s="53">
+        <v>0.88</v>
+      </c>
+      <c r="H11" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="78">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J11" s="49">
+        <v>64</v>
+      </c>
+      <c r="J11" s="73">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5">
@@ -6029,31 +6053,31 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="75" t="s">
-        <v>171</v>
+      <c r="C12" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="76">
-        <v>12</v>
-      </c>
-      <c r="F12" s="76">
-        <v>4</v>
-      </c>
-      <c r="G12" s="94">
+      <c r="E12" s="43">
         <v>1</v>
       </c>
-      <c r="H12" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="78">
+      <c r="F12" s="43">
+        <v>5</v>
+      </c>
+      <c r="G12" s="41">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="47">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="J12" s="73">
+        <v>5</v>
+      </c>
+      <c r="J12" s="49">
         <f t="shared" si="2"/>
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5">
@@ -6063,21 +6087,21 @@
         <v>11</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="84">
         <v>12</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="76">
         <v>4</v>
       </c>
-      <c r="G13" s="98">
-        <v>0.81</v>
-      </c>
-      <c r="H13" s="95" t="s">
+      <c r="G13" s="94">
+        <v>1</v>
+      </c>
+      <c r="H13" s="77" t="s">
         <v>82</v>
       </c>
       <c r="I13" s="78">
@@ -6095,31 +6119,31 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>173</v>
+      <c r="C14" s="83" t="s">
+        <v>172</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="52">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F14" s="52">
-        <v>7</v>
-      </c>
-      <c r="G14" s="53">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G14" s="107">
+        <v>0.81</v>
       </c>
       <c r="H14" s="91" t="s">
         <v>82</v>
       </c>
       <c r="I14" s="78">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J14" s="73">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5">
@@ -6128,29 +6152,31 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="76">
-        <v>8</v>
-      </c>
-      <c r="F15" s="84">
-        <v>5</v>
-      </c>
-      <c r="G15" s="86">
-        <v>0.94</v>
-      </c>
-      <c r="H15" s="106" t="s">
-        <v>78</v>
+      <c r="C15" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="42">
+        <v>6</v>
+      </c>
+      <c r="F15" s="52">
+        <v>7</v>
+      </c>
+      <c r="G15" s="53">
+        <v>1</v>
+      </c>
+      <c r="H15" s="91" t="s">
+        <v>82</v>
       </c>
       <c r="I15" s="87">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="J15" s="87">
-        <v>1.4</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6159,53 +6185,98 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="42">
+        <v>5</v>
+      </c>
+      <c r="F16" s="42">
+        <v>6</v>
+      </c>
+      <c r="G16" s="40">
+        <v>0.81</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="78">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J16" s="73">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.5">
+      <c r="A17" s="8"/>
+      <c r="B17" s="35">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="84">
+        <v>8</v>
+      </c>
+      <c r="F17" s="76">
+        <v>5</v>
+      </c>
+      <c r="G17" s="106">
+        <v>0.94</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="78">
+        <v>40</v>
+      </c>
+      <c r="J17" s="73">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8"/>
+      <c r="B18" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D18" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E18" s="84">
         <v>8</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F18" s="84">
         <v>5</v>
       </c>
-      <c r="G16" s="108">
+      <c r="G18" s="86">
         <v>0.8</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H18" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="78">
-        <f>E16*F16</f>
+      <c r="I18" s="87">
+        <f>E18*F18</f>
         <v>40</v>
       </c>
-      <c r="J16" s="73">
-        <f>ROUND(I16/28,1)</f>
+      <c r="J18" s="87">
+        <f>ROUND(I18/28,1)</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="8"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="63"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="8"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19" s="8"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -6215,7 +6286,7 @@
       <c r="G19" s="63"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20" s="8"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -6225,7 +6296,7 @@
       <c r="G20" s="63"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21" s="8"/>
       <c r="B21" s="29"/>
       <c r="C21" s="58"/>
@@ -6235,7 +6306,7 @@
       <c r="G21" s="62"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22" s="8"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -6245,7 +6316,7 @@
       <c r="G22" s="63"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23" s="8"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -6255,7 +6326,7 @@
       <c r="G23" s="63"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24" s="8"/>
       <c r="B24" s="29"/>
       <c r="C24" s="58"/>
@@ -6265,7 +6336,7 @@
       <c r="G24" s="62"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25" s="8"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -6275,7 +6346,7 @@
       <c r="G25" s="63"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26" s="8"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -6284,7 +6355,7 @@
       <c r="F26" s="35"/>
       <c r="G26" s="63"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27" s="8"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -6294,7 +6365,7 @@
       <c r="G27" s="63"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28" s="8"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -6303,7 +6374,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="63"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29" s="8"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -6313,7 +6384,7 @@
       <c r="G29" s="63"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10">
       <c r="A30" s="8"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -6323,7 +6394,7 @@
       <c r="G30" s="63"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10">
       <c r="A31" s="8"/>
       <c r="B31" s="29"/>
       <c r="C31" s="58"/>
@@ -6333,7 +6404,7 @@
       <c r="G31" s="62"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10">
       <c r="A32" s="8"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -6422,7 +6493,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:J2">
-    <sortState ref="B3:J16">
+    <sortState ref="B3:J18">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
@@ -7086,11 +7157,11 @@
         <v>82</v>
       </c>
       <c r="K3" s="47">
-        <f t="shared" ref="K3:K11" si="0">E3*F3</f>
+        <f t="shared" ref="K3:K10" si="0">E3*F3</f>
         <v>112</v>
       </c>
       <c r="L3" s="48">
-        <f t="shared" ref="L3:L11" si="1">ROUND(K3/28,1)</f>
+        <f t="shared" ref="L3:L10" si="1">ROUND(K3/28,1)</f>
         <v>4</v>
       </c>
     </row>
@@ -7255,7 +7326,7 @@
       <c r="G8" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="102"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="12" t="s">
         <v>56</v>
       </c>
@@ -7308,39 +7379,39 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.5">
+    <row r="10" spans="1:12">
       <c r="A10" s="8"/>
       <c r="B10" s="14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="35">
-        <v>3</v>
+      <c r="C10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="52">
+        <v>4</v>
       </c>
       <c r="F10" s="52">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G10" s="52"/>
       <c r="H10" s="53"/>
       <c r="I10" s="56" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K10" s="48">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="L10" s="48">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7349,34 +7420,16 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="52">
-        <v>4</v>
-      </c>
-      <c r="F11" s="52">
-        <v>9</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="48">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="L11" s="48">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8"/>
@@ -7384,14 +7437,14 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="66"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="29"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="58"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
     </row>
@@ -7418,13 +7471,13 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="35"/>
       <c r="H14" s="66"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="58"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
@@ -7432,41 +7485,41 @@
     <row r="15" spans="1:12">
       <c r="A15" s="8"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="58"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="29"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="58"/>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8"/>
       <c r="B17" s="35"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="37"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="69"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="58"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -7474,13 +7527,13 @@
     <row r="18" spans="1:12">
       <c r="A18" s="8"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="66"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="58"/>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
@@ -7488,56 +7541,56 @@
     <row r="19" spans="1:12">
       <c r="A19" s="8"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="66"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="58"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="66"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="29"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="58"/>
       <c r="K20" s="49"/>
       <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="66"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="58"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="35"/>
       <c r="H22" s="66"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="29"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
     </row>
@@ -7550,7 +7603,7 @@
       <c r="F23" s="36"/>
       <c r="G23" s="35"/>
       <c r="H23" s="66"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="58"/>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
@@ -7558,10 +7611,10 @@
     <row r="24" spans="1:12">
       <c r="A24" s="8"/>
       <c r="B24" s="35"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="66"/>
       <c r="I24" s="5"/>
@@ -7600,10 +7653,10 @@
     <row r="27" spans="1:12">
       <c r="A27" s="8"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="35"/>
       <c r="H27" s="66"/>
       <c r="I27" s="5"/>
@@ -7618,9 +7671,9 @@
       <c r="D28" s="6"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
-      <c r="G28" s="35"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="58"/>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
@@ -7628,13 +7681,13 @@
     <row r="29" spans="1:12">
       <c r="A29" s="8"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
       <c r="H29" s="66"/>
-      <c r="I29" s="33"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="58"/>
       <c r="K29" s="49"/>
       <c r="L29" s="49"/>
@@ -7656,15 +7709,15 @@
     <row r="31" spans="1:12">
       <c r="A31" s="8"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="49"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="49"/>
     </row>
     <row r="32" spans="1:12">
@@ -7689,11 +7742,11 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="32"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="33"/>
       <c r="J33" s="29"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="49"/>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8"/>
@@ -7703,7 +7756,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="57"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="33"/>
       <c r="J34" s="29"/>
       <c r="K34" s="15"/>
@@ -8819,15 +8872,6 @@
     <row r="115" spans="1:12">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="33"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="15"/>
       <c r="L115" s="15"/>
     </row>
     <row r="116" spans="1:12">
@@ -8838,7 +8882,6 @@
     <row r="117" spans="1:12">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
-      <c r="L117" s="15"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="7"/>
@@ -9030,63 +9073,31 @@
       <c r="B3" s="74">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="52">
-        <v>5</v>
-      </c>
-      <c r="F3" s="42">
-        <v>6</v>
-      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="40"/>
-      <c r="H3" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="78">
-        <f t="shared" ref="I3:I4" si="0">E3*F3</f>
-        <v>30</v>
-      </c>
-      <c r="J3" s="73">
-        <f t="shared" ref="J3:J4" si="1">ROUND(I3/28,1)</f>
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="H3" s="95"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
     </row>
-    <row r="4" spans="1:13" ht="25.5">
+    <row r="4" spans="1:13">
       <c r="A4" s="92"/>
       <c r="B4" s="74">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="52">
-        <v>4</v>
-      </c>
-      <c r="F4" s="52">
-        <v>1</v>
-      </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="52">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J4" s="52">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
     </row>
@@ -9143,7 +9154,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7"/>
-      <c r="B8" s="99"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="15"/>
       <c r="D8" s="29"/>
       <c r="E8" s="35"/>
@@ -9158,7 +9169,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7"/>
-      <c r="B9" s="99"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="35"/>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="219">
   <si>
     <t>#</t>
   </si>
@@ -591,9 +591,6 @@
     <t>Statistical reasoning for public health 2: regression models</t>
   </si>
   <si>
-    <t>Mining massive datasets</t>
-  </si>
-  <si>
     <t>Introduction to finance</t>
   </si>
   <si>
@@ -606,9 +603,6 @@
     <t>Questionnaire design for sociall surveys</t>
   </si>
   <si>
-    <t>Programming for everybody (Python)</t>
-  </si>
-  <si>
     <t>Research methods</t>
   </si>
   <si>
@@ -673,6 +667,24 @@
   </si>
   <si>
     <t>Design thinking for business innovation</t>
+  </si>
+  <si>
+    <t>Regression models</t>
+  </si>
+  <si>
+    <t>Text retreival and search engines</t>
+  </si>
+  <si>
+    <t>International leadership and organizational behavior</t>
+  </si>
+  <si>
+    <t>Università Bocconi</t>
+  </si>
+  <si>
+    <t>Entrepeneurship capstone</t>
+  </si>
+  <si>
+    <t>Practical machine learning</t>
   </si>
 </sst>
 </file>
@@ -1137,14 +1149,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1546,18 +1558,18 @@
         <v>82</v>
       </c>
       <c r="K3" s="47">
-        <f t="shared" ref="K3:K34" si="0">E3*F3</f>
+        <f>E3*F3</f>
         <v>32</v>
       </c>
       <c r="L3" s="48">
-        <f t="shared" ref="L3:L34" si="1">ROUND(K3/28,1)</f>
+        <f>ROUND(K3/28,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B4" s="14">
-        <f t="shared" ref="B4:B35" si="2">B3+1</f>
+        <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1585,18 +1597,18 @@
         <v>81</v>
       </c>
       <c r="K4" s="47">
-        <f t="shared" si="0"/>
+        <f>E4*F4</f>
         <v>48</v>
       </c>
       <c r="L4" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K4/28,1)</f>
         <v>1.7</v>
       </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B5" s="14">
-        <f t="shared" si="2"/>
+        <f>B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -1624,18 +1636,18 @@
         <v>79</v>
       </c>
       <c r="K5" s="47">
-        <f t="shared" si="0"/>
+        <f>E5*F5</f>
         <v>36</v>
       </c>
       <c r="L5" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K5/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B6" s="14">
-        <f t="shared" si="2"/>
+        <f>B5+1</f>
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1663,18 +1675,18 @@
         <v>79</v>
       </c>
       <c r="K6" s="47">
-        <f t="shared" si="0"/>
+        <f>E6*F6</f>
         <v>36</v>
       </c>
       <c r="L6" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K6/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B7" s="14">
-        <f t="shared" si="2"/>
+        <f>B6+1</f>
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1702,18 +1714,18 @@
         <v>79</v>
       </c>
       <c r="K7" s="47">
-        <f t="shared" si="0"/>
+        <f>E7*F7</f>
         <v>36</v>
       </c>
       <c r="L7" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K7/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B8" s="14">
-        <f t="shared" si="2"/>
+        <f>B7+1</f>
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1741,18 +1753,18 @@
         <v>79</v>
       </c>
       <c r="K8" s="47">
-        <f t="shared" si="0"/>
+        <f>E8*F8</f>
         <v>36</v>
       </c>
       <c r="L8" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K8/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B9" s="14">
-        <f t="shared" si="2"/>
+        <f>B8+1</f>
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1780,18 +1792,18 @@
         <v>79</v>
       </c>
       <c r="K9" s="47">
-        <f t="shared" si="0"/>
+        <f>E9*F9</f>
         <v>36</v>
       </c>
       <c r="L9" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K9/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B10" s="14">
-        <f t="shared" si="2"/>
+        <f>B9+1</f>
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1819,11 +1831,11 @@
         <v>79</v>
       </c>
       <c r="K10" s="47">
-        <f t="shared" si="0"/>
+        <f>E10*F10</f>
         <v>36</v>
       </c>
       <c r="L10" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K10/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M10" s="7"/>
@@ -1831,7 +1843,7 @@
     </row>
     <row r="11" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B11" s="14">
-        <f t="shared" si="2"/>
+        <f>B10+1</f>
         <v>9</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -1859,18 +1871,18 @@
         <v>79</v>
       </c>
       <c r="K11" s="47">
-        <f t="shared" si="0"/>
+        <f>E11*F11</f>
         <v>36</v>
       </c>
       <c r="L11" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K11/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B12" s="14">
-        <f t="shared" si="2"/>
+        <f>B11+1</f>
         <v>10</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -1898,11 +1910,11 @@
         <v>79</v>
       </c>
       <c r="K12" s="47">
-        <f t="shared" si="0"/>
+        <f>E12*F12</f>
         <v>36</v>
       </c>
       <c r="L12" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K12/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M12" s="3"/>
@@ -1910,7 +1922,7 @@
     </row>
     <row r="13" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B13" s="14">
-        <f t="shared" si="2"/>
+        <f>B12+1</f>
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1938,18 +1950,18 @@
         <v>82</v>
       </c>
       <c r="K13" s="47">
-        <f t="shared" si="0"/>
+        <f>E13*F13</f>
         <v>28</v>
       </c>
       <c r="L13" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K13/28,1)</f>
         <v>1</v>
       </c>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B14" s="14">
-        <f t="shared" si="2"/>
+        <f>B13+1</f>
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1977,18 +1989,18 @@
         <v>81</v>
       </c>
       <c r="K14" s="47">
-        <f t="shared" si="0"/>
+        <f>E14*F14</f>
         <v>12</v>
       </c>
       <c r="L14" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K14/28,1)</f>
         <v>0.4</v>
       </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:14" s="8" customFormat="1" ht="27" customHeight="1">
       <c r="B15" s="14">
-        <f t="shared" si="2"/>
+        <f>B14+1</f>
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2016,18 +2028,18 @@
         <v>79</v>
       </c>
       <c r="K15" s="47">
-        <f t="shared" si="0"/>
+        <f>E15*F15</f>
         <v>24</v>
       </c>
       <c r="L15" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K15/28,1)</f>
         <v>0.9</v>
       </c>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" s="8" customFormat="1" ht="25.5" customHeight="1">
       <c r="B16" s="14">
-        <f t="shared" si="2"/>
+        <f>B15+1</f>
         <v>14</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -2055,18 +2067,18 @@
         <v>157</v>
       </c>
       <c r="K16" s="47">
-        <f t="shared" si="0"/>
+        <f>E16*F16</f>
         <v>30</v>
       </c>
       <c r="L16" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K16/28,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B17" s="14">
-        <f t="shared" si="2"/>
+        <f>B16+1</f>
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2094,18 +2106,18 @@
         <v>157</v>
       </c>
       <c r="K17" s="47">
-        <f t="shared" si="0"/>
+        <f>E17*F17</f>
         <v>32</v>
       </c>
       <c r="L17" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K17/28,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B18" s="14">
-        <f t="shared" si="2"/>
+        <f>B17+1</f>
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2133,375 +2145,375 @@
         <v>82</v>
       </c>
       <c r="K18" s="47">
-        <f t="shared" si="0"/>
+        <f>E18*F18</f>
         <v>18</v>
       </c>
       <c r="L18" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K18/28,1)</f>
         <v>0.6</v>
       </c>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B19" s="14">
-        <f t="shared" si="2"/>
+        <f>B18+1</f>
         <v>17</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="36">
-        <v>6</v>
-      </c>
-      <c r="F19" s="43">
-        <v>4</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="41">
-        <v>0.86</v>
+      <c r="C19" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="35">
+        <v>3</v>
+      </c>
+      <c r="F19" s="42">
+        <v>3</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="40">
+        <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>109</v>
+      <c r="J19" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K19" s="47">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>E19*F19</f>
+        <v>9</v>
       </c>
       <c r="L19" s="48">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+        <f>ROUND(K19/28,1)</f>
+        <v>0.3</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B20" s="14">
-        <f t="shared" si="2"/>
+        <f>B19+1</f>
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="35">
+      <c r="C20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="36">
         <v>6</v>
       </c>
-      <c r="F20" s="42">
-        <v>3</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="40">
-        <v>0.78</v>
+      <c r="F20" s="43">
+        <v>4</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="41">
+        <v>0.86</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="K20" s="47">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>E20*F20</f>
+        <v>24</v>
       </c>
       <c r="L20" s="48">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f>ROUND(K20/28,1)</f>
+        <v>0.9</v>
       </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B21" s="14">
-        <f t="shared" si="2"/>
+        <f>B20+1</f>
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="40">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" s="47">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>E21*F21</f>
+        <v>18</v>
       </c>
       <c r="L21" s="48">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <f>ROUND(K21/28,1)</f>
+        <v>0.6</v>
       </c>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B22" s="14">
-        <f t="shared" si="2"/>
+        <f>B21+1</f>
         <v>20</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="36">
-        <v>6</v>
-      </c>
-      <c r="F22" s="43">
-        <v>9</v>
+      <c r="C22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="35">
+        <v>8</v>
+      </c>
+      <c r="F22" s="42">
+        <v>4</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="40">
-        <v>0.92</v>
-      </c>
-      <c r="I22" s="13" t="s">
+        <v>0.77</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>83</v>
+      <c r="J22" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K22" s="47">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f>E22*F22</f>
+        <v>32</v>
       </c>
       <c r="L22" s="48">
-        <f t="shared" si="1"/>
-        <v>1.9</v>
+        <f>ROUND(K22/28,1)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B23" s="14">
-        <f t="shared" si="2"/>
+        <f>B22+1</f>
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="35">
+      <c r="C23" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="36">
+        <v>6</v>
+      </c>
+      <c r="F23" s="43">
         <v>9</v>
-      </c>
-      <c r="F23" s="42">
-        <v>3</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="40">
-        <v>0.872</v>
-      </c>
-      <c r="I23" s="12" t="s">
+        <v>0.92</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23" s="47">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>E23*F23</f>
+        <v>54</v>
       </c>
       <c r="L23" s="48">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>ROUND(K23/28,1)</f>
+        <v>1.9</v>
       </c>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B24" s="14">
-        <f t="shared" si="2"/>
+        <f>B23+1</f>
         <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24" s="42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="40">
-        <v>0.874</v>
+        <v>0.872</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="47">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>E24*F24</f>
+        <v>27</v>
       </c>
       <c r="L24" s="48">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <f>ROUND(K24/28,1)</f>
+        <v>1</v>
       </c>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B25" s="14">
-        <f t="shared" si="2"/>
+        <f>B24+1</f>
         <v>23</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>29</v>
+      <c r="C25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E25" s="35">
         <v>6</v>
       </c>
       <c r="F25" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="40">
-        <v>0.92</v>
+        <v>0.874</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>82</v>
+      <c r="J25" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="K25" s="47">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>E25*F25</f>
+        <v>30</v>
       </c>
       <c r="L25" s="48">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f>ROUND(K25/28,1)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B26" s="14">
-        <f t="shared" si="2"/>
+        <f>B25+1</f>
         <v>24</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" s="42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H26" s="40">
-        <v>0.92200000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K26" s="47">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f>E26*F26</f>
+        <v>18</v>
       </c>
       <c r="L26" s="48">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>ROUND(K26/28,1)</f>
+        <v>0.6</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B27" s="14">
-        <f t="shared" si="2"/>
+        <f>B26+1</f>
         <v>25</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>63</v>
+      <c r="C27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E27" s="35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F27" s="42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H27" s="40">
-        <v>0.99</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>64</v>
+        <v>86</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K27" s="47">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>E27*F27</f>
+        <v>56</v>
       </c>
       <c r="L27" s="48">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
+        <f>ROUND(K27/28,1)</f>
+        <v>2</v>
       </c>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B28" s="14">
-        <f t="shared" si="2"/>
+        <f>B27+1</f>
         <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>63</v>
@@ -2516,7 +2528,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="40">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>64</v>
@@ -2525,11 +2537,11 @@
         <v>64</v>
       </c>
       <c r="K28" s="47">
-        <f t="shared" si="0"/>
+        <f>E28*F28</f>
         <v>36</v>
       </c>
       <c r="L28" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K28/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M28" s="7"/>
@@ -2537,173 +2549,173 @@
     </row>
     <row r="29" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B29" s="14">
-        <f t="shared" si="2"/>
+        <f>B28+1</f>
         <v>27</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="25" t="s">
+      <c r="C29" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F29" s="42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H29" s="40">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K29" s="47">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>E29*F29</f>
+        <v>36</v>
       </c>
       <c r="L29" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K29/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B30" s="14">
-        <f t="shared" si="2"/>
+        <f>B29+1</f>
         <v>28</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F30" s="42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="40">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K30" s="47">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>E30*F30</f>
+        <v>35</v>
       </c>
       <c r="L30" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K30/28,1)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B31" s="14">
-        <f t="shared" si="2"/>
+        <f>B30+1</f>
         <v>29</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E31" s="35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F31" s="42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="40">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="J31" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="K31" s="47">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>E31*F31</f>
+        <v>36</v>
       </c>
       <c r="L31" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K31/28,1)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B32" s="14">
-        <f t="shared" si="2"/>
+        <f>B31+1</f>
         <v>30</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="36">
-        <v>4</v>
-      </c>
-      <c r="F32" s="43">
-        <v>4</v>
-      </c>
-      <c r="G32" s="36" t="s">
+      <c r="E32" s="35">
+        <v>7</v>
+      </c>
+      <c r="F32" s="42">
+        <v>5</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="40">
-        <v>1</v>
-      </c>
-      <c r="I32" s="13" t="s">
+        <v>0.95</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J32" s="25" t="s">
-        <v>64</v>
-      </c>
       <c r="K32" s="47">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>E32*F32</f>
+        <v>35</v>
       </c>
       <c r="L32" s="48">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f>ROUND(K32/28,1)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B33" s="14">
-        <f t="shared" si="2"/>
+        <f>B32+1</f>
         <v>31</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E33" s="36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>40</v>
@@ -2711,240 +2723,240 @@
       <c r="H33" s="40">
         <v>1</v>
       </c>
-      <c r="I33" s="12" t="s">
-        <v>86</v>
+      <c r="I33" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K33" s="47">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>E33*F33</f>
+        <v>16</v>
       </c>
       <c r="L33" s="48">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+        <f>ROUND(K33/28,1)</f>
+        <v>0.6</v>
       </c>
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B34" s="14">
-        <f t="shared" si="2"/>
+        <f>B33+1</f>
         <v>32</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="35">
+      <c r="C34" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="36">
         <v>8</v>
       </c>
-      <c r="F34" s="42">
-        <v>6</v>
-      </c>
-      <c r="G34" s="35" t="s">
+      <c r="F34" s="43">
+        <v>3</v>
+      </c>
+      <c r="G34" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H34" s="40">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K34" s="47">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>E34*F34</f>
+        <v>24</v>
       </c>
       <c r="L34" s="48">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
+        <f>ROUND(K34/28,1)</f>
+        <v>0.9</v>
       </c>
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B35" s="14">
-        <f t="shared" si="2"/>
+        <f>B34+1</f>
         <v>33</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="36">
-        <v>7</v>
-      </c>
-      <c r="F35" s="43">
+      <c r="E35" s="35">
         <v>8</v>
       </c>
-      <c r="G35" s="36" t="s">
-        <v>112</v>
+      <c r="F35" s="42">
+        <v>6</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="H35" s="40">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="25" t="s">
-        <v>78</v>
+      <c r="J35" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="K35" s="47">
-        <f t="shared" ref="K35:K66" si="3">E35*F35</f>
-        <v>56</v>
+        <f>E35*F35</f>
+        <v>48</v>
       </c>
       <c r="L35" s="48">
-        <f t="shared" ref="L35:L56" si="4">ROUND(K35/28,1)</f>
-        <v>2</v>
+        <f>ROUND(K35/28,1)</f>
+        <v>1.7</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B36" s="14">
-        <f t="shared" ref="B36:B67" si="5">B35+1</f>
+        <f>B35+1</f>
         <v>34</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E36" s="36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" s="43">
         <v>8</v>
       </c>
-      <c r="G36" s="35" t="s">
-        <v>40</v>
+      <c r="G36" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="H36" s="40">
-        <v>0.873</v>
-      </c>
-      <c r="I36" s="13" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K36" s="47">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>E36*F36</f>
+        <v>56</v>
       </c>
       <c r="L36" s="48">
-        <f t="shared" si="4"/>
-        <v>1.7</v>
+        <f>ROUND(K36/28,1)</f>
+        <v>2</v>
       </c>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B37" s="14">
-        <f t="shared" si="5"/>
+        <f>B36+1</f>
         <v>35</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E37" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" s="43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H37" s="40">
-        <v>0.98</v>
+        <v>0.873</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="K37" s="47">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f>E37*F37</f>
+        <v>48</v>
       </c>
       <c r="L37" s="48">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>ROUND(K37/28,1)</f>
+        <v>1.7</v>
       </c>
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B38" s="14">
-        <f t="shared" si="5"/>
+        <f>B37+1</f>
         <v>36</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="35">
-        <v>6</v>
-      </c>
-      <c r="F38" s="42">
+      <c r="E38" s="36">
+        <v>7</v>
+      </c>
+      <c r="F38" s="43">
         <v>4</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="40">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="I38" s="12" t="s">
+        <v>0.98</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J38" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K38" s="47">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f>E38*F38</f>
+        <v>28</v>
       </c>
       <c r="L38" s="48">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
+        <f>ROUND(K38/28,1)</f>
+        <v>1</v>
       </c>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B39" s="14">
-        <f t="shared" si="5"/>
+        <f>B38+1</f>
         <v>37</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="E39" s="35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H39" s="40">
-        <v>0.95</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>86</v>
@@ -2953,118 +2965,118 @@
         <v>82</v>
       </c>
       <c r="K39" s="47">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f>E39*F39</f>
+        <v>24</v>
       </c>
       <c r="L39" s="48">
-        <f t="shared" si="4"/>
-        <v>1.4</v>
+        <f>ROUND(K39/28,1)</f>
+        <v>0.9</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B40" s="14">
-        <f t="shared" si="5"/>
+        <f>B39+1</f>
         <v>38</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="25" t="s">
+      <c r="C40" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E40" s="35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F40" s="42">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G40" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="40">
+        <v>0.95</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="40">
-        <v>0.83</v>
-      </c>
-      <c r="I40" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>81</v>
+      <c r="J40" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K40" s="47">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f>E40*F40</f>
+        <v>40</v>
       </c>
       <c r="L40" s="48">
-        <f t="shared" si="4"/>
-        <v>5.4</v>
+        <f>ROUND(K40/28,1)</f>
+        <v>1.4</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="29.25" customHeight="1">
       <c r="B41" s="14">
-        <f t="shared" si="5"/>
+        <f>B40+1</f>
         <v>39</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="36">
-        <v>5</v>
-      </c>
-      <c r="F41" s="43">
-        <v>4</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>40</v>
+      <c r="C41" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="35">
+        <v>10</v>
+      </c>
+      <c r="F41" s="42">
+        <v>15</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="H41" s="40">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="I41" s="12" t="s">
+        <v>0.83</v>
+      </c>
+      <c r="I41" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="30" t="s">
-        <v>79</v>
+      <c r="J41" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K41" s="47">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>E41*F41</f>
+        <v>150</v>
       </c>
       <c r="L41" s="48">
-        <f t="shared" si="4"/>
-        <v>0.7</v>
+        <f>ROUND(K41/28,1)</f>
+        <v>5.4</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" ht="26.25" customHeight="1">
       <c r="B42" s="14">
-        <f t="shared" si="5"/>
+        <f>B41+1</f>
         <v>40</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="C42" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="36">
+        <v>5</v>
+      </c>
+      <c r="F42" s="43">
         <v>4</v>
       </c>
-      <c r="F42" s="42">
-        <v>4</v>
-      </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H42" s="40">
-        <v>0.99</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>86</v>
@@ -3073,12 +3085,12 @@
         <v>79</v>
       </c>
       <c r="K42" s="47">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f>E42*F42</f>
+        <v>20</v>
       </c>
       <c r="L42" s="48">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
+        <f>ROUND(K42/28,1)</f>
+        <v>0.7</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="8"/>
@@ -3086,40 +3098,40 @@
     <row r="43" spans="1:14" ht="26.25" customHeight="1">
       <c r="A43" s="99"/>
       <c r="B43" s="14">
-        <f t="shared" si="5"/>
+        <f>B42+1</f>
         <v>41</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="36">
-        <v>9</v>
-      </c>
-      <c r="F43" s="43">
-        <v>10</v>
-      </c>
-      <c r="G43" s="36" t="s">
+      <c r="C43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="35">
+        <v>4</v>
+      </c>
+      <c r="F43" s="42">
+        <v>4</v>
+      </c>
+      <c r="G43" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H43" s="40">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>61</v>
+        <v>0.99</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="J43" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K43" s="47">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f>E43*F43</f>
+        <v>16</v>
       </c>
       <c r="L43" s="48">
-        <f t="shared" si="4"/>
-        <v>3.2</v>
+        <f>ROUND(K43/28,1)</f>
+        <v>0.6</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="8"/>
@@ -3127,186 +3139,186 @@
     <row r="44" spans="1:14" ht="26.25" customHeight="1">
       <c r="A44" s="99"/>
       <c r="B44" s="14">
-        <f t="shared" si="5"/>
+        <f>B43+1</f>
         <v>42</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D44" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="36">
+        <v>9</v>
+      </c>
+      <c r="F44" s="43">
         <v>10</v>
       </c>
-      <c r="E44" s="36">
-        <v>10</v>
-      </c>
-      <c r="F44" s="43">
-        <v>3</v>
-      </c>
       <c r="G44" s="36" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H44" s="40">
-        <v>0.82699999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="J44" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K44" s="47">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f>E44*F44</f>
+        <v>90</v>
       </c>
       <c r="L44" s="48">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
+        <f>ROUND(K44/28,1)</f>
+        <v>3.2</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" ht="26.25" customHeight="1">
       <c r="B45" s="14">
-        <f t="shared" si="5"/>
+        <f>B44+1</f>
         <v>43</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="12" t="s">
+      <c r="C45" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="35">
-        <v>8</v>
-      </c>
-      <c r="F45" s="42">
-        <v>6</v>
-      </c>
-      <c r="G45" s="35" t="s">
+      <c r="E45" s="36">
+        <v>10</v>
+      </c>
+      <c r="F45" s="43">
+        <v>3</v>
+      </c>
+      <c r="G45" s="36" t="s">
         <v>86</v>
       </c>
       <c r="H45" s="40">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="I45" s="12" t="s">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K45" s="47">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>E45*F45</f>
+        <v>30</v>
       </c>
       <c r="L45" s="48">
-        <f t="shared" si="4"/>
-        <v>1.7</v>
+        <f>ROUND(K45/28,1)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" ht="25.5">
       <c r="B46" s="14">
-        <f t="shared" si="5"/>
+        <f>B45+1</f>
         <v>44</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="36">
-        <v>5</v>
-      </c>
-      <c r="F46" s="43">
-        <v>3</v>
-      </c>
-      <c r="G46" s="36" t="s">
+      <c r="C46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="35">
+        <v>8</v>
+      </c>
+      <c r="F46" s="42">
+        <v>6</v>
+      </c>
+      <c r="G46" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="41">
-        <v>0.87</v>
+      <c r="H46" s="40">
+        <v>0.88400000000000001</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J46" s="25" t="s">
-        <v>84</v>
+      <c r="J46" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="K46" s="47">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f>E46*F46</f>
+        <v>48</v>
       </c>
       <c r="L46" s="48">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
+        <f>ROUND(K46/28,1)</f>
+        <v>1.7</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" ht="25.5">
+    <row r="47" spans="1:14">
       <c r="B47" s="14">
-        <f t="shared" si="5"/>
+        <f>B46+1</f>
         <v>45</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="12" t="s">
+      <c r="C47" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="36">
         <v>5</v>
       </c>
-      <c r="F47" s="42">
-        <v>9</v>
-      </c>
-      <c r="G47" s="35" t="s">
+      <c r="F47" s="43">
+        <v>3</v>
+      </c>
+      <c r="G47" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H47" s="40">
-        <v>0.78</v>
+      <c r="H47" s="41">
+        <v>0.87</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J47" s="30" t="s">
+      <c r="J47" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K47" s="47">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f>E47*F47</f>
+        <v>15</v>
       </c>
       <c r="L47" s="48">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
+        <f>ROUND(K47/28,1)</f>
+        <v>0.5</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" ht="25.5">
       <c r="B48" s="14">
-        <f t="shared" si="5"/>
+        <f>B47+1</f>
         <v>46</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="13" t="s">
+      <c r="C48" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="35">
         <v>5</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="42">
         <v>9</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H48" s="40">
-        <v>0.89300000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>86</v>
@@ -3315,104 +3327,104 @@
         <v>84</v>
       </c>
       <c r="K48" s="47">
-        <f t="shared" si="3"/>
+        <f>E48*F48</f>
         <v>45</v>
       </c>
       <c r="L48" s="48">
-        <f t="shared" si="4"/>
+        <f>ROUND(K48/28,1)</f>
         <v>1.6</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" ht="25.5">
+    <row r="49" spans="1:14">
       <c r="B49" s="14">
-        <f t="shared" si="5"/>
+        <f>B48+1</f>
         <v>47</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E49" s="36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F49" s="43">
-        <v>6</v>
-      </c>
-      <c r="G49" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="35" t="s">
         <v>112</v>
       </c>
       <c r="H49" s="40">
-        <v>0.95299999999999996</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J49" s="25" t="s">
-        <v>194</v>
+      <c r="J49" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="K49" s="47">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>E49*F49</f>
+        <v>45</v>
       </c>
       <c r="L49" s="48">
-        <f t="shared" si="4"/>
-        <v>1.7</v>
+        <f>ROUND(K49/28,1)</f>
+        <v>1.6</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14" ht="25.5">
       <c r="B50" s="14">
-        <f t="shared" si="5"/>
+        <f>B49+1</f>
         <v>48</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="E50" s="36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50" s="43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H50" s="40">
-        <v>1</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>65</v>
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="K50" s="47">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>E50*F50</f>
+        <v>48</v>
       </c>
       <c r="L50" s="48">
-        <f t="shared" si="4"/>
-        <v>0.7</v>
+        <f>ROUND(K50/28,1)</f>
+        <v>1.7</v>
       </c>
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:14" ht="25.5">
       <c r="B51" s="14">
-        <f t="shared" si="5"/>
+        <f>B50+1</f>
         <v>49</v>
       </c>
-      <c r="C51" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="25" t="s">
+      <c r="C51" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="36">
@@ -3421,11 +3433,11 @@
       <c r="F51" s="43">
         <v>4</v>
       </c>
-      <c r="G51" s="35" t="s">
+      <c r="G51" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H51" s="40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>65</v>
@@ -3434,24 +3446,24 @@
         <v>79</v>
       </c>
       <c r="K51" s="47">
-        <f t="shared" si="3"/>
+        <f>E51*F51</f>
         <v>20</v>
       </c>
       <c r="L51" s="48">
-        <f t="shared" si="4"/>
+        <f>ROUND(K51/28,1)</f>
         <v>0.7</v>
       </c>
       <c r="M51" s="7"/>
     </row>
     <row r="52" spans="1:14" ht="25.5">
       <c r="B52" s="14">
-        <f t="shared" si="5"/>
+        <f>B51+1</f>
         <v>50</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="56" t="s">
+      <c r="C52" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="65" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="24">
@@ -3460,73 +3472,73 @@
       <c r="F52" s="24">
         <v>4</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="52" t="s">
         <v>40</v>
       </c>
       <c r="H52" s="53">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="I52" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="J52" s="23" t="s">
+      <c r="J52" s="65" t="s">
         <v>79</v>
       </c>
       <c r="K52" s="47">
-        <f t="shared" si="3"/>
+        <f>E52*F52</f>
         <v>20</v>
       </c>
       <c r="L52" s="48">
-        <f t="shared" si="4"/>
+        <f>ROUND(K52/28,1)</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="25.5">
       <c r="B53" s="14">
-        <f t="shared" si="5"/>
+        <f>B52+1</f>
         <v>51</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="56" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="24">
         <v>5</v>
       </c>
       <c r="F53" s="24">
-        <v>7</v>
-      </c>
-      <c r="G53" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="101">
-        <v>0.97</v>
-      </c>
-      <c r="I53" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="J53" s="56" t="s">
-        <v>82</v>
+      <c r="H53" s="53">
+        <v>0.93</v>
+      </c>
+      <c r="I53" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="K53" s="47">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f>E53*F53</f>
+        <v>20</v>
       </c>
       <c r="L53" s="48">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
+        <f>ROUND(K53/28,1)</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
       <c r="A54" s="7"/>
       <c r="B54" s="14">
-        <f t="shared" si="5"/>
+        <f>B53+1</f>
         <v>52</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D54" s="55" t="s">
         <v>7</v>
@@ -3535,76 +3547,76 @@
         <v>5</v>
       </c>
       <c r="F54" s="24">
-        <v>4</v>
-      </c>
-      <c r="G54" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="53">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="I54" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J54" s="65" t="s">
-        <v>79</v>
+      <c r="H54" s="101">
+        <v>0.97</v>
+      </c>
+      <c r="I54" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="J54" s="56" t="s">
+        <v>82</v>
       </c>
       <c r="K54" s="47">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>E54*F54</f>
+        <v>35</v>
       </c>
       <c r="L54" s="48">
-        <f t="shared" si="4"/>
-        <v>0.7</v>
+        <f>ROUND(K54/28,1)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="25.5">
       <c r="A55" s="7"/>
       <c r="B55" s="14">
-        <f t="shared" si="5"/>
+        <f>B54+1</f>
         <v>53</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="56" t="s">
+      <c r="C55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="52">
-        <v>11</v>
-      </c>
-      <c r="F55" s="52">
+      <c r="E55" s="24">
+        <v>5</v>
+      </c>
+      <c r="F55" s="24">
         <v>4</v>
       </c>
-      <c r="G55" s="52" t="s">
-        <v>86</v>
+      <c r="G55" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H55" s="53">
-        <v>0.751</v>
-      </c>
-      <c r="I55" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>83</v>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I55" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" s="65" t="s">
+        <v>79</v>
       </c>
       <c r="K55" s="47">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f>E55*F55</f>
+        <v>20</v>
       </c>
       <c r="L55" s="48">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
+        <f>ROUND(K55/28,1)</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="25.5">
       <c r="A56" s="7"/>
       <c r="B56" s="14">
-        <f t="shared" si="5"/>
+        <f>B55+1</f>
         <v>54</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D56" s="56" t="s">
         <v>7</v>
@@ -3619,7 +3631,7 @@
         <v>86</v>
       </c>
       <c r="H56" s="53">
-        <v>0.746</v>
+        <v>0.751</v>
       </c>
       <c r="I56" s="56" t="s">
         <v>86</v>
@@ -3628,658 +3640,658 @@
         <v>83</v>
       </c>
       <c r="K56" s="47">
-        <f t="shared" si="3"/>
+        <f>E56*F56</f>
         <v>44</v>
       </c>
       <c r="L56" s="48">
-        <f t="shared" si="4"/>
+        <f>ROUND(K56/28,1)</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="25.5">
       <c r="A57" s="7"/>
       <c r="B57" s="14">
-        <f t="shared" si="5"/>
+        <f>B56+1</f>
         <v>55</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="35">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F57" s="42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H57" s="40">
-        <v>0.96</v>
+        <v>0.746</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="J57" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="K57" s="47">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="L57" s="28"/>
-    </row>
-    <row r="58" spans="1:14">
+        <f>E57*F57</f>
+        <v>44</v>
+      </c>
+      <c r="L57" s="48">
+        <f>ROUND(K57/28,1)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="25.5">
       <c r="A58" s="7"/>
       <c r="B58" s="14">
-        <f t="shared" si="5"/>
+        <f>B57+1</f>
         <v>56</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E58" s="35">
+        <v>3</v>
+      </c>
+      <c r="F58" s="42">
         <v>5</v>
-      </c>
-      <c r="F58" s="42">
-        <v>2</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>112</v>
       </c>
       <c r="H58" s="40">
-        <v>0.82599999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="30" t="s">
-        <v>193</v>
+        <v>163</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="K58" s="47">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="L58" s="48">
-        <f t="shared" ref="L58:L91" si="6">ROUND(K58/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="25.5">
+        <f>E58*F58</f>
+        <v>15</v>
+      </c>
+      <c r="L58" s="28"/>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
-        <f t="shared" si="5"/>
+        <f>B58+1</f>
         <v>57</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="65" t="s">
-        <v>141</v>
+      <c r="C59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="56" t="s">
+        <v>16</v>
       </c>
       <c r="E59" s="52">
         <v>5</v>
       </c>
       <c r="F59" s="52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="105">
-        <v>0.93</v>
-      </c>
-      <c r="I59" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="J59" s="65" t="s">
-        <v>82</v>
+        <v>112</v>
+      </c>
+      <c r="H59" s="53">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I59" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="K59" s="47">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f>E59*F59</f>
+        <v>10</v>
       </c>
       <c r="L59" s="48">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f>ROUND(K59/28,1)</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="25.5">
       <c r="A60" s="7"/>
       <c r="B60" s="14">
-        <f t="shared" si="5"/>
+        <f>B59+1</f>
         <v>58</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>18</v>
+      <c r="C60" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="E60" s="35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F60" s="42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" s="40">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J60" s="30" t="s">
-        <v>83</v>
+        <v>40</v>
+      </c>
+      <c r="H60" s="107">
+        <v>0.93</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K60" s="47">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>E60*F60</f>
+        <v>15</v>
       </c>
       <c r="L60" s="48">
-        <f t="shared" si="6"/>
-        <v>1.7</v>
+        <f>ROUND(K60/28,1)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="25.5">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
-        <f t="shared" si="5"/>
+        <f>B60+1</f>
         <v>59</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>196</v>
+      <c r="C61" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="36">
-        <v>4</v>
-      </c>
-      <c r="F61" s="43">
+      <c r="E61" s="35">
+        <v>8</v>
+      </c>
+      <c r="F61" s="42">
         <v>6</v>
       </c>
-      <c r="G61" s="36" t="s">
+      <c r="G61" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="40">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I61" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H61" s="40">
-        <v>0.91</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>198</v>
-      </c>
       <c r="J61" s="30" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="K61" s="47">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f>E61*F61</f>
+        <v>48</v>
       </c>
       <c r="L61" s="48">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
+        <f>ROUND(K61/28,1)</f>
+        <v>1.7</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="25.5">
       <c r="A62" s="7"/>
       <c r="B62" s="14">
-        <f t="shared" si="5"/>
+        <f>B61+1</f>
         <v>60</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F62" s="24">
         <v>6</v>
       </c>
-      <c r="G62" s="42" t="s">
-        <v>112</v>
+      <c r="G62" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="H62" s="40">
-        <v>0.91800000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="J62" s="30" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K62" s="47">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>E62*F62</f>
+        <v>24</v>
       </c>
       <c r="L62" s="48">
-        <f t="shared" si="6"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <f>ROUND(K62/28,1)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="25.5">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
-        <f t="shared" si="5"/>
+        <f>B62+1</f>
         <v>61</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" s="42">
-        <v>7</v>
-      </c>
-      <c r="F63" s="42">
-        <v>5</v>
+      <c r="C63" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="43">
+        <v>8</v>
+      </c>
+      <c r="F63" s="43">
+        <v>6</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H63" s="40">
-        <v>1</v>
-      </c>
-      <c r="I63" s="12" t="s">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I63" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J63" s="25" t="s">
+      <c r="J63" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K63" s="47">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f>E63*F63</f>
+        <v>48</v>
       </c>
       <c r="L63" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="25.5">
+        <f>ROUND(K63/28,1)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="7"/>
       <c r="B64" s="14">
-        <f t="shared" si="5"/>
+        <f>B63+1</f>
         <v>62</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>76</v>
+      <c r="C64" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="E64" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F64" s="42">
-        <v>2</v>
-      </c>
-      <c r="G64" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H64" s="40">
-        <v>0.74</v>
-      </c>
-      <c r="I64" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J64" s="30" t="s">
-        <v>81</v>
+      <c r="J64" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K64" s="47">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f>E64*F64</f>
+        <v>35</v>
       </c>
       <c r="L64" s="48">
-        <f t="shared" si="6"/>
-        <v>0.4</v>
+        <f>ROUND(K64/28,1)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="25.5">
       <c r="A65" s="7"/>
       <c r="B65" s="14">
-        <f t="shared" si="5"/>
+        <f>B64+1</f>
         <v>63</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="13" t="s">
+      <c r="C65" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="35">
         <v>6</v>
       </c>
-      <c r="F65" s="43">
-        <v>6</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>112</v>
+      <c r="F65" s="42">
+        <v>2</v>
+      </c>
+      <c r="G65" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="H65" s="40">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="I65" s="13" t="s">
+        <v>0.74</v>
+      </c>
+      <c r="I65" s="39" t="s">
         <v>86</v>
       </c>
       <c r="J65" s="30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K65" s="47">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <f>E65*F65</f>
+        <v>12</v>
       </c>
       <c r="L65" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="38.25">
+        <f>ROUND(K65/28,1)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="25.5">
       <c r="A66" s="7"/>
       <c r="B66" s="35">
-        <f t="shared" si="5"/>
+        <f>B65+1</f>
         <v>64</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="35">
+      <c r="C66" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="36">
         <v>6</v>
       </c>
-      <c r="F66" s="42">
-        <v>7</v>
+      <c r="F66" s="43">
+        <v>6</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H66" s="40">
-        <v>1</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>122</v>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="J66" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K66" s="47">
-        <f t="shared" si="3"/>
-        <v>42</v>
+        <f>E66*F66</f>
+        <v>36</v>
       </c>
       <c r="L66" s="48">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="38.25">
+        <f>ROUND(K66/28,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="25.5">
       <c r="A67" s="7"/>
       <c r="B67" s="35">
-        <f t="shared" si="5"/>
+        <f>B66+1</f>
         <v>65</v>
       </c>
-      <c r="C67" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>27</v>
+      <c r="C67" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="E67" s="35">
+        <v>5</v>
+      </c>
+      <c r="F67" s="42">
         <v>4</v>
-      </c>
-      <c r="F67" s="42">
-        <v>5</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H67" s="40">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J67" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J67" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K67" s="47">
-        <f t="shared" ref="K67:K91" si="7">E67*F67</f>
+        <f>E67*F67</f>
         <v>20</v>
       </c>
       <c r="L67" s="48">
-        <f t="shared" si="6"/>
+        <f>ROUND(K67/28,1)</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="38.25">
       <c r="A68" s="7"/>
       <c r="B68" s="35">
-        <f t="shared" ref="B68:B91" si="8">B67+1</f>
+        <f>B67+1</f>
         <v>66</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E68" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F68" s="42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H68" s="40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J68" s="25" t="s">
+      <c r="J68" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K68" s="47">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f>E68*F68</f>
+        <v>42</v>
       </c>
       <c r="L68" s="48">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <f>ROUND(K68/28,1)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="38.25">
       <c r="A69" s="7"/>
       <c r="B69" s="35">
-        <f t="shared" si="8"/>
+        <f>B68+1</f>
         <v>67</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>35</v>
+      <c r="C69" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="E69" s="35">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F69" s="42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H69" s="40">
-        <v>0.90800000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J69" s="30" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="J69" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K69" s="47">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f>E69*F69</f>
+        <v>20</v>
       </c>
       <c r="L69" s="48">
-        <f t="shared" si="6"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="25.5">
+        <f>ROUND(K69/28,1)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="38.25">
       <c r="A70" s="7"/>
       <c r="B70" s="35">
-        <f t="shared" si="8"/>
+        <f>B69+1</f>
         <v>68</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="43">
-        <v>6</v>
-      </c>
-      <c r="F70" s="43">
+      <c r="C70" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="42">
         <v>4</v>
       </c>
-      <c r="G70" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H70" s="41">
-        <v>0.93</v>
+      <c r="F70" s="42">
+        <v>5</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="40">
+        <v>0.98</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="K70" s="47">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f>E70*F70</f>
+        <v>20</v>
       </c>
       <c r="L70" s="48">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="26.25">
+        <f>ROUND(K70/28,1)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="35">
-        <f t="shared" si="8"/>
+        <f>B70+1</f>
         <v>69</v>
       </c>
-      <c r="C71" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>119</v>
+      <c r="C71" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="E71" s="35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F71" s="42">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H71" s="40">
-        <v>0.91</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I71" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J71" s="25" t="s">
-        <v>82</v>
+      <c r="J71" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="K71" s="47">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f>E71*F71</f>
+        <v>80</v>
       </c>
       <c r="L71" s="48">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <f>ROUND(K71/28,1)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="25.5">
       <c r="A72" s="7"/>
       <c r="B72" s="35">
-        <f t="shared" si="8"/>
+        <f>B71+1</f>
         <v>70</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="E72" s="36">
         <v>6</v>
       </c>
       <c r="F72" s="43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H72" s="40">
-        <v>0.97</v>
+      <c r="H72" s="41">
+        <v>0.93</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J72" s="25" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="K72" s="47">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f>E72*F72</f>
+        <v>24</v>
       </c>
       <c r="L72" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <f>ROUND(K72/28,1)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="26.25">
       <c r="A73" s="7"/>
       <c r="B73" s="35">
-        <f t="shared" si="8"/>
+        <f>B72+1</f>
         <v>71</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="55" t="s">
-        <v>130</v>
+      <c r="C73" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="65" t="s">
+        <v>119</v>
       </c>
       <c r="E73" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" s="52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G73" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H73" s="53">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="I73" s="56" t="s">
         <v>86</v>
@@ -4288,64 +4300,64 @@
         <v>82</v>
       </c>
       <c r="K73" s="47">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f>E73*F73</f>
+        <v>15</v>
       </c>
       <c r="L73" s="49">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="25.5">
+        <f>ROUND(K73/28,1)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="7"/>
       <c r="B74" s="14">
-        <f t="shared" si="8"/>
+        <f>B73+1</f>
         <v>72</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" s="35">
+      <c r="C74" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="36">
         <v>6</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="43">
         <v>6</v>
       </c>
-      <c r="G74" s="35" t="s">
-        <v>86</v>
+      <c r="G74" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="H74" s="40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K74" s="47">
-        <f t="shared" si="7"/>
+        <f>E74*F74</f>
         <v>36</v>
       </c>
       <c r="L74" s="48">
-        <f t="shared" si="6"/>
+        <f>ROUND(K74/28,1)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7"/>
       <c r="B75" s="14">
-        <f t="shared" si="8"/>
+        <f>B74+1</f>
         <v>73</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E75" s="52">
         <v>6</v>
@@ -4357,7 +4369,7 @@
         <v>112</v>
       </c>
       <c r="H75" s="53">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="I75" s="56" t="s">
         <v>86</v>
@@ -4366,154 +4378,154 @@
         <v>82</v>
       </c>
       <c r="K75" s="47">
-        <f t="shared" si="7"/>
+        <f>E75*F75</f>
         <v>36</v>
       </c>
       <c r="L75" s="48">
-        <f t="shared" si="6"/>
+        <f>ROUND(K75/28,1)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" ht="25.5">
       <c r="A76" s="7"/>
       <c r="B76" s="14">
-        <f t="shared" si="8"/>
+        <f>B75+1</f>
         <v>74</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E76" s="24">
-        <v>9</v>
-      </c>
-      <c r="F76" s="24">
+      <c r="C76" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" s="52">
         <v>6</v>
       </c>
+      <c r="F76" s="52">
+        <v>6</v>
+      </c>
       <c r="G76" s="52" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H76" s="53">
         <v>1</v>
       </c>
-      <c r="I76" s="55" t="s">
+      <c r="I76" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J76" s="23" t="s">
-        <v>82</v>
+      <c r="J76" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K76" s="47">
-        <f t="shared" si="7"/>
-        <v>54</v>
+        <f>E76*F76</f>
+        <v>36</v>
       </c>
       <c r="L76" s="48">
-        <f t="shared" si="6"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="25.5">
+        <f>ROUND(K76/28,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="7"/>
       <c r="B77" s="14">
-        <f t="shared" si="8"/>
+        <f>B76+1</f>
         <v>75</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" s="43">
-        <v>7</v>
-      </c>
-      <c r="F77" s="43">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="E77" s="42">
+        <v>6</v>
+      </c>
+      <c r="F77" s="42">
+        <v>6</v>
       </c>
       <c r="G77" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H77" s="40">
-        <v>0.97499999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J77" s="30" t="s">
+      <c r="J77" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K77" s="47">
-        <f t="shared" si="7"/>
-        <v>28</v>
+        <f>E77*F77</f>
+        <v>36</v>
       </c>
       <c r="L77" s="48">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>ROUND(K77/28,1)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="7"/>
       <c r="B78" s="14">
-        <f t="shared" si="8"/>
+        <f>B77+1</f>
         <v>76</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>124</v>
+      <c r="C78" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="D78" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E78" s="52">
-        <v>10</v>
-      </c>
-      <c r="F78" s="52">
-        <v>8</v>
+      <c r="E78" s="24">
+        <v>9</v>
+      </c>
+      <c r="F78" s="24">
+        <v>6</v>
       </c>
       <c r="G78" s="52" t="s">
         <v>40</v>
       </c>
       <c r="H78" s="53">
-        <v>0.98</v>
-      </c>
-      <c r="I78" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J78" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K78" s="47">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f>E78*F78</f>
+        <v>54</v>
       </c>
       <c r="L78" s="48">
-        <f t="shared" si="6"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <f>ROUND(K78/28,1)</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="25.5">
       <c r="A79" s="7"/>
       <c r="B79" s="14">
-        <f t="shared" si="8"/>
+        <f>B78+1</f>
         <v>77</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="12" t="s">
+      <c r="C79" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E79" s="35">
-        <v>10</v>
-      </c>
-      <c r="F79" s="42">
-        <v>8</v>
+      <c r="E79" s="36">
+        <v>7</v>
+      </c>
+      <c r="F79" s="43">
+        <v>4</v>
       </c>
       <c r="G79" s="35" t="s">
         <v>112</v>
       </c>
       <c r="H79" s="40">
-        <v>0.90500000000000003</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>86</v>
@@ -4522,76 +4534,76 @@
         <v>82</v>
       </c>
       <c r="K79" s="47">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f>E79*F79</f>
+        <v>28</v>
       </c>
       <c r="L79" s="48">
-        <f t="shared" si="6"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="25.5">
+        <f>ROUND(K79/28,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="7"/>
       <c r="B80" s="14">
-        <f t="shared" si="8"/>
+        <f>B79+1</f>
         <v>78</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>136</v>
+      <c r="C80" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="24">
-        <v>4</v>
-      </c>
-      <c r="F80" s="24">
-        <v>3</v>
-      </c>
-      <c r="G80" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" s="52">
+        <v>10</v>
+      </c>
+      <c r="F80" s="52">
+        <v>8</v>
+      </c>
+      <c r="G80" s="52" t="s">
         <v>40</v>
       </c>
       <c r="H80" s="53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I80" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J80" s="65" t="s">
+      <c r="J80" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K80" s="47">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f>E80*F80</f>
+        <v>80</v>
       </c>
       <c r="L80" s="48">
-        <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="25.5">
+        <f>ROUND(K80/28,1)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="7"/>
       <c r="B81" s="14">
-        <f t="shared" si="8"/>
+        <f>B80+1</f>
         <v>79</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E81" s="52">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F81" s="52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G81" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H81" s="53">
-        <v>0.88900000000000001</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I81" s="56" t="s">
         <v>86</v>
@@ -4600,115 +4612,115 @@
         <v>82</v>
       </c>
       <c r="K81" s="47">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f>E81*F81</f>
+        <v>80</v>
       </c>
       <c r="L81" s="48">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f>ROUND(K81/28,1)</f>
+        <v>2.9</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="25.5">
       <c r="A82" s="7"/>
       <c r="B82" s="14">
-        <f t="shared" si="8"/>
+        <f>B81+1</f>
         <v>80</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="52">
+      <c r="C82" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="24">
         <v>4</v>
       </c>
-      <c r="F82" s="52">
-        <v>6</v>
-      </c>
-      <c r="G82" s="52" t="s">
-        <v>112</v>
+      <c r="F82" s="24">
+        <v>3</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H82" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I82" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J82" s="23" t="s">
+      <c r="J82" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K82" s="47">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f>E82*F82</f>
+        <v>12</v>
       </c>
       <c r="L82" s="48">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="25.5">
+        <f>ROUND(K82/28,1)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="26.25">
       <c r="A83" s="7"/>
       <c r="B83" s="14">
-        <f t="shared" si="8"/>
+        <f>B82+1</f>
         <v>81</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D83" s="56" t="s">
+      <c r="C83" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" s="88" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="52">
         <v>4</v>
       </c>
       <c r="F83" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G83" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H83" s="53">
-        <v>0.83299999999999996</v>
+        <v>1</v>
       </c>
       <c r="I83" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J83" s="23" t="s">
+      <c r="J83" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K83" s="47">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f>E83*F83</f>
+        <v>16</v>
       </c>
       <c r="L83" s="48">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
+        <f>ROUND(K83/28,1)</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="25.5">
       <c r="A84" s="7"/>
       <c r="B84" s="14">
-        <f t="shared" si="8"/>
+        <f>B83+1</f>
         <v>82</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" s="55" t="s">
+      <c r="C84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="24">
-        <v>4</v>
-      </c>
-      <c r="F84" s="24">
-        <v>3</v>
+      <c r="E84" s="52">
+        <v>7</v>
+      </c>
+      <c r="F84" s="52">
+        <v>6</v>
       </c>
       <c r="G84" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H84" s="53">
-        <v>1</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I84" s="56" t="s">
         <v>86</v>
@@ -4717,271 +4729,271 @@
         <v>82</v>
       </c>
       <c r="K84" s="47">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f>E84*F84</f>
+        <v>42</v>
       </c>
       <c r="L84" s="48">
-        <f t="shared" si="6"/>
-        <v>0.4</v>
+        <f>ROUND(K84/28,1)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="25.5">
       <c r="A85" s="7"/>
       <c r="B85" s="14">
-        <f t="shared" si="8"/>
+        <f>B84+1</f>
         <v>83</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" s="24">
-        <v>5</v>
-      </c>
-      <c r="F85" s="24">
-        <v>5</v>
+      <c r="C85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="52">
+        <v>4</v>
+      </c>
+      <c r="F85" s="52">
+        <v>6</v>
       </c>
       <c r="G85" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H85" s="53">
-        <v>0.88</v>
-      </c>
-      <c r="I85" s="55" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="I85" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J85" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K85" s="47">
-        <f t="shared" si="7"/>
-        <v>25</v>
+        <f>E85*F85</f>
+        <v>24</v>
       </c>
       <c r="L85" s="48">
-        <f t="shared" si="6"/>
+        <f>ROUND(K85/28,1)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" ht="25.5">
       <c r="A86" s="7"/>
       <c r="B86" s="14">
-        <f t="shared" si="8"/>
+        <f>B85+1</f>
         <v>84</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D86" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="E86" s="24">
-        <v>5</v>
-      </c>
-      <c r="F86" s="24">
+      <c r="C86" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="52">
         <v>4</v>
       </c>
-      <c r="G86" s="24" t="s">
-        <v>40</v>
+      <c r="F86" s="52">
+        <v>6</v>
+      </c>
+      <c r="G86" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="H86" s="53">
-        <v>0.89900000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="I86" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J86" s="23" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K86" s="47">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f>E86*F86</f>
+        <v>24</v>
       </c>
       <c r="L86" s="48">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
+        <f>ROUND(K86/28,1)</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="25.5">
       <c r="A87" s="7"/>
       <c r="B87" s="14">
-        <f t="shared" si="8"/>
+        <f>B86+1</f>
         <v>85</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="52">
-        <v>6</v>
-      </c>
-      <c r="F87" s="52">
-        <v>6</v>
+      <c r="C87" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="24">
+        <v>4</v>
+      </c>
+      <c r="F87" s="24">
+        <v>3</v>
       </c>
       <c r="G87" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H87" s="53">
-        <v>0.88900000000000001</v>
+        <v>1</v>
       </c>
       <c r="I87" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J87" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K87" s="47">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f>E87*F87</f>
+        <v>12</v>
       </c>
       <c r="L87" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <f>ROUND(K87/28,1)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="25.5">
       <c r="A88" s="7"/>
       <c r="B88" s="14">
-        <f t="shared" si="8"/>
+        <f>B87+1</f>
         <v>86</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E88" s="52">
-        <v>8</v>
-      </c>
-      <c r="F88" s="52">
-        <v>12</v>
+      <c r="C88" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="24">
+        <v>5</v>
+      </c>
+      <c r="F88" s="24">
+        <v>5</v>
       </c>
       <c r="G88" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H88" s="53">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="I88" s="56" t="s">
+        <v>0.88</v>
+      </c>
+      <c r="I88" s="55" t="s">
         <v>86</v>
       </c>
       <c r="J88" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K88" s="47">
-        <f t="shared" si="7"/>
-        <v>96</v>
+        <f>E88*F88</f>
+        <v>25</v>
       </c>
       <c r="L88" s="48">
-        <f t="shared" si="6"/>
-        <v>3.4</v>
+        <f>ROUND(K88/28,1)</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="14">
-        <f t="shared" si="8"/>
+        <f>B88+1</f>
         <v>87</v>
       </c>
-      <c r="C89" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D89" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="E89" s="52">
-        <v>8</v>
-      </c>
-      <c r="F89" s="52">
-        <v>15</v>
-      </c>
-      <c r="G89" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="H89" s="89">
-        <v>0.9</v>
-      </c>
-      <c r="I89" s="90" t="s">
+      <c r="C89" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="24">
+        <v>5</v>
+      </c>
+      <c r="F89" s="24">
+        <v>4</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" s="53">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I89" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J89" s="65" t="s">
-        <v>180</v>
+      <c r="J89" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="K89" s="47">
-        <f t="shared" si="7"/>
-        <v>120</v>
+        <f>E89*F89</f>
+        <v>20</v>
       </c>
       <c r="L89" s="48">
-        <f t="shared" si="6"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="26.25">
+        <f>ROUND(K89/28,1)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="25.5">
       <c r="A90" s="7"/>
       <c r="B90" s="14">
-        <f t="shared" si="8"/>
+        <f>B89+1</f>
         <v>88</v>
       </c>
-      <c r="C90" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="88" t="s">
-        <v>12</v>
+      <c r="C90" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="E90" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F90" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G90" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H90" s="53">
-        <v>1</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I90" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J90" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="K90" s="49">
-        <f t="shared" si="7"/>
-        <v>16</v>
+      <c r="J90" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K90" s="47">
+        <f>E90*F90</f>
+        <v>36</v>
       </c>
       <c r="L90" s="48">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="25.5">
+        <f>ROUND(K90/28,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="7"/>
       <c r="B91" s="14">
-        <f t="shared" si="8"/>
+        <f>B90+1</f>
         <v>89</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="E91" s="35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F91" s="52">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G91" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H91" s="53">
-        <v>1</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="I91" s="56" t="s">
         <v>86</v>
@@ -4990,27 +5002,52 @@
         <v>82</v>
       </c>
       <c r="K91" s="48">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f>E91*F91</f>
+        <v>96</v>
       </c>
       <c r="L91" s="48">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
+        <f>ROUND(K91/28,1)</f>
+        <v>3.4</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
+      <c r="B92" s="14">
+        <f>B91+1</f>
+        <v>90</v>
+      </c>
+      <c r="C92" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="52">
+        <v>8</v>
+      </c>
+      <c r="F92" s="52">
+        <v>15</v>
+      </c>
+      <c r="G92" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="H92" s="89">
+        <v>0.9</v>
+      </c>
+      <c r="I92" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="J92" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="K92" s="47">
+        <f>E92*F92</f>
+        <v>120</v>
+      </c>
+      <c r="L92" s="48">
+        <f>ROUND(K92/28,1)</f>
+        <v>4.3</v>
+      </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="7"/>
@@ -5686,7 +5723,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:L2">
-    <sortState ref="B3:L89">
+    <sortState ref="B3:L92">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
@@ -5794,10 +5831,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4" s="52">
         <v>4</v>
@@ -5858,7 +5895,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>152</v>
@@ -5891,10 +5928,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E7" s="42">
         <v>6</v>
@@ -5906,7 +5943,7 @@
         <v>0.78</v>
       </c>
       <c r="H7" s="95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I7" s="78">
         <f>E7*F7</f>
@@ -5924,10 +5961,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E8" s="42">
         <v>5</v>
@@ -5939,7 +5976,7 @@
         <v>0.97</v>
       </c>
       <c r="H8" s="95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I8" s="42">
         <f>E8*F8</f>
@@ -6024,7 +6061,7 @@
         <v>174</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" s="52">
         <v>8</v>
@@ -6131,7 +6168,7 @@
       <c r="F14" s="52">
         <v>4</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="106">
         <v>0.81</v>
       </c>
       <c r="H14" s="91" t="s">
@@ -6186,10 +6223,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E16" s="42">
         <v>5</v>
@@ -6230,7 +6267,7 @@
       <c r="F17" s="76">
         <v>5</v>
       </c>
-      <c r="G17" s="106">
+      <c r="G17" s="105">
         <v>0.94</v>
       </c>
       <c r="H17" s="77" t="s">
@@ -7059,7 +7096,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7080,7 +7117,7 @@
     <col min="13" max="13" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="52.5">
+    <row r="1" spans="1:14" ht="52.5">
       <c r="B1" s="7"/>
       <c r="C1" s="31" t="s">
         <v>144</v>
@@ -7095,7 +7132,7 @@
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
     </row>
-    <row r="2" spans="1:12" ht="38.25">
+    <row r="2" spans="1:14" ht="38.25">
       <c r="A2" s="10"/>
       <c r="B2" s="51" t="s">
         <v>0</v>
@@ -7131,7 +7168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="8"/>
       <c r="B3" s="14">
         <v>1</v>
@@ -7157,15 +7194,15 @@
         <v>82</v>
       </c>
       <c r="K3" s="47">
-        <f t="shared" ref="K3:K10" si="0">E3*F3</f>
+        <f t="shared" ref="K3:K7" si="0">E3*F3</f>
         <v>112</v>
       </c>
       <c r="L3" s="48">
-        <f t="shared" ref="L3:L10" si="1">ROUND(K3/28,1)</f>
+        <f t="shared" ref="L3:L7" si="1">ROUND(K3/28,1)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="8"/>
       <c r="B4" s="14">
         <f t="shared" ref="B4:B14" si="2">B3+1</f>
@@ -7175,13 +7212,13 @@
         <v>187</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E4" s="24">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F4" s="24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="53"/>
@@ -7189,266 +7226,318 @@
         <v>86</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K4" s="47">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="L4" s="48">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="25.5">
       <c r="A5" s="8"/>
       <c r="B5" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E5" s="24">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F5" s="24">
-        <v>8</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="101"/>
+      <c r="I5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="K5" s="47">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="25.5">
+        <v>0.4</v>
+      </c>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5">
       <c r="A6" s="8"/>
       <c r="B6" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="52">
-        <v>5</v>
-      </c>
-      <c r="F6" s="52">
+      <c r="C6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="36">
         <v>4</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="F6" s="24">
+        <v>4</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="H6" s="53"/>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="48">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L6" s="48">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="8"/>
       <c r="B7" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="24">
-        <v>11</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="C7" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="52">
         <v>4</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="F7" s="52">
+        <v>9</v>
+      </c>
+      <c r="G7" s="52"/>
       <c r="H7" s="53"/>
       <c r="I7" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="47">
+        <v>64</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="48">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L7" s="48">
         <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="25.5">
+        <v>1.3</v>
+      </c>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="8"/>
       <c r="B8" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>49</v>
+      <c r="C8" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="24">
         <v>4</v>
       </c>
       <c r="F8" s="24">
-        <v>3</v>
-      </c>
-      <c r="G8" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="47">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="48">
+        <f t="shared" ref="K8:K12" si="3">E8*F8</f>
+        <v>36</v>
       </c>
       <c r="L8" s="48">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="25.5">
+        <f t="shared" ref="L8:L12" si="4">ROUND(K8/28,1)</f>
+        <v>1.3</v>
+      </c>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="8"/>
       <c r="B9" s="14">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="36">
+      <c r="C9" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="52">
         <v>4</v>
       </c>
-      <c r="F9" s="24">
-        <v>4</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="F9" s="52">
+        <v>9</v>
+      </c>
+      <c r="G9" s="52"/>
       <c r="H9" s="53"/>
-      <c r="I9" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="65" t="s">
-        <v>82</v>
+      <c r="I9" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="K9" s="48">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="L9" s="48">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+    </row>
+    <row r="10" spans="1:14" ht="25.5">
       <c r="A10" s="8"/>
       <c r="B10" s="14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>63</v>
+        <v>214</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="52">
         <v>4</v>
       </c>
       <c r="F10" s="52">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G10" s="52"/>
       <c r="H10" s="53"/>
       <c r="I10" s="56" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>64</v>
       </c>
       <c r="K10" s="48">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="L10" s="48">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+    </row>
+    <row r="11" spans="1:14" ht="25.5">
       <c r="A11" s="8"/>
       <c r="B11" s="14">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="C11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="24">
+        <v>6</v>
+      </c>
+      <c r="F11" s="24">
+        <v>6</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="48">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="L11" s="48">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+    </row>
+    <row r="12" spans="1:14" ht="38.25">
       <c r="A12" s="8"/>
       <c r="B12" s="14">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="C12" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="52">
+        <v>6</v>
+      </c>
+      <c r="F12" s="52">
+        <v>6</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="48">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="L12" s="48">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="8"/>
       <c r="B13" s="14">
         <f t="shared" si="2"/>
@@ -7458,14 +7547,16 @@
       <c r="D13" s="5"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="66"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="58"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="8"/>
       <c r="B14" s="14">
         <f t="shared" si="2"/>
@@ -7481,45 +7572,49 @@
       <c r="J14" s="58"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="8"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="29"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="8"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="37"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="66"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="58"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8"/>
       <c r="B17" s="35"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="58"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -7527,38 +7622,38 @@
     <row r="18" spans="1:12">
       <c r="A18" s="8"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="66"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="58"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="35"/>
       <c r="H19" s="66"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="29"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="58"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="35"/>
       <c r="H20" s="66"/>
       <c r="I20" s="5"/>
@@ -7569,27 +7664,27 @@
     <row r="21" spans="1:12">
       <c r="A21" s="8"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="66"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="29"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="58"/>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="66"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="58"/>
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
@@ -7597,10 +7692,10 @@
     <row r="23" spans="1:12">
       <c r="A23" s="8"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="66"/>
       <c r="I23" s="5"/>
@@ -7611,10 +7706,10 @@
     <row r="24" spans="1:12">
       <c r="A24" s="8"/>
       <c r="B24" s="35"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="35"/>
       <c r="H24" s="66"/>
       <c r="I24" s="5"/>
@@ -7625,13 +7720,13 @@
     <row r="25" spans="1:12">
       <c r="A25" s="8"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="66"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="58"/>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
@@ -7653,10 +7748,10 @@
     <row r="27" spans="1:12">
       <c r="A27" s="8"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="66"/>
       <c r="I27" s="5"/>
@@ -7667,44 +7762,44 @@
     <row r="28" spans="1:12">
       <c r="A28" s="8"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="66"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="33"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="49"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="49"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="49"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="49"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8"/>
       <c r="B30" s="35"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8"/>
@@ -7718,7 +7813,7 @@
       <c r="I31" s="33"/>
       <c r="J31" s="29"/>
       <c r="K31" s="15"/>
-      <c r="L31" s="49"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="8"/>
@@ -7732,7 +7827,7 @@
       <c r="I32" s="33"/>
       <c r="J32" s="29"/>
       <c r="K32" s="15"/>
-      <c r="L32" s="49"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8"/>
@@ -7742,7 +7837,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="57"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="33"/>
       <c r="J33" s="29"/>
       <c r="K33" s="15"/>
@@ -8830,54 +8925,24 @@
     <row r="112" spans="1:12">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="15"/>
       <c r="L112" s="15"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="15"/>
       <c r="L113" s="15"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
-      <c r="L115" s="15"/>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
-      <c r="L116" s="15"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="7"/>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -1558,18 +1558,18 @@
         <v>82</v>
       </c>
       <c r="K3" s="47">
-        <f>E3*F3</f>
+        <f t="shared" ref="K3:K34" si="0">E3*F3</f>
         <v>32</v>
       </c>
       <c r="L3" s="48">
-        <f>ROUND(K3/28,1)</f>
+        <f t="shared" ref="L3:L34" si="1">ROUND(K3/28,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B4" s="14">
-        <f>B3+1</f>
+        <f t="shared" ref="B4:B35" si="2">B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1597,18 +1597,18 @@
         <v>81</v>
       </c>
       <c r="K4" s="47">
-        <f>E4*F4</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="L4" s="48">
-        <f>ROUND(K4/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B5" s="14">
-        <f>B4+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -1636,18 +1636,18 @@
         <v>79</v>
       </c>
       <c r="K5" s="47">
-        <f>E5*F5</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L5" s="48">
-        <f>ROUND(K5/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B6" s="14">
-        <f>B5+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1675,18 +1675,18 @@
         <v>79</v>
       </c>
       <c r="K6" s="47">
-        <f>E6*F6</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L6" s="48">
-        <f>ROUND(K6/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B7" s="14">
-        <f>B6+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1714,18 +1714,18 @@
         <v>79</v>
       </c>
       <c r="K7" s="47">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L7" s="48">
-        <f>ROUND(K7/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B8" s="14">
-        <f>B7+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1753,18 +1753,18 @@
         <v>79</v>
       </c>
       <c r="K8" s="47">
-        <f>E8*F8</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L8" s="48">
-        <f>ROUND(K8/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B9" s="14">
-        <f>B8+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1792,18 +1792,18 @@
         <v>79</v>
       </c>
       <c r="K9" s="47">
-        <f>E9*F9</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L9" s="48">
-        <f>ROUND(K9/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B10" s="14">
-        <f>B9+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1831,11 +1831,11 @@
         <v>79</v>
       </c>
       <c r="K10" s="47">
-        <f>E10*F10</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L10" s="48">
-        <f>ROUND(K10/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="M10" s="7"/>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="11" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B11" s="14">
-        <f>B10+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -1871,18 +1871,18 @@
         <v>79</v>
       </c>
       <c r="K11" s="47">
-        <f>E11*F11</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L11" s="48">
-        <f>ROUND(K11/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B12" s="14">
-        <f>B11+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -1910,11 +1910,11 @@
         <v>79</v>
       </c>
       <c r="K12" s="47">
-        <f>E12*F12</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L12" s="48">
-        <f>ROUND(K12/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="M12" s="3"/>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="13" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B13" s="14">
-        <f>B12+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1950,18 +1950,18 @@
         <v>82</v>
       </c>
       <c r="K13" s="47">
-        <f>E13*F13</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="L13" s="48">
-        <f>ROUND(K13/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B14" s="14">
-        <f>B13+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1989,18 +1989,18 @@
         <v>81</v>
       </c>
       <c r="K14" s="47">
-        <f>E14*F14</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L14" s="48">
-        <f>ROUND(K14/28,1)</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:14" s="8" customFormat="1" ht="27" customHeight="1">
       <c r="B15" s="14">
-        <f>B14+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2028,18 +2028,18 @@
         <v>79</v>
       </c>
       <c r="K15" s="47">
-        <f>E15*F15</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L15" s="48">
-        <f>ROUND(K15/28,1)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" s="8" customFormat="1" ht="25.5" customHeight="1">
       <c r="B16" s="14">
-        <f>B15+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -2067,18 +2067,18 @@
         <v>157</v>
       </c>
       <c r="K16" s="47">
-        <f>E16*F16</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="L16" s="48">
-        <f>ROUND(K16/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B17" s="14">
-        <f>B16+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2106,18 +2106,18 @@
         <v>157</v>
       </c>
       <c r="K17" s="47">
-        <f>E17*F17</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="L17" s="48">
-        <f>ROUND(K17/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B18" s="14">
-        <f>B17+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2145,18 +2145,18 @@
         <v>82</v>
       </c>
       <c r="K18" s="47">
-        <f>E18*F18</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L18" s="48">
-        <f>ROUND(K18/28,1)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B19" s="14">
-        <f>B18+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2184,11 +2184,11 @@
         <v>82</v>
       </c>
       <c r="K19" s="47">
-        <f>E19*F19</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L19" s="48">
-        <f>ROUND(K19/28,1)</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="M19" s="7"/>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="20" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B20" s="14">
-        <f>B19+1</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -2224,18 +2224,18 @@
         <v>109</v>
       </c>
       <c r="K20" s="47">
-        <f>E20*F20</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L20" s="48">
-        <f>ROUND(K20/28,1)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B21" s="14">
-        <f>B20+1</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -2263,18 +2263,18 @@
         <v>82</v>
       </c>
       <c r="K21" s="47">
-        <f>E21*F21</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L21" s="48">
-        <f>ROUND(K21/28,1)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B22" s="14">
-        <f>B21+1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -2302,18 +2302,18 @@
         <v>81</v>
       </c>
       <c r="K22" s="47">
-        <f>E22*F22</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="L22" s="48">
-        <f>ROUND(K22/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B23" s="14">
-        <f>B22+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -2341,18 +2341,18 @@
         <v>83</v>
       </c>
       <c r="K23" s="47">
-        <f>E23*F23</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="L23" s="48">
-        <f>ROUND(K23/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B24" s="14">
-        <f>B23+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -2380,18 +2380,18 @@
         <v>82</v>
       </c>
       <c r="K24" s="47">
-        <f>E24*F24</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="L24" s="48">
-        <f>ROUND(K24/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B25" s="14">
-        <f>B24+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -2419,18 +2419,18 @@
         <v>83</v>
       </c>
       <c r="K25" s="47">
-        <f>E25*F25</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="L25" s="48">
-        <f>ROUND(K25/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B26" s="14">
-        <f>B25+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -2458,11 +2458,11 @@
         <v>82</v>
       </c>
       <c r="K26" s="47">
-        <f>E26*F26</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L26" s="48">
-        <f>ROUND(K26/28,1)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="M26" s="3"/>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="27" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B27" s="14">
-        <f>B26+1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -2498,18 +2498,18 @@
         <v>82</v>
       </c>
       <c r="K27" s="47">
-        <f>E27*F27</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="L27" s="48">
-        <f>ROUND(K27/28,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B28" s="14">
-        <f>B27+1</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -2537,11 +2537,11 @@
         <v>64</v>
       </c>
       <c r="K28" s="47">
-        <f>E28*F28</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L28" s="48">
-        <f>ROUND(K28/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="M28" s="7"/>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="29" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B29" s="14">
-        <f>B28+1</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -2577,18 +2577,18 @@
         <v>64</v>
       </c>
       <c r="K29" s="47">
-        <f>E29*F29</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L29" s="48">
-        <f>ROUND(K29/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B30" s="14">
-        <f>B29+1</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C30" s="20" t="s">
@@ -2616,17 +2616,17 @@
         <v>64</v>
       </c>
       <c r="K30" s="47">
-        <f>E30*F30</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="L30" s="48">
-        <f>ROUND(K30/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B31" s="14">
-        <f>B30+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -2654,17 +2654,17 @@
         <v>64</v>
       </c>
       <c r="K31" s="47">
-        <f>E31*F31</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L31" s="48">
-        <f>ROUND(K31/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B32" s="14">
-        <f>B31+1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -2692,17 +2692,17 @@
         <v>64</v>
       </c>
       <c r="K32" s="47">
-        <f>E32*F32</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="L32" s="48">
-        <f>ROUND(K32/28,1)</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B33" s="14">
-        <f>B32+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -2730,18 +2730,18 @@
         <v>64</v>
       </c>
       <c r="K33" s="47">
-        <f>E33*F33</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L33" s="48">
-        <f>ROUND(K33/28,1)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B34" s="14">
-        <f>B33+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -2769,18 +2769,18 @@
         <v>82</v>
       </c>
       <c r="K34" s="47">
-        <f>E34*F34</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L34" s="48">
-        <f>ROUND(K34/28,1)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B35" s="14">
-        <f>B34+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -2808,11 +2808,11 @@
         <v>81</v>
       </c>
       <c r="K35" s="47">
-        <f>E35*F35</f>
+        <f t="shared" ref="K35:K66" si="3">E35*F35</f>
         <v>48</v>
       </c>
       <c r="L35" s="48">
-        <f>ROUND(K35/28,1)</f>
+        <f t="shared" ref="L35:L66" si="4">ROUND(K35/28,1)</f>
         <v>1.7</v>
       </c>
       <c r="M35" s="7"/>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="36" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B36" s="14">
-        <f>B35+1</f>
+        <f t="shared" ref="B36:B67" si="5">B35+1</f>
         <v>34</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -2848,18 +2848,18 @@
         <v>78</v>
       </c>
       <c r="K36" s="47">
-        <f>E36*F36</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="L36" s="48">
-        <f>ROUND(K36/28,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B37" s="14">
-        <f>B36+1</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -2887,18 +2887,18 @@
         <v>64</v>
       </c>
       <c r="K37" s="47">
-        <f>E37*F37</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="L37" s="48">
-        <f>ROUND(K37/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B38" s="14">
-        <f>B37+1</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -2926,18 +2926,18 @@
         <v>82</v>
       </c>
       <c r="K38" s="47">
-        <f>E38*F38</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="L38" s="48">
-        <f>ROUND(K38/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B39" s="14">
-        <f>B38+1</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -2965,11 +2965,11 @@
         <v>82</v>
       </c>
       <c r="K39" s="47">
-        <f>E39*F39</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L39" s="48">
-        <f>ROUND(K39/28,1)</f>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="M39" s="7"/>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="40" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B40" s="14">
-        <f>B39+1</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -3005,11 +3005,11 @@
         <v>82</v>
       </c>
       <c r="K40" s="47">
-        <f>E40*F40</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="L40" s="48">
-        <f>ROUND(K40/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
       <c r="M40" s="7"/>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="41" spans="1:14" ht="29.25" customHeight="1">
       <c r="B41" s="14">
-        <f>B40+1</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="C41" s="25" t="s">
@@ -3045,11 +3045,11 @@
         <v>81</v>
       </c>
       <c r="K41" s="47">
-        <f>E41*F41</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="L41" s="48">
-        <f>ROUND(K41/28,1)</f>
+        <f t="shared" si="4"/>
         <v>5.4</v>
       </c>
       <c r="M41" s="7"/>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="42" spans="1:14" ht="26.25" customHeight="1">
       <c r="B42" s="14">
-        <f>B41+1</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -3085,11 +3085,11 @@
         <v>79</v>
       </c>
       <c r="K42" s="47">
-        <f>E42*F42</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="L42" s="48">
-        <f>ROUND(K42/28,1)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="M42" s="7"/>
@@ -3098,7 +3098,7 @@
     <row r="43" spans="1:14" ht="26.25" customHeight="1">
       <c r="A43" s="99"/>
       <c r="B43" s="14">
-        <f>B42+1</f>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -3126,11 +3126,11 @@
         <v>79</v>
       </c>
       <c r="K43" s="47">
-        <f>E43*F43</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="L43" s="48">
-        <f>ROUND(K43/28,1)</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="M43" s="7"/>
@@ -3139,7 +3139,7 @@
     <row r="44" spans="1:14" ht="26.25" customHeight="1">
       <c r="A44" s="99"/>
       <c r="B44" s="14">
-        <f>B43+1</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -3167,11 +3167,11 @@
         <v>80</v>
       </c>
       <c r="K44" s="47">
-        <f>E44*F44</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="L44" s="48">
-        <f>ROUND(K44/28,1)</f>
+        <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
       <c r="M44" s="7"/>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="45" spans="1:14" ht="26.25" customHeight="1">
       <c r="B45" s="14">
-        <f>B44+1</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -3207,11 +3207,11 @@
         <v>82</v>
       </c>
       <c r="K45" s="47">
-        <f>E45*F45</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L45" s="48">
-        <f>ROUND(K45/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M45" s="7"/>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="46" spans="1:14" ht="25.5">
       <c r="B46" s="14">
-        <f>B45+1</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -3247,11 +3247,11 @@
         <v>64</v>
       </c>
       <c r="K46" s="47">
-        <f>E46*F46</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="L46" s="48">
-        <f>ROUND(K46/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
       <c r="M46" s="7"/>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="B47" s="14">
-        <f>B46+1</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="C47" s="13" t="s">
@@ -3287,11 +3287,11 @@
         <v>84</v>
       </c>
       <c r="K47" s="47">
-        <f>E47*F47</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="L47" s="48">
-        <f>ROUND(K47/28,1)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="M47" s="7"/>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="48" spans="1:14" ht="25.5">
       <c r="B48" s="14">
-        <f>B47+1</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="C48" s="12" t="s">
@@ -3327,11 +3327,11 @@
         <v>84</v>
       </c>
       <c r="K48" s="47">
-        <f>E48*F48</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="L48" s="48">
-        <f>ROUND(K48/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
       <c r="M48" s="7"/>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="B49" s="14">
-        <f>B48+1</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -3367,11 +3367,11 @@
         <v>84</v>
       </c>
       <c r="K49" s="47">
-        <f>E49*F49</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="L49" s="48">
-        <f>ROUND(K49/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
       <c r="M49" s="7"/>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="50" spans="1:14" ht="25.5">
       <c r="B50" s="14">
-        <f>B49+1</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -3407,18 +3407,18 @@
         <v>192</v>
       </c>
       <c r="K50" s="47">
-        <f>E50*F50</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="L50" s="48">
-        <f>ROUND(K50/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:14" ht="25.5">
       <c r="B51" s="14">
-        <f>B50+1</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -3446,18 +3446,18 @@
         <v>79</v>
       </c>
       <c r="K51" s="47">
-        <f>E51*F51</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="L51" s="48">
-        <f>ROUND(K51/28,1)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="M51" s="7"/>
     </row>
     <row r="52" spans="1:14" ht="25.5">
       <c r="B52" s="14">
-        <f>B51+1</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="C52" s="29" t="s">
@@ -3485,17 +3485,17 @@
         <v>79</v>
       </c>
       <c r="K52" s="47">
-        <f>E52*F52</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="L52" s="48">
-        <f>ROUND(K52/28,1)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="25.5">
       <c r="B53" s="14">
-        <f>B52+1</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -3523,18 +3523,18 @@
         <v>79</v>
       </c>
       <c r="K53" s="47">
-        <f>E53*F53</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="L53" s="48">
-        <f>ROUND(K53/28,1)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
       <c r="A54" s="7"/>
       <c r="B54" s="14">
-        <f>B53+1</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -3562,18 +3562,18 @@
         <v>82</v>
       </c>
       <c r="K54" s="47">
-        <f>E54*F54</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="L54" s="48">
-        <f>ROUND(K54/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="25.5">
       <c r="A55" s="7"/>
       <c r="B55" s="14">
-        <f>B54+1</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -3601,18 +3601,18 @@
         <v>79</v>
       </c>
       <c r="K55" s="47">
-        <f>E55*F55</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="L55" s="48">
-        <f>ROUND(K55/28,1)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="25.5">
       <c r="A56" s="7"/>
       <c r="B56" s="14">
-        <f>B55+1</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -3640,18 +3640,18 @@
         <v>83</v>
       </c>
       <c r="K56" s="47">
-        <f>E56*F56</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="L56" s="48">
-        <f>ROUND(K56/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="25.5">
       <c r="A57" s="7"/>
       <c r="B57" s="14">
-        <f>B56+1</f>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -3679,18 +3679,18 @@
         <v>83</v>
       </c>
       <c r="K57" s="47">
-        <f>E57*F57</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="L57" s="48">
-        <f>ROUND(K57/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="25.5">
       <c r="A58" s="7"/>
       <c r="B58" s="14">
-        <f>B57+1</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="C58" s="12" t="s">
@@ -3718,7 +3718,7 @@
         <v>79</v>
       </c>
       <c r="K58" s="47">
-        <f>E58*F58</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="L58" s="28"/>
@@ -3726,7 +3726,7 @@
     <row r="59" spans="1:14">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
-        <f>B58+1</f>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3754,18 +3754,18 @@
         <v>191</v>
       </c>
       <c r="K59" s="47">
-        <f>E59*F59</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L59" s="48">
-        <f>ROUND(K59/28,1)</f>
+        <f t="shared" ref="L59:L92" si="6">ROUND(K59/28,1)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="25.5">
       <c r="A60" s="7"/>
       <c r="B60" s="14">
-        <f>B59+1</f>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="C60" s="25" t="s">
@@ -3793,18 +3793,18 @@
         <v>82</v>
       </c>
       <c r="K60" s="47">
-        <f>E60*F60</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="L60" s="48">
-        <f>ROUND(K60/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="25.5">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
-        <f>B60+1</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="C61" s="12" t="s">
@@ -3832,18 +3832,18 @@
         <v>83</v>
       </c>
       <c r="K61" s="47">
-        <f>E61*F61</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="L61" s="48">
-        <f>ROUND(K61/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.7</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="25.5">
       <c r="A62" s="7"/>
       <c r="B62" s="14">
-        <f>B61+1</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="C62" s="13" t="s">
@@ -3871,18 +3871,18 @@
         <v>64</v>
       </c>
       <c r="K62" s="47">
-        <f>E62*F62</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L62" s="48">
-        <f>ROUND(K62/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="25.5">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
-        <f>B62+1</f>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -3910,18 +3910,18 @@
         <v>82</v>
       </c>
       <c r="K63" s="47">
-        <f>E63*F63</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="L63" s="48">
-        <f>ROUND(K63/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.7</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="7"/>
       <c r="B64" s="14">
-        <f>B63+1</f>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="C64" s="20" t="s">
@@ -3949,18 +3949,18 @@
         <v>82</v>
       </c>
       <c r="K64" s="47">
-        <f>E64*F64</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="L64" s="48">
-        <f>ROUND(K64/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="25.5">
       <c r="A65" s="7"/>
       <c r="B65" s="14">
-        <f>B64+1</f>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="C65" s="12" t="s">
@@ -3988,18 +3988,18 @@
         <v>81</v>
       </c>
       <c r="K65" s="47">
-        <f>E65*F65</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="L65" s="48">
-        <f>ROUND(K65/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="25.5">
       <c r="A66" s="7"/>
       <c r="B66" s="35">
-        <f>B65+1</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -4027,18 +4027,18 @@
         <v>85</v>
       </c>
       <c r="K66" s="47">
-        <f>E66*F66</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="L66" s="48">
-        <f>ROUND(K66/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="25.5">
       <c r="A67" s="7"/>
       <c r="B67" s="35">
-        <f>B66+1</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="C67" s="12" t="s">
@@ -4066,18 +4066,18 @@
         <v>82</v>
       </c>
       <c r="K67" s="47">
-        <f>E67*F67</f>
+        <f t="shared" ref="K67:K92" si="7">E67*F67</f>
         <v>20</v>
       </c>
       <c r="L67" s="48">
-        <f>ROUND(K67/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="38.25">
       <c r="A68" s="7"/>
       <c r="B68" s="35">
-        <f>B67+1</f>
+        <f t="shared" ref="B68:B92" si="8">B67+1</f>
         <v>66</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -4105,18 +4105,18 @@
         <v>82</v>
       </c>
       <c r="K68" s="47">
-        <f>E68*F68</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="L68" s="48">
-        <f>ROUND(K68/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="38.25">
       <c r="A69" s="7"/>
       <c r="B69" s="35">
-        <f>B68+1</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="C69" s="25" t="s">
@@ -4144,18 +4144,18 @@
         <v>82</v>
       </c>
       <c r="K69" s="47">
-        <f>E69*F69</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L69" s="48">
-        <f>ROUND(K69/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="38.25">
       <c r="A70" s="7"/>
       <c r="B70" s="35">
-        <f>B69+1</f>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="C70" s="12" t="s">
@@ -4183,18 +4183,18 @@
         <v>82</v>
       </c>
       <c r="K70" s="47">
-        <f>E70*F70</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L70" s="48">
-        <f>ROUND(K70/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="35">
-        <f>B70+1</f>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="C71" s="12" t="s">
@@ -4222,18 +4222,18 @@
         <v>64</v>
       </c>
       <c r="K71" s="47">
-        <f>E71*F71</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="L71" s="48">
-        <f>ROUND(K71/28,1)</f>
+        <f t="shared" si="6"/>
         <v>2.9</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="25.5">
       <c r="A72" s="7"/>
       <c r="B72" s="35">
-        <f>B71+1</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="C72" s="13" t="s">
@@ -4261,18 +4261,18 @@
         <v>211</v>
       </c>
       <c r="K72" s="47">
-        <f>E72*F72</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="L72" s="48">
-        <f>ROUND(K72/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="26.25">
       <c r="A73" s="7"/>
       <c r="B73" s="35">
-        <f>B72+1</f>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="C73" s="54" t="s">
@@ -4300,18 +4300,18 @@
         <v>82</v>
       </c>
       <c r="K73" s="47">
-        <f>E73*F73</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="L73" s="49">
-        <f>ROUND(K73/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="7"/>
       <c r="B74" s="14">
-        <f>B73+1</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="C74" s="13" t="s">
@@ -4339,18 +4339,18 @@
         <v>82</v>
       </c>
       <c r="K74" s="47">
-        <f>E74*F74</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L74" s="48">
-        <f>ROUND(K74/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7"/>
       <c r="B75" s="14">
-        <f>B74+1</f>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -4378,18 +4378,18 @@
         <v>82</v>
       </c>
       <c r="K75" s="47">
-        <f>E75*F75</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L75" s="48">
-        <f>ROUND(K75/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="25.5">
       <c r="A76" s="7"/>
       <c r="B76" s="14">
-        <f>B75+1</f>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -4417,18 +4417,18 @@
         <v>81</v>
       </c>
       <c r="K76" s="47">
-        <f>E76*F76</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L76" s="48">
-        <f>ROUND(K76/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="7"/>
       <c r="B77" s="14">
-        <f>B76+1</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="C77" s="13" t="s">
@@ -4456,18 +4456,18 @@
         <v>82</v>
       </c>
       <c r="K77" s="47">
-        <f>E77*F77</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L77" s="48">
-        <f>ROUND(K77/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="7"/>
       <c r="B78" s="14">
-        <f>B77+1</f>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -4495,18 +4495,18 @@
         <v>82</v>
       </c>
       <c r="K78" s="47">
-        <f>E78*F78</f>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="L78" s="48">
-        <f>ROUND(K78/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.9</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="25.5">
       <c r="A79" s="7"/>
       <c r="B79" s="14">
-        <f>B78+1</f>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -4534,18 +4534,18 @@
         <v>82</v>
       </c>
       <c r="K79" s="47">
-        <f>E79*F79</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="L79" s="48">
-        <f>ROUND(K79/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="7"/>
       <c r="B80" s="14">
-        <f>B79+1</f>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -4573,18 +4573,18 @@
         <v>82</v>
       </c>
       <c r="K80" s="47">
-        <f>E80*F80</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="L80" s="48">
-        <f>ROUND(K80/28,1)</f>
+        <f t="shared" si="6"/>
         <v>2.9</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="7"/>
       <c r="B81" s="14">
-        <f>B80+1</f>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="C81" s="56" t="s">
@@ -4612,18 +4612,18 @@
         <v>82</v>
       </c>
       <c r="K81" s="47">
-        <f>E81*F81</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="L81" s="48">
-        <f>ROUND(K81/28,1)</f>
+        <f t="shared" si="6"/>
         <v>2.9</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="25.5">
       <c r="A82" s="7"/>
       <c r="B82" s="14">
-        <f>B81+1</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -4651,18 +4651,18 @@
         <v>82</v>
       </c>
       <c r="K82" s="47">
-        <f>E82*F82</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="L82" s="48">
-        <f>ROUND(K82/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="26.25">
       <c r="A83" s="7"/>
       <c r="B83" s="14">
-        <f>B82+1</f>
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -4690,18 +4690,18 @@
         <v>82</v>
       </c>
       <c r="K83" s="47">
-        <f>E83*F83</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L83" s="48">
-        <f>ROUND(K83/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="25.5">
       <c r="A84" s="7"/>
       <c r="B84" s="14">
-        <f>B83+1</f>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -4729,18 +4729,18 @@
         <v>82</v>
       </c>
       <c r="K84" s="47">
-        <f>E84*F84</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="L84" s="48">
-        <f>ROUND(K84/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="25.5">
       <c r="A85" s="7"/>
       <c r="B85" s="14">
-        <f>B84+1</f>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -4768,18 +4768,18 @@
         <v>82</v>
       </c>
       <c r="K85" s="47">
-        <f>E85*F85</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="L85" s="48">
-        <f>ROUND(K85/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="25.5">
       <c r="A86" s="7"/>
       <c r="B86" s="14">
-        <f>B85+1</f>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -4807,18 +4807,18 @@
         <v>82</v>
       </c>
       <c r="K86" s="47">
-        <f>E86*F86</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="L86" s="48">
-        <f>ROUND(K86/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="25.5">
       <c r="A87" s="7"/>
       <c r="B87" s="14">
-        <f>B86+1</f>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -4846,18 +4846,18 @@
         <v>82</v>
       </c>
       <c r="K87" s="47">
-        <f>E87*F87</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="L87" s="48">
-        <f>ROUND(K87/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="25.5">
       <c r="A88" s="7"/>
       <c r="B88" s="14">
-        <f>B87+1</f>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="C88" s="13" t="s">
@@ -4885,18 +4885,18 @@
         <v>82</v>
       </c>
       <c r="K88" s="47">
-        <f>E88*F88</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="L88" s="48">
-        <f>ROUND(K88/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="14">
-        <f>B88+1</f>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="C89" s="13" t="s">
@@ -4924,18 +4924,18 @@
         <v>64</v>
       </c>
       <c r="K89" s="47">
-        <f>E89*F89</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L89" s="48">
-        <f>ROUND(K89/28,1)</f>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="25.5">
       <c r="A90" s="7"/>
       <c r="B90" s="14">
-        <f>B89+1</f>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="C90" s="56" t="s">
@@ -4963,18 +4963,18 @@
         <v>81</v>
       </c>
       <c r="K90" s="47">
-        <f>E90*F90</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L90" s="48">
-        <f>ROUND(K90/28,1)</f>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="7"/>
       <c r="B91" s="14">
-        <f>B90+1</f>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="C91" s="12" t="s">
@@ -5002,18 +5002,18 @@
         <v>82</v>
       </c>
       <c r="K91" s="48">
-        <f>E91*F91</f>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="L91" s="48">
-        <f>ROUND(K91/28,1)</f>
+        <f t="shared" si="6"/>
         <v>3.4</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="7"/>
       <c r="B92" s="14">
-        <f>B91+1</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="C92" s="54" t="s">
@@ -5041,11 +5041,11 @@
         <v>180</v>
       </c>
       <c r="K92" s="47">
-        <f>E92*F92</f>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="L92" s="48">
-        <f>ROUND(K92/28,1)</f>
+        <f t="shared" si="6"/>
         <v>4.3</v>
       </c>
     </row>
@@ -5739,9 +5739,7 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -2097,7 +2097,7 @@
         <v>112</v>
       </c>
       <c r="H17" s="40">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>156</v>
@@ -2812,7 +2812,7 @@
         <v>48</v>
       </c>
       <c r="L35" s="48">
-        <f t="shared" ref="L35:L66" si="4">ROUND(K35/28,1)</f>
+        <f t="shared" ref="L35:L57" si="4">ROUND(K35/28,1)</f>
         <v>1.7</v>
       </c>
       <c r="M35" s="7"/>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -851,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1156,6 +1156,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1926,36 +1929,36 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E13" s="36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" s="43">
-        <v>4</v>
-      </c>
-      <c r="G13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="108">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K13" s="47">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L13" s="48">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M13" s="7"/>
     </row>
@@ -1965,36 +1968,36 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="36">
+        <v>7</v>
+      </c>
+      <c r="F14" s="43">
         <v>4</v>
       </c>
-      <c r="F14" s="43">
-        <v>3</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>40</v>
+      <c r="G14" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="H14" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="I14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>81</v>
+      <c r="J14" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K14" s="47">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L14" s="48">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M14" s="7"/>
     </row>
@@ -2003,37 +2006,37 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="35">
-        <v>6</v>
-      </c>
-      <c r="F15" s="42">
+      <c r="E15" s="36">
         <v>4</v>
+      </c>
+      <c r="F15" s="43">
+        <v>3</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="40">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12" t="s">
+        <v>0.98</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="25" t="s">
-        <v>79</v>
+      <c r="J15" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="K15" s="47">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L15" s="48">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="M15" s="7"/>
     </row>
@@ -2042,37 +2045,37 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="35">
         <v>6</v>
       </c>
       <c r="F16" s="42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="40">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="K16" s="47">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L16" s="48">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="M16" s="7"/>
     </row>
@@ -2081,33 +2084,33 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" s="42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H17" s="40">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="25" t="s">
         <v>157</v>
       </c>
       <c r="K17" s="47">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L17" s="48">
         <f t="shared" si="1"/>
@@ -2121,36 +2124,36 @@
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="E18" s="35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>112</v>
       </c>
       <c r="H18" s="40">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>82</v>
+        <v>156</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="K18" s="47">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M18" s="7"/>
     </row>
@@ -2160,13 +2163,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" s="42">
         <v>3</v>
@@ -2175,21 +2178,21 @@
         <v>112</v>
       </c>
       <c r="H19" s="40">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K19" s="47">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="3"/>
@@ -2199,37 +2202,37 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="36">
-        <v>6</v>
-      </c>
-      <c r="F20" s="43">
-        <v>4</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="41">
-        <v>0.86</v>
+      <c r="C20" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="35">
+        <v>3</v>
+      </c>
+      <c r="F20" s="42">
+        <v>3</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="40">
+        <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>109</v>
+      <c r="J20" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K20" s="47">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="L20" s="48">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="M20" s="7"/>
     </row>
@@ -2238,37 +2241,37 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="35">
+      <c r="C21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="36">
         <v>6</v>
       </c>
-      <c r="F21" s="42">
-        <v>3</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="40">
-        <v>0.78</v>
+      <c r="F21" s="43">
+        <v>4</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="41">
+        <v>0.86</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="K21" s="47">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="M21" s="7"/>
     </row>
@@ -2278,36 +2281,36 @@
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="40">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K22" s="47">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L22" s="48">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="M22" s="7"/>
     </row>
@@ -2316,37 +2319,37 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="36">
-        <v>6</v>
-      </c>
-      <c r="F23" s="43">
-        <v>9</v>
+      <c r="C23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="35">
+        <v>8</v>
+      </c>
+      <c r="F23" s="42">
+        <v>4</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="40">
-        <v>0.92</v>
-      </c>
-      <c r="I23" s="13" t="s">
+        <v>0.77</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="30" t="s">
-        <v>83</v>
+      <c r="J23" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K23" s="47">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M23" s="7"/>
     </row>
@@ -2355,37 +2358,37 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="35">
+      <c r="C24" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="36">
+        <v>6</v>
+      </c>
+      <c r="F24" s="43">
         <v>9</v>
-      </c>
-      <c r="F24" s="42">
-        <v>3</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="40">
-        <v>0.872</v>
-      </c>
-      <c r="I24" s="12" t="s">
+        <v>0.92</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" s="47">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="M24" s="7"/>
     </row>
@@ -2395,36 +2398,36 @@
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F25" s="42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="40">
-        <v>0.874</v>
+        <v>0.872</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K25" s="47">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="M25" s="7"/>
     </row>
@@ -2433,37 +2436,37 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>29</v>
+      <c r="C26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E26" s="35">
         <v>6</v>
       </c>
       <c r="F26" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="40">
-        <v>0.92</v>
+        <v>0.874</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>82</v>
+      <c r="J26" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L26" s="48">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -2473,37 +2476,37 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F27" s="42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H27" s="40">
-        <v>0.92200000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K27" s="47">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="L27" s="48">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="M27" s="7"/>
     </row>
@@ -2512,37 +2515,37 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>63</v>
+      <c r="C28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E28" s="35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F28" s="42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H28" s="40">
-        <v>0.99</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>64</v>
+        <v>86</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K28" s="47">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L28" s="48">
         <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="3"/>
@@ -2553,7 +2556,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>63</v>
@@ -2568,7 +2571,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="40">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>64</v>
@@ -2591,33 +2594,33 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F30" s="42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="40">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K30" s="47">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L30" s="48">
         <f t="shared" si="1"/>
@@ -2629,33 +2632,33 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E31" s="35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F31" s="42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="40">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="J31" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K31" s="47">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="48">
         <f t="shared" si="1"/>
@@ -2667,33 +2670,33 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F32" s="42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K32" s="47">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L32" s="48">
         <f t="shared" si="1"/>
@@ -2705,37 +2708,37 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="36">
-        <v>4</v>
-      </c>
-      <c r="F33" s="43">
-        <v>4</v>
-      </c>
-      <c r="G33" s="36" t="s">
+      <c r="E33" s="35">
+        <v>7</v>
+      </c>
+      <c r="F33" s="42">
+        <v>5</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="40">
-        <v>1</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J33" s="25" t="s">
+        <v>0.95</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="30" t="s">
         <v>64</v>
       </c>
       <c r="K33" s="47">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L33" s="48">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="M33" s="7"/>
     </row>
@@ -2745,16 +2748,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E34" s="36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F34" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>40</v>
@@ -2762,19 +2765,19 @@
       <c r="H34" s="40">
         <v>1</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>86</v>
+      <c r="I34" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K34" s="47">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L34" s="48">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="M34" s="7"/>
     </row>
@@ -2783,37 +2786,37 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="35">
+      <c r="C35" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="36">
         <v>8</v>
       </c>
-      <c r="F35" s="42">
-        <v>6</v>
-      </c>
-      <c r="G35" s="35" t="s">
+      <c r="F35" s="43">
+        <v>3</v>
+      </c>
+      <c r="G35" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H35" s="40">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K35" s="47">
         <f t="shared" ref="K35:K66" si="3">E35*F35</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L35" s="48">
-        <f t="shared" ref="L35:L57" si="4">ROUND(K35/28,1)</f>
-        <v>1.7</v>
+        <f t="shared" ref="L35:L66" si="4">ROUND(K35/28,1)</f>
+        <v>0.9</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="3"/>
@@ -2823,37 +2826,37 @@
         <f t="shared" ref="B36:B67" si="5">B35+1</f>
         <v>34</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="36">
-        <v>7</v>
-      </c>
-      <c r="F36" s="43">
+      <c r="E36" s="35">
         <v>8</v>
       </c>
-      <c r="G36" s="36" t="s">
-        <v>112</v>
+      <c r="F36" s="42">
+        <v>6</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="H36" s="40">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="25" t="s">
-        <v>78</v>
+      <c r="J36" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="K36" s="47">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L36" s="48">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="M36" s="7"/>
     </row>
@@ -2863,36 +2866,36 @@
         <v>35</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E37" s="36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" s="43">
         <v>8</v>
       </c>
-      <c r="G37" s="35" t="s">
-        <v>40</v>
+      <c r="G37" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="H37" s="40">
-        <v>0.873</v>
-      </c>
-      <c r="I37" s="13" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K37" s="47">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L37" s="48">
         <f t="shared" si="4"/>
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="M37" s="7"/>
     </row>
@@ -2902,36 +2905,36 @@
         <v>36</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E38" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" s="43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="40">
-        <v>0.98</v>
+        <v>0.873</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="K38" s="47">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="L38" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="M38" s="7"/>
     </row>
@@ -2940,25 +2943,25 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="35">
-        <v>6</v>
-      </c>
-      <c r="F39" s="42">
+      <c r="E39" s="36">
+        <v>7</v>
+      </c>
+      <c r="F39" s="43">
         <v>4</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H39" s="40">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="I39" s="12" t="s">
+        <v>0.98</v>
+      </c>
+      <c r="I39" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J39" s="30" t="s">
@@ -2966,11 +2969,11 @@
       </c>
       <c r="K39" s="47">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L39" s="48">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="3"/>
@@ -2981,22 +2984,22 @@
         <v>38</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="E40" s="35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H40" s="40">
-        <v>0.95</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>86</v>
@@ -3006,11 +3009,11 @@
       </c>
       <c r="K40" s="47">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L40" s="48">
         <f t="shared" si="4"/>
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="3"/>
@@ -3020,37 +3023,37 @@
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="25" t="s">
+      <c r="C41" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E41" s="35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F41" s="42">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G41" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="40">
+        <v>0.95</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="40">
-        <v>0.83</v>
-      </c>
-      <c r="I41" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>81</v>
+      <c r="J41" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K41" s="47">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="L41" s="48">
         <f t="shared" si="4"/>
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="8"/>
@@ -3060,37 +3063,37 @@
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="36">
-        <v>5</v>
-      </c>
-      <c r="F42" s="43">
-        <v>4</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>40</v>
+      <c r="C42" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="35">
+        <v>10</v>
+      </c>
+      <c r="F42" s="42">
+        <v>15</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="H42" s="40">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="I42" s="12" t="s">
+        <v>0.83</v>
+      </c>
+      <c r="I42" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="J42" s="30" t="s">
-        <v>79</v>
+      <c r="J42" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K42" s="47">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="L42" s="48">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="8"/>
@@ -3101,23 +3104,23 @@
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="36">
+        <v>5</v>
+      </c>
+      <c r="F43" s="43">
         <v>4</v>
       </c>
-      <c r="F43" s="42">
-        <v>4</v>
-      </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H43" s="40">
-        <v>0.99</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>86</v>
@@ -3127,11 +3130,11 @@
       </c>
       <c r="K43" s="47">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L43" s="48">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="8"/>
@@ -3142,37 +3145,37 @@
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="36">
-        <v>9</v>
-      </c>
-      <c r="F44" s="43">
-        <v>10</v>
-      </c>
-      <c r="G44" s="36" t="s">
+      <c r="C44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="35">
+        <v>4</v>
+      </c>
+      <c r="F44" s="42">
+        <v>4</v>
+      </c>
+      <c r="G44" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H44" s="40">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>61</v>
+        <v>0.99</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="J44" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44" s="47">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="L44" s="48">
         <f t="shared" si="4"/>
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="8"/>
@@ -3183,182 +3186,182 @@
         <v>43</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D45" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="36">
+        <v>9</v>
+      </c>
+      <c r="F45" s="43">
         <v>10</v>
       </c>
-      <c r="E45" s="36">
-        <v>10</v>
-      </c>
-      <c r="F45" s="43">
-        <v>3</v>
-      </c>
       <c r="G45" s="36" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H45" s="40">
-        <v>0.82699999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K45" s="47">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L45" s="48">
         <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" ht="25.5">
+    <row r="46" spans="1:14">
       <c r="B46" s="14">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="C46" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="35">
-        <v>8</v>
-      </c>
-      <c r="F46" s="42">
-        <v>6</v>
-      </c>
-      <c r="G46" s="35" t="s">
+      <c r="E46" s="36">
+        <v>10</v>
+      </c>
+      <c r="F46" s="43">
+        <v>3</v>
+      </c>
+      <c r="G46" s="36" t="s">
         <v>86</v>
       </c>
       <c r="H46" s="40">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="I46" s="12" t="s">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K46" s="47">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L46" s="48">
         <f t="shared" si="4"/>
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" ht="25.5">
       <c r="B47" s="14">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="36">
-        <v>5</v>
-      </c>
-      <c r="F47" s="43">
-        <v>3</v>
-      </c>
-      <c r="G47" s="36" t="s">
+      <c r="C47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="35">
+        <v>8</v>
+      </c>
+      <c r="F47" s="42">
+        <v>6</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="H47" s="41">
-        <v>0.87</v>
+      <c r="H47" s="40">
+        <v>0.88400000000000001</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J47" s="25" t="s">
-        <v>84</v>
+      <c r="J47" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="K47" s="47">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="L47" s="48">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" ht="25.5">
+    <row r="48" spans="1:14">
       <c r="B48" s="14">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="C48" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="36">
         <v>5</v>
       </c>
-      <c r="F48" s="42">
-        <v>9</v>
-      </c>
-      <c r="G48" s="35" t="s">
+      <c r="F48" s="43">
+        <v>3</v>
+      </c>
+      <c r="G48" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H48" s="40">
-        <v>0.78</v>
+      <c r="H48" s="41">
+        <v>0.87</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J48" s="30" t="s">
+      <c r="J48" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K48" s="47">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L48" s="48">
         <f t="shared" si="4"/>
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" ht="25.5">
       <c r="B49" s="14">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="35">
         <v>5</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="42">
         <v>9</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H49" s="40">
-        <v>0.89300000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>86</v>
@@ -3377,42 +3380,42 @@
       <c r="M49" s="7"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" ht="25.5">
+    <row r="50" spans="1:14">
       <c r="B50" s="14">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E50" s="36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F50" s="43">
-        <v>6</v>
-      </c>
-      <c r="G50" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="35" t="s">
         <v>112</v>
       </c>
       <c r="H50" s="40">
-        <v>0.95299999999999996</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J50" s="25" t="s">
-        <v>192</v>
+      <c r="J50" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="K50" s="47">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L50" s="48">
         <f t="shared" si="4"/>
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="M50" s="7"/>
     </row>
@@ -3422,36 +3425,36 @@
         <v>49</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="E51" s="36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F51" s="43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H51" s="40">
-        <v>1</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>65</v>
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="K51" s="47">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L51" s="48">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="M51" s="7"/>
     </row>
@@ -3460,10 +3463,10 @@
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="65" t="s">
+      <c r="C52" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="24">
@@ -3472,11 +3475,11 @@
       <c r="F52" s="24">
         <v>4</v>
       </c>
-      <c r="G52" s="52" t="s">
+      <c r="G52" s="24" t="s">
         <v>40</v>
       </c>
       <c r="H52" s="53">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I52" s="55" t="s">
         <v>65</v>
@@ -3498,10 +3501,10 @@
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="56" t="s">
+      <c r="C53" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="65" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="24">
@@ -3510,16 +3513,16 @@
       <c r="F53" s="24">
         <v>4</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="52" t="s">
         <v>40</v>
       </c>
       <c r="H53" s="53">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="I53" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="J53" s="65" t="s">
         <v>79</v>
       </c>
       <c r="K53" s="47">
@@ -3538,36 +3541,36 @@
         <v>52</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="56" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="24">
         <v>5</v>
       </c>
       <c r="F54" s="24">
-        <v>7</v>
-      </c>
-      <c r="G54" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="101">
-        <v>0.97</v>
-      </c>
-      <c r="I54" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="J54" s="56" t="s">
-        <v>82</v>
+      <c r="H54" s="53">
+        <v>0.93</v>
+      </c>
+      <c r="I54" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="K54" s="47">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L54" s="48">
         <f t="shared" si="4"/>
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="25.5">
@@ -3577,7 +3580,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>7</v>
@@ -3586,27 +3589,27 @@
         <v>5</v>
       </c>
       <c r="F55" s="24">
-        <v>4</v>
-      </c>
-      <c r="G55" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="53">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="I55" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" s="65" t="s">
-        <v>79</v>
+      <c r="H55" s="101">
+        <v>0.97</v>
+      </c>
+      <c r="I55" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="J55" s="56" t="s">
+        <v>82</v>
       </c>
       <c r="K55" s="47">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L55" s="48">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="25.5">
@@ -3615,37 +3618,37 @@
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="56" t="s">
+      <c r="C56" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="52">
-        <v>11</v>
-      </c>
-      <c r="F56" s="52">
+      <c r="E56" s="24">
+        <v>5</v>
+      </c>
+      <c r="F56" s="24">
         <v>4</v>
       </c>
-      <c r="G56" s="52" t="s">
-        <v>86</v>
+      <c r="G56" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H56" s="53">
-        <v>0.751</v>
-      </c>
-      <c r="I56" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J56" s="23" t="s">
-        <v>83</v>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I56" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J56" s="65" t="s">
+        <v>79</v>
       </c>
       <c r="K56" s="47">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L56" s="48">
         <f t="shared" si="4"/>
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="25.5">
@@ -3655,7 +3658,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>7</v>
@@ -3670,7 +3673,7 @@
         <v>86</v>
       </c>
       <c r="H57" s="40">
-        <v>0.746</v>
+        <v>0.751</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>86</v>
@@ -3694,111 +3697,111 @@
         <v>56</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="35">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F58" s="42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H58" s="40">
-        <v>0.96</v>
+        <v>0.746</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="J58" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="K58" s="47">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="L58" s="28"/>
-    </row>
-    <row r="59" spans="1:14">
+        <v>44</v>
+      </c>
+      <c r="L58" s="48">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="25.5">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E59" s="52">
+        <v>3</v>
+      </c>
+      <c r="F59" s="52">
         <v>5</v>
-      </c>
-      <c r="F59" s="52">
-        <v>2</v>
       </c>
       <c r="G59" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H59" s="53">
-        <v>0.82599999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="I59" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J59" s="23" t="s">
-        <v>191</v>
+        <v>163</v>
+      </c>
+      <c r="J59" s="65" t="s">
+        <v>79</v>
       </c>
       <c r="K59" s="47">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="L59" s="48">
-        <f t="shared" ref="L59:L92" si="6">ROUND(K59/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="25.5">
+        <v>15</v>
+      </c>
+      <c r="L59" s="28"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="7"/>
       <c r="B60" s="14">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="C60" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>141</v>
+      <c r="C60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E60" s="35">
         <v>5</v>
       </c>
       <c r="F60" s="42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="107">
-        <v>0.93</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>82</v>
+        <v>112</v>
+      </c>
+      <c r="H60" s="40">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>191</v>
       </c>
       <c r="K60" s="47">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L60" s="48">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" ref="L60:L94" si="6">ROUND(K60/28,1)</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="25.5">
@@ -3807,37 +3810,37 @@
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>18</v>
+      <c r="C61" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="E61" s="35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F61" s="42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61" s="40">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J61" s="30" t="s">
-        <v>83</v>
+        <v>40</v>
+      </c>
+      <c r="H61" s="107">
+        <v>0.93</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K61" s="47">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="L61" s="48">
         <f t="shared" si="6"/>
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="25.5">
@@ -3846,37 +3849,37 @@
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>194</v>
+      <c r="C62" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="43">
-        <v>4</v>
-      </c>
-      <c r="F62" s="24">
+      <c r="E62" s="42">
+        <v>8</v>
+      </c>
+      <c r="F62" s="52">
         <v>6</v>
       </c>
-      <c r="G62" s="43" t="s">
+      <c r="G62" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="40">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I62" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H62" s="40">
-        <v>0.91</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>196</v>
-      </c>
       <c r="J62" s="30" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="K62" s="47">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="L62" s="48">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="25.5">
@@ -3886,114 +3889,114 @@
         <v>61</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F63" s="43">
         <v>6</v>
       </c>
-      <c r="G63" s="42" t="s">
-        <v>112</v>
+      <c r="G63" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="H63" s="40">
-        <v>0.91800000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="J63" s="30" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K63" s="47">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L63" s="48">
         <f t="shared" si="6"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="25.5">
       <c r="A64" s="7"/>
       <c r="B64" s="14">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="C64" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" s="35">
-        <v>7</v>
-      </c>
-      <c r="F64" s="42">
-        <v>5</v>
+      <c r="C64" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="36">
+        <v>8</v>
+      </c>
+      <c r="F64" s="43">
+        <v>6</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H64" s="40">
-        <v>1</v>
-      </c>
-      <c r="I64" s="12" t="s">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I64" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J64" s="25" t="s">
+      <c r="J64" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K64" s="47">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L64" s="48">
         <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="25.5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="7"/>
       <c r="B65" s="14">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>76</v>
+      <c r="C65" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="E65" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F65" s="42">
-        <v>2</v>
-      </c>
-      <c r="G65" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H65" s="40">
-        <v>0.74</v>
-      </c>
-      <c r="I65" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J65" s="30" t="s">
-        <v>81</v>
+      <c r="J65" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K65" s="47">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L65" s="48">
         <f t="shared" si="6"/>
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="25.5">
@@ -4002,37 +4005,37 @@
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="13" t="s">
+      <c r="C66" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="36">
+      <c r="E66" s="35">
         <v>6</v>
       </c>
-      <c r="F66" s="43">
-        <v>6</v>
-      </c>
-      <c r="G66" s="35" t="s">
-        <v>112</v>
+      <c r="F66" s="42">
+        <v>2</v>
+      </c>
+      <c r="G66" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="H66" s="40">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="I66" s="13" t="s">
+        <v>0.74</v>
+      </c>
+      <c r="I66" s="39" t="s">
         <v>86</v>
       </c>
       <c r="J66" s="30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K66" s="47">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L66" s="48">
         <f t="shared" si="6"/>
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="25.5">
@@ -4041,76 +4044,76 @@
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E67" s="35">
-        <v>5</v>
-      </c>
-      <c r="F67" s="42">
-        <v>4</v>
+      <c r="C67" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="36">
+        <v>6</v>
+      </c>
+      <c r="F67" s="43">
+        <v>6</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H67" s="40">
-        <v>0.9</v>
-      </c>
-      <c r="I67" s="12" t="s">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I67" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J67" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K67" s="47">
-        <f t="shared" ref="K67:K92" si="7">E67*F67</f>
-        <v>20</v>
+        <f t="shared" ref="K67:K94" si="7">E67*F67</f>
+        <v>36</v>
       </c>
       <c r="L67" s="48">
         <f t="shared" si="6"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="38.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="25.5">
       <c r="A68" s="7"/>
       <c r="B68" s="35">
-        <f t="shared" ref="B68:B92" si="8">B67+1</f>
+        <f t="shared" ref="B68:B94" si="8">B67+1</f>
         <v>66</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="E68" s="35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" s="42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H68" s="40">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="J68" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K68" s="47">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="L68" s="48">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="38.25">
@@ -4119,37 +4122,37 @@
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="C69" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D69" s="25" t="s">
+      <c r="C69" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F69" s="42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H69" s="40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J69" s="25" t="s">
+      <c r="J69" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K69" s="47">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L69" s="48">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="38.25">
@@ -4158,8 +4161,8 @@
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>142</v>
+      <c r="C70" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>27</v>
@@ -4174,7 +4177,7 @@
         <v>40</v>
       </c>
       <c r="H70" s="40">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>122</v>
@@ -4191,146 +4194,146 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" ht="38.25">
       <c r="A71" s="7"/>
       <c r="B71" s="35">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>35</v>
+        <v>142</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="E71" s="35">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F71" s="42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H71" s="40">
-        <v>0.90800000000000003</v>
+        <v>0.98</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J71" s="30" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="J71" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K71" s="47">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L71" s="48">
         <f t="shared" si="6"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="7"/>
       <c r="B72" s="35">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="C72" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="36">
-        <v>6</v>
-      </c>
-      <c r="F72" s="43">
-        <v>4</v>
-      </c>
-      <c r="G72" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H72" s="41">
-        <v>0.93</v>
+      <c r="E72" s="35">
+        <v>10</v>
+      </c>
+      <c r="F72" s="42">
+        <v>8</v>
+      </c>
+      <c r="G72" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="40">
+        <v>0.90800000000000003</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J72" s="25" t="s">
-        <v>211</v>
+      <c r="J72" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="K72" s="47">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="L72" s="48">
         <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="26.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="25.5">
       <c r="A73" s="7"/>
       <c r="B73" s="35">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="C73" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="E73" s="52">
-        <v>5</v>
-      </c>
-      <c r="F73" s="52">
-        <v>3</v>
-      </c>
-      <c r="G73" s="52" t="s">
+      <c r="C73" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="24">
+        <v>6</v>
+      </c>
+      <c r="F73" s="24">
+        <v>4</v>
+      </c>
+      <c r="G73" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H73" s="53">
-        <v>0.91</v>
+      <c r="H73" s="82">
+        <v>0.93</v>
       </c>
       <c r="I73" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J73" s="65" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="K73" s="47">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L73" s="49">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="26.25">
       <c r="A74" s="7"/>
       <c r="B74" s="14">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E74" s="36">
-        <v>6</v>
-      </c>
-      <c r="F74" s="43">
-        <v>6</v>
-      </c>
-      <c r="G74" s="36" t="s">
+      <c r="C74" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="35">
+        <v>5</v>
+      </c>
+      <c r="F74" s="42">
+        <v>3</v>
+      </c>
+      <c r="G74" s="35" t="s">
         <v>112</v>
       </c>
       <c r="H74" s="40">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>86</v>
@@ -4340,11 +4343,11 @@
       </c>
       <c r="K74" s="47">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L74" s="48">
         <f t="shared" si="6"/>
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4354,22 +4357,22 @@
         <v>73</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D75" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="52">
+      <c r="E75" s="24">
         <v>6</v>
       </c>
-      <c r="F75" s="52">
+      <c r="F75" s="24">
         <v>6</v>
       </c>
-      <c r="G75" s="52" t="s">
+      <c r="G75" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H75" s="53">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I75" s="56" t="s">
         <v>86</v>
@@ -4386,17 +4389,17 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="25.5">
+    <row r="76" spans="1:12">
       <c r="A76" s="7"/>
       <c r="B76" s="14">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D76" s="56" t="s">
-        <v>166</v>
+      <c r="C76" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="55" t="s">
+        <v>130</v>
       </c>
       <c r="E76" s="52">
         <v>6</v>
@@ -4405,16 +4408,16 @@
         <v>6</v>
       </c>
       <c r="G76" s="52" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="H76" s="53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="I76" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J76" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K76" s="47">
         <f t="shared" si="7"/>
@@ -4425,17 +4428,17 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" ht="25.5">
       <c r="A77" s="7"/>
       <c r="B77" s="14">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>146</v>
+      <c r="C77" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="E77" s="42">
         <v>6</v>
@@ -4444,16 +4447,16 @@
         <v>6</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H77" s="40">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K77" s="47">
         <f t="shared" si="7"/>
@@ -4471,63 +4474,63 @@
         <v>76</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E78" s="24">
-        <v>9</v>
-      </c>
-      <c r="F78" s="24">
+        <v>146</v>
+      </c>
+      <c r="E78" s="52">
         <v>6</v>
       </c>
+      <c r="F78" s="52">
+        <v>6</v>
+      </c>
       <c r="G78" s="52" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H78" s="53">
-        <v>1</v>
-      </c>
-      <c r="I78" s="13" t="s">
+        <v>0.89</v>
+      </c>
+      <c r="I78" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J78" s="23" t="s">
+      <c r="J78" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K78" s="47">
         <f t="shared" si="7"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L78" s="48">
         <f t="shared" si="6"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="25.5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="7"/>
       <c r="B79" s="14">
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E79" s="36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F79" s="43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H79" s="40">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="I79" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J79" s="30" t="s">
@@ -4535,36 +4538,36 @@
       </c>
       <c r="K79" s="47">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="L79" s="48">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="25.5">
       <c r="A80" s="7"/>
       <c r="B80" s="14">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>124</v>
+      <c r="C80" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D80" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E80" s="52">
-        <v>10</v>
-      </c>
-      <c r="F80" s="52">
-        <v>8</v>
+      <c r="E80" s="24">
+        <v>7</v>
+      </c>
+      <c r="F80" s="24">
+        <v>4</v>
       </c>
       <c r="G80" s="52" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H80" s="53">
-        <v>0.98</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="I80" s="56" t="s">
         <v>86</v>
@@ -4574,11 +4577,11 @@
       </c>
       <c r="K80" s="47">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="L80" s="48">
         <f t="shared" si="6"/>
-        <v>2.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4588,9 +4591,9 @@
         <v>79</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" s="55" t="s">
         <v>47</v>
       </c>
       <c r="E81" s="52">
@@ -4600,10 +4603,10 @@
         <v>8</v>
       </c>
       <c r="G81" s="52" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H81" s="53">
-        <v>0.90500000000000003</v>
+        <v>0.98</v>
       </c>
       <c r="I81" s="56" t="s">
         <v>86</v>
@@ -4620,65 +4623,65 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="25.5">
+    <row r="82" spans="1:12">
       <c r="A82" s="7"/>
       <c r="B82" s="14">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="24">
-        <v>4</v>
-      </c>
-      <c r="F82" s="24">
-        <v>3</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>40</v>
+      <c r="C82" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="52">
+        <v>10</v>
+      </c>
+      <c r="F82" s="52">
+        <v>8</v>
+      </c>
+      <c r="G82" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="H82" s="53">
-        <v>1</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I82" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J82" s="65" t="s">
+      <c r="J82" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K82" s="47">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L82" s="48">
         <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="26.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="25.5">
       <c r="A83" s="7"/>
       <c r="B83" s="14">
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D83" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="52">
+      <c r="C83" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="24">
         <v>4</v>
       </c>
-      <c r="F83" s="52">
-        <v>4</v>
-      </c>
-      <c r="G83" s="52" t="s">
-        <v>112</v>
+      <c r="F83" s="24">
+        <v>3</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H83" s="53">
         <v>1</v>
@@ -4691,50 +4694,50 @@
       </c>
       <c r="K83" s="47">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L83" s="48">
         <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="25.5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="26.25">
       <c r="A84" s="7"/>
       <c r="B84" s="14">
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="56" t="s">
+      <c r="C84" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" s="88" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F84" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G84" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H84" s="53">
-        <v>0.88900000000000001</v>
+        <v>1</v>
       </c>
       <c r="I84" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J84" s="23" t="s">
+      <c r="J84" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K84" s="47">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L84" s="48">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="25.5">
@@ -4743,37 +4746,37 @@
         <f t="shared" si="8"/>
         <v>83</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" s="56" t="s">
+      <c r="C85" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="52">
+      <c r="E85" s="24">
         <v>4</v>
       </c>
-      <c r="F85" s="52">
-        <v>6</v>
-      </c>
-      <c r="G85" s="52" t="s">
+      <c r="F85" s="24">
+        <v>4</v>
+      </c>
+      <c r="G85" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H85" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="I85" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J85" s="23" t="s">
+      <c r="J85" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K85" s="47">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L85" s="48">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="25.5">
@@ -4783,13 +4786,13 @@
         <v>84</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D86" s="56" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F86" s="52">
         <v>6</v>
@@ -4798,7 +4801,7 @@
         <v>112</v>
       </c>
       <c r="H86" s="53">
-        <v>0.83299999999999996</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I86" s="56" t="s">
         <v>86</v>
@@ -4808,11 +4811,11 @@
       </c>
       <c r="K86" s="47">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L86" s="48">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="25.5">
@@ -4821,23 +4824,23 @@
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" s="55" t="s">
+      <c r="C87" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="24">
+      <c r="E87" s="52">
         <v>4</v>
       </c>
-      <c r="F87" s="24">
-        <v>3</v>
+      <c r="F87" s="52">
+        <v>6</v>
       </c>
       <c r="G87" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H87" s="53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I87" s="56" t="s">
         <v>86</v>
@@ -4847,11 +4850,11 @@
       </c>
       <c r="K87" s="47">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L87" s="48">
         <f t="shared" si="6"/>
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="25.5">
@@ -4860,25 +4863,25 @@
         <f t="shared" si="8"/>
         <v>86</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" s="24">
-        <v>5</v>
-      </c>
-      <c r="F88" s="24">
-        <v>5</v>
+      <c r="C88" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="52">
+        <v>4</v>
+      </c>
+      <c r="F88" s="52">
+        <v>6</v>
       </c>
       <c r="G88" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H88" s="53">
-        <v>0.88</v>
-      </c>
-      <c r="I88" s="55" t="s">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I88" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J88" s="23" t="s">
@@ -4886,50 +4889,50 @@
       </c>
       <c r="K88" s="47">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L88" s="48">
         <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" ht="25.5">
       <c r="A89" s="7"/>
       <c r="B89" s="14">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E89" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" s="24">
-        <v>4</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="G89" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="H89" s="53">
-        <v>0.89900000000000002</v>
+        <v>1</v>
       </c>
       <c r="I89" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J89" s="23" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K89" s="47">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L89" s="48">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="25.5">
@@ -4938,37 +4941,37 @@
         <f t="shared" si="8"/>
         <v>88</v>
       </c>
-      <c r="C90" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" s="52">
-        <v>6</v>
-      </c>
-      <c r="F90" s="52">
-        <v>6</v>
+      <c r="C90" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="24">
+        <v>5</v>
+      </c>
+      <c r="F90" s="24">
+        <v>5</v>
       </c>
       <c r="G90" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H90" s="53">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="I90" s="56" t="s">
+        <v>0.88</v>
+      </c>
+      <c r="I90" s="55" t="s">
         <v>86</v>
       </c>
       <c r="J90" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K90" s="47">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L90" s="48">
         <f t="shared" si="6"/>
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4977,105 +4980,155 @@
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E91" s="35">
-        <v>8</v>
-      </c>
-      <c r="F91" s="52">
-        <v>12</v>
-      </c>
-      <c r="G91" s="52" t="s">
-        <v>112</v>
+      <c r="C91" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" s="36">
+        <v>5</v>
+      </c>
+      <c r="F91" s="24">
+        <v>4</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H91" s="53">
-        <v>0.84699999999999998</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="I91" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J91" s="23" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K91" s="48">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="L91" s="48">
         <f t="shared" si="6"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="25.5">
       <c r="A92" s="7"/>
       <c r="B92" s="14">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="C92" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92" s="88" t="s">
-        <v>31</v>
+      <c r="C92" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="E92" s="52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F92" s="52">
-        <v>15</v>
-      </c>
-      <c r="G92" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="H92" s="89">
-        <v>0.9</v>
-      </c>
-      <c r="I92" s="90" t="s">
+      <c r="H92" s="53">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I92" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J92" s="65" t="s">
-        <v>180</v>
+      <c r="J92" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K92" s="47">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="L92" s="48">
         <f t="shared" si="6"/>
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
+      <c r="B93" s="14">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="52">
+        <v>8</v>
+      </c>
+      <c r="F93" s="52">
+        <v>12</v>
+      </c>
+      <c r="G93" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H93" s="53">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J93" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K93" s="47">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="L93" s="48">
+        <f t="shared" si="6"/>
+        <v>3.4</v>
+      </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
+      <c r="B94" s="14">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="35">
+        <v>8</v>
+      </c>
+      <c r="F94" s="52">
+        <v>15</v>
+      </c>
+      <c r="G94" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="H94" s="89">
+        <v>0.9</v>
+      </c>
+      <c r="I94" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="J94" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="K94" s="48">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="L94" s="48">
+        <f t="shared" si="6"/>
+        <v>4.3</v>
+      </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="7"/>
@@ -5723,7 +5776,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:L2">
-    <sortState ref="B3:L92">
+    <sortState ref="B3:L94">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
@@ -7096,7 +7149,9 @@
   </sheetPr>
   <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7192,11 +7247,11 @@
         <v>82</v>
       </c>
       <c r="K3" s="47">
-        <f t="shared" ref="K3:K7" si="0">E3*F3</f>
+        <f t="shared" ref="K3:K5" si="0">E3*F3</f>
         <v>112</v>
       </c>
       <c r="L3" s="48">
-        <f t="shared" ref="L3:L7" si="1">ROUND(K3/28,1)</f>
+        <f t="shared" ref="L3:L5" si="1">ROUND(K3/28,1)</f>
         <v>4</v>
       </c>
     </row>
@@ -7235,80 +7290,76 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="25.5">
+    <row r="5" spans="1:14">
       <c r="A5" s="8"/>
       <c r="B5" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="C5" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="52">
         <v>4</v>
       </c>
-      <c r="F5" s="24">
-        <v>3</v>
-      </c>
-      <c r="G5" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="47">
+      <c r="F5" s="52">
+        <v>9</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="48">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="M5" s="92"/>
       <c r="N5" s="92"/>
     </row>
-    <row r="6" spans="1:14" ht="25.5">
+    <row r="6" spans="1:14">
       <c r="A6" s="8"/>
       <c r="B6" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="C6" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="24">
         <v>4</v>
       </c>
       <c r="F6" s="24">
-        <v>4</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>112</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G6" s="52"/>
       <c r="H6" s="53"/>
       <c r="I6" s="55" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K6" s="48">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" ref="K6:K10" si="3">E6*F6</f>
+        <v>36</v>
       </c>
       <c r="L6" s="48">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f t="shared" ref="L6:L10" si="4">ROUND(K6/28,1)</f>
+        <v>1.3</v>
       </c>
       <c r="M6" s="92"/>
       <c r="N6" s="92"/>
@@ -7320,9 +7371,9 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="56" t="s">
         <v>63</v>
       </c>
       <c r="E7" s="52">
@@ -7340,78 +7391,78 @@
         <v>64</v>
       </c>
       <c r="K7" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="L7" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="M7" s="92"/>
       <c r="N7" s="92"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="25.5">
       <c r="A8" s="8"/>
       <c r="B8" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="24">
+      <c r="C8" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="52">
         <v>4</v>
       </c>
-      <c r="F8" s="24">
-        <v>9</v>
+      <c r="F8" s="52">
+        <v>6</v>
       </c>
       <c r="G8" s="52"/>
       <c r="H8" s="53"/>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="65" t="s">
-        <v>64</v>
-      </c>
       <c r="K8" s="48">
-        <f t="shared" ref="K8:K12" si="3">E8*F8</f>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="L8" s="48">
-        <f t="shared" ref="L8:L12" si="4">ROUND(K8/28,1)</f>
-        <v>1.3</v>
+        <f t="shared" si="4"/>
+        <v>0.9</v>
       </c>
       <c r="M8" s="92"/>
       <c r="N8" s="92"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="25.5">
       <c r="A9" s="8"/>
       <c r="B9" s="14">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="52">
-        <v>4</v>
-      </c>
-      <c r="F9" s="52">
-        <v>9</v>
+      <c r="C9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="24">
+        <v>6</v>
+      </c>
+      <c r="F9" s="24">
+        <v>6</v>
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="53"/>
-      <c r="I9" s="56" t="s">
-        <v>64</v>
+      <c r="I9" s="55" t="s">
+        <v>86</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K9" s="48">
         <f t="shared" si="3"/>
@@ -7424,114 +7475,78 @@
       <c r="M9" s="92"/>
       <c r="N9" s="92"/>
     </row>
-    <row r="10" spans="1:14" ht="25.5">
+    <row r="10" spans="1:14" ht="38.25">
       <c r="A10" s="8"/>
       <c r="B10" s="14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>214</v>
+      <c r="C10" s="70" t="s">
+        <v>217</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E10" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="52">
         <v>6</v>
       </c>
       <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>64</v>
+      <c r="H10" s="89"/>
+      <c r="I10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K10" s="48">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L10" s="48">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="M10" s="92"/>
       <c r="N10" s="92"/>
     </row>
-    <row r="11" spans="1:14" ht="25.5">
+    <row r="11" spans="1:14">
       <c r="A11" s="8"/>
       <c r="B11" s="14">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="24">
-        <v>6</v>
-      </c>
-      <c r="F11" s="24">
-        <v>6</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="48">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="L11" s="48">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
       <c r="M11" s="92"/>
       <c r="N11" s="92"/>
     </row>
-    <row r="12" spans="1:14" ht="38.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="8"/>
       <c r="B12" s="14">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C12" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="52">
-        <v>6</v>
-      </c>
-      <c r="F12" s="52">
-        <v>6</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="48">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="L12" s="48">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
       <c r="M12" s="92"/>
       <c r="N12" s="92"/>
     </row>
@@ -7545,9 +7560,9 @@
       <c r="D13" s="5"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="66"/>
-      <c r="I13" s="69"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="58"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
@@ -7560,14 +7575,14 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="66"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="58"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
       <c r="M14" s="92"/>
@@ -7592,7 +7607,7 @@
     <row r="16" spans="1:14">
       <c r="A16" s="8"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="29"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="29"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -7606,13 +7621,13 @@
     <row r="17" spans="1:12">
       <c r="A17" s="8"/>
       <c r="B17" s="35"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="35"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="58"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -7620,27 +7635,27 @@
     <row r="18" spans="1:12">
       <c r="A18" s="8"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="35"/>
       <c r="H18" s="66"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="29"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="66"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="58"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
@@ -7648,10 +7663,10 @@
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="66"/>
       <c r="I20" s="5"/>
@@ -7676,10 +7691,10 @@
     <row r="22" spans="1:12">
       <c r="A22" s="8"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="35"/>
       <c r="H22" s="66"/>
       <c r="I22" s="5"/>
@@ -7690,13 +7705,13 @@
     <row r="23" spans="1:12">
       <c r="A23" s="8"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="66"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="58"/>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
@@ -7704,10 +7719,10 @@
     <row r="24" spans="1:12">
       <c r="A24" s="8"/>
       <c r="B24" s="35"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="66"/>
       <c r="I24" s="5"/>
@@ -7718,13 +7733,13 @@
     <row r="25" spans="1:12">
       <c r="A25" s="8"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="66"/>
-      <c r="I25" s="33"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="58"/>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
@@ -7732,29 +7747,29 @@
     <row r="26" spans="1:12">
       <c r="A26" s="8"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="49"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="49"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:12">
@@ -7765,11 +7780,11 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="32"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="33"/>
       <c r="J28" s="29"/>
       <c r="K28" s="15"/>
-      <c r="L28" s="49"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8"/>
@@ -7783,7 +7798,7 @@
       <c r="I29" s="33"/>
       <c r="J29" s="29"/>
       <c r="K29" s="15"/>
-      <c r="L29" s="49"/>
+      <c r="L29" s="15"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8"/>
@@ -7793,7 +7808,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="57"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="33"/>
       <c r="J30" s="29"/>
       <c r="K30" s="15"/>
@@ -8895,98 +8910,78 @@
     <row r="110" spans="1:12">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="15"/>
       <c r="L110" s="15"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="15"/>
       <c r="L111" s="15"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
-      <c r="L112" s="15"/>
-    </row>
-    <row r="113" spans="1:12">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
-      <c r="L113" s="15"/>
-    </row>
-    <row r="114" spans="1:12">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:2">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:2">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:2">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:2">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:2">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:2">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:2">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:2">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:2">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:2">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:2">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:2">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:2">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:2">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
     </row>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="13395" windowHeight="6180"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="13395" windowHeight="6180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coursera" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="218">
   <si>
     <t>#</t>
   </si>
@@ -670,9 +670,6 @@
   </si>
   <si>
     <t>Regression models</t>
-  </si>
-  <si>
-    <t>Text retreival and search engines</t>
   </si>
   <si>
     <t>International leadership and organizational behavior</t>
@@ -1461,7 +1458,9 @@
   </sheetPr>
   <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2815,7 +2814,7 @@
         <v>24</v>
       </c>
       <c r="L35" s="48">
-        <f t="shared" ref="L35:L66" si="4">ROUND(K35/28,1)</f>
+        <f t="shared" ref="L35:L58" si="4">ROUND(K35/28,1)</f>
         <v>0.9</v>
       </c>
       <c r="M35" s="7"/>
@@ -3800,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="L60" s="48">
-        <f t="shared" ref="L60:L94" si="6">ROUND(K60/28,1)</f>
+        <f t="shared" ref="L60:L96" si="6">ROUND(K60/28,1)</f>
         <v>0.4</v>
       </c>
     </row>
@@ -4069,7 +4068,7 @@
         <v>85</v>
       </c>
       <c r="K67" s="47">
-        <f t="shared" ref="K67:K94" si="7">E67*F67</f>
+        <f t="shared" ref="K67:K96" si="7">E67*F67</f>
         <v>36</v>
       </c>
       <c r="L67" s="48">
@@ -4294,7 +4293,7 @@
         <v>112</v>
       </c>
       <c r="H73" s="82">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="I73" s="56" t="s">
         <v>86</v>
@@ -5133,30 +5132,74 @@
     <row r="95" spans="1:12">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
+      <c r="C95" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" s="52">
+        <v>4</v>
+      </c>
+      <c r="F95" s="52">
+        <v>9</v>
+      </c>
+      <c r="G95" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" s="53">
+        <v>0.92</v>
+      </c>
+      <c r="I95" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" s="48">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="L95" s="48">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
+      <c r="C96" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" s="24">
+        <v>4</v>
+      </c>
+      <c r="F96" s="24">
+        <v>9</v>
+      </c>
+      <c r="G96" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" s="53">
+        <v>0.96</v>
+      </c>
+      <c r="I96" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J96" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="48">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="L96" s="48">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="7"/>
@@ -7147,10 +7190,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7247,18 +7290,18 @@
         <v>82</v>
       </c>
       <c r="K3" s="47">
-        <f t="shared" ref="K3:K5" si="0">E3*F3</f>
+        <f t="shared" ref="K3:K4" si="0">E3*F3</f>
         <v>112</v>
       </c>
       <c r="L3" s="48">
-        <f t="shared" ref="L3:L5" si="1">ROUND(K3/28,1)</f>
+        <f t="shared" ref="L3:L4" si="1">ROUND(K3/28,1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="8"/>
       <c r="B4" s="14">
-        <f t="shared" ref="B4:B14" si="2">B3+1</f>
+        <f t="shared" ref="B4:B12" si="2">B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -7297,9 +7340,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>63</v>
       </c>
       <c r="E5" s="52">
@@ -7317,78 +7360,78 @@
         <v>64</v>
       </c>
       <c r="K5" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K5:K7" si="3">E5*F5</f>
         <v>36</v>
       </c>
       <c r="L5" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L5:L7" si="4">ROUND(K5/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M5" s="92"/>
       <c r="N5" s="92"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="25.5">
       <c r="A6" s="8"/>
       <c r="B6" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>63</v>
+      <c r="C6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="E6" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G6" s="52"/>
       <c r="H6" s="53"/>
       <c r="I6" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="65" t="s">
-        <v>64</v>
+        <v>86</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="48">
-        <f t="shared" ref="K6:K10" si="3">E6*F6</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="L6" s="48">
-        <f t="shared" ref="L6:L10" si="4">ROUND(K6/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="M6" s="92"/>
       <c r="N6" s="92"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="38.25">
       <c r="A7" s="8"/>
       <c r="B7" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>218</v>
+      <c r="C7" s="70" t="s">
+        <v>216</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E7" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="52">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>64</v>
+      <c r="H7" s="89"/>
+      <c r="I7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K7" s="48">
         <f t="shared" si="3"/>
@@ -7401,114 +7444,60 @@
       <c r="M7" s="92"/>
       <c r="N7" s="92"/>
     </row>
-    <row r="8" spans="1:14" ht="25.5">
+    <row r="8" spans="1:14">
       <c r="A8" s="8"/>
       <c r="B8" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="52">
-        <v>4</v>
-      </c>
-      <c r="F8" s="52">
-        <v>6</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="48">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="L8" s="48">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
       <c r="M8" s="92"/>
       <c r="N8" s="92"/>
     </row>
-    <row r="9" spans="1:14" ht="25.5">
+    <row r="9" spans="1:14">
       <c r="A9" s="8"/>
       <c r="B9" s="14">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="24">
-        <v>6</v>
-      </c>
-      <c r="F9" s="24">
-        <v>6</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="48">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="L9" s="48">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="92"/>
       <c r="N9" s="92"/>
     </row>
-    <row r="10" spans="1:14" ht="38.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="8"/>
       <c r="B10" s="14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C10" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="52">
-        <v>6</v>
-      </c>
-      <c r="F10" s="52">
-        <v>6</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="48">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="L10" s="48">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="92"/>
       <c r="N10" s="92"/>
     </row>
@@ -7518,14 +7507,14 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="66"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="58"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
       <c r="M11" s="92"/>
@@ -7537,13 +7526,13 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="66"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="58"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
@@ -7552,18 +7541,15 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8"/>
-      <c r="B13" s="14">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="66"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="58"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
       <c r="M13" s="92"/>
@@ -7571,63 +7557,56 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8"/>
-      <c r="B14" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="35"/>
       <c r="H14" s="66"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="29"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="58"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="8"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="35"/>
       <c r="H15" s="66"/>
       <c r="I15" s="5"/>
       <c r="J15" s="58"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="66"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="29"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="58"/>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8"/>
       <c r="B17" s="35"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="58"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -7635,10 +7614,10 @@
     <row r="18" spans="1:12">
       <c r="A18" s="8"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="66"/>
       <c r="I18" s="5"/>
@@ -7649,10 +7628,10 @@
     <row r="19" spans="1:12">
       <c r="A19" s="8"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="35"/>
       <c r="H19" s="66"/>
       <c r="I19" s="5"/>
@@ -7663,13 +7642,13 @@
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="66"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="58"/>
       <c r="K20" s="49"/>
       <c r="L20" s="49"/>
@@ -7691,10 +7670,10 @@
     <row r="22" spans="1:12">
       <c r="A22" s="8"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="66"/>
       <c r="I22" s="5"/>
@@ -7705,44 +7684,44 @@
     <row r="23" spans="1:12">
       <c r="A23" s="8"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="66"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="49"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="49"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8"/>
       <c r="B24" s="35"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="49"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="49"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8"/>
@@ -7756,7 +7735,7 @@
       <c r="I26" s="33"/>
       <c r="J26" s="29"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="49"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8"/>
@@ -7770,7 +7749,7 @@
       <c r="I27" s="33"/>
       <c r="J27" s="29"/>
       <c r="K27" s="15"/>
-      <c r="L27" s="49"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8"/>
@@ -7780,7 +7759,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="57"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="33"/>
       <c r="J28" s="29"/>
       <c r="K28" s="15"/>
@@ -7927,7 +7906,6 @@
       <c r="L38" s="15"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="8"/>
       <c r="B39" s="35"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -7941,7 +7919,6 @@
       <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="8"/>
       <c r="B40" s="35"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -8098,6 +8075,7 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:12">
+      <c r="A52" s="7"/>
       <c r="B52" s="35"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -8111,6 +8089,7 @@
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="1:12">
+      <c r="A53" s="7"/>
       <c r="B53" s="35"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -8167,7 +8146,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="7"/>
-      <c r="B57" s="35"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -8181,7 +8160,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="7"/>
-      <c r="B58" s="35"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -8868,54 +8847,24 @@
     <row r="107" spans="1:12">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="33"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="15"/>
       <c r="L107" s="15"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="15"/>
       <c r="L108" s="15"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
-      <c r="L110" s="15"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
-      <c r="L111" s="15"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="7"/>
@@ -9032,14 +8981,6 @@
     <row r="140" spans="1:2">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:L2">

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="13395" windowHeight="6180" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="13395" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="Coursera" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="217">
   <si>
     <t>#</t>
   </si>
@@ -589,9 +589,6 @@
   </si>
   <si>
     <t>Statistical reasoning for public health 2: regression models</t>
-  </si>
-  <si>
-    <t>Introduction to finance</t>
   </si>
   <si>
     <t>Managing the company of the future</t>
@@ -848,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1121,21 +1118,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1458,9 +1446,7 @@
   </sheetPr>
   <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1472,7 +1458,7 @@
     <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="100" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="98" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="17"/>
     <col min="12" max="12" width="17.140625" style="17" customWidth="1"/>
@@ -1560,18 +1546,18 @@
         <v>82</v>
       </c>
       <c r="K3" s="47">
-        <f t="shared" ref="K3:K34" si="0">E3*F3</f>
+        <f>E3*F3</f>
         <v>32</v>
       </c>
       <c r="L3" s="48">
-        <f t="shared" ref="L3:L34" si="1">ROUND(K3/28,1)</f>
+        <f>ROUND(K3/28,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B4" s="14">
-        <f t="shared" ref="B4:B35" si="2">B3+1</f>
+        <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1599,18 +1585,18 @@
         <v>81</v>
       </c>
       <c r="K4" s="47">
-        <f t="shared" si="0"/>
+        <f>E4*F4</f>
         <v>48</v>
       </c>
       <c r="L4" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K4/28,1)</f>
         <v>1.7</v>
       </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B5" s="14">
-        <f t="shared" si="2"/>
+        <f>B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -1638,18 +1624,18 @@
         <v>79</v>
       </c>
       <c r="K5" s="47">
-        <f t="shared" si="0"/>
+        <f>E5*F5</f>
         <v>36</v>
       </c>
       <c r="L5" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K5/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B6" s="14">
-        <f t="shared" si="2"/>
+        <f>B5+1</f>
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1677,18 +1663,18 @@
         <v>79</v>
       </c>
       <c r="K6" s="47">
-        <f t="shared" si="0"/>
+        <f>E6*F6</f>
         <v>36</v>
       </c>
       <c r="L6" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K6/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B7" s="14">
-        <f t="shared" si="2"/>
+        <f>B6+1</f>
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1716,18 +1702,18 @@
         <v>79</v>
       </c>
       <c r="K7" s="47">
-        <f t="shared" si="0"/>
+        <f>E7*F7</f>
         <v>36</v>
       </c>
       <c r="L7" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K7/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B8" s="14">
-        <f t="shared" si="2"/>
+        <f>B7+1</f>
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1755,18 +1741,18 @@
         <v>79</v>
       </c>
       <c r="K8" s="47">
-        <f t="shared" si="0"/>
+        <f>E8*F8</f>
         <v>36</v>
       </c>
       <c r="L8" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K8/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B9" s="14">
-        <f t="shared" si="2"/>
+        <f>B8+1</f>
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1794,18 +1780,18 @@
         <v>79</v>
       </c>
       <c r="K9" s="47">
-        <f t="shared" si="0"/>
+        <f>E9*F9</f>
         <v>36</v>
       </c>
       <c r="L9" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K9/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B10" s="14">
-        <f t="shared" si="2"/>
+        <f>B9+1</f>
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1833,11 +1819,11 @@
         <v>79</v>
       </c>
       <c r="K10" s="47">
-        <f t="shared" si="0"/>
+        <f>E10*F10</f>
         <v>36</v>
       </c>
       <c r="L10" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K10/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M10" s="7"/>
@@ -1845,7 +1831,7 @@
     </row>
     <row r="11" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B11" s="14">
-        <f t="shared" si="2"/>
+        <f>B10+1</f>
         <v>9</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -1873,18 +1859,18 @@
         <v>79</v>
       </c>
       <c r="K11" s="47">
-        <f t="shared" si="0"/>
+        <f>E11*F11</f>
         <v>36</v>
       </c>
       <c r="L11" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K11/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B12" s="14">
-        <f t="shared" si="2"/>
+        <f>B11+1</f>
         <v>10</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -1912,11 +1898,11 @@
         <v>79</v>
       </c>
       <c r="K12" s="47">
-        <f t="shared" si="0"/>
+        <f>E12*F12</f>
         <v>36</v>
       </c>
       <c r="L12" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K12/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M12" s="3"/>
@@ -1924,11 +1910,11 @@
     </row>
     <row r="13" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B13" s="14">
-        <f t="shared" si="2"/>
+        <f>B12+1</f>
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>49</v>
@@ -1942,7 +1928,7 @@
       <c r="G13" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="108">
+      <c r="H13" s="105">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -1952,18 +1938,18 @@
         <v>79</v>
       </c>
       <c r="K13" s="47">
-        <f t="shared" si="0"/>
+        <f>E13*F13</f>
         <v>12</v>
       </c>
       <c r="L13" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K13/28,1)</f>
         <v>0.4</v>
       </c>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B14" s="14">
-        <f t="shared" si="2"/>
+        <f>B13+1</f>
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1991,18 +1977,18 @@
         <v>82</v>
       </c>
       <c r="K14" s="47">
-        <f t="shared" si="0"/>
+        <f>E14*F14</f>
         <v>28</v>
       </c>
       <c r="L14" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K14/28,1)</f>
         <v>1</v>
       </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:14" s="8" customFormat="1" ht="27" customHeight="1">
       <c r="B15" s="14">
-        <f t="shared" si="2"/>
+        <f>B14+1</f>
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2030,18 +2016,18 @@
         <v>81</v>
       </c>
       <c r="K15" s="47">
-        <f t="shared" si="0"/>
+        <f>E15*F15</f>
         <v>12</v>
       </c>
       <c r="L15" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K15/28,1)</f>
         <v>0.4</v>
       </c>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" s="8" customFormat="1" ht="25.5" customHeight="1">
       <c r="B16" s="14">
-        <f t="shared" si="2"/>
+        <f>B15+1</f>
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2069,18 +2055,18 @@
         <v>79</v>
       </c>
       <c r="K16" s="47">
-        <f t="shared" si="0"/>
+        <f>E16*F16</f>
         <v>24</v>
       </c>
       <c r="L16" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K16/28,1)</f>
         <v>0.9</v>
       </c>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B17" s="14">
-        <f t="shared" si="2"/>
+        <f>B16+1</f>
         <v>15</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -2108,18 +2094,18 @@
         <v>157</v>
       </c>
       <c r="K17" s="47">
-        <f t="shared" si="0"/>
+        <f>E17*F17</f>
         <v>30</v>
       </c>
       <c r="L17" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K17/28,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B18" s="14">
-        <f t="shared" si="2"/>
+        <f>B17+1</f>
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2147,18 +2133,18 @@
         <v>157</v>
       </c>
       <c r="K18" s="47">
-        <f t="shared" si="0"/>
+        <f>E18*F18</f>
         <v>32</v>
       </c>
       <c r="L18" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K18/28,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B19" s="14">
-        <f t="shared" si="2"/>
+        <f>B18+1</f>
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2186,11 +2172,11 @@
         <v>82</v>
       </c>
       <c r="K19" s="47">
-        <f t="shared" si="0"/>
+        <f>E19*F19</f>
         <v>18</v>
       </c>
       <c r="L19" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K19/28,1)</f>
         <v>0.6</v>
       </c>
       <c r="M19" s="7"/>
@@ -2198,11 +2184,11 @@
     </row>
     <row r="20" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B20" s="14">
-        <f t="shared" si="2"/>
+        <f>B19+1</f>
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>135</v>
@@ -2226,18 +2212,18 @@
         <v>82</v>
       </c>
       <c r="K20" s="47">
-        <f t="shared" si="0"/>
+        <f>E20*F20</f>
         <v>9</v>
       </c>
       <c r="L20" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K20/28,1)</f>
         <v>0.3</v>
       </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B21" s="14">
-        <f t="shared" si="2"/>
+        <f>B20+1</f>
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2265,18 +2251,18 @@
         <v>109</v>
       </c>
       <c r="K21" s="47">
-        <f t="shared" si="0"/>
+        <f>E21*F21</f>
         <v>24</v>
       </c>
       <c r="L21" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K21/28,1)</f>
         <v>0.9</v>
       </c>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B22" s="14">
-        <f t="shared" si="2"/>
+        <f>B21+1</f>
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -2304,18 +2290,18 @@
         <v>82</v>
       </c>
       <c r="K22" s="47">
-        <f t="shared" si="0"/>
+        <f>E22*F22</f>
         <v>18</v>
       </c>
       <c r="L22" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K22/28,1)</f>
         <v>0.6</v>
       </c>
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B23" s="14">
-        <f t="shared" si="2"/>
+        <f>B22+1</f>
         <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -2343,18 +2329,18 @@
         <v>81</v>
       </c>
       <c r="K23" s="47">
-        <f t="shared" si="0"/>
+        <f>E23*F23</f>
         <v>32</v>
       </c>
       <c r="L23" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K23/28,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B24" s="14">
-        <f t="shared" si="2"/>
+        <f>B23+1</f>
         <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2382,18 +2368,18 @@
         <v>83</v>
       </c>
       <c r="K24" s="47">
-        <f t="shared" si="0"/>
+        <f>E24*F24</f>
         <v>54</v>
       </c>
       <c r="L24" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K24/28,1)</f>
         <v>1.9</v>
       </c>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B25" s="14">
-        <f t="shared" si="2"/>
+        <f>B24+1</f>
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -2421,18 +2407,18 @@
         <v>82</v>
       </c>
       <c r="K25" s="47">
-        <f t="shared" si="0"/>
+        <f>E25*F25</f>
         <v>27</v>
       </c>
       <c r="L25" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K25/28,1)</f>
         <v>1</v>
       </c>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B26" s="14">
-        <f t="shared" si="2"/>
+        <f>B25+1</f>
         <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -2460,11 +2446,11 @@
         <v>83</v>
       </c>
       <c r="K26" s="47">
-        <f t="shared" si="0"/>
+        <f>E26*F26</f>
         <v>30</v>
       </c>
       <c r="L26" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K26/28,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M26" s="3"/>
@@ -2472,7 +2458,7 @@
     </row>
     <row r="27" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B27" s="14">
-        <f t="shared" si="2"/>
+        <f>B26+1</f>
         <v>25</v>
       </c>
       <c r="C27" s="20" t="s">
@@ -2500,18 +2486,18 @@
         <v>82</v>
       </c>
       <c r="K27" s="47">
-        <f t="shared" si="0"/>
+        <f>E27*F27</f>
         <v>18</v>
       </c>
       <c r="L27" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K27/28,1)</f>
         <v>0.6</v>
       </c>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B28" s="14">
-        <f t="shared" si="2"/>
+        <f>B27+1</f>
         <v>26</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -2539,11 +2525,11 @@
         <v>82</v>
       </c>
       <c r="K28" s="47">
-        <f t="shared" si="0"/>
+        <f>E28*F28</f>
         <v>56</v>
       </c>
       <c r="L28" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K28/28,1)</f>
         <v>2</v>
       </c>
       <c r="M28" s="7"/>
@@ -2551,7 +2537,7 @@
     </row>
     <row r="29" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B29" s="14">
-        <f t="shared" si="2"/>
+        <f>B28+1</f>
         <v>27</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -2579,18 +2565,18 @@
         <v>64</v>
       </c>
       <c r="K29" s="47">
-        <f t="shared" si="0"/>
+        <f>E29*F29</f>
         <v>36</v>
       </c>
       <c r="L29" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K29/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B30" s="14">
-        <f t="shared" si="2"/>
+        <f>B29+1</f>
         <v>28</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -2618,17 +2604,17 @@
         <v>64</v>
       </c>
       <c r="K30" s="47">
-        <f t="shared" si="0"/>
+        <f>E30*F30</f>
         <v>36</v>
       </c>
       <c r="L30" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K30/28,1)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B31" s="14">
-        <f t="shared" si="2"/>
+        <f>B30+1</f>
         <v>29</v>
       </c>
       <c r="C31" s="20" t="s">
@@ -2656,17 +2642,17 @@
         <v>64</v>
       </c>
       <c r="K31" s="47">
-        <f t="shared" si="0"/>
+        <f>E31*F31</f>
         <v>35</v>
       </c>
       <c r="L31" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K31/28,1)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="2:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B32" s="14">
-        <f t="shared" si="2"/>
+        <f>B31+1</f>
         <v>30</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -2694,624 +2680,624 @@
         <v>64</v>
       </c>
       <c r="K32" s="47">
-        <f t="shared" si="0"/>
+        <f>E32*F32</f>
         <v>36</v>
       </c>
       <c r="L32" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K32/28,1)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B33" s="14">
-        <f t="shared" si="2"/>
+        <f>B32+1</f>
         <v>31</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="12" t="s">
+      <c r="C33" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="35">
-        <v>7</v>
-      </c>
-      <c r="F33" s="42">
-        <v>5</v>
+      <c r="E33" s="36">
+        <v>4</v>
+      </c>
+      <c r="F33" s="43">
+        <v>9</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="40">
-        <v>0.95</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="30" t="s">
+        <v>0.96</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>64</v>
       </c>
+      <c r="J33" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="K33" s="47">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>E33*F33</f>
+        <v>36</v>
       </c>
       <c r="L33" s="48">
-        <f t="shared" si="1"/>
+        <f>ROUND(K33/28,1)</f>
         <v>1.3</v>
       </c>
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B34" s="14">
-        <f t="shared" si="2"/>
+        <f>B33+1</f>
         <v>32</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>62</v>
+      <c r="C34" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="35">
         <v>4</v>
       </c>
-      <c r="F34" s="43">
-        <v>4</v>
-      </c>
-      <c r="G34" s="36" t="s">
+      <c r="F34" s="42">
+        <v>9</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H34" s="40">
-        <v>1</v>
-      </c>
-      <c r="I34" s="13" t="s">
+        <v>0.92</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="30" t="s">
         <v>64</v>
       </c>
       <c r="K34" s="47">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>E34*F34</f>
+        <v>36</v>
       </c>
       <c r="L34" s="48">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f>ROUND(K34/28,1)</f>
+        <v>1.3</v>
       </c>
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B35" s="14">
-        <f t="shared" si="2"/>
+        <f>B34+1</f>
         <v>33</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="36">
-        <v>8</v>
-      </c>
-      <c r="F35" s="43">
-        <v>3</v>
-      </c>
-      <c r="G35" s="36" t="s">
+      <c r="C35" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="35">
+        <v>7</v>
+      </c>
+      <c r="F35" s="42">
+        <v>5</v>
+      </c>
+      <c r="G35" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H35" s="40">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J35" s="25" t="s">
-        <v>82</v>
+      <c r="J35" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="K35" s="47">
-        <f t="shared" ref="K35:K66" si="3">E35*F35</f>
-        <v>24</v>
+        <f>E35*F35</f>
+        <v>35</v>
       </c>
       <c r="L35" s="48">
-        <f t="shared" ref="L35:L58" si="4">ROUND(K35/28,1)</f>
-        <v>0.9</v>
+        <f>ROUND(K35/28,1)</f>
+        <v>1.3</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B36" s="14">
-        <f t="shared" ref="B36:B67" si="5">B35+1</f>
+        <f>B35+1</f>
         <v>34</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="35">
-        <v>8</v>
-      </c>
-      <c r="F36" s="42">
-        <v>6</v>
-      </c>
-      <c r="G36" s="35" t="s">
+      <c r="C36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="36">
+        <v>4</v>
+      </c>
+      <c r="F36" s="43">
+        <v>4</v>
+      </c>
+      <c r="G36" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H36" s="40">
-        <v>0.79</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="K36" s="47">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>E36*F36</f>
+        <v>16</v>
       </c>
       <c r="L36" s="48">
-        <f t="shared" si="4"/>
-        <v>1.7</v>
+        <f>ROUND(K36/28,1)</f>
+        <v>0.6</v>
       </c>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B37" s="14">
-        <f t="shared" si="5"/>
+        <f>B36+1</f>
         <v>35</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="E37" s="36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F37" s="43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H37" s="40">
+        <v>1</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" s="47">
+        <f>E37*F37</f>
+        <v>24</v>
+      </c>
+      <c r="L37" s="48">
+        <f>ROUND(K37/28,1)</f>
         <v>0.9</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37" s="47">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="L37" s="48">
-        <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B38" s="14">
-        <f t="shared" si="5"/>
+        <f>B37+1</f>
         <v>36</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="35">
+        <v>8</v>
+      </c>
+      <c r="F38" s="42">
         <v>6</v>
-      </c>
-      <c r="F38" s="43">
-        <v>8</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="40">
-        <v>0.873</v>
-      </c>
-      <c r="I38" s="13" t="s">
+        <v>0.79</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J38" s="25" t="s">
-        <v>64</v>
+      <c r="J38" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="K38" s="47">
-        <f t="shared" si="3"/>
+        <f>E38*F38</f>
         <v>48</v>
       </c>
       <c r="L38" s="48">
-        <f t="shared" si="4"/>
+        <f>ROUND(K38/28,1)</f>
         <v>1.7</v>
       </c>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B39" s="14">
-        <f t="shared" si="5"/>
+        <f>B38+1</f>
         <v>37</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E39" s="36">
         <v>7</v>
       </c>
       <c r="F39" s="43">
-        <v>4</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="H39" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>82</v>
+        <v>0.9</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="K39" s="47">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f>E39*F39</f>
+        <v>56</v>
       </c>
       <c r="L39" s="48">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>ROUND(K39/28,1)</f>
+        <v>2</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1">
       <c r="B40" s="14">
-        <f t="shared" si="5"/>
+        <f>B39+1</f>
         <v>38</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="35">
+      <c r="C40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="36">
         <v>6</v>
       </c>
-      <c r="F40" s="42">
-        <v>4</v>
+      <c r="F40" s="43">
+        <v>8</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H40" s="40">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J40" s="30" t="s">
-        <v>82</v>
+        <v>0.873</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="K40" s="47">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f>E40*F40</f>
+        <v>48</v>
       </c>
       <c r="L40" s="48">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
+        <f>ROUND(K40/28,1)</f>
+        <v>1.7</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="29.25" customHeight="1">
       <c r="B41" s="14">
-        <f t="shared" si="5"/>
+        <f>B40+1</f>
         <v>39</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="35">
-        <v>5</v>
-      </c>
-      <c r="F41" s="42">
-        <v>8</v>
+      <c r="C41" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="36">
+        <v>7</v>
+      </c>
+      <c r="F41" s="43">
+        <v>4</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H41" s="40">
-        <v>0.95</v>
-      </c>
-      <c r="I41" s="12" t="s">
+        <v>0.98</v>
+      </c>
+      <c r="I41" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J41" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K41" s="47">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f>E41*F41</f>
+        <v>28</v>
       </c>
       <c r="L41" s="48">
-        <f t="shared" si="4"/>
-        <v>1.4</v>
+        <f>ROUND(K41/28,1)</f>
+        <v>1</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" ht="26.25" customHeight="1">
       <c r="B42" s="14">
-        <f t="shared" si="5"/>
+        <f>B41+1</f>
         <v>40</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>161</v>
+      <c r="C42" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="E42" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F42" s="42">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G42" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="40">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H42" s="40">
-        <v>0.83</v>
-      </c>
-      <c r="I42" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>81</v>
+      <c r="J42" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K42" s="47">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f>E42*F42</f>
+        <v>24</v>
       </c>
       <c r="L42" s="48">
-        <f t="shared" si="4"/>
-        <v>5.4</v>
+        <f>ROUND(K42/28,1)</f>
+        <v>0.9</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A43" s="99"/>
+      <c r="A43" s="97"/>
       <c r="B43" s="14">
-        <f t="shared" si="5"/>
+        <f>B42+1</f>
         <v>41</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="36">
+      <c r="C43" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="35">
         <v>5</v>
       </c>
-      <c r="F43" s="43">
-        <v>4</v>
-      </c>
-      <c r="G43" s="36" t="s">
+      <c r="F43" s="42">
+        <v>8</v>
+      </c>
+      <c r="G43" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H43" s="40">
-        <v>0.95799999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J43" s="30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K43" s="47">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>E43*F43</f>
+        <v>40</v>
       </c>
       <c r="L43" s="48">
-        <f t="shared" si="4"/>
-        <v>0.7</v>
+        <f>ROUND(K43/28,1)</f>
+        <v>1.4</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A44" s="99"/>
+      <c r="A44" s="97"/>
       <c r="B44" s="14">
-        <f t="shared" si="5"/>
+        <f>B43+1</f>
         <v>42</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>20</v>
+      <c r="C44" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>161</v>
       </c>
       <c r="E44" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F44" s="42">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H44" s="40">
-        <v>0.99</v>
-      </c>
-      <c r="I44" s="12" t="s">
+        <v>0.83</v>
+      </c>
+      <c r="I44" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="J44" s="30" t="s">
-        <v>79</v>
+      <c r="J44" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K44" s="47">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f>E44*F44</f>
+        <v>150</v>
       </c>
       <c r="L44" s="48">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
+        <f>ROUND(K44/28,1)</f>
+        <v>5.4</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" ht="26.25" customHeight="1">
       <c r="B45" s="14">
-        <f t="shared" si="5"/>
+        <f>B44+1</f>
         <v>43</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E45" s="36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F45" s="43">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="40">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>61</v>
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K45" s="47">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f>E45*F45</f>
+        <v>20</v>
       </c>
       <c r="L45" s="48">
-        <f t="shared" si="4"/>
-        <v>3.2</v>
+        <f>ROUND(K45/28,1)</f>
+        <v>0.7</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" ht="25.5">
       <c r="B46" s="14">
-        <f t="shared" si="5"/>
+        <f>B45+1</f>
         <v>44</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="36">
-        <v>10</v>
-      </c>
-      <c r="F46" s="43">
-        <v>3</v>
-      </c>
-      <c r="G46" s="36" t="s">
+      <c r="C46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="35">
+        <v>4</v>
+      </c>
+      <c r="F46" s="42">
+        <v>4</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="40">
+        <v>0.99</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="40">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="J46" s="30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K46" s="47">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f>E46*F46</f>
+        <v>16</v>
       </c>
       <c r="L46" s="48">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
+        <f>ROUND(K46/28,1)</f>
+        <v>0.6</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="8"/>
     </row>
     <row r="47" spans="1:14" ht="25.5">
       <c r="B47" s="14">
-        <f t="shared" si="5"/>
+        <f>B46+1</f>
         <v>45</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="36">
         <v>9</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="F47" s="43">
         <v>10</v>
       </c>
-      <c r="E47" s="35">
-        <v>8</v>
-      </c>
-      <c r="F47" s="42">
-        <v>6</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>86</v>
+      <c r="G47" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="H47" s="40">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>86</v>
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="J47" s="30" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K47" s="47">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>E47*F47</f>
+        <v>90</v>
       </c>
       <c r="L47" s="48">
-        <f t="shared" si="4"/>
-        <v>1.7</v>
+        <f>ROUND(K47/28,1)</f>
+        <v>3.2</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14">
       <c r="B48" s="14">
-        <f t="shared" si="5"/>
+        <f>B47+1</f>
         <v>46</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E48" s="36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F48" s="43">
         <v>3</v>
@@ -3319,73 +3305,73 @@
       <c r="G48" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H48" s="41">
-        <v>0.87</v>
-      </c>
-      <c r="I48" s="12" t="s">
+      <c r="H48" s="40">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I48" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J48" s="25" t="s">
-        <v>84</v>
+      <c r="J48" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K48" s="47">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f>E48*F48</f>
+        <v>30</v>
       </c>
       <c r="L48" s="48">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
+        <f>ROUND(K48/28,1)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="8"/>
     </row>
     <row r="49" spans="1:14" ht="25.5">
       <c r="B49" s="14">
-        <f t="shared" si="5"/>
+        <f>B48+1</f>
         <v>47</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E49" s="35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F49" s="42">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>86</v>
       </c>
       <c r="H49" s="40">
-        <v>0.78</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K49" s="47">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f>E49*F49</f>
+        <v>48</v>
       </c>
       <c r="L49" s="48">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
+        <f>ROUND(K49/28,1)</f>
+        <v>1.7</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14">
       <c r="B50" s="14">
-        <f t="shared" si="5"/>
+        <f>B49+1</f>
         <v>48</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>45</v>
@@ -3394,192 +3380,192 @@
         <v>5</v>
       </c>
       <c r="F50" s="43">
-        <v>9</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" s="40">
-        <v>0.89300000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="41">
+        <v>0.87</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J50" s="30" t="s">
+      <c r="J50" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K50" s="47">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f>E50*F50</f>
+        <v>15</v>
       </c>
       <c r="L50" s="48">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
+        <f>ROUND(K50/28,1)</f>
+        <v>0.5</v>
       </c>
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:14" ht="25.5">
       <c r="B51" s="14">
-        <f t="shared" si="5"/>
+        <f>B50+1</f>
         <v>49</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="36">
-        <v>8</v>
-      </c>
-      <c r="F51" s="43">
-        <v>6</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>112</v>
+      <c r="C51" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="35">
+        <v>5</v>
+      </c>
+      <c r="F51" s="42">
+        <v>9</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="H51" s="40">
-        <v>0.95299999999999996</v>
+        <v>0.78</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J51" s="25" t="s">
-        <v>192</v>
+      <c r="J51" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="K51" s="47">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>E51*F51</f>
+        <v>45</v>
       </c>
       <c r="L51" s="48">
-        <f t="shared" si="4"/>
-        <v>1.7</v>
+        <f>ROUND(K51/28,1)</f>
+        <v>1.6</v>
       </c>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="25.5">
+    <row r="52" spans="1:14">
       <c r="B52" s="14">
-        <f t="shared" si="5"/>
+        <f>B51+1</f>
         <v>50</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E52" s="24">
         <v>5</v>
       </c>
       <c r="F52" s="24">
-        <v>4</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="H52" s="53">
-        <v>1</v>
-      </c>
-      <c r="I52" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J52" s="65" t="s">
-        <v>79</v>
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="I52" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="K52" s="47">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>E52*F52</f>
+        <v>45</v>
       </c>
       <c r="L52" s="48">
-        <f t="shared" si="4"/>
-        <v>0.7</v>
+        <f>ROUND(K52/28,1)</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="25.5">
       <c r="B53" s="14">
-        <f t="shared" si="5"/>
+        <f>B52+1</f>
         <v>51</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="65" t="s">
-        <v>7</v>
+      <c r="C53" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>154</v>
       </c>
       <c r="E53" s="24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F53" s="24">
-        <v>4</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="H53" s="53">
-        <v>0.99</v>
-      </c>
-      <c r="I53" s="55" t="s">
-        <v>65</v>
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I53" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="J53" s="65" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="K53" s="47">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>E53*F53</f>
+        <v>48</v>
       </c>
       <c r="L53" s="48">
-        <f t="shared" si="4"/>
-        <v>0.7</v>
+        <f>ROUND(K53/28,1)</f>
+        <v>1.7</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
       <c r="A54" s="7"/>
       <c r="B54" s="14">
-        <f t="shared" si="5"/>
+        <f>B53+1</f>
         <v>52</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="56" t="s">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="E54" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54" s="24">
-        <v>4</v>
-      </c>
-      <c r="G54" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="52" t="s">
         <v>40</v>
       </c>
       <c r="H54" s="53">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="I54" s="55" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K54" s="47">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>E54*F54</f>
+        <v>36</v>
       </c>
       <c r="L54" s="48">
-        <f t="shared" si="4"/>
-        <v>0.7</v>
+        <f>ROUND(K54/28,1)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="25.5">
       <c r="A55" s="7"/>
       <c r="B55" s="14">
-        <f t="shared" si="5"/>
+        <f>B54+1</f>
         <v>53</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>7</v>
@@ -3588,39 +3574,39 @@
         <v>5</v>
       </c>
       <c r="F55" s="24">
-        <v>7</v>
-      </c>
-      <c r="G55" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="101">
-        <v>0.97</v>
-      </c>
-      <c r="I55" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="J55" s="56" t="s">
-        <v>82</v>
+      <c r="H55" s="53">
+        <v>1</v>
+      </c>
+      <c r="I55" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" s="65" t="s">
+        <v>79</v>
       </c>
       <c r="K55" s="47">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f>E55*F55</f>
+        <v>20</v>
       </c>
       <c r="L55" s="48">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
+        <f>ROUND(K55/28,1)</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="25.5">
       <c r="A56" s="7"/>
       <c r="B56" s="14">
-        <f t="shared" si="5"/>
+        <f>B55+1</f>
         <v>54</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="55" t="s">
+      <c r="C56" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="65" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="24">
@@ -3629,11 +3615,11 @@
       <c r="F56" s="24">
         <v>4</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="52" t="s">
         <v>40</v>
       </c>
       <c r="H56" s="53">
-        <v>0.93100000000000005</v>
+        <v>0.99</v>
       </c>
       <c r="I56" s="55" t="s">
         <v>65</v>
@@ -3642,415 +3628,415 @@
         <v>79</v>
       </c>
       <c r="K56" s="47">
-        <f t="shared" si="3"/>
+        <f>E56*F56</f>
         <v>20</v>
       </c>
       <c r="L56" s="48">
-        <f t="shared" si="4"/>
+        <f>ROUND(K56/28,1)</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="25.5">
       <c r="A57" s="7"/>
       <c r="B57" s="14">
-        <f t="shared" si="5"/>
+        <f>B56+1</f>
         <v>55</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>6</v>
+      <c r="C57" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="35">
-        <v>11</v>
-      </c>
-      <c r="F57" s="42">
+      <c r="E57" s="36">
+        <v>5</v>
+      </c>
+      <c r="F57" s="43">
         <v>4</v>
       </c>
-      <c r="G57" s="35" t="s">
-        <v>86</v>
+      <c r="G57" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="H57" s="40">
-        <v>0.751</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>86</v>
+        <v>0.93</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="J57" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K57" s="47">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f>E57*F57</f>
+        <v>20</v>
       </c>
       <c r="L57" s="48">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
+        <f>ROUND(K57/28,1)</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="25.5">
       <c r="A58" s="7"/>
       <c r="B58" s="14">
-        <f t="shared" si="5"/>
+        <f>B57+1</f>
         <v>56</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="12" t="s">
+      <c r="C58" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="35">
-        <v>11</v>
-      </c>
-      <c r="F58" s="42">
-        <v>4</v>
-      </c>
-      <c r="G58" s="35" t="s">
+      <c r="E58" s="36">
+        <v>5</v>
+      </c>
+      <c r="F58" s="43">
+        <v>7</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="105">
+        <v>0.97</v>
+      </c>
+      <c r="I58" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="H58" s="40">
-        <v>0.746</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="30" t="s">
-        <v>83</v>
+      <c r="J58" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="K58" s="47">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f>E58*F58</f>
+        <v>35</v>
       </c>
       <c r="L58" s="48">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
+        <f>ROUND(K58/28,1)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="25.5">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
-        <f t="shared" si="5"/>
+        <f>B58+1</f>
         <v>57</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="56" t="s">
+      <c r="C59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="52">
-        <v>3</v>
-      </c>
-      <c r="F59" s="52">
+      <c r="E59" s="24">
         <v>5</v>
       </c>
-      <c r="G59" s="52" t="s">
-        <v>112</v>
+      <c r="F59" s="24">
+        <v>4</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H59" s="53">
-        <v>0.96</v>
-      </c>
-      <c r="I59" s="56" t="s">
-        <v>163</v>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I59" s="55" t="s">
+        <v>65</v>
       </c>
       <c r="J59" s="65" t="s">
         <v>79</v>
       </c>
       <c r="K59" s="47">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="L59" s="28"/>
-    </row>
-    <row r="60" spans="1:14">
+        <f>E59*F59</f>
+        <v>20</v>
+      </c>
+      <c r="L59" s="48">
+        <f>ROUND(K59/28,1)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="25.5">
       <c r="A60" s="7"/>
       <c r="B60" s="14">
-        <f t="shared" si="5"/>
+        <f>B59+1</f>
         <v>58</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E60" s="35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F60" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H60" s="40">
-        <v>0.82599999999999996</v>
+        <v>0.751</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J60" s="30" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="K60" s="47">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>E60*F60</f>
+        <v>44</v>
       </c>
       <c r="L60" s="48">
-        <f t="shared" ref="L60:L96" si="6">ROUND(K60/28,1)</f>
-        <v>0.4</v>
+        <f>ROUND(K60/28,1)</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="25.5">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
-        <f t="shared" si="5"/>
+        <f>B60+1</f>
         <v>59</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>141</v>
+      <c r="C61" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="E61" s="35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F61" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="107">
-        <v>0.93</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J61" s="25" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="H61" s="40">
+        <v>0.746</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J61" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="K61" s="47">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f>E61*F61</f>
+        <v>44</v>
       </c>
       <c r="L61" s="48">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f>ROUND(K61/28,1)</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="25.5">
       <c r="A62" s="7"/>
       <c r="B62" s="14">
-        <f t="shared" si="5"/>
+        <f>B61+1</f>
         <v>60</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E62" s="42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F62" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G62" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H62" s="40">
-        <v>0.93700000000000006</v>
+        <v>0.96</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J62" s="30" t="s">
-        <v>83</v>
+        <v>163</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="K62" s="47">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="L62" s="48">
-        <f t="shared" si="6"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="25.5">
+        <f>E62*F62</f>
+        <v>15</v>
+      </c>
+      <c r="L62" s="28"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
-        <f t="shared" si="5"/>
+        <f>B62+1</f>
         <v>61</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>194</v>
+      <c r="C63" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="43">
-        <v>4</v>
-      </c>
-      <c r="F63" s="43">
-        <v>6</v>
-      </c>
-      <c r="G63" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="42">
+        <v>5</v>
+      </c>
+      <c r="F63" s="42">
+        <v>2</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H63" s="40">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I63" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H63" s="40">
-        <v>0.91</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>196</v>
-      </c>
       <c r="J63" s="30" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="K63" s="47">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f>E63*F63</f>
+        <v>10</v>
       </c>
       <c r="L63" s="48">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
+        <f>ROUND(K63/28,1)</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
       <c r="A64" s="7"/>
       <c r="B64" s="14">
-        <f t="shared" si="5"/>
+        <f>B63+1</f>
         <v>62</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="36">
-        <v>8</v>
-      </c>
-      <c r="F64" s="43">
-        <v>6</v>
+      <c r="C64" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="35">
+        <v>5</v>
+      </c>
+      <c r="F64" s="42">
+        <v>3</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H64" s="40">
-        <v>0.91800000000000004</v>
+        <v>40</v>
+      </c>
+      <c r="H64" s="104">
+        <v>0.93</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J64" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K64" s="47">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>E64*F64</f>
+        <v>15</v>
       </c>
       <c r="L64" s="48">
-        <f t="shared" si="6"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <f>ROUND(K64/28,1)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="25.5">
       <c r="A65" s="7"/>
       <c r="B65" s="14">
-        <f t="shared" si="5"/>
+        <f>B64+1</f>
         <v>63</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>118</v>
+      <c r="C65" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E65" s="35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F65" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H65" s="40">
-        <v>1</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J65" s="25" t="s">
-        <v>82</v>
+      <c r="J65" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="K65" s="47">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f>E65*F65</f>
+        <v>48</v>
       </c>
       <c r="L65" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
+        <f>ROUND(K65/28,1)</f>
+        <v>1.7</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="25.5">
       <c r="A66" s="7"/>
       <c r="B66" s="35">
-        <f t="shared" si="5"/>
+        <f>B65+1</f>
         <v>64</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>105</v>
+      <c r="C66" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="35">
+        <v>18</v>
+      </c>
+      <c r="E66" s="36">
+        <v>4</v>
+      </c>
+      <c r="F66" s="43">
         <v>6</v>
       </c>
-      <c r="F66" s="42">
-        <v>2</v>
-      </c>
-      <c r="G66" s="37" t="s">
-        <v>40</v>
+      <c r="G66" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="H66" s="40">
-        <v>0.74</v>
-      </c>
-      <c r="I66" s="39" t="s">
-        <v>86</v>
+        <v>0.91</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="J66" s="30" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="K66" s="47">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f>E66*F66</f>
+        <v>24</v>
       </c>
       <c r="L66" s="48">
-        <f t="shared" si="6"/>
-        <v>0.4</v>
+        <f>ROUND(K66/28,1)</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="25.5">
       <c r="A67" s="7"/>
       <c r="B67" s="35">
-        <f t="shared" si="5"/>
+        <f>B66+1</f>
         <v>65</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="E67" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F67" s="43">
         <v>6</v>
@@ -4059,436 +4045,436 @@
         <v>112</v>
       </c>
       <c r="H67" s="40">
-        <v>0.83299999999999996</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="I67" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J67" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K67" s="47">
-        <f t="shared" ref="K67:K96" si="7">E67*F67</f>
-        <v>36</v>
+        <f>E67*F67</f>
+        <v>48</v>
       </c>
       <c r="L67" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="25.5">
+        <f>ROUND(K67/28,1)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="7"/>
       <c r="B68" s="35">
-        <f t="shared" ref="B68:B94" si="8">B67+1</f>
+        <f>B67+1</f>
         <v>66</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>189</v>
+      <c r="C68" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="E68" s="35">
+        <v>7</v>
+      </c>
+      <c r="F68" s="42">
         <v>5</v>
-      </c>
-      <c r="F68" s="42">
-        <v>4</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H68" s="40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J68" s="30" t="s">
+      <c r="J68" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K68" s="47">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f>E68*F68</f>
+        <v>35</v>
       </c>
       <c r="L68" s="48">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="38.25">
+        <f>ROUND(K68/28,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="25.5">
       <c r="A69" s="7"/>
       <c r="B69" s="35">
-        <f t="shared" si="8"/>
+        <f>B68+1</f>
         <v>67</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E69" s="35">
         <v>6</v>
       </c>
       <c r="F69" s="42">
-        <v>7</v>
-      </c>
-      <c r="G69" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="37" t="s">
         <v>40</v>
       </c>
       <c r="H69" s="40">
-        <v>1</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>122</v>
+        <v>0.74</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="J69" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K69" s="47">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f>E69*F69</f>
+        <v>12</v>
       </c>
       <c r="L69" s="48">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="38.25">
+        <f>ROUND(K69/28,1)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="25.5">
       <c r="A70" s="7"/>
       <c r="B70" s="35">
-        <f t="shared" si="8"/>
+        <f>B69+1</f>
         <v>68</v>
       </c>
-      <c r="C70" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="42">
-        <v>4</v>
-      </c>
-      <c r="F70" s="42">
-        <v>5</v>
+      <c r="C70" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="43">
+        <v>6</v>
+      </c>
+      <c r="F70" s="43">
+        <v>6</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H70" s="40">
-        <v>0.95</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J70" s="25" t="s">
-        <v>82</v>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J70" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="K70" s="47">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f>E70*F70</f>
+        <v>36</v>
       </c>
       <c r="L70" s="48">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="38.25">
+        <f>ROUND(K70/28,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="25.5">
       <c r="A71" s="7"/>
       <c r="B71" s="35">
-        <f t="shared" si="8"/>
+        <f>B70+1</f>
         <v>69</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>27</v>
+        <v>187</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="E71" s="35">
+        <v>5</v>
+      </c>
+      <c r="F71" s="42">
         <v>4</v>
-      </c>
-      <c r="F71" s="42">
-        <v>5</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H71" s="40">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J71" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J71" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K71" s="47">
-        <f t="shared" si="7"/>
+        <f>E71*F71</f>
         <v>20</v>
       </c>
       <c r="L71" s="48">
-        <f t="shared" si="6"/>
+        <f>ROUND(K71/28,1)</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" ht="38.25">
       <c r="A72" s="7"/>
       <c r="B72" s="35">
-        <f t="shared" si="8"/>
+        <f>B71+1</f>
         <v>70</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E72" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F72" s="42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H72" s="40">
-        <v>0.90800000000000003</v>
+        <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J72" s="30" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K72" s="47">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f>E72*F72</f>
+        <v>42</v>
       </c>
       <c r="L72" s="48">
-        <f t="shared" si="6"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="25.5">
+        <f>ROUND(K72/28,1)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="38.25">
       <c r="A73" s="7"/>
       <c r="B73" s="35">
-        <f t="shared" si="8"/>
+        <f>B72+1</f>
         <v>71</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D73" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" s="24">
-        <v>6</v>
-      </c>
-      <c r="F73" s="24">
+      <c r="C73" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="52">
         <v>4</v>
       </c>
-      <c r="G73" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H73" s="82">
-        <v>0.92</v>
+      <c r="F73" s="52">
+        <v>5</v>
+      </c>
+      <c r="G73" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" s="53">
+        <v>0.95</v>
       </c>
       <c r="I73" s="56" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J73" s="65" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="K73" s="47">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f>E73*F73</f>
+        <v>20</v>
       </c>
       <c r="L73" s="49">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="26.25">
+        <f>ROUND(K73/28,1)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="38.25">
       <c r="A74" s="7"/>
       <c r="B74" s="14">
-        <f t="shared" si="8"/>
+        <f>B73+1</f>
         <v>72</v>
       </c>
-      <c r="C74" s="54" t="s">
-        <v>120</v>
+      <c r="C74" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="E74" s="35">
+        <v>4</v>
+      </c>
+      <c r="F74" s="42">
         <v>5</v>
       </c>
-      <c r="F74" s="42">
-        <v>3</v>
-      </c>
       <c r="G74" s="35" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H74" s="40">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J74" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K74" s="47">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f>E74*F74</f>
+        <v>20</v>
       </c>
       <c r="L74" s="48">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f>ROUND(K74/28,1)</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7"/>
       <c r="B75" s="14">
-        <f t="shared" si="8"/>
+        <f>B74+1</f>
         <v>73</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E75" s="24">
-        <v>6</v>
-      </c>
-      <c r="F75" s="24">
-        <v>6</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>112</v>
+      <c r="C75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="52">
+        <v>10</v>
+      </c>
+      <c r="F75" s="52">
+        <v>8</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>40</v>
       </c>
       <c r="H75" s="53">
-        <v>0.97</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I75" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J75" s="65" t="s">
-        <v>82</v>
+      <c r="J75" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="K75" s="47">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f>E75*F75</f>
+        <v>80</v>
       </c>
       <c r="L75" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <f>ROUND(K75/28,1)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="25.5">
       <c r="A76" s="7"/>
       <c r="B76" s="14">
-        <f t="shared" si="8"/>
+        <f>B75+1</f>
         <v>74</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="52">
+        <v>35</v>
+      </c>
+      <c r="E76" s="24">
         <v>6</v>
       </c>
-      <c r="F76" s="52">
-        <v>6</v>
-      </c>
-      <c r="G76" s="52" t="s">
+      <c r="F76" s="24">
+        <v>4</v>
+      </c>
+      <c r="G76" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H76" s="53">
-        <v>0.96</v>
+      <c r="H76" s="82">
+        <v>0.92</v>
       </c>
       <c r="I76" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J76" s="65" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="K76" s="47">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f>E76*F76</f>
+        <v>24</v>
       </c>
       <c r="L76" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="25.5">
+        <f>ROUND(K76/28,1)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="26.25">
       <c r="A77" s="7"/>
       <c r="B77" s="14">
-        <f t="shared" si="8"/>
+        <f>B76+1</f>
         <v>75</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>166</v>
+      <c r="C77" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>119</v>
       </c>
       <c r="E77" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" s="42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="H77" s="40">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K77" s="47">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f>E77*F77</f>
+        <v>15</v>
       </c>
       <c r="L77" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
+        <f>ROUND(K77/28,1)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="7"/>
       <c r="B78" s="14">
-        <f t="shared" si="8"/>
+        <f>B77+1</f>
         <v>76</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="E78" s="52">
+        <v>130</v>
+      </c>
+      <c r="E78" s="24">
         <v>6</v>
       </c>
-      <c r="F78" s="52">
+      <c r="F78" s="24">
         <v>6</v>
       </c>
-      <c r="G78" s="52" t="s">
+      <c r="G78" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H78" s="53">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>86</v>
@@ -4497,427 +4483,427 @@
         <v>82</v>
       </c>
       <c r="K78" s="47">
-        <f t="shared" si="7"/>
+        <f>E78*F78</f>
         <v>36</v>
       </c>
       <c r="L78" s="48">
-        <f t="shared" si="6"/>
+        <f>ROUND(K78/28,1)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="7"/>
       <c r="B79" s="14">
-        <f t="shared" si="8"/>
+        <f>B78+1</f>
         <v>77</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E79" s="36">
-        <v>9</v>
-      </c>
-      <c r="F79" s="43">
+        <v>130</v>
+      </c>
+      <c r="E79" s="35">
         <v>6</v>
       </c>
+      <c r="F79" s="42">
+        <v>6</v>
+      </c>
       <c r="G79" s="35" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H79" s="40">
-        <v>1</v>
-      </c>
-      <c r="I79" s="13" t="s">
+        <v>0.96</v>
+      </c>
+      <c r="I79" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J79" s="30" t="s">
+      <c r="J79" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K79" s="47">
-        <f t="shared" si="7"/>
-        <v>54</v>
+        <f>E79*F79</f>
+        <v>36</v>
       </c>
       <c r="L79" s="48">
-        <f t="shared" si="6"/>
-        <v>1.9</v>
+        <f>ROUND(K79/28,1)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="25.5">
       <c r="A80" s="7"/>
       <c r="B80" s="14">
-        <f t="shared" si="8"/>
+        <f>B79+1</f>
         <v>78</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E80" s="24">
-        <v>7</v>
-      </c>
-      <c r="F80" s="24">
-        <v>4</v>
+      <c r="C80" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" s="52">
+        <v>6</v>
+      </c>
+      <c r="F80" s="52">
+        <v>6</v>
       </c>
       <c r="G80" s="52" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H80" s="53">
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="I80" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J80" s="23" t="s">
-        <v>82</v>
+      <c r="J80" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K80" s="47">
-        <f t="shared" si="7"/>
-        <v>28</v>
+        <f>E80*F80</f>
+        <v>36</v>
       </c>
       <c r="L80" s="48">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>ROUND(K80/28,1)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="7"/>
       <c r="B81" s="14">
-        <f t="shared" si="8"/>
+        <f>B80+1</f>
         <v>79</v>
       </c>
-      <c r="C81" s="56" t="s">
-        <v>124</v>
+      <c r="C81" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="E81" s="52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F81" s="52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G81" s="52" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H81" s="53">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="I81" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J81" s="23" t="s">
+      <c r="J81" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K81" s="47">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f>E81*F81</f>
+        <v>36</v>
       </c>
       <c r="L81" s="48">
-        <f t="shared" si="6"/>
-        <v>2.9</v>
+        <f>ROUND(K81/28,1)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="7"/>
       <c r="B82" s="14">
-        <f t="shared" si="8"/>
+        <f>B81+1</f>
         <v>80</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="56" t="s">
+      <c r="C82" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E82" s="52">
-        <v>10</v>
-      </c>
-      <c r="F82" s="52">
-        <v>8</v>
+      <c r="E82" s="24">
+        <v>9</v>
+      </c>
+      <c r="F82" s="24">
+        <v>6</v>
       </c>
       <c r="G82" s="52" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H82" s="53">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="I82" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" s="55" t="s">
         <v>86</v>
       </c>
       <c r="J82" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K82" s="47">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f>E82*F82</f>
+        <v>54</v>
       </c>
       <c r="L82" s="48">
-        <f t="shared" si="6"/>
-        <v>2.9</v>
+        <f>ROUND(K82/28,1)</f>
+        <v>1.9</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="25.5">
       <c r="A83" s="7"/>
       <c r="B83" s="14">
-        <f t="shared" si="8"/>
+        <f>B82+1</f>
         <v>81</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="E83" s="24">
+        <v>7</v>
+      </c>
+      <c r="F83" s="24">
         <v>4</v>
       </c>
-      <c r="F83" s="24">
-        <v>3</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>40</v>
+      <c r="G83" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="H83" s="53">
-        <v>1</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="I83" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J83" s="65" t="s">
+      <c r="J83" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K83" s="47">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f>E83*F83</f>
+        <v>28</v>
       </c>
       <c r="L83" s="48">
-        <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="26.25">
+        <f>ROUND(K83/28,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="7"/>
       <c r="B84" s="14">
-        <f t="shared" si="8"/>
+        <f>B83+1</f>
         <v>82</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D84" s="88" t="s">
-        <v>12</v>
+      <c r="C84" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="55" t="s">
+        <v>47</v>
       </c>
       <c r="E84" s="52">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F84" s="52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G84" s="52" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H84" s="53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I84" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J84" s="65" t="s">
+      <c r="J84" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K84" s="47">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f>E84*F84</f>
+        <v>80</v>
       </c>
       <c r="L84" s="48">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="25.5">
+        <f>ROUND(K84/28,1)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="7"/>
       <c r="B85" s="14">
-        <f t="shared" si="8"/>
+        <f>B84+1</f>
         <v>83</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D85" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="24">
-        <v>4</v>
-      </c>
-      <c r="F85" s="24">
-        <v>4</v>
-      </c>
-      <c r="G85" s="24" t="s">
+      <c r="C85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="52">
+        <v>10</v>
+      </c>
+      <c r="F85" s="52">
+        <v>8</v>
+      </c>
+      <c r="G85" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H85" s="53">
-        <v>1</v>
-      </c>
-      <c r="I85" s="55" t="s">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I85" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J85" s="65" t="s">
+      <c r="J85" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K85" s="47">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f>E85*F85</f>
+        <v>80</v>
       </c>
       <c r="L85" s="48">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
+        <f>ROUND(K85/28,1)</f>
+        <v>2.9</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="25.5">
       <c r="A86" s="7"/>
       <c r="B86" s="14">
-        <f t="shared" si="8"/>
+        <f>B85+1</f>
         <v>84</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="52">
-        <v>7</v>
-      </c>
-      <c r="F86" s="52">
-        <v>6</v>
-      </c>
-      <c r="G86" s="52" t="s">
-        <v>112</v>
+      <c r="C86" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="24">
+        <v>4</v>
+      </c>
+      <c r="F86" s="24">
+        <v>3</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H86" s="53">
-        <v>0.88900000000000001</v>
+        <v>1</v>
       </c>
       <c r="I86" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J86" s="23" t="s">
+      <c r="J86" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K86" s="47">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f>E86*F86</f>
+        <v>12</v>
       </c>
       <c r="L86" s="48">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="25.5">
+        <f>ROUND(K86/28,1)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="26.25">
       <c r="A87" s="7"/>
       <c r="B87" s="14">
-        <f t="shared" si="8"/>
+        <f>B86+1</f>
         <v>85</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D87" s="56" t="s">
+      <c r="C87" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="88" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="52">
         <v>4</v>
       </c>
       <c r="F87" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G87" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H87" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I87" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J87" s="23" t="s">
+      <c r="J87" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K87" s="47">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f>E87*F87</f>
+        <v>16</v>
       </c>
       <c r="L87" s="48">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
+        <f>ROUND(K87/28,1)</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="25.5">
       <c r="A88" s="7"/>
       <c r="B88" s="14">
-        <f t="shared" si="8"/>
+        <f>B87+1</f>
         <v>86</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D88" s="56" t="s">
+      <c r="C88" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="52">
+      <c r="E88" s="24">
         <v>4</v>
       </c>
-      <c r="F88" s="52">
-        <v>6</v>
-      </c>
-      <c r="G88" s="52" t="s">
+      <c r="F88" s="24">
+        <v>4</v>
+      </c>
+      <c r="G88" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H88" s="53">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="I88" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J88" s="23" t="s">
+      <c r="J88" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K88" s="47">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f>E88*F88</f>
+        <v>16</v>
       </c>
       <c r="L88" s="48">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
+        <f>ROUND(K88/28,1)</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="25.5">
       <c r="A89" s="7"/>
       <c r="B89" s="14">
-        <f t="shared" si="8"/>
+        <f>B88+1</f>
         <v>87</v>
       </c>
-      <c r="C89" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" s="55" t="s">
+      <c r="C89" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="24">
-        <v>4</v>
-      </c>
-      <c r="F89" s="24">
-        <v>3</v>
+      <c r="E89" s="52">
+        <v>7</v>
+      </c>
+      <c r="F89" s="52">
+        <v>6</v>
       </c>
       <c r="G89" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H89" s="53">
-        <v>1</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I89" s="56" t="s">
         <v>86</v>
@@ -4926,294 +4912,325 @@
         <v>82</v>
       </c>
       <c r="K89" s="47">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f>E89*F89</f>
+        <v>42</v>
       </c>
       <c r="L89" s="48">
-        <f t="shared" si="6"/>
-        <v>0.4</v>
+        <f>ROUND(K89/28,1)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="25.5">
       <c r="A90" s="7"/>
       <c r="B90" s="14">
-        <f t="shared" si="8"/>
+        <f>B89+1</f>
         <v>88</v>
       </c>
-      <c r="C90" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="D90" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" s="24">
-        <v>5</v>
-      </c>
-      <c r="F90" s="24">
-        <v>5</v>
+      <c r="C90" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="52">
+        <v>4</v>
+      </c>
+      <c r="F90" s="52">
+        <v>6</v>
       </c>
       <c r="G90" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H90" s="53">
-        <v>0.88</v>
-      </c>
-      <c r="I90" s="55" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="I90" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J90" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K90" s="47">
-        <f t="shared" si="7"/>
-        <v>25</v>
+        <f>E90*F90</f>
+        <v>24</v>
       </c>
       <c r="L90" s="48">
-        <f t="shared" si="6"/>
+        <f>ROUND(K90/28,1)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" ht="25.5">
       <c r="A91" s="7"/>
       <c r="B91" s="14">
-        <f t="shared" si="8"/>
+        <f>B90+1</f>
         <v>89</v>
       </c>
-      <c r="C91" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="36">
-        <v>5</v>
-      </c>
-      <c r="F91" s="24">
+      <c r="C91" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="35">
         <v>4</v>
       </c>
-      <c r="G91" s="24" t="s">
-        <v>40</v>
+      <c r="F91" s="52">
+        <v>6</v>
+      </c>
+      <c r="G91" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="H91" s="53">
-        <v>0.89900000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="I91" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J91" s="23" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K91" s="48">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f>E91*F91</f>
+        <v>24</v>
       </c>
       <c r="L91" s="48">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
+        <f>ROUND(K91/28,1)</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="25.5">
       <c r="A92" s="7"/>
       <c r="B92" s="14">
-        <f t="shared" si="8"/>
+        <f>B91+1</f>
         <v>90</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" s="52">
-        <v>6</v>
-      </c>
-      <c r="F92" s="52">
-        <v>6</v>
+      <c r="C92" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="24">
+        <v>4</v>
+      </c>
+      <c r="F92" s="24">
+        <v>3</v>
       </c>
       <c r="G92" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H92" s="53">
-        <v>0.88900000000000001</v>
+        <v>1</v>
       </c>
       <c r="I92" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J92" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K92" s="47">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f>E92*F92</f>
+        <v>12</v>
       </c>
       <c r="L92" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <f>ROUND(K92/28,1)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="25.5">
       <c r="A93" s="7"/>
       <c r="B93" s="14">
-        <f t="shared" si="8"/>
+        <f>B92+1</f>
         <v>91</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E93" s="52">
-        <v>8</v>
-      </c>
-      <c r="F93" s="52">
-        <v>12</v>
+      <c r="C93" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93" s="24">
+        <v>5</v>
+      </c>
+      <c r="F93" s="24">
+        <v>5</v>
       </c>
       <c r="G93" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H93" s="53">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="I93" s="12" t="s">
+        <v>0.88</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J93" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K93" s="47">
-        <f t="shared" si="7"/>
-        <v>96</v>
+        <f>E93*F93</f>
+        <v>25</v>
       </c>
       <c r="L93" s="48">
-        <f t="shared" si="6"/>
-        <v>3.4</v>
+        <f>ROUND(K93/28,1)</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="7"/>
       <c r="B94" s="14">
-        <f t="shared" si="8"/>
+        <f>B93+1</f>
         <v>92</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="E94" s="35">
-        <v>8</v>
-      </c>
-      <c r="F94" s="52">
-        <v>15</v>
-      </c>
-      <c r="G94" s="102" t="s">
+      <c r="C94" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="36">
+        <v>5</v>
+      </c>
+      <c r="F94" s="24">
+        <v>4</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" s="53">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I94" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J94" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K94" s="48">
+        <f>E94*F94</f>
+        <v>20</v>
+      </c>
+      <c r="L94" s="48">
+        <f>ROUND(K94/28,1)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="25.5">
+      <c r="A95" s="7"/>
+      <c r="B95" s="14">
+        <f>B94+1</f>
+        <v>93</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="52">
+        <v>6</v>
+      </c>
+      <c r="F95" s="52">
+        <v>6</v>
+      </c>
+      <c r="G95" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="H94" s="89">
-        <v>0.9</v>
-      </c>
-      <c r="I94" s="90" t="s">
+      <c r="H95" s="53">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I95" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J94" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="K94" s="48">
-        <f t="shared" si="7"/>
-        <v>120</v>
-      </c>
-      <c r="L94" s="48">
-        <f t="shared" si="6"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E95" s="52">
-        <v>4</v>
-      </c>
-      <c r="F95" s="52">
-        <v>9</v>
-      </c>
-      <c r="G95" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H95" s="53">
-        <v>0.92</v>
-      </c>
-      <c r="I95" s="56" t="s">
-        <v>64</v>
-      </c>
       <c r="J95" s="23" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="K95" s="48">
-        <f t="shared" si="7"/>
+        <f>E95*F95</f>
         <v>36</v>
       </c>
       <c r="L95" s="48">
-        <f t="shared" si="6"/>
+        <f>ROUND(K95/28,1)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="D96" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E96" s="24">
-        <v>4</v>
-      </c>
-      <c r="F96" s="24">
-        <v>9</v>
+      <c r="B96" s="14">
+        <f>B95+1</f>
+        <v>94</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="52">
+        <v>8</v>
+      </c>
+      <c r="F96" s="52">
+        <v>12</v>
       </c>
       <c r="G96" s="52" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H96" s="53">
-        <v>0.96</v>
-      </c>
-      <c r="I96" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="J96" s="65" t="s">
-        <v>64</v>
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I96" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J96" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="K96" s="48">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f>E96*F96</f>
+        <v>96</v>
       </c>
       <c r="L96" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
+        <f>ROUND(K96/28,1)</f>
+        <v>3.4</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
+      <c r="B97" s="14">
+        <f>B96+1</f>
+        <v>95</v>
+      </c>
+      <c r="C97" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="52">
+        <v>8</v>
+      </c>
+      <c r="F97" s="52">
+        <v>15</v>
+      </c>
+      <c r="G97" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="H97" s="89">
+        <v>0.9</v>
+      </c>
+      <c r="I97" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="J97" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="K97" s="48">
+        <f>E97*F97</f>
+        <v>120</v>
+      </c>
+      <c r="L97" s="48">
+        <f>ROUND(K97/28,1)</f>
+        <v>4.3</v>
+      </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="7"/>
@@ -5819,7 +5836,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:L2">
-    <sortState ref="B3:L94">
+    <sortState ref="B3:L97">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
@@ -5925,10 +5942,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="65" t="s">
         <v>204</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>205</v>
       </c>
       <c r="E4" s="52">
         <v>4</v>
@@ -5989,7 +6006,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>152</v>
@@ -6022,10 +6039,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>197</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>198</v>
       </c>
       <c r="E7" s="42">
         <v>6</v>
@@ -6037,7 +6054,7 @@
         <v>0.78</v>
       </c>
       <c r="H7" s="95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I7" s="78">
         <f>E7*F7</f>
@@ -6055,10 +6072,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="E8" s="42">
         <v>5</v>
@@ -6070,7 +6087,7 @@
         <v>0.97</v>
       </c>
       <c r="H8" s="95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I8" s="42">
         <f>E8*F8</f>
@@ -6155,7 +6172,7 @@
         <v>174</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="52">
         <v>8</v>
@@ -6262,7 +6279,7 @@
       <c r="F14" s="52">
         <v>4</v>
       </c>
-      <c r="G14" s="106">
+      <c r="G14" s="103">
         <v>0.81</v>
       </c>
       <c r="H14" s="91" t="s">
@@ -6317,10 +6334,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E16" s="42">
         <v>5</v>
@@ -6361,7 +6378,7 @@
       <c r="F17" s="76">
         <v>5</v>
       </c>
-      <c r="G17" s="105">
+      <c r="G17" s="102">
         <v>0.94</v>
       </c>
       <c r="H17" s="77" t="s">
@@ -6395,7 +6412,7 @@
       <c r="G18" s="86">
         <v>0.8</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="101" t="s">
         <v>103</v>
       </c>
       <c r="I18" s="87">
@@ -7192,8 +7209,8 @@
   </sheetPr>
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7290,11 +7307,11 @@
         <v>82</v>
       </c>
       <c r="K3" s="47">
-        <f t="shared" ref="K3:K4" si="0">E3*F3</f>
+        <f t="shared" ref="K3" si="0">E3*F3</f>
         <v>112</v>
       </c>
       <c r="L3" s="48">
-        <f t="shared" ref="L3:L4" si="1">ROUND(K3/28,1)</f>
+        <f t="shared" ref="L3" si="1">ROUND(K3/28,1)</f>
         <v>4</v>
       </c>
     </row>
@@ -7304,143 +7321,107 @@
         <f t="shared" ref="B4:B12" si="2">B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="24">
-        <v>15</v>
-      </c>
-      <c r="F4" s="24">
-        <v>8</v>
-      </c>
-      <c r="G4" s="24"/>
+      <c r="C4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="52">
+        <v>4</v>
+      </c>
+      <c r="F4" s="52">
+        <v>9</v>
+      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="55" t="s">
-        <v>86</v>
+      <c r="I4" s="56" t="s">
+        <v>64</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="47">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>64</v>
+      </c>
+      <c r="K4" s="48">
+        <f t="shared" ref="K4:K5" si="3">E4*F4</f>
+        <v>36</v>
       </c>
       <c r="L4" s="48">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <f t="shared" ref="L4:L5" si="4">ROUND(K4/28,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="38.25">
       <c r="A5" s="8"/>
       <c r="B5" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>217</v>
+      <c r="C5" s="70" t="s">
+        <v>215</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E5" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="52">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" s="52"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>64</v>
+      <c r="H5" s="89"/>
+      <c r="I5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K5" s="48">
-        <f t="shared" ref="K5:K7" si="3">E5*F5</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="L5" s="48">
-        <f t="shared" ref="L5:L7" si="4">ROUND(K5/28,1)</f>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="M5" s="92"/>
       <c r="N5" s="92"/>
     </row>
-    <row r="6" spans="1:14" ht="25.5">
+    <row r="6" spans="1:14">
       <c r="A6" s="8"/>
       <c r="B6" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="24">
-        <v>6</v>
-      </c>
-      <c r="F6" s="24">
-        <v>6</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="48">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="L6" s="48">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
       <c r="M6" s="92"/>
       <c r="N6" s="92"/>
     </row>
-    <row r="7" spans="1:14" ht="38.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="8"/>
       <c r="B7" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C7" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="52">
-        <v>6</v>
-      </c>
-      <c r="F7" s="52">
-        <v>6</v>
-      </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="48">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="L7" s="48">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="92"/>
       <c r="N7" s="92"/>
     </row>
@@ -7454,9 +7435,9 @@
       <c r="D8" s="5"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="66"/>
-      <c r="I8" s="69"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="58"/>
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
@@ -7469,14 +7450,14 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="66"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="58"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="92"/>
@@ -7507,7 +7488,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="29"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -7526,13 +7507,13 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="35"/>
       <c r="H12" s="66"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="58"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
@@ -7542,14 +7523,14 @@
     <row r="13" spans="1:14">
       <c r="A13" s="8"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="35"/>
       <c r="H13" s="66"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="29"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="58"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
       <c r="M13" s="92"/>
@@ -7558,13 +7539,13 @@
     <row r="14" spans="1:14">
       <c r="A14" s="8"/>
       <c r="B14" s="35"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="66"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="58"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
@@ -7572,10 +7553,10 @@
     <row r="15" spans="1:14">
       <c r="A15" s="8"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="66"/>
       <c r="I15" s="5"/>
@@ -7600,10 +7581,10 @@
     <row r="17" spans="1:12">
       <c r="A17" s="8"/>
       <c r="B17" s="35"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="35"/>
       <c r="H17" s="66"/>
       <c r="I17" s="5"/>
@@ -7614,13 +7595,13 @@
     <row r="18" spans="1:12">
       <c r="A18" s="8"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="66"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="58"/>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
@@ -7628,10 +7609,10 @@
     <row r="19" spans="1:12">
       <c r="A19" s="8"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="66"/>
       <c r="I19" s="5"/>
@@ -7642,13 +7623,13 @@
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="66"/>
-      <c r="I20" s="33"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="58"/>
       <c r="K20" s="49"/>
       <c r="L20" s="49"/>
@@ -7656,29 +7637,29 @@
     <row r="21" spans="1:12">
       <c r="A21" s="8"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="49"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="49"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="49"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="49"/>
     </row>
     <row r="23" spans="1:12">
@@ -7689,11 +7670,11 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="32"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="33"/>
       <c r="J23" s="29"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="49"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8"/>
@@ -7707,7 +7688,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="29"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="49"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8"/>
@@ -7717,7 +7698,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="57"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="33"/>
       <c r="J25" s="29"/>
       <c r="K25" s="15"/>
@@ -8819,40 +8800,20 @@
     <row r="105" spans="1:12">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="15"/>
       <c r="L105" s="15"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="15"/>
       <c r="L106" s="15"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
-      <c r="L107" s="15"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
-      <c r="L108" s="15"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="7"/>
@@ -9153,7 +9114,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7"/>
-      <c r="B8" s="98"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="15"/>
       <c r="D8" s="29"/>
       <c r="E8" s="35"/>
@@ -9168,7 +9129,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="35"/>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -14,7 +14,7 @@
     <sheet name="In progress EdX" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursera!$B$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursera!$B$2:$L$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EdX!$B$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'In progress Coursera'!$B$2:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'In progress EdX'!$B$2:$J$2</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="229">
   <si>
     <t>#</t>
   </si>
@@ -679,6 +679,42 @@
   </si>
   <si>
     <t>Practical machine learning</t>
+  </si>
+  <si>
+    <t>Career readiness</t>
+  </si>
+  <si>
+    <t>Project management: the basics for success</t>
+  </si>
+  <si>
+    <t>Economics of money and banking, part 1</t>
+  </si>
+  <si>
+    <t>Colombia university, Barnard College</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Developing data products</t>
+  </si>
+  <si>
+    <t>Work smarter, not harder: time management for personal &amp; professional productivity</t>
+  </si>
+  <si>
+    <t>Finance for non-finance professionals</t>
+  </si>
+  <si>
+    <t>Communication in the 21st century workplace</t>
+  </si>
+  <si>
+    <t>Fundamentals of management</t>
+  </si>
+  <si>
+    <t>Essentials of entrepreneurship: thinking and action</t>
+  </si>
+  <si>
+    <t>The art of Negotiation</t>
   </si>
 </sst>
 </file>
@@ -845,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1096,14 +1132,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1125,9 +1155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1145,6 +1172,21 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1451,14 +1493,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="4"/>
     <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="98" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="96" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="17"/>
     <col min="12" max="12" width="17.140625" style="17" customWidth="1"/>
@@ -1926,9 +1968,9 @@
         <v>3</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="105">
+        <v>40</v>
+      </c>
+      <c r="H13" s="102">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -2709,7 +2751,7 @@
         <v>40</v>
       </c>
       <c r="H33" s="40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>64</v>
@@ -2748,7 +2790,7 @@
         <v>40</v>
       </c>
       <c r="H34" s="40">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>64</v>
@@ -3084,7 +3126,7 @@
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A43" s="97"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="14">
         <f>B42+1</f>
         <v>41</v>
@@ -3125,7 +3167,7 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A44" s="97"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="14">
         <f>B43+1</f>
         <v>42</v>
@@ -3148,7 +3190,7 @@
       <c r="H44" s="40">
         <v>0.83</v>
       </c>
-      <c r="I44" s="100" t="s">
+      <c r="I44" s="97" t="s">
         <v>86</v>
       </c>
       <c r="J44" s="25" t="s">
@@ -3597,43 +3639,43 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="25.5">
+    <row r="56" spans="1:14" ht="26.25">
       <c r="A56" s="7"/>
       <c r="B56" s="14">
         <f>B55+1</f>
         <v>54</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>104</v>
+      <c r="C56" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="D56" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="24">
-        <v>5</v>
-      </c>
-      <c r="F56" s="24">
-        <v>4</v>
+      <c r="E56" s="52">
+        <v>1</v>
+      </c>
+      <c r="F56" s="52">
+        <v>8</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H56" s="53">
-        <v>0.99</v>
-      </c>
-      <c r="I56" s="55" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="I56" s="56" t="s">
+        <v>217</v>
       </c>
       <c r="J56" s="65" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K56" s="47">
         <f>E56*F56</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L56" s="48">
         <f>ROUND(K56/28,1)</f>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="25.5">
@@ -3642,10 +3684,10 @@
         <f>B56+1</f>
         <v>55</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="12" t="s">
+      <c r="C57" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="36">
@@ -3654,16 +3696,16 @@
       <c r="F57" s="43">
         <v>4</v>
       </c>
-      <c r="G57" s="36" t="s">
+      <c r="G57" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H57" s="40">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J57" s="30" t="s">
+      <c r="J57" s="25" t="s">
         <v>79</v>
       </c>
       <c r="K57" s="47">
@@ -3675,82 +3717,82 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="25.5">
+    <row r="58" spans="1:14" ht="26.25">
       <c r="A58" s="7"/>
       <c r="B58" s="14">
         <f>B57+1</f>
         <v>56</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="36">
-        <v>5</v>
-      </c>
-      <c r="F58" s="43">
-        <v>7</v>
-      </c>
-      <c r="G58" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" s="105">
-        <v>0.97</v>
-      </c>
-      <c r="I58" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>82</v>
+      <c r="E58" s="35">
+        <v>1</v>
+      </c>
+      <c r="F58" s="42">
+        <v>8</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="40">
+        <v>1</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="K58" s="47">
         <f>E58*F58</f>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="L58" s="48">
         <f>ROUND(K58/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
         <f>B58+1</f>
         <v>57</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="55" t="s">
+      <c r="C59" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="24">
-        <v>5</v>
-      </c>
-      <c r="F59" s="24">
-        <v>4</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>40</v>
+      <c r="E59" s="52">
+        <v>1</v>
+      </c>
+      <c r="F59" s="52">
+        <v>8</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="H59" s="53">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="I59" s="55" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="I59" s="56" t="s">
+        <v>217</v>
       </c>
       <c r="J59" s="65" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K59" s="47">
         <f>E59*F59</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L59" s="48">
         <f>ROUND(K59/28,1)</f>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="25.5">
@@ -3759,76 +3801,76 @@
         <f>B59+1</f>
         <v>58</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>6</v>
+      <c r="C60" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="35">
-        <v>11</v>
-      </c>
-      <c r="F60" s="42">
+      <c r="E60" s="36">
+        <v>5</v>
+      </c>
+      <c r="F60" s="43">
         <v>4</v>
       </c>
-      <c r="G60" s="35" t="s">
-        <v>86</v>
+      <c r="G60" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="H60" s="40">
-        <v>0.751</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>86</v>
+        <v>0.93</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="J60" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K60" s="47">
         <f>E60*F60</f>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L60" s="48">
         <f>ROUND(K60/28,1)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
         <f>B60+1</f>
         <v>59</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="35">
+        <v>1</v>
+      </c>
+      <c r="F61" s="42">
         <v>8</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="35">
-        <v>11</v>
-      </c>
-      <c r="F61" s="42">
-        <v>4</v>
-      </c>
       <c r="G61" s="35" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="H61" s="40">
-        <v>0.746</v>
+        <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J61" s="30" t="s">
-        <v>83</v>
+        <v>217</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="K61" s="47">
         <f>E61*F61</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L61" s="48">
         <f>ROUND(K61/28,1)</f>
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="25.5">
@@ -3837,73 +3879,76 @@
         <f>B61+1</f>
         <v>60</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="12" t="s">
+      <c r="C62" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="42">
-        <v>3</v>
-      </c>
-      <c r="F62" s="52">
+      <c r="E62" s="43">
         <v>5</v>
       </c>
-      <c r="G62" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H62" s="40">
-        <v>0.96</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J62" s="25" t="s">
-        <v>79</v>
+      <c r="F62" s="24">
+        <v>7</v>
+      </c>
+      <c r="G62" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="102">
+        <v>0.97</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="K62" s="47">
         <f>E62*F62</f>
-        <v>15</v>
-      </c>
-      <c r="L62" s="28"/>
-    </row>
-    <row r="63" spans="1:14">
+        <v>35</v>
+      </c>
+      <c r="L62" s="48">
+        <f>ROUND(K62/28,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="25.5">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
         <f>B62+1</f>
         <v>61</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="42">
+      <c r="C63" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="43">
         <v>5</v>
       </c>
-      <c r="F63" s="42">
-        <v>2</v>
-      </c>
-      <c r="G63" s="42" t="s">
-        <v>112</v>
+      <c r="F63" s="43">
+        <v>4</v>
+      </c>
+      <c r="G63" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="H63" s="40">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J63" s="30" t="s">
-        <v>190</v>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="K63" s="47">
         <f>E63*F63</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L63" s="48">
         <f>ROUND(K63/28,1)</f>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
@@ -3913,75 +3958,75 @@
         <v>62</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="E64" s="35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64" s="42">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" s="104">
-        <v>0.93</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>59</v>
+        <v>112</v>
+      </c>
+      <c r="H64" s="40">
+        <v>1</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K64" s="47">
         <f>E64*F64</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L64" s="48">
         <f>ROUND(K64/28,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="7"/>
       <c r="B65" s="14">
         <f>B64+1</f>
         <v>63</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>18</v>
+      <c r="C65" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E65" s="35">
+        <v>1</v>
+      </c>
+      <c r="F65" s="42">
         <v>8</v>
-      </c>
-      <c r="F65" s="42">
-        <v>6</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>112</v>
       </c>
       <c r="H65" s="40">
-        <v>0.93700000000000006</v>
+        <v>1</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J65" s="30" t="s">
-        <v>83</v>
+        <v>217</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="K65" s="47">
         <f>E65*F65</f>
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="L65" s="48">
         <f>ROUND(K65/28,1)</f>
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="25.5">
@@ -3990,37 +4035,37 @@
         <f>B65+1</f>
         <v>64</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>193</v>
+      <c r="C66" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="36">
+        <v>7</v>
+      </c>
+      <c r="E66" s="35">
+        <v>11</v>
+      </c>
+      <c r="F66" s="42">
         <v>4</v>
       </c>
-      <c r="F66" s="43">
-        <v>6</v>
-      </c>
-      <c r="G66" s="36" t="s">
+      <c r="G66" s="35" t="s">
         <v>86</v>
       </c>
       <c r="H66" s="40">
-        <v>0.91</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>195</v>
+        <v>0.751</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="J66" s="30" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="K66" s="47">
         <f>E66*F66</f>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L66" s="48">
         <f>ROUND(K66/28,1)</f>
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="25.5">
@@ -4029,154 +4074,151 @@
         <f>B66+1</f>
         <v>65</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="36">
+      <c r="C67" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="43">
-        <v>6</v>
+      <c r="D67" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="35">
+        <v>11</v>
+      </c>
+      <c r="F67" s="42">
+        <v>4</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H67" s="40">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="I67" s="13" t="s">
+        <v>0.746</v>
+      </c>
+      <c r="I67" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J67" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67" s="47">
         <f>E67*F67</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L67" s="48">
         <f>ROUND(K67/28,1)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="25.5">
       <c r="A68" s="7"/>
       <c r="B68" s="35">
         <f>B67+1</f>
         <v>66</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>118</v>
+      <c r="C68" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="E68" s="35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F68" s="42">
         <v>5</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H68" s="40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K68" s="47">
         <f>E68*F68</f>
-        <v>35</v>
-      </c>
-      <c r="L68" s="48">
-        <f>ROUND(K68/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="25.5">
+        <v>15</v>
+      </c>
+      <c r="L68" s="28"/>
+    </row>
+    <row r="69" spans="1:12" ht="39">
       <c r="A69" s="7"/>
       <c r="B69" s="35">
         <f>B68+1</f>
         <v>67</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>76</v>
+      <c r="C69" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E69" s="35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F69" s="42">
-        <v>2</v>
-      </c>
-      <c r="G69" s="37" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="G69" s="35" t="s">
+        <v>112</v>
       </c>
       <c r="H69" s="40">
-        <v>0.74</v>
-      </c>
-      <c r="I69" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J69" s="30" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J69" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="K69" s="47">
         <f>E69*F69</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L69" s="48">
         <f>ROUND(K69/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="7"/>
       <c r="B70" s="35">
         <f>B69+1</f>
         <v>68</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" s="43">
-        <v>6</v>
-      </c>
-      <c r="F70" s="43">
-        <v>6</v>
+      <c r="C70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="42">
+        <v>5</v>
+      </c>
+      <c r="F70" s="42">
+        <v>2</v>
       </c>
       <c r="G70" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H70" s="40">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="I70" s="13" t="s">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I70" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="K70" s="47">
         <f>E70*F70</f>
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L70" s="48">
         <f>ROUND(K70/28,1)</f>
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="25.5">
@@ -4185,154 +4227,154 @@
         <f>B70+1</f>
         <v>69</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>188</v>
+      <c r="C71" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="E71" s="35">
         <v>5</v>
       </c>
       <c r="F71" s="42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H71" s="40">
-        <v>0.9</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J71" s="30" t="s">
+      <c r="H71" s="101">
+        <v>0.93</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J71" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K71" s="47">
         <f>E71*F71</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L71" s="48">
         <f>ROUND(K71/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="38.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="25.5">
       <c r="A72" s="7"/>
       <c r="B72" s="35">
         <f>B71+1</f>
         <v>70</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E72" s="35">
+        <v>8</v>
+      </c>
+      <c r="F72" s="42">
         <v>6</v>
       </c>
-      <c r="F72" s="42">
-        <v>7</v>
-      </c>
       <c r="G72" s="35" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H72" s="40">
-        <v>1</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="J72" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K72" s="47">
         <f>E72*F72</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L72" s="48">
         <f>ROUND(K72/28,1)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="38.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="25.5">
       <c r="A73" s="7"/>
       <c r="B73" s="35">
         <f>B72+1</f>
         <v>71</v>
       </c>
-      <c r="C73" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="52">
+      <c r="C73" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="24">
         <v>4</v>
       </c>
-      <c r="F73" s="52">
-        <v>5</v>
-      </c>
-      <c r="G73" s="52" t="s">
-        <v>40</v>
+      <c r="F73" s="24">
+        <v>6</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="H73" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="I73" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="J73" s="65" t="s">
-        <v>82</v>
+        <v>0.91</v>
+      </c>
+      <c r="I73" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="J73" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="K73" s="47">
         <f>E73*F73</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L73" s="49">
         <f>ROUND(K73/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="38.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="25.5">
       <c r="A74" s="7"/>
       <c r="B74" s="14">
         <f>B73+1</f>
         <v>72</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" s="35">
-        <v>4</v>
-      </c>
-      <c r="F74" s="42">
-        <v>5</v>
+      <c r="C74" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="36">
+        <v>8</v>
+      </c>
+      <c r="F74" s="43">
+        <v>6</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H74" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J74" s="25" t="s">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J74" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K74" s="47">
         <f>E74*F74</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L74" s="48">
         <f>ROUND(K74/28,1)</f>
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4341,37 +4383,37 @@
         <f>B74+1</f>
         <v>73</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" s="56" t="s">
-        <v>35</v>
+      <c r="C75" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="65" t="s">
+        <v>118</v>
       </c>
       <c r="E75" s="52">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F75" s="52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G75" s="52" t="s">
         <v>40</v>
       </c>
       <c r="H75" s="53">
-        <v>0.90800000000000003</v>
+        <v>1</v>
       </c>
       <c r="I75" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J75" s="23" t="s">
-        <v>64</v>
+      <c r="J75" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="K75" s="47">
         <f>E75*F75</f>
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="L75" s="48">
         <f>ROUND(K75/28,1)</f>
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="25.5">
@@ -4380,232 +4422,232 @@
         <f>B75+1</f>
         <v>74</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="24">
+      <c r="C76" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="52">
         <v>6</v>
       </c>
-      <c r="F76" s="24">
-        <v>4</v>
-      </c>
-      <c r="G76" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H76" s="82">
-        <v>0.92</v>
-      </c>
-      <c r="I76" s="56" t="s">
+      <c r="F76" s="52">
+        <v>2</v>
+      </c>
+      <c r="G76" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76" s="53">
+        <v>0.74</v>
+      </c>
+      <c r="I76" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="J76" s="65" t="s">
-        <v>210</v>
+      <c r="J76" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K76" s="47">
         <f>E76*F76</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L76" s="48">
         <f>ROUND(K76/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="26.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="25.5">
       <c r="A77" s="7"/>
       <c r="B77" s="14">
         <f>B76+1</f>
         <v>75</v>
       </c>
-      <c r="C77" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E77" s="42">
-        <v>5</v>
-      </c>
-      <c r="F77" s="42">
-        <v>3</v>
+      <c r="C77" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="43">
+        <v>6</v>
+      </c>
+      <c r="F77" s="43">
+        <v>6</v>
       </c>
       <c r="G77" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H77" s="40">
-        <v>0.91</v>
-      </c>
-      <c r="I77" s="12" t="s">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I77" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J77" s="25" t="s">
-        <v>82</v>
+      <c r="J77" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="K77" s="47">
         <f>E77*F77</f>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L77" s="48">
         <f>ROUND(K77/28,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="25.5">
       <c r="A78" s="7"/>
       <c r="B78" s="14">
         <f>B77+1</f>
         <v>76</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D78" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E78" s="24">
-        <v>6</v>
-      </c>
-      <c r="F78" s="24">
-        <v>6</v>
-      </c>
-      <c r="G78" s="24" t="s">
-        <v>112</v>
+      <c r="C78" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="52">
+        <v>5</v>
+      </c>
+      <c r="F78" s="52">
+        <v>4</v>
+      </c>
+      <c r="G78" s="52" t="s">
+        <v>40</v>
       </c>
       <c r="H78" s="53">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J78" s="65" t="s">
+      <c r="J78" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K78" s="47">
         <f>E78*F78</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L78" s="48">
         <f>ROUND(K78/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="38.25">
       <c r="A79" s="7"/>
       <c r="B79" s="14">
         <f>B78+1</f>
         <v>77</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>130</v>
+      <c r="C79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E79" s="35">
         <v>6</v>
       </c>
       <c r="F79" s="42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H79" s="40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J79" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J79" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K79" s="47">
         <f>E79*F79</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L79" s="48">
         <f>ROUND(K79/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="25.5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="38.25">
       <c r="A80" s="7"/>
       <c r="B80" s="14">
         <f>B79+1</f>
         <v>78</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" s="56" t="s">
-        <v>166</v>
+      <c r="C80" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="E80" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F80" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G80" s="52" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H80" s="53">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I80" s="56" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J80" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K80" s="47">
         <f>E80*F80</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L80" s="48">
         <f>ROUND(K80/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="38.25">
       <c r="A81" s="7"/>
       <c r="B81" s="14">
         <f>B80+1</f>
         <v>79</v>
       </c>
-      <c r="C81" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" s="55" t="s">
-        <v>146</v>
+      <c r="C81" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="E81" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F81" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G81" s="52" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H81" s="53">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="I81" s="56" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J81" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K81" s="47">
         <f>E81*F81</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L81" s="48">
         <f>ROUND(K81/28,1)</f>
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4614,37 +4656,37 @@
         <f>B81+1</f>
         <v>80</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D82" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E82" s="24">
-        <v>9</v>
-      </c>
-      <c r="F82" s="24">
-        <v>6</v>
+      <c r="C82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="52">
+        <v>10</v>
+      </c>
+      <c r="F82" s="52">
+        <v>8</v>
       </c>
       <c r="G82" s="52" t="s">
         <v>40</v>
       </c>
       <c r="H82" s="53">
-        <v>1</v>
-      </c>
-      <c r="I82" s="55" t="s">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="I82" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J82" s="23" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K82" s="47">
         <f>E82*F82</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="L82" s="48">
         <f>ROUND(K82/28,1)</f>
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="25.5">
@@ -4654,75 +4696,75 @@
         <v>81</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E83" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" s="24">
         <v>4</v>
       </c>
-      <c r="G83" s="52" t="s">
+      <c r="G83" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H83" s="53">
-        <v>0.97499999999999998</v>
+      <c r="H83" s="82">
+        <v>0.92</v>
       </c>
       <c r="I83" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J83" s="23" t="s">
-        <v>82</v>
+      <c r="J83" s="65" t="s">
+        <v>210</v>
       </c>
       <c r="K83" s="47">
         <f>E83*F83</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L83" s="48">
         <f>ROUND(K83/28,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="26.25">
       <c r="A84" s="7"/>
       <c r="B84" s="14">
         <f>B83+1</f>
         <v>82</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D84" s="55" t="s">
-        <v>47</v>
+      <c r="C84" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="65" t="s">
+        <v>119</v>
       </c>
       <c r="E84" s="52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F84" s="52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G84" s="52" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H84" s="53">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="I84" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J84" s="23" t="s">
+      <c r="J84" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K84" s="47">
         <f>E84*F84</f>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="L84" s="48">
         <f>ROUND(K84/28,1)</f>
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4731,62 +4773,62 @@
         <f>B84+1</f>
         <v>83</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" s="52">
-        <v>10</v>
-      </c>
-      <c r="F85" s="52">
-        <v>8</v>
-      </c>
-      <c r="G85" s="52" t="s">
+      <c r="C85" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="24">
+        <v>6</v>
+      </c>
+      <c r="F85" s="24">
+        <v>6</v>
+      </c>
+      <c r="G85" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H85" s="53">
-        <v>0.90500000000000003</v>
+        <v>0.97</v>
       </c>
       <c r="I85" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J85" s="23" t="s">
+      <c r="J85" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K85" s="47">
         <f>E85*F85</f>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L85" s="48">
         <f>ROUND(K85/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="25.5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="7"/>
       <c r="B86" s="14">
         <f>B85+1</f>
         <v>84</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="24">
-        <v>4</v>
-      </c>
-      <c r="F86" s="24">
-        <v>3</v>
-      </c>
-      <c r="G86" s="24" t="s">
-        <v>40</v>
+        <v>130</v>
+      </c>
+      <c r="E86" s="52">
+        <v>6</v>
+      </c>
+      <c r="F86" s="52">
+        <v>6</v>
+      </c>
+      <c r="G86" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="H86" s="53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="I86" s="56" t="s">
         <v>86</v>
@@ -4796,33 +4838,33 @@
       </c>
       <c r="K86" s="47">
         <f>E86*F86</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L86" s="48">
         <f>ROUND(K86/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="26.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="25.5">
       <c r="A87" s="7"/>
       <c r="B87" s="14">
         <f>B86+1</f>
         <v>85</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="88" t="s">
-        <v>12</v>
+      <c r="C87" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="56" t="s">
+        <v>166</v>
       </c>
       <c r="E87" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F87" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G87" s="52" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H87" s="53">
         <v>1</v>
@@ -4831,42 +4873,42 @@
         <v>86</v>
       </c>
       <c r="J87" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K87" s="47">
         <f>E87*F87</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L87" s="48">
         <f>ROUND(K87/28,1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="25.5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="7"/>
       <c r="B88" s="14">
         <f>B87+1</f>
         <v>86</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="24">
-        <v>4</v>
-      </c>
-      <c r="F88" s="24">
-        <v>4</v>
-      </c>
-      <c r="G88" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="52">
+        <v>6</v>
+      </c>
+      <c r="F88" s="52">
+        <v>6</v>
+      </c>
+      <c r="G88" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H88" s="53">
-        <v>1</v>
-      </c>
-      <c r="I88" s="55" t="s">
+        <v>0.89</v>
+      </c>
+      <c r="I88" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J88" s="65" t="s">
@@ -4874,38 +4916,38 @@
       </c>
       <c r="K88" s="47">
         <f>E88*F88</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L88" s="48">
         <f>ROUND(K88/28,1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="25.5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="14">
         <f>B88+1</f>
         <v>87</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="52">
-        <v>7</v>
-      </c>
-      <c r="F89" s="52">
+      <c r="C89" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="24">
+        <v>9</v>
+      </c>
+      <c r="F89" s="24">
         <v>6</v>
       </c>
       <c r="G89" s="52" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H89" s="53">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="I89" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="55" t="s">
         <v>86</v>
       </c>
       <c r="J89" s="23" t="s">
@@ -4913,11 +4955,11 @@
       </c>
       <c r="K89" s="47">
         <f>E89*F89</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L89" s="48">
         <f>ROUND(K89/28,1)</f>
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="25.5">
@@ -4926,23 +4968,23 @@
         <f>B89+1</f>
         <v>88</v>
       </c>
-      <c r="C90" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="52">
+      <c r="C90" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" s="24">
+        <v>7</v>
+      </c>
+      <c r="F90" s="24">
         <v>4</v>
-      </c>
-      <c r="F90" s="52">
-        <v>6</v>
       </c>
       <c r="G90" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H90" s="53">
-        <v>0.9</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="I90" s="56" t="s">
         <v>86</v>
@@ -4952,36 +4994,36 @@
       </c>
       <c r="K90" s="47">
         <f>E90*F90</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L90" s="48">
         <f>ROUND(K90/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="25.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="7"/>
       <c r="B91" s="14">
         <f>B90+1</f>
         <v>89</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>12</v>
+        <v>124</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="E91" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F91" s="52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G91" s="52" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H91" s="53">
-        <v>0.83299999999999996</v>
+        <v>0.98</v>
       </c>
       <c r="I91" s="56" t="s">
         <v>86</v>
@@ -4991,36 +5033,36 @@
       </c>
       <c r="K91" s="48">
         <f>E91*F91</f>
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="L91" s="48">
         <f>ROUND(K91/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="25.5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="7"/>
       <c r="B92" s="14">
         <f>B91+1</f>
         <v>90</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D92" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="24">
-        <v>4</v>
-      </c>
-      <c r="F92" s="24">
-        <v>3</v>
+      <c r="C92" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="52">
+        <v>10</v>
+      </c>
+      <c r="F92" s="52">
+        <v>8</v>
       </c>
       <c r="G92" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H92" s="53">
-        <v>1</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I92" s="56" t="s">
         <v>86</v>
@@ -5030,11 +5072,11 @@
       </c>
       <c r="K92" s="47">
         <f>E92*F92</f>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L92" s="48">
         <f>ROUND(K92/28,1)</f>
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="25.5">
@@ -5044,75 +5086,75 @@
         <v>91</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D93" s="55" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E93" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" s="24">
-        <v>5</v>
-      </c>
-      <c r="G93" s="52" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H93" s="53">
-        <v>0.88</v>
-      </c>
-      <c r="I93" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J93" s="30" t="s">
+      <c r="J93" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K93" s="47">
         <f>E93*F93</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L93" s="48">
         <f>ROUND(K93/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="26.25">
       <c r="A94" s="7"/>
       <c r="B94" s="14">
         <f>B93+1</f>
         <v>92</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94" s="36">
-        <v>5</v>
-      </c>
-      <c r="F94" s="24">
+      <c r="C94" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="35">
         <v>4</v>
       </c>
-      <c r="G94" s="24" t="s">
-        <v>40</v>
+      <c r="F94" s="52">
+        <v>4</v>
+      </c>
+      <c r="G94" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="H94" s="53">
-        <v>0.89900000000000002</v>
+        <v>1</v>
       </c>
       <c r="I94" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J94" s="23" t="s">
-        <v>64</v>
+      <c r="J94" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="K94" s="48">
         <f>E94*F94</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L94" s="48">
         <f>ROUND(K94/28,1)</f>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="25.5">
@@ -5121,62 +5163,62 @@
         <f>B94+1</f>
         <v>93</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" s="52">
-        <v>6</v>
-      </c>
-      <c r="F95" s="52">
-        <v>6</v>
-      </c>
-      <c r="G95" s="52" t="s">
+      <c r="C95" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="24">
+        <v>4</v>
+      </c>
+      <c r="F95" s="24">
+        <v>4</v>
+      </c>
+      <c r="G95" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H95" s="53">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="I95" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J95" s="23" t="s">
-        <v>81</v>
+      <c r="J95" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="K95" s="48">
         <f>E95*F95</f>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L95" s="48">
         <f>ROUND(K95/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="25.5">
       <c r="A96" s="7"/>
       <c r="B96" s="14">
         <f>B95+1</f>
         <v>94</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D96" s="56" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E96" s="52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" s="52">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G96" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H96" s="53">
-        <v>0.84699999999999998</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I96" s="56" t="s">
         <v>86</v>
@@ -5186,149 +5228,324 @@
       </c>
       <c r="K96" s="48">
         <f>E96*F96</f>
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="L96" s="48">
         <f>ROUND(K96/28,1)</f>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="25.5">
       <c r="A97" s="7"/>
       <c r="B97" s="14">
         <f>B96+1</f>
         <v>95</v>
       </c>
-      <c r="C97" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="88" t="s">
-        <v>31</v>
+      <c r="C97" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="56" t="s">
+        <v>12</v>
       </c>
       <c r="E97" s="52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F97" s="52">
-        <v>15</v>
-      </c>
-      <c r="G97" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="H97" s="89">
+      <c r="H97" s="53">
         <v>0.9</v>
       </c>
-      <c r="I97" s="90" t="s">
+      <c r="I97" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J97" s="65" t="s">
-        <v>180</v>
+      <c r="J97" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="K97" s="48">
         <f>E97*F97</f>
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="L97" s="48">
         <f>ROUND(K97/28,1)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="25.5">
       <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="B98" s="14">
+        <f>B97+1</f>
+        <v>96</v>
+      </c>
+      <c r="C98" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="52">
+        <v>4</v>
+      </c>
+      <c r="F98" s="52">
+        <v>6</v>
+      </c>
+      <c r="G98" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H98" s="53">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I98" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J98" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K98" s="48">
+        <f>E98*F98</f>
+        <v>24</v>
+      </c>
+      <c r="L98" s="48">
+        <f>ROUND(K98/28,1)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="25.5">
       <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="B99" s="14">
+        <f>B98+1</f>
+        <v>97</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="36">
+        <v>4</v>
+      </c>
+      <c r="F99" s="43">
+        <v>3</v>
+      </c>
+      <c r="G99" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H99" s="40">
+        <v>1</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J99" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K99" s="47">
+        <f>E99*F99</f>
+        <v>12</v>
+      </c>
+      <c r="L99" s="48">
+        <f>ROUND(K99/28,1)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="25.5">
       <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
+      <c r="B100" s="14">
+        <f>B99+1</f>
+        <v>98</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" s="36">
+        <v>5</v>
+      </c>
+      <c r="F100" s="43">
+        <v>5</v>
+      </c>
+      <c r="G100" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H100" s="40">
+        <v>0.88</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J100" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K100" s="47">
+        <f>E100*F100</f>
+        <v>25</v>
+      </c>
+      <c r="L100" s="48">
+        <f>ROUND(K100/28,1)</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="B101" s="14">
+        <f>B100+1</f>
+        <v>99</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="36">
+        <v>5</v>
+      </c>
+      <c r="F101" s="43">
+        <v>4</v>
+      </c>
+      <c r="G101" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H101" s="40">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K101" s="47">
+        <f>E101*F101</f>
+        <v>20</v>
+      </c>
+      <c r="L101" s="48">
+        <f>ROUND(K101/28,1)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="25.5">
       <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
+      <c r="B102" s="14">
+        <f>B101+1</f>
+        <v>100</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="35">
+        <v>6</v>
+      </c>
+      <c r="F102" s="42">
+        <v>6</v>
+      </c>
+      <c r="G102" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H102" s="40">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J102" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K102" s="47">
+        <f>E102*F102</f>
+        <v>36</v>
+      </c>
+      <c r="L102" s="48">
+        <f>ROUND(K102/28,1)</f>
+        <v>1.3</v>
+      </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
+      <c r="B103" s="14">
+        <f>B102+1</f>
+        <v>101</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="35">
+        <v>8</v>
+      </c>
+      <c r="F103" s="42">
+        <v>12</v>
+      </c>
+      <c r="G103" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H103" s="40">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J103" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K103" s="47">
+        <f>E103*F103</f>
+        <v>96</v>
+      </c>
+      <c r="L103" s="48">
+        <f>ROUND(K103/28,1)</f>
+        <v>3.4</v>
+      </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
+      <c r="B104" s="14">
+        <f>B103+1</f>
+        <v>102</v>
+      </c>
+      <c r="C104" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="35">
+        <v>8</v>
+      </c>
+      <c r="F104" s="42">
+        <v>15</v>
+      </c>
+      <c r="G104" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="H104" s="105">
+        <v>0.9</v>
+      </c>
+      <c r="I104" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="J104" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="K104" s="47">
+        <f>E104*F104</f>
+        <v>120</v>
+      </c>
+      <c r="L104" s="48">
+        <f>ROUND(K104/28,1)</f>
+        <v>4.3</v>
+      </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="7"/>
@@ -5835,9 +6052,9 @@
       <c r="B142" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:L2">
-    <sortState ref="B3:L97">
-      <sortCondition ref="D2"/>
+  <autoFilter ref="B2:L104">
+    <sortState ref="B3:L104">
+      <sortCondition ref="D2:D104"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5852,7 +6069,9 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5956,7 +6175,7 @@
       <c r="G4" s="53">
         <v>1</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="93" t="s">
         <v>82</v>
       </c>
       <c r="I4" s="42">
@@ -6020,7 +6239,7 @@
       <c r="G6" s="40">
         <v>0.91</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="93" t="s">
         <v>82</v>
       </c>
       <c r="I6" s="78">
@@ -6053,7 +6272,7 @@
       <c r="G7" s="40">
         <v>0.78</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="93" t="s">
         <v>198</v>
       </c>
       <c r="I7" s="78">
@@ -6086,7 +6305,7 @@
       <c r="G8" s="40">
         <v>0.97</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="93" t="s">
         <v>207</v>
       </c>
       <c r="I8" s="42">
@@ -6116,7 +6335,7 @@
       <c r="F9" s="76">
         <v>8</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="92">
         <v>0.85</v>
       </c>
       <c r="H9" s="77" t="s">
@@ -6183,7 +6402,7 @@
       <c r="G11" s="53">
         <v>0.88</v>
       </c>
-      <c r="H11" s="91" t="s">
+      <c r="H11" s="89" t="s">
         <v>81</v>
       </c>
       <c r="I11" s="78">
@@ -6246,7 +6465,7 @@
       <c r="F13" s="76">
         <v>4</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="92">
         <v>1</v>
       </c>
       <c r="H13" s="77" t="s">
@@ -6279,10 +6498,10 @@
       <c r="F14" s="52">
         <v>4</v>
       </c>
-      <c r="G14" s="103">
+      <c r="G14" s="100">
         <v>0.81</v>
       </c>
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="89" t="s">
         <v>82</v>
       </c>
       <c r="I14" s="78">
@@ -6315,7 +6534,7 @@
       <c r="G15" s="53">
         <v>1</v>
       </c>
-      <c r="H15" s="91" t="s">
+      <c r="H15" s="89" t="s">
         <v>82</v>
       </c>
       <c r="I15" s="87">
@@ -6348,7 +6567,7 @@
       <c r="G16" s="40">
         <v>0.81</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="93" t="s">
         <v>82</v>
       </c>
       <c r="I16" s="78">
@@ -6378,7 +6597,7 @@
       <c r="F17" s="76">
         <v>5</v>
       </c>
-      <c r="G17" s="102">
+      <c r="G17" s="99">
         <v>0.94</v>
       </c>
       <c r="H17" s="77" t="s">
@@ -6412,7 +6631,7 @@
       <c r="G18" s="86">
         <v>0.8</v>
       </c>
-      <c r="H18" s="101" t="s">
+      <c r="H18" s="98" t="s">
         <v>103</v>
       </c>
       <c r="I18" s="87">
@@ -7209,9 +7428,7 @@
   </sheetPr>
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7369,7 +7586,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="52"/>
-      <c r="H5" s="89"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="12" t="s">
         <v>122</v>
       </c>
@@ -7384,27 +7601,45 @@
         <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5">
       <c r="A6" s="8"/>
       <c r="B6" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="C6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="42">
+        <v>7</v>
+      </c>
+      <c r="F6" s="52">
+        <v>7</v>
+      </c>
+      <c r="G6" s="103"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="48">
+        <f t="shared" ref="K6:K7" si="5">E6*F6</f>
+        <v>49</v>
+      </c>
+      <c r="L6" s="48">
+        <f t="shared" ref="L6:L7" si="6">ROUND(K6/28,1)</f>
+        <v>1.8</v>
+      </c>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8"/>
@@ -7412,18 +7647,36 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
+      <c r="C7" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="43">
+        <v>4</v>
+      </c>
+      <c r="F7" s="43">
+        <v>9</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="47">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L7" s="48">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8"/>
@@ -7441,8 +7694,8 @@
       <c r="J8" s="58"/>
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8"/>
@@ -7460,8 +7713,8 @@
       <c r="J9" s="29"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8"/>
@@ -7479,8 +7732,8 @@
       <c r="J10" s="58"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="8"/>
@@ -7498,8 +7751,8 @@
       <c r="J11" s="29"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="8"/>
@@ -7517,8 +7770,8 @@
       <c r="J12" s="58"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8"/>
@@ -7533,8 +7786,8 @@
       <c r="J13" s="58"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8"/>
@@ -8981,7 +9234,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25">
-      <c r="A1" s="92"/>
+      <c r="A1" s="90"/>
       <c r="B1" s="7"/>
       <c r="C1" s="72" t="s">
         <v>175</v>
@@ -8997,7 +9250,7 @@
       <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="25.5">
-      <c r="A2" s="93"/>
+      <c r="A2" s="91"/>
       <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
@@ -9029,7 +9282,7 @@
       <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="92"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="74">
         <v>1</v>
       </c>
@@ -9038,14 +9291,14 @@
       <c r="E3" s="52"/>
       <c r="F3" s="42"/>
       <c r="G3" s="40"/>
-      <c r="H3" s="95"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="78"/>
       <c r="J3" s="73"/>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="92"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="74">
         <f>B3+1</f>
         <v>2</v>
@@ -9055,14 +9308,14 @@
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
       <c r="G4" s="53"/>
-      <c r="H4" s="91"/>
+      <c r="H4" s="89"/>
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="92"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="74">
         <f>B4+1</f>
         <v>3</v>
@@ -9072,14 +9325,14 @@
       <c r="E5" s="42"/>
       <c r="F5" s="52"/>
       <c r="G5" s="53"/>
-      <c r="H5" s="91"/>
+      <c r="H5" s="89"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="92"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="74">
         <f>B5+1</f>
         <v>4</v>
@@ -9089,14 +9342,14 @@
       <c r="E6" s="42"/>
       <c r="F6" s="52"/>
       <c r="G6" s="53"/>
-      <c r="H6" s="91"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="92"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="74">
         <f>B6+1</f>
         <v>5</v>
@@ -9114,7 +9367,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7"/>
-      <c r="B8" s="96"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="15"/>
       <c r="D8" s="29"/>
       <c r="E8" s="35"/>
@@ -9129,7 +9382,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7"/>
-      <c r="B9" s="96"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="35"/>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -14,7 +14,7 @@
     <sheet name="In progress EdX" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursera!$B$2:$L$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursera!$B$2:$L$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EdX!$B$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'In progress Coursera'!$B$2:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'In progress EdX'!$B$2:$J$2</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="232">
   <si>
     <t>#</t>
   </si>
@@ -714,7 +714,16 @@
     <t>Essentials of entrepreneurship: thinking and action</t>
   </si>
   <si>
-    <t>The art of Negotiation</t>
+    <t>√</t>
+  </si>
+  <si>
+    <t>High-impact business writing</t>
+  </si>
+  <si>
+    <t>The art of negotiation</t>
+  </si>
+  <si>
+    <t>Effective problem-solving and decision-making</t>
   </si>
 </sst>
 </file>
@@ -881,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1167,17 +1176,11 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1185,8 +1188,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1498,7 +1519,7 @@
     <col min="4" max="4" width="31.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="4"/>
     <col min="6" max="6" width="16" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="9" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="38" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" style="96" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -1515,7 +1536,6 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
       <c r="H1" s="32"/>
       <c r="I1" s="5"/>
       <c r="J1" s="29"/>
@@ -1536,10 +1556,10 @@
       <c r="E2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="45" t="s">
@@ -1572,11 +1592,11 @@
       <c r="E3" s="35">
         <v>8</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="52">
         <v>4</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>40</v>
+      <c r="G3" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H3" s="40">
         <v>1</v>
@@ -1611,10 +1631,10 @@
       <c r="E4" s="35">
         <v>12</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="52">
         <v>4</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="42" t="s">
         <v>86</v>
       </c>
       <c r="H4" s="40">
@@ -1650,11 +1670,11 @@
       <c r="E5" s="36">
         <v>6</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="24">
         <v>6</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>40</v>
+      <c r="G5" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H5" s="40">
         <v>0.86699999999999999</v>
@@ -1689,11 +1709,11 @@
       <c r="E6" s="36">
         <v>6</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="24">
         <v>6</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>40</v>
+      <c r="G6" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H6" s="40">
         <v>0.93300000000000005</v>
@@ -1728,11 +1748,11 @@
       <c r="E7" s="36">
         <v>6</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="24">
         <v>6</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>40</v>
+      <c r="G7" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H7" s="40">
         <v>0.93</v>
@@ -1767,11 +1787,11 @@
       <c r="E8" s="36">
         <v>6</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="24">
         <v>6</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>40</v>
+      <c r="G8" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H8" s="40">
         <v>0.88</v>
@@ -1806,11 +1826,11 @@
       <c r="E9" s="36">
         <v>6</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="24">
         <v>6</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>40</v>
+      <c r="G9" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H9" s="40">
         <v>0.83299999999999996</v>
@@ -1845,11 +1865,11 @@
       <c r="E10" s="36">
         <v>6</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="24">
         <v>6</v>
       </c>
-      <c r="G10" s="36" t="s">
-        <v>40</v>
+      <c r="G10" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H10" s="40">
         <v>0.92300000000000004</v>
@@ -1885,11 +1905,11 @@
       <c r="E11" s="35">
         <v>6</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="52">
         <v>6</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>40</v>
+      <c r="G11" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H11" s="40">
         <v>0.92</v>
@@ -1924,11 +1944,11 @@
       <c r="E12" s="35">
         <v>6</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="52">
         <v>6</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>40</v>
+      <c r="G12" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H12" s="40">
         <v>0.89</v>
@@ -1964,13 +1984,13 @@
       <c r="E13" s="36">
         <v>4</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="24">
         <v>3</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="102">
+      <c r="G13" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="101">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -2003,10 +2023,10 @@
       <c r="E14" s="36">
         <v>7</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="24">
         <v>4</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="43" t="s">
         <v>112</v>
       </c>
       <c r="H14" s="40">
@@ -2042,11 +2062,11 @@
       <c r="E15" s="36">
         <v>4</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="24">
         <v>3</v>
       </c>
-      <c r="G15" s="35" t="s">
-        <v>40</v>
+      <c r="G15" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H15" s="40">
         <v>0.98</v>
@@ -2081,11 +2101,11 @@
       <c r="E16" s="35">
         <v>6</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="52">
         <v>4</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>40</v>
+      <c r="G16" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H16" s="40">
         <v>1</v>
@@ -2120,11 +2140,11 @@
       <c r="E17" s="35">
         <v>6</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="52">
         <v>5</v>
       </c>
-      <c r="G17" s="35" t="s">
-        <v>40</v>
+      <c r="G17" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H17" s="40">
         <v>0.92</v>
@@ -2159,10 +2179,10 @@
       <c r="E18" s="35">
         <v>8</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="52">
         <v>4</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H18" s="40">
@@ -2198,10 +2218,10 @@
       <c r="E19" s="35">
         <v>6</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="52">
         <v>3</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H19" s="40">
@@ -2238,10 +2258,10 @@
       <c r="E20" s="35">
         <v>3</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="52">
         <v>3</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H20" s="40">
@@ -2277,10 +2297,10 @@
       <c r="E21" s="36">
         <v>6</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="24">
         <v>4</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="43" t="s">
         <v>86</v>
       </c>
       <c r="H21" s="41">
@@ -2316,11 +2336,11 @@
       <c r="E22" s="35">
         <v>6</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="52">
         <v>3</v>
       </c>
-      <c r="G22" s="35" t="s">
-        <v>40</v>
+      <c r="G22" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H22" s="40">
         <v>0.78</v>
@@ -2355,11 +2375,11 @@
       <c r="E23" s="35">
         <v>8</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="52">
         <v>4</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>40</v>
+      <c r="G23" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H23" s="40">
         <v>0.77</v>
@@ -2394,11 +2414,11 @@
       <c r="E24" s="36">
         <v>6</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="24">
         <v>9</v>
       </c>
-      <c r="G24" s="35" t="s">
-        <v>40</v>
+      <c r="G24" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H24" s="40">
         <v>0.92</v>
@@ -2433,11 +2453,11 @@
       <c r="E25" s="35">
         <v>9</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="52">
         <v>3</v>
       </c>
-      <c r="G25" s="35" t="s">
-        <v>40</v>
+      <c r="G25" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H25" s="40">
         <v>0.872</v>
@@ -2472,11 +2492,11 @@
       <c r="E26" s="35">
         <v>6</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="52">
         <v>5</v>
       </c>
-      <c r="G26" s="35" t="s">
-        <v>40</v>
+      <c r="G26" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H26" s="40">
         <v>0.874</v>
@@ -2512,11 +2532,11 @@
       <c r="E27" s="35">
         <v>6</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="52">
         <v>3</v>
       </c>
-      <c r="G27" s="35" t="s">
-        <v>40</v>
+      <c r="G27" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H27" s="40">
         <v>0.92</v>
@@ -2551,10 +2571,10 @@
       <c r="E28" s="35">
         <v>8</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="52">
         <v>7</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="42" t="s">
         <v>86</v>
       </c>
       <c r="H28" s="40">
@@ -2591,11 +2611,11 @@
       <c r="E29" s="35">
         <v>4</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="52">
         <v>9</v>
       </c>
-      <c r="G29" s="35" t="s">
-        <v>40</v>
+      <c r="G29" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H29" s="40">
         <v>1</v>
@@ -2630,11 +2650,11 @@
       <c r="E30" s="35">
         <v>4</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="52">
         <v>9</v>
       </c>
-      <c r="G30" s="35" t="s">
-        <v>40</v>
+      <c r="G30" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H30" s="40">
         <v>1</v>
@@ -2668,11 +2688,11 @@
       <c r="E31" s="35">
         <v>7</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="52">
         <v>5</v>
       </c>
-      <c r="G31" s="35" t="s">
-        <v>40</v>
+      <c r="G31" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H31" s="40">
         <v>0.94</v>
@@ -2706,11 +2726,11 @@
       <c r="E32" s="35">
         <v>4</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="52">
         <v>9</v>
       </c>
-      <c r="G32" s="35" t="s">
-        <v>40</v>
+      <c r="G32" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H32" s="40">
         <v>1</v>
@@ -2744,11 +2764,11 @@
       <c r="E33" s="36">
         <v>4</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="24">
         <v>9</v>
       </c>
-      <c r="G33" s="35" t="s">
-        <v>40</v>
+      <c r="G33" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H33" s="40">
         <v>1</v>
@@ -2783,11 +2803,11 @@
       <c r="E34" s="35">
         <v>4</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="52">
         <v>9</v>
       </c>
-      <c r="G34" s="35" t="s">
-        <v>40</v>
+      <c r="G34" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H34" s="40">
         <v>1</v>
@@ -2822,11 +2842,11 @@
       <c r="E35" s="35">
         <v>7</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="52">
         <v>5</v>
       </c>
-      <c r="G35" s="35" t="s">
-        <v>40</v>
+      <c r="G35" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H35" s="40">
         <v>0.95</v>
@@ -2862,11 +2882,11 @@
       <c r="E36" s="36">
         <v>4</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="24">
         <v>4</v>
       </c>
-      <c r="G36" s="36" t="s">
-        <v>40</v>
+      <c r="G36" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H36" s="40">
         <v>1</v>
@@ -2901,11 +2921,11 @@
       <c r="E37" s="36">
         <v>8</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="24">
         <v>3</v>
       </c>
-      <c r="G37" s="36" t="s">
-        <v>40</v>
+      <c r="G37" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H37" s="40">
         <v>1</v>
@@ -2940,11 +2960,11 @@
       <c r="E38" s="35">
         <v>8</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="52">
         <v>6</v>
       </c>
-      <c r="G38" s="35" t="s">
-        <v>40</v>
+      <c r="G38" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H38" s="40">
         <v>0.79</v>
@@ -2979,10 +2999,10 @@
       <c r="E39" s="36">
         <v>7</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="24">
         <v>8</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="43" t="s">
         <v>112</v>
       </c>
       <c r="H39" s="40">
@@ -3019,11 +3039,11 @@
       <c r="E40" s="36">
         <v>6</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="24">
         <v>8</v>
       </c>
-      <c r="G40" s="35" t="s">
-        <v>40</v>
+      <c r="G40" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H40" s="40">
         <v>0.873</v>
@@ -3059,11 +3079,11 @@
       <c r="E41" s="36">
         <v>7</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="24">
         <v>4</v>
       </c>
-      <c r="G41" s="35" t="s">
-        <v>40</v>
+      <c r="G41" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H41" s="40">
         <v>0.98</v>
@@ -3099,11 +3119,11 @@
       <c r="E42" s="35">
         <v>6</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="52">
         <v>4</v>
       </c>
-      <c r="G42" s="35" t="s">
-        <v>40</v>
+      <c r="G42" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H42" s="40">
         <v>0.85599999999999998</v>
@@ -3140,11 +3160,11 @@
       <c r="E43" s="35">
         <v>5</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="52">
         <v>8</v>
       </c>
-      <c r="G43" s="35" t="s">
-        <v>40</v>
+      <c r="G43" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H43" s="40">
         <v>0.95</v>
@@ -3181,10 +3201,10 @@
       <c r="E44" s="35">
         <v>10</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="52">
         <v>15</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="42" t="s">
         <v>86</v>
       </c>
       <c r="H44" s="40">
@@ -3221,11 +3241,11 @@
       <c r="E45" s="36">
         <v>5</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="24">
         <v>4</v>
       </c>
-      <c r="G45" s="36" t="s">
-        <v>40</v>
+      <c r="G45" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H45" s="40">
         <v>0.95799999999999996</v>
@@ -3261,11 +3281,11 @@
       <c r="E46" s="35">
         <v>4</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="52">
         <v>4</v>
       </c>
-      <c r="G46" s="35" t="s">
-        <v>40</v>
+      <c r="G46" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H46" s="40">
         <v>0.99</v>
@@ -3301,11 +3321,11 @@
       <c r="E47" s="36">
         <v>9</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="24">
         <v>10</v>
       </c>
-      <c r="G47" s="36" t="s">
-        <v>40</v>
+      <c r="G47" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H47" s="40">
         <v>0.93400000000000005</v>
@@ -3341,10 +3361,10 @@
       <c r="E48" s="36">
         <v>10</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="24">
         <v>3</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="43" t="s">
         <v>86</v>
       </c>
       <c r="H48" s="40">
@@ -3381,10 +3401,10 @@
       <c r="E49" s="35">
         <v>8</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="52">
         <v>6</v>
       </c>
-      <c r="G49" s="35" t="s">
+      <c r="G49" s="42" t="s">
         <v>86</v>
       </c>
       <c r="H49" s="40">
@@ -3421,10 +3441,10 @@
       <c r="E50" s="36">
         <v>5</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="24">
         <v>3</v>
       </c>
-      <c r="G50" s="36" t="s">
+      <c r="G50" s="43" t="s">
         <v>86</v>
       </c>
       <c r="H50" s="41">
@@ -3460,10 +3480,10 @@
       <c r="E51" s="35">
         <v>5</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="52">
         <v>9</v>
       </c>
-      <c r="G51" s="35" t="s">
+      <c r="G51" s="42" t="s">
         <v>86</v>
       </c>
       <c r="H51" s="40">
@@ -3502,7 +3522,7 @@
       <c r="F52" s="24">
         <v>9</v>
       </c>
-      <c r="G52" s="52" t="s">
+      <c r="G52" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H52" s="53">
@@ -3540,7 +3560,7 @@
       <c r="F53" s="24">
         <v>6</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="43" t="s">
         <v>112</v>
       </c>
       <c r="H53" s="53">
@@ -3579,8 +3599,8 @@
       <c r="F54" s="24">
         <v>6</v>
       </c>
-      <c r="G54" s="52" t="s">
-        <v>40</v>
+      <c r="G54" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H54" s="53">
         <v>0.95</v>
@@ -3618,8 +3638,8 @@
       <c r="F55" s="24">
         <v>4</v>
       </c>
-      <c r="G55" s="24" t="s">
-        <v>40</v>
+      <c r="G55" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H55" s="53">
         <v>1</v>
@@ -3657,7 +3677,7 @@
       <c r="F56" s="52">
         <v>8</v>
       </c>
-      <c r="G56" s="52" t="s">
+      <c r="G56" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H56" s="53">
@@ -3678,92 +3698,92 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="25.5">
+    <row r="57" spans="1:14" ht="26.25">
       <c r="A57" s="7"/>
       <c r="B57" s="14">
         <f>B56+1</f>
         <v>55</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>104</v>
+      <c r="C57" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="36">
-        <v>5</v>
-      </c>
-      <c r="F57" s="43">
-        <v>4</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>40</v>
+      <c r="E57" s="35">
+        <v>1</v>
+      </c>
+      <c r="F57" s="52">
+        <v>8</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H57" s="40">
-        <v>0.99</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K57" s="47">
         <f>E57*F57</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L57" s="48">
         <f>ROUND(K57/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="26.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="25.5">
       <c r="A58" s="7"/>
       <c r="B58" s="14">
         <f>B57+1</f>
         <v>56</v>
       </c>
-      <c r="C58" s="54" t="s">
-        <v>227</v>
+      <c r="C58" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="35">
-        <v>1</v>
-      </c>
-      <c r="F58" s="42">
-        <v>8</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>112</v>
+      <c r="E58" s="36">
+        <v>5</v>
+      </c>
+      <c r="F58" s="24">
+        <v>4</v>
+      </c>
+      <c r="G58" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H58" s="40">
-        <v>1</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>217</v>
+        <v>0.99</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K58" s="47">
         <f>E58*F58</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L58" s="48">
         <f>ROUND(K58/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="26.25">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
         <f>B58+1</f>
         <v>57</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D59" s="65" t="s">
         <v>7</v>
@@ -3774,7 +3794,7 @@
       <c r="F59" s="52">
         <v>8</v>
       </c>
-      <c r="G59" s="52" t="s">
+      <c r="G59" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H59" s="53">
@@ -3795,160 +3815,160 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="25.5">
+    <row r="60" spans="1:14">
       <c r="A60" s="7"/>
       <c r="B60" s="14">
         <f>B59+1</f>
         <v>58</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="12" t="s">
+      <c r="C60" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="36">
-        <v>5</v>
-      </c>
-      <c r="F60" s="43">
-        <v>4</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>40</v>
+      <c r="E60" s="35">
+        <v>1</v>
+      </c>
+      <c r="F60" s="52">
+        <v>8</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H60" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J60" s="30" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="K60" s="47">
         <f>E60*F60</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L60" s="48">
         <f>ROUND(K60/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="25.5">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
         <f>B60+1</f>
         <v>59</v>
       </c>
-      <c r="C61" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="D61" s="25" t="s">
+      <c r="C61" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="35">
-        <v>1</v>
-      </c>
-      <c r="F61" s="42">
-        <v>8</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>112</v>
+      <c r="E61" s="36">
+        <v>5</v>
+      </c>
+      <c r="F61" s="24">
+        <v>4</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H61" s="40">
-        <v>1</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="J61" s="25" t="s">
-        <v>85</v>
+        <v>0.93</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J61" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="K61" s="47">
         <f>E61*F61</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L61" s="48">
         <f>ROUND(K61/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="7"/>
       <c r="B62" s="14">
         <f>B61+1</f>
         <v>60</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="13" t="s">
+      <c r="C62" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="43">
-        <v>5</v>
-      </c>
-      <c r="F62" s="24">
-        <v>7</v>
-      </c>
-      <c r="G62" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="H62" s="102">
-        <v>0.97</v>
-      </c>
-      <c r="I62" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>82</v>
+      <c r="E62" s="42">
+        <v>1</v>
+      </c>
+      <c r="F62" s="52">
+        <v>8</v>
+      </c>
+      <c r="G62" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="40">
+        <v>1</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="K62" s="47">
         <f>E62*F62</f>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="L62" s="48">
         <f>ROUND(K62/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
         <f>B62+1</f>
         <v>61</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="13" t="s">
+      <c r="C63" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="43">
-        <v>5</v>
-      </c>
-      <c r="F63" s="43">
-        <v>4</v>
-      </c>
-      <c r="G63" s="43" t="s">
-        <v>40</v>
+      <c r="E63" s="42">
+        <v>1</v>
+      </c>
+      <c r="F63" s="52">
+        <v>8</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H63" s="40">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K63" s="47">
         <f>E63*F63</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L63" s="48">
         <f>ROUND(K63/28,1)</f>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
@@ -3957,76 +3977,76 @@
         <f>B63+1</f>
         <v>62</v>
       </c>
-      <c r="C64" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D64" s="25" t="s">
+      <c r="C64" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="35">
-        <v>1</v>
-      </c>
-      <c r="F64" s="42">
-        <v>8</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H64" s="40">
-        <v>1</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>85</v>
+      <c r="E64" s="36">
+        <v>5</v>
+      </c>
+      <c r="F64" s="24">
+        <v>7</v>
+      </c>
+      <c r="G64" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="H64" s="101">
+        <v>0.97</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="K64" s="47">
         <f>E64*F64</f>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="L64" s="48">
         <f>ROUND(K64/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="25.5">
       <c r="A65" s="7"/>
       <c r="B65" s="14">
         <f>B64+1</f>
         <v>63</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="36">
+        <v>5</v>
+      </c>
+      <c r="F65" s="24">
+        <v>4</v>
+      </c>
+      <c r="G65" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="35">
-        <v>1</v>
-      </c>
-      <c r="F65" s="42">
-        <v>8</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>112</v>
-      </c>
       <c r="H65" s="40">
-        <v>1</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>217</v>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K65" s="47">
         <f>E65*F65</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L65" s="48">
         <f>ROUND(K65/28,1)</f>
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="25.5">
@@ -4035,76 +4055,76 @@
         <f>B65+1</f>
         <v>64</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="12" t="s">
+      <c r="C66" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="35">
-        <v>11</v>
-      </c>
-      <c r="F66" s="42">
-        <v>4</v>
-      </c>
-      <c r="G66" s="35" t="s">
-        <v>86</v>
+        <v>1</v>
+      </c>
+      <c r="F66" s="52">
+        <v>8</v>
+      </c>
+      <c r="G66" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H66" s="40">
-        <v>0.751</v>
+        <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J66" s="30" t="s">
-        <v>83</v>
+        <v>217</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="K66" s="47">
         <f>E66*F66</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L66" s="48">
         <f>ROUND(K66/28,1)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="7"/>
       <c r="B67" s="35">
         <f>B66+1</f>
         <v>65</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="35">
+        <v>1</v>
+      </c>
+      <c r="F67" s="52">
         <v>8</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="35">
-        <v>11</v>
-      </c>
-      <c r="F67" s="42">
-        <v>4</v>
-      </c>
-      <c r="G67" s="35" t="s">
-        <v>86</v>
+      <c r="G67" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H67" s="40">
-        <v>0.746</v>
+        <v>1</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J67" s="30" t="s">
-        <v>83</v>
+        <v>217</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="K67" s="47">
         <f>E67*F67</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L67" s="48">
         <f>ROUND(K67/28,1)</f>
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="25.5">
@@ -4114,189 +4134,189 @@
         <v>66</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="35">
-        <v>3</v>
-      </c>
-      <c r="F68" s="42">
-        <v>5</v>
-      </c>
-      <c r="G68" s="35" t="s">
-        <v>112</v>
+        <v>11</v>
+      </c>
+      <c r="F68" s="52">
+        <v>4</v>
+      </c>
+      <c r="G68" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="H68" s="40">
-        <v>0.96</v>
+        <v>0.751</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J68" s="25" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="J68" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="K68" s="47">
         <f>E68*F68</f>
-        <v>15</v>
-      </c>
-      <c r="L68" s="28"/>
-    </row>
-    <row r="69" spans="1:12" ht="39">
+        <v>44</v>
+      </c>
+      <c r="L68" s="48">
+        <f>ROUND(K68/28,1)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="25.5">
       <c r="A69" s="7"/>
       <c r="B69" s="35">
         <f>B68+1</f>
         <v>67</v>
       </c>
-      <c r="C69" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" s="25" t="s">
+      <c r="C69" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="35">
-        <v>1</v>
-      </c>
-      <c r="F69" s="42">
-        <v>8</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>112</v>
+        <v>11</v>
+      </c>
+      <c r="F69" s="52">
+        <v>4</v>
+      </c>
+      <c r="G69" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="H69" s="40">
-        <v>1</v>
+        <v>0.746</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="J69" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="J69" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="K69" s="47">
         <f>E69*F69</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="L69" s="48">
         <f>ROUND(K69/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="25.5">
       <c r="A70" s="7"/>
       <c r="B70" s="35">
         <f>B69+1</f>
         <v>68</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E70" s="42">
+        <v>3</v>
+      </c>
+      <c r="F70" s="52">
         <v>5</v>
-      </c>
-      <c r="F70" s="42">
-        <v>2</v>
       </c>
       <c r="G70" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H70" s="40">
-        <v>0.82599999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J70" s="30" t="s">
-        <v>190</v>
+        <v>163</v>
+      </c>
+      <c r="J70" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="K70" s="47">
         <f>E70*F70</f>
-        <v>10</v>
-      </c>
-      <c r="L70" s="48">
-        <f>ROUND(K70/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="25.5">
+        <v>15</v>
+      </c>
+      <c r="L70" s="28"/>
+    </row>
+    <row r="71" spans="1:12" ht="39">
       <c r="A71" s="7"/>
       <c r="B71" s="35">
         <f>B70+1</f>
         <v>69</v>
       </c>
-      <c r="C71" s="25" t="s">
-        <v>140</v>
+      <c r="C71" s="54" t="s">
+        <v>223</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="E71" s="35">
-        <v>5</v>
-      </c>
-      <c r="F71" s="42">
-        <v>3</v>
-      </c>
-      <c r="G71" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" s="101">
-        <v>0.93</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="F71" s="52">
+        <v>8</v>
+      </c>
+      <c r="G71" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" s="40">
+        <v>1</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K71" s="47">
         <f>E71*F71</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L71" s="48">
         <f>ROUND(K71/28,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="7"/>
       <c r="B72" s="35">
         <f>B71+1</f>
         <v>70</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E72" s="35">
-        <v>8</v>
-      </c>
-      <c r="F72" s="42">
-        <v>6</v>
-      </c>
-      <c r="G72" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="52">
+        <v>2</v>
+      </c>
+      <c r="G72" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H72" s="40">
-        <v>0.93700000000000006</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J72" s="30" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="K72" s="47">
         <f>E72*F72</f>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="L72" s="48">
         <f>ROUND(K72/28,1)</f>
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="25.5">
@@ -4305,37 +4325,37 @@
         <f>B72+1</f>
         <v>71</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D73" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="24">
-        <v>4</v>
-      </c>
-      <c r="F73" s="24">
-        <v>6</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H73" s="53">
-        <v>0.91</v>
+      <c r="C73" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" s="52">
+        <v>5</v>
+      </c>
+      <c r="F73" s="52">
+        <v>3</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="H73" s="107">
+        <v>0.93</v>
       </c>
       <c r="I73" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="J73" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="J73" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="K73" s="47">
         <f>E73*F73</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L73" s="49">
         <f>ROUND(K73/28,1)</f>
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="25.5">
@@ -4344,29 +4364,29 @@
         <f>B73+1</f>
         <v>72</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="13" t="s">
+      <c r="C74" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="35">
         <v>8</v>
       </c>
-      <c r="F74" s="43">
+      <c r="F74" s="52">
         <v>6</v>
       </c>
-      <c r="G74" s="35" t="s">
+      <c r="G74" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H74" s="40">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="I74" s="13" t="s">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I74" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J74" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K74" s="47">
         <f>E74*F74</f>
@@ -4377,43 +4397,43 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" ht="25.5">
       <c r="A75" s="7"/>
       <c r="B75" s="14">
         <f>B74+1</f>
         <v>73</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" s="52">
-        <v>7</v>
-      </c>
-      <c r="F75" s="52">
-        <v>5</v>
-      </c>
-      <c r="G75" s="52" t="s">
-        <v>40</v>
+      <c r="C75" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="24">
+        <v>4</v>
+      </c>
+      <c r="F75" s="24">
+        <v>6</v>
+      </c>
+      <c r="G75" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="H75" s="53">
-        <v>1</v>
-      </c>
-      <c r="I75" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J75" s="65" t="s">
-        <v>82</v>
+        <v>0.91</v>
+      </c>
+      <c r="I75" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="J75" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="K75" s="47">
         <f>E75*F75</f>
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L75" s="48">
         <f>ROUND(K75/28,1)</f>
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="25.5">
@@ -4422,72 +4442,72 @@
         <f>B75+1</f>
         <v>74</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" s="52">
+      <c r="C76" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="24">
+        <v>8</v>
+      </c>
+      <c r="F76" s="24">
         <v>6</v>
       </c>
-      <c r="F76" s="52">
-        <v>2</v>
-      </c>
-      <c r="G76" s="103" t="s">
-        <v>40</v>
+      <c r="G76" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H76" s="53">
-        <v>0.74</v>
-      </c>
-      <c r="I76" s="107" t="s">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I76" s="55" t="s">
         <v>86</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K76" s="47">
         <f>E76*F76</f>
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L76" s="48">
         <f>ROUND(K76/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="25.5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="7"/>
       <c r="B77" s="14">
         <f>B76+1</f>
         <v>75</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="43">
-        <v>6</v>
-      </c>
-      <c r="F77" s="43">
-        <v>6</v>
+      <c r="C77" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="42">
+        <v>7</v>
+      </c>
+      <c r="F77" s="52">
+        <v>5</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="H77" s="40">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="I77" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J77" s="30" t="s">
-        <v>85</v>
+      <c r="J77" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K77" s="47">
         <f>E77*F77</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L77" s="48">
         <f>ROUND(K77/28,1)</f>
@@ -4501,105 +4521,105 @@
         <v>76</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="E78" s="52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F78" s="52">
-        <v>4</v>
-      </c>
-      <c r="G78" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="104" t="s">
         <v>40</v>
       </c>
       <c r="H78" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="I78" s="12" t="s">
+        <v>0.74</v>
+      </c>
+      <c r="I78" s="39" t="s">
         <v>86</v>
       </c>
       <c r="J78" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K78" s="47">
         <f>E78*F78</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L78" s="48">
         <f>ROUND(K78/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="38.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="25.5">
       <c r="A79" s="7"/>
       <c r="B79" s="14">
         <f>B78+1</f>
         <v>77</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="35">
+      <c r="C79" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="36">
         <v>6</v>
       </c>
-      <c r="F79" s="42">
-        <v>7</v>
-      </c>
-      <c r="G79" s="35" t="s">
-        <v>40</v>
+      <c r="F79" s="24">
+        <v>6</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H79" s="40">
-        <v>1</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>122</v>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="J79" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K79" s="47">
         <f>E79*F79</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L79" s="48">
         <f>ROUND(K79/28,1)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="38.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="25.5">
       <c r="A80" s="7"/>
       <c r="B80" s="14">
         <f>B79+1</f>
         <v>78</v>
       </c>
-      <c r="C80" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D80" s="65" t="s">
-        <v>27</v>
+      <c r="C80" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="56" t="s">
+        <v>188</v>
       </c>
       <c r="E80" s="52">
+        <v>5</v>
+      </c>
+      <c r="F80" s="52">
         <v>4</v>
       </c>
-      <c r="F80" s="52">
-        <v>5</v>
-      </c>
-      <c r="G80" s="52" t="s">
-        <v>40</v>
+      <c r="G80" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H80" s="53">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="I80" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="J80" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="J80" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K80" s="47">
@@ -4618,217 +4638,217 @@
         <v>79</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="D81" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="56" t="s">
         <v>27</v>
       </c>
       <c r="E81" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F81" s="52">
-        <v>5</v>
-      </c>
-      <c r="G81" s="52" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H81" s="53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I81" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="J81" s="65" t="s">
+      <c r="J81" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K81" s="47">
         <f>E81*F81</f>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L81" s="48">
         <f>ROUND(K81/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="38.25">
       <c r="A82" s="7"/>
       <c r="B82" s="14">
         <f>B81+1</f>
         <v>80</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="56" t="s">
-        <v>35</v>
+      <c r="C82" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="E82" s="52">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F82" s="52">
-        <v>8</v>
-      </c>
-      <c r="G82" s="52" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="G82" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H82" s="53">
-        <v>0.90800000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I82" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J82" s="23" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="J82" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="K82" s="47">
         <f>E82*F82</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L82" s="48">
         <f>ROUND(K82/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="38.25">
       <c r="A83" s="7"/>
       <c r="B83" s="14">
         <f>B82+1</f>
         <v>81</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="24">
-        <v>6</v>
-      </c>
-      <c r="F83" s="24">
+      <c r="C83" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="52">
         <v>4</v>
       </c>
-      <c r="G83" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H83" s="82">
-        <v>0.92</v>
+      <c r="F83" s="52">
+        <v>5</v>
+      </c>
+      <c r="G83" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="H83" s="53">
+        <v>0.98</v>
       </c>
       <c r="I83" s="56" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J83" s="65" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="K83" s="47">
         <f>E83*F83</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L83" s="48">
         <f>ROUND(K83/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="26.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="7"/>
       <c r="B84" s="14">
         <f>B83+1</f>
         <v>82</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" s="65" t="s">
-        <v>119</v>
+      <c r="C84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="E84" s="52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F84" s="52">
-        <v>3</v>
-      </c>
-      <c r="G84" s="52" t="s">
-        <v>112</v>
+        <v>8</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H84" s="53">
-        <v>0.91</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I84" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J84" s="65" t="s">
-        <v>82</v>
+      <c r="J84" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="K84" s="47">
         <f>E84*F84</f>
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="L84" s="48">
         <f>ROUND(K84/28,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="25.5">
       <c r="A85" s="7"/>
       <c r="B85" s="14">
         <f>B84+1</f>
         <v>83</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="E85" s="24">
         <v>6</v>
       </c>
       <c r="F85" s="24">
-        <v>6</v>
-      </c>
-      <c r="G85" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H85" s="53">
-        <v>0.97</v>
+      <c r="H85" s="82">
+        <v>0.92</v>
       </c>
       <c r="I85" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J85" s="65" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="K85" s="47">
         <f>E85*F85</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L85" s="48">
         <f>ROUND(K85/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="26.25">
       <c r="A86" s="7"/>
       <c r="B86" s="14">
         <f>B85+1</f>
         <v>84</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D86" s="55" t="s">
-        <v>130</v>
+      <c r="C86" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="65" t="s">
+        <v>119</v>
       </c>
       <c r="E86" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" s="52">
-        <v>6</v>
-      </c>
-      <c r="G86" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H86" s="53">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="I86" s="56" t="s">
         <v>86</v>
@@ -4838,42 +4858,42 @@
       </c>
       <c r="K86" s="47">
         <f>E86*F86</f>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L86" s="48">
         <f>ROUND(K86/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="25.5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="7"/>
       <c r="B87" s="14">
         <f>B86+1</f>
         <v>85</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D87" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E87" s="52">
+      <c r="C87" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" s="24">
         <v>6</v>
       </c>
-      <c r="F87" s="52">
+      <c r="F87" s="24">
         <v>6</v>
       </c>
-      <c r="G87" s="52" t="s">
-        <v>86</v>
+      <c r="G87" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="H87" s="53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I87" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J87" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K87" s="47">
         <f>E87*F87</f>
@@ -4891,10 +4911,10 @@
         <v>86</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E88" s="52">
         <v>6</v>
@@ -4902,11 +4922,11 @@
       <c r="F88" s="52">
         <v>6</v>
       </c>
-      <c r="G88" s="52" t="s">
+      <c r="G88" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H88" s="53">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="I88" s="56" t="s">
         <v>86</v>
@@ -4923,82 +4943,82 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" ht="25.5">
       <c r="A89" s="7"/>
       <c r="B89" s="14">
         <f>B88+1</f>
         <v>87</v>
       </c>
-      <c r="C89" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D89" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E89" s="24">
-        <v>9</v>
-      </c>
-      <c r="F89" s="24">
+      <c r="C89" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" s="52">
         <v>6</v>
       </c>
-      <c r="G89" s="52" t="s">
-        <v>40</v>
+      <c r="F89" s="52">
+        <v>6</v>
+      </c>
+      <c r="G89" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="H89" s="53">
         <v>1</v>
       </c>
-      <c r="I89" s="55" t="s">
+      <c r="I89" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J89" s="23" t="s">
-        <v>82</v>
+      <c r="J89" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K89" s="47">
         <f>E89*F89</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L89" s="48">
         <f>ROUND(K89/28,1)</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="25.5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="7"/>
       <c r="B90" s="14">
         <f>B89+1</f>
         <v>88</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E90" s="24">
-        <v>7</v>
-      </c>
-      <c r="F90" s="24">
-        <v>4</v>
-      </c>
-      <c r="G90" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" s="52">
+        <v>6</v>
+      </c>
+      <c r="F90" s="52">
+        <v>6</v>
+      </c>
+      <c r="G90" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H90" s="53">
-        <v>0.97499999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="I90" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J90" s="23" t="s">
+      <c r="J90" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K90" s="47">
         <f>E90*F90</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L90" s="48">
         <f>ROUND(K90/28,1)</f>
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5007,25 +5027,25 @@
         <f>B90+1</f>
         <v>89</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>124</v>
+      <c r="C91" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="35">
-        <v>10</v>
-      </c>
-      <c r="F91" s="52">
-        <v>8</v>
-      </c>
-      <c r="G91" s="52" t="s">
-        <v>40</v>
+      <c r="E91" s="36">
+        <v>9</v>
+      </c>
+      <c r="F91" s="24">
+        <v>6</v>
+      </c>
+      <c r="G91" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H91" s="53">
-        <v>0.98</v>
-      </c>
-      <c r="I91" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" s="55" t="s">
         <v>86</v>
       </c>
       <c r="J91" s="23" t="s">
@@ -5033,36 +5053,36 @@
       </c>
       <c r="K91" s="48">
         <f>E91*F91</f>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="L91" s="48">
         <f>ROUND(K91/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="25.5">
       <c r="A92" s="7"/>
       <c r="B92" s="14">
         <f>B91+1</f>
         <v>90</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="56" t="s">
+      <c r="C92" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="52">
-        <v>10</v>
-      </c>
-      <c r="F92" s="52">
-        <v>8</v>
-      </c>
-      <c r="G92" s="52" t="s">
+      <c r="E92" s="24">
+        <v>7</v>
+      </c>
+      <c r="F92" s="24">
+        <v>4</v>
+      </c>
+      <c r="G92" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H92" s="53">
-        <v>0.90500000000000003</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="I92" s="56" t="s">
         <v>86</v>
@@ -5072,89 +5092,89 @@
       </c>
       <c r="K92" s="47">
         <f>E92*F92</f>
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="L92" s="48">
         <f>ROUND(K92/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="25.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="7"/>
       <c r="B93" s="14">
         <f>B92+1</f>
         <v>91</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>136</v>
+      <c r="C93" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D93" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="E93" s="24">
-        <v>4</v>
-      </c>
-      <c r="F93" s="24">
-        <v>3</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="E93" s="52">
+        <v>10</v>
+      </c>
+      <c r="F93" s="52">
+        <v>8</v>
+      </c>
+      <c r="G93" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H93" s="53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J93" s="25" t="s">
+      <c r="J93" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K93" s="47">
         <f>E93*F93</f>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L93" s="48">
         <f>ROUND(K93/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="26.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="7"/>
       <c r="B94" s="14">
         <f>B93+1</f>
         <v>92</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D94" s="54" t="s">
-        <v>12</v>
+      <c r="C94" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E94" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F94" s="52">
-        <v>4</v>
-      </c>
-      <c r="G94" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H94" s="53">
-        <v>1</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I94" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J94" s="65" t="s">
+      <c r="J94" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K94" s="48">
         <f>E94*F94</f>
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L94" s="48">
         <f>ROUND(K94/28,1)</f>
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="25.5">
@@ -5164,24 +5184,24 @@
         <v>93</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="E95" s="24">
         <v>4</v>
       </c>
       <c r="F95" s="24">
-        <v>4</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="G95" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H95" s="53">
         <v>1</v>
       </c>
-      <c r="I95" s="55" t="s">
+      <c r="I95" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J95" s="65" t="s">
@@ -5189,50 +5209,50 @@
       </c>
       <c r="K95" s="48">
         <f>E95*F95</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L95" s="48">
         <f>ROUND(K95/28,1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="25.5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="26.25">
       <c r="A96" s="7"/>
       <c r="B96" s="14">
         <f>B95+1</f>
         <v>94</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="56" t="s">
+      <c r="C96" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96" s="105" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F96" s="52">
-        <v>6</v>
-      </c>
-      <c r="G96" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H96" s="53">
-        <v>0.88900000000000001</v>
+        <v>1</v>
       </c>
       <c r="I96" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J96" s="23" t="s">
+      <c r="J96" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K96" s="48">
         <f>E96*F96</f>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L96" s="48">
         <f>ROUND(K96/28,1)</f>
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="25.5">
@@ -5241,37 +5261,37 @@
         <f>B96+1</f>
         <v>95</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D97" s="56" t="s">
+      <c r="C97" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="52">
+      <c r="E97" s="24">
         <v>4</v>
       </c>
-      <c r="F97" s="52">
-        <v>6</v>
-      </c>
-      <c r="G97" s="52" t="s">
+      <c r="F97" s="24">
+        <v>4</v>
+      </c>
+      <c r="G97" s="43" t="s">
         <v>112</v>
       </c>
       <c r="H97" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="I97" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I97" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J97" s="23" t="s">
+      <c r="J97" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K97" s="48">
         <f>E97*F97</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L97" s="48">
         <f>ROUND(K97/28,1)</f>
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="25.5">
@@ -5281,22 +5301,22 @@
         <v>96</v>
       </c>
       <c r="C98" s="56" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D98" s="56" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F98" s="52">
         <v>6</v>
       </c>
-      <c r="G98" s="52" t="s">
+      <c r="G98" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H98" s="53">
-        <v>0.83299999999999996</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I98" s="56" t="s">
         <v>86</v>
@@ -5306,11 +5326,11 @@
       </c>
       <c r="K98" s="48">
         <f>E98*F98</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L98" s="48">
         <f>ROUND(K98/28,1)</f>
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="25.5">
@@ -5319,23 +5339,23 @@
         <f>B98+1</f>
         <v>97</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D99" s="13" t="s">
+      <c r="C99" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D99" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E99" s="36">
+      <c r="E99" s="35">
         <v>4</v>
       </c>
-      <c r="F99" s="43">
-        <v>3</v>
-      </c>
-      <c r="G99" s="35" t="s">
+      <c r="F99" s="52">
+        <v>6</v>
+      </c>
+      <c r="G99" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H99" s="40">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>86</v>
@@ -5345,11 +5365,11 @@
       </c>
       <c r="K99" s="47">
         <f>E99*F99</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L99" s="48">
         <f>ROUND(K99/28,1)</f>
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="25.5">
@@ -5358,25 +5378,25 @@
         <f>B99+1</f>
         <v>98</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E100" s="36">
-        <v>5</v>
-      </c>
-      <c r="F100" s="43">
-        <v>5</v>
-      </c>
-      <c r="G100" s="35" t="s">
+      <c r="C100" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="35">
+        <v>4</v>
+      </c>
+      <c r="F100" s="52">
+        <v>6</v>
+      </c>
+      <c r="G100" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H100" s="40">
-        <v>0.88</v>
-      </c>
-      <c r="I100" s="13" t="s">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I100" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J100" s="30" t="s">
@@ -5384,50 +5404,50 @@
       </c>
       <c r="K100" s="47">
         <f>E100*F100</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L100" s="48">
         <f>ROUND(K100/28,1)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" ht="25.5">
       <c r="A101" s="7"/>
       <c r="B101" s="14">
         <f>B100+1</f>
         <v>99</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E101" s="36">
-        <v>5</v>
-      </c>
-      <c r="F101" s="43">
         <v>4</v>
       </c>
-      <c r="G101" s="36" t="s">
-        <v>40</v>
+      <c r="F101" s="24">
+        <v>3</v>
+      </c>
+      <c r="G101" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H101" s="40">
-        <v>0.89900000000000002</v>
+        <v>1</v>
       </c>
       <c r="I101" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J101" s="30" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K101" s="47">
         <f>E101*F101</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L101" s="48">
         <f>ROUND(K101/28,1)</f>
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="25.5">
@@ -5436,37 +5456,37 @@
         <f>B101+1</f>
         <v>100</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E102" s="35">
-        <v>6</v>
-      </c>
-      <c r="F102" s="42">
-        <v>6</v>
-      </c>
-      <c r="G102" s="35" t="s">
+      <c r="C102" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="36">
+        <v>5</v>
+      </c>
+      <c r="F102" s="24">
+        <v>5</v>
+      </c>
+      <c r="G102" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H102" s="40">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="I102" s="12" t="s">
+        <v>0.88</v>
+      </c>
+      <c r="I102" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J102" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K102" s="47">
         <f>E102*F102</f>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L102" s="48">
         <f>ROUND(K102/28,1)</f>
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5475,105 +5495,155 @@
         <f>B102+1</f>
         <v>101</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E103" s="35">
-        <v>8</v>
-      </c>
-      <c r="F103" s="42">
-        <v>12</v>
-      </c>
-      <c r="G103" s="35" t="s">
-        <v>112</v>
+      <c r="C103" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E103" s="36">
+        <v>5</v>
+      </c>
+      <c r="F103" s="24">
+        <v>4</v>
+      </c>
+      <c r="G103" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H103" s="40">
-        <v>0.84699999999999998</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J103" s="30" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K103" s="47">
         <f>E103*F103</f>
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="L103" s="48">
         <f>ROUND(K103/28,1)</f>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="25.5">
       <c r="A104" s="7"/>
       <c r="B104" s="14">
         <f>B103+1</f>
         <v>102</v>
       </c>
-      <c r="C104" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D104" s="54" t="s">
-        <v>31</v>
+      <c r="C104" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E104" s="35">
-        <v>8</v>
-      </c>
-      <c r="F104" s="42">
-        <v>15</v>
-      </c>
-      <c r="G104" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="52">
+        <v>6</v>
+      </c>
+      <c r="G104" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H104" s="105">
-        <v>0.9</v>
-      </c>
-      <c r="I104" s="97" t="s">
+      <c r="H104" s="40">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I104" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J104" s="25" t="s">
-        <v>180</v>
+      <c r="J104" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="K104" s="47">
         <f>E104*F104</f>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="L104" s="48">
         <f>ROUND(K104/28,1)</f>
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
+      <c r="B105" s="14">
+        <f>B104+1</f>
+        <v>103</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" s="35">
+        <v>8</v>
+      </c>
+      <c r="F105" s="52">
+        <v>12</v>
+      </c>
+      <c r="G105" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H105" s="40">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J105" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K105" s="47">
+        <f>E105*F105</f>
+        <v>96</v>
+      </c>
+      <c r="L105" s="48">
+        <f>ROUND(K105/28,1)</f>
+        <v>3.4</v>
+      </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="15"/>
-      <c r="L106" s="15"/>
+      <c r="B106" s="14">
+        <f>B105+1</f>
+        <v>104</v>
+      </c>
+      <c r="C106" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" s="35">
+        <v>8</v>
+      </c>
+      <c r="F106" s="52">
+        <v>15</v>
+      </c>
+      <c r="G106" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="H106" s="103">
+        <v>0.9</v>
+      </c>
+      <c r="I106" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="J106" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="K106" s="47">
+        <f>E106*F106</f>
+        <v>120</v>
+      </c>
+      <c r="L106" s="48">
+        <f>ROUND(K106/28,1)</f>
+        <v>4.3</v>
+      </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="7"/>
@@ -5582,8 +5652,7 @@
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="32"/>
+      <c r="H107" s="67"/>
       <c r="I107" s="5"/>
       <c r="J107" s="29"/>
       <c r="K107" s="15"/>
@@ -5596,8 +5665,7 @@
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="32"/>
+      <c r="H108" s="66"/>
       <c r="I108" s="5"/>
       <c r="J108" s="29"/>
       <c r="K108" s="15"/>
@@ -5610,8 +5678,7 @@
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="32"/>
+      <c r="H109" s="108"/>
       <c r="I109" s="5"/>
       <c r="J109" s="29"/>
       <c r="K109" s="15"/>
@@ -5624,8 +5691,7 @@
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="32"/>
+      <c r="H110" s="66"/>
       <c r="I110" s="5"/>
       <c r="J110" s="29"/>
       <c r="K110" s="15"/>
@@ -5638,8 +5704,7 @@
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="32"/>
+      <c r="H111" s="66"/>
       <c r="I111" s="5"/>
       <c r="J111" s="29"/>
       <c r="K111" s="15"/>
@@ -5652,8 +5717,7 @@
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="32"/>
+      <c r="H112" s="66"/>
       <c r="I112" s="5"/>
       <c r="J112" s="29"/>
       <c r="K112" s="15"/>
@@ -5666,8 +5730,7 @@
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="32"/>
+      <c r="H113" s="109"/>
       <c r="I113" s="5"/>
       <c r="J113" s="29"/>
       <c r="K113" s="15"/>
@@ -5680,8 +5743,7 @@
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="32"/>
+      <c r="H114" s="110"/>
       <c r="I114" s="5"/>
       <c r="J114" s="29"/>
       <c r="K114" s="15"/>
@@ -5694,8 +5756,7 @@
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="32"/>
+      <c r="H115" s="66"/>
       <c r="I115" s="5"/>
       <c r="J115" s="29"/>
       <c r="K115" s="15"/>
@@ -5708,8 +5769,7 @@
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="32"/>
+      <c r="H116" s="67"/>
       <c r="I116" s="5"/>
       <c r="J116" s="29"/>
       <c r="K116" s="15"/>
@@ -5722,8 +5782,7 @@
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="32"/>
+      <c r="H117" s="109"/>
       <c r="I117" s="5"/>
       <c r="J117" s="29"/>
       <c r="K117" s="15"/>
@@ -5736,8 +5795,7 @@
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="32"/>
+      <c r="H118" s="111"/>
       <c r="I118" s="5"/>
       <c r="J118" s="29"/>
       <c r="K118" s="15"/>
@@ -5750,8 +5808,7 @@
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="32"/>
+      <c r="H119" s="66"/>
       <c r="I119" s="5"/>
       <c r="J119" s="29"/>
       <c r="K119" s="15"/>
@@ -5764,8 +5821,7 @@
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="32"/>
+      <c r="H120" s="66"/>
       <c r="I120" s="5"/>
       <c r="J120" s="29"/>
       <c r="K120" s="15"/>
@@ -5778,8 +5834,7 @@
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="32"/>
+      <c r="H121" s="108"/>
       <c r="I121" s="5"/>
       <c r="J121" s="29"/>
       <c r="K121" s="15"/>
@@ -5792,8 +5847,7 @@
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="32"/>
+      <c r="H122" s="108"/>
       <c r="I122" s="5"/>
       <c r="J122" s="29"/>
       <c r="K122" s="15"/>
@@ -5806,8 +5860,7 @@
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="32"/>
+      <c r="H123" s="57"/>
       <c r="I123" s="5"/>
       <c r="J123" s="29"/>
       <c r="K123" s="15"/>
@@ -5820,7 +5873,6 @@
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
       <c r="H124" s="32"/>
       <c r="I124" s="5"/>
       <c r="J124" s="29"/>
@@ -5834,7 +5886,6 @@
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
       <c r="H125" s="32"/>
       <c r="I125" s="5"/>
       <c r="J125" s="29"/>
@@ -5848,7 +5899,6 @@
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
       <c r="H126" s="32"/>
       <c r="I126" s="5"/>
       <c r="J126" s="29"/>
@@ -5862,7 +5912,6 @@
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
       <c r="H127" s="32"/>
       <c r="I127" s="5"/>
       <c r="J127" s="29"/>
@@ -5876,7 +5925,6 @@
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
       <c r="H128" s="32"/>
       <c r="I128" s="5"/>
       <c r="J128" s="29"/>
@@ -5890,7 +5938,6 @@
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
       <c r="H129" s="32"/>
       <c r="I129" s="5"/>
       <c r="J129" s="29"/>
@@ -5904,7 +5951,6 @@
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
       <c r="H130" s="32"/>
       <c r="I130" s="5"/>
       <c r="J130" s="29"/>
@@ -5918,7 +5964,6 @@
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
       <c r="H131" s="32"/>
       <c r="I131" s="5"/>
       <c r="J131" s="29"/>
@@ -5932,7 +5977,6 @@
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
       <c r="H132" s="32"/>
       <c r="I132" s="5"/>
       <c r="J132" s="29"/>
@@ -5946,7 +5990,6 @@
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
       <c r="H133" s="32"/>
       <c r="I133" s="5"/>
       <c r="J133" s="29"/>
@@ -5960,7 +6003,6 @@
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
       <c r="H134" s="32"/>
       <c r="I134" s="5"/>
       <c r="J134" s="29"/>
@@ -5974,7 +6016,6 @@
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
       <c r="H135" s="32"/>
       <c r="I135" s="5"/>
       <c r="J135" s="29"/>
@@ -5988,7 +6029,6 @@
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
       <c r="H136" s="32"/>
       <c r="I136" s="5"/>
       <c r="J136" s="29"/>
@@ -6002,7 +6042,6 @@
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
       <c r="H137" s="32"/>
       <c r="I137" s="5"/>
       <c r="J137" s="29"/>
@@ -6016,7 +6055,6 @@
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
       <c r="H138" s="32"/>
       <c r="I138" s="5"/>
       <c r="J138" s="29"/>
@@ -6030,7 +6068,6 @@
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
       <c r="H139" s="32"/>
       <c r="I139" s="5"/>
       <c r="J139" s="29"/>
@@ -6052,9 +6089,9 @@
       <c r="B142" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:L104">
-    <sortState ref="B3:L104">
-      <sortCondition ref="D2:D104"/>
+  <autoFilter ref="B2:L106">
+    <sortState ref="B3:L106">
+      <sortCondition ref="D2:D106"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6069,9 +6106,7 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7622,7 +7657,7 @@
       <c r="F6" s="52">
         <v>7</v>
       </c>
-      <c r="G6" s="103"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="40"/>
       <c r="I6" s="39" t="s">
         <v>86</v>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="240">
   <si>
     <t>#</t>
   </si>
@@ -724,6 +724,30 @@
   </si>
   <si>
     <t>Effective problem-solving and decision-making</t>
+  </si>
+  <si>
+    <t>Women in leadership: inspiring positive change</t>
+  </si>
+  <si>
+    <t>Content strategy for professionals 1: engaging audiences for your organization</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>Content strategy for professionals</t>
+  </si>
+  <si>
+    <t>Introduction to project management principles and practices</t>
+  </si>
+  <si>
+    <t>Initiation and planning projects</t>
+  </si>
+  <si>
+    <t>Budgeting and scheduling projects</t>
+  </si>
+  <si>
+    <t>Managing risks and changes</t>
   </si>
 </sst>
 </file>
@@ -890,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1142,9 +1166,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1182,20 +1203,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1208,6 +1220,24 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1521,7 +1551,7 @@
     <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="9" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="96" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="95" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="17"/>
     <col min="12" max="12" width="17.140625" style="17" customWidth="1"/>
@@ -1990,7 +2020,7 @@
       <c r="G13" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="H13" s="101">
+      <c r="H13" s="100">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -3146,7 +3176,7 @@
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A43" s="95"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="14">
         <f>B42+1</f>
         <v>41</v>
@@ -3187,7 +3217,7 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A44" s="95"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="14">
         <f>B43+1</f>
         <v>42</v>
@@ -3210,7 +3240,7 @@
       <c r="H44" s="40">
         <v>0.83</v>
       </c>
-      <c r="I44" s="97" t="s">
+      <c r="I44" s="96" t="s">
         <v>86</v>
       </c>
       <c r="J44" s="25" t="s">
@@ -3312,221 +3342,221 @@
         <f>B46+1</f>
         <v>45</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="36">
-        <v>9</v>
-      </c>
-      <c r="F47" s="24">
-        <v>10</v>
+      <c r="C47" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="35">
+        <v>6</v>
+      </c>
+      <c r="F47" s="52">
+        <v>4</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H47" s="40">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J47" s="30" t="s">
-        <v>80</v>
+        <v>0.1</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K47" s="47">
         <f>E47*F47</f>
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="L47" s="48">
         <f>ROUND(K47/28,1)</f>
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" ht="25.5">
       <c r="B48" s="14">
         <f>B47+1</f>
         <v>46</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D48" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="36">
+        <v>9</v>
+      </c>
+      <c r="F48" s="24">
         <v>10</v>
       </c>
-      <c r="E48" s="36">
-        <v>10</v>
-      </c>
-      <c r="F48" s="24">
-        <v>3</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>86</v>
+      <c r="G48" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H48" s="40">
-        <v>0.82699999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K48" s="47">
         <f>E48*F48</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L48" s="48">
         <f>ROUND(K48/28,1)</f>
-        <v>1.1000000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" ht="25.5">
+    <row r="49" spans="1:14">
       <c r="B49" s="14">
         <f>B48+1</f>
         <v>47</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="C49" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="35">
-        <v>8</v>
-      </c>
-      <c r="F49" s="52">
-        <v>6</v>
-      </c>
-      <c r="G49" s="42" t="s">
+      <c r="E49" s="36">
+        <v>10</v>
+      </c>
+      <c r="F49" s="24">
+        <v>3</v>
+      </c>
+      <c r="G49" s="43" t="s">
         <v>86</v>
       </c>
       <c r="H49" s="40">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="I49" s="12" t="s">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K49" s="47">
         <f>E49*F49</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L49" s="48">
         <f>ROUND(K49/28,1)</f>
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" ht="25.5">
       <c r="B50" s="14">
         <f>B49+1</f>
         <v>48</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="36">
-        <v>5</v>
-      </c>
-      <c r="F50" s="24">
-        <v>3</v>
-      </c>
-      <c r="G50" s="43" t="s">
+      <c r="C50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="35">
+        <v>8</v>
+      </c>
+      <c r="F50" s="52">
+        <v>6</v>
+      </c>
+      <c r="G50" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="H50" s="41">
-        <v>0.87</v>
+      <c r="H50" s="40">
+        <v>0.88400000000000001</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J50" s="25" t="s">
-        <v>84</v>
+      <c r="J50" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="K50" s="47">
         <f>E50*F50</f>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="L50" s="48">
         <f>ROUND(K50/28,1)</f>
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="25.5">
+    <row r="51" spans="1:14">
       <c r="B51" s="14">
         <f>B50+1</f>
         <v>49</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="12" t="s">
+      <c r="C51" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="36">
         <v>5</v>
       </c>
-      <c r="F51" s="52">
-        <v>9</v>
-      </c>
-      <c r="G51" s="42" t="s">
+      <c r="F51" s="24">
+        <v>3</v>
+      </c>
+      <c r="G51" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H51" s="40">
-        <v>0.78</v>
+      <c r="H51" s="41">
+        <v>0.87</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J51" s="30" t="s">
+      <c r="J51" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K51" s="47">
         <f>E51*F51</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L51" s="48">
         <f>ROUND(K51/28,1)</f>
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" ht="25.5">
       <c r="B52" s="14">
         <f>B51+1</f>
         <v>50</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="55" t="s">
+      <c r="C52" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="52">
         <v>5</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="52">
         <v>9</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H52" s="53">
-        <v>0.89300000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="I52" s="56" t="s">
         <v>86</v>
@@ -3543,42 +3573,42 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="25.5">
+    <row r="53" spans="1:14">
       <c r="B53" s="14">
         <f>B52+1</f>
         <v>51</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E53" s="24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F53" s="24">
-        <v>6</v>
-      </c>
-      <c r="G53" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H53" s="53">
-        <v>0.95299999999999996</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="I53" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J53" s="65" t="s">
-        <v>191</v>
+      <c r="J53" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="K53" s="47">
         <f>E53*F53</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L53" s="48">
         <f>ROUND(K53/28,1)</f>
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
@@ -3588,36 +3618,36 @@
         <v>52</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>214</v>
+        <v>106</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>154</v>
       </c>
       <c r="E54" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F54" s="24">
         <v>6</v>
       </c>
-      <c r="G54" s="42" t="s">
-        <v>228</v>
+      <c r="G54" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="H54" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="I54" s="55" t="s">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I54" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J54" s="23" t="s">
-        <v>82</v>
+      <c r="J54" s="65" t="s">
+        <v>191</v>
       </c>
       <c r="K54" s="47">
         <f>E54*F54</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L54" s="48">
         <f>ROUND(K54/28,1)</f>
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="25.5">
@@ -3627,153 +3657,153 @@
         <v>53</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="55" t="s">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="E55" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G55" s="42" t="s">
         <v>228</v>
       </c>
       <c r="H55" s="53">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I55" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" s="65" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="J55" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="K55" s="47">
         <f>E55*F55</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L55" s="48">
         <f>ROUND(K55/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="26.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="25.5">
       <c r="A56" s="7"/>
       <c r="B56" s="14">
         <f>B55+1</f>
         <v>54</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" s="65" t="s">
+      <c r="C56" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="52">
-        <v>1</v>
-      </c>
-      <c r="F56" s="52">
-        <v>8</v>
+      <c r="E56" s="24">
+        <v>5</v>
+      </c>
+      <c r="F56" s="24">
+        <v>4</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="H56" s="53">
         <v>1</v>
       </c>
-      <c r="I56" s="56" t="s">
-        <v>217</v>
+      <c r="I56" s="55" t="s">
+        <v>65</v>
       </c>
       <c r="J56" s="65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K56" s="47">
         <f>E56*F56</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L56" s="48">
         <f>ROUND(K56/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="26.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="38.25">
       <c r="A57" s="7"/>
       <c r="B57" s="14">
         <f>B56+1</f>
         <v>55</v>
       </c>
-      <c r="C57" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" s="25" t="s">
+      <c r="C57" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" s="52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G57" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H57" s="40">
+      <c r="H57" s="98">
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K57" s="47">
         <f>E57*F57</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L57" s="48">
         <f>ROUND(K57/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="25.5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="26.25">
       <c r="A58" s="7"/>
       <c r="B58" s="14">
         <f>B57+1</f>
         <v>56</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>104</v>
+      <c r="C58" s="54" t="s">
+        <v>225</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="36">
-        <v>5</v>
-      </c>
-      <c r="F58" s="24">
-        <v>4</v>
+      <c r="E58" s="35">
+        <v>1</v>
+      </c>
+      <c r="F58" s="52">
+        <v>8</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H58" s="40">
-        <v>0.99</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K58" s="47">
         <f>E58*F58</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L58" s="48">
         <f>ROUND(K58/28,1)</f>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="26.25">
@@ -3783,7 +3813,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D59" s="65" t="s">
         <v>7</v>
@@ -3815,82 +3845,82 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" ht="25.5">
       <c r="A60" s="7"/>
       <c r="B60" s="14">
         <f>B59+1</f>
         <v>58</v>
       </c>
-      <c r="C60" s="54" t="s">
-        <v>224</v>
+      <c r="C60" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="35">
-        <v>1</v>
-      </c>
-      <c r="F60" s="52">
-        <v>8</v>
+      <c r="E60" s="36">
+        <v>5</v>
+      </c>
+      <c r="F60" s="24">
+        <v>4</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="H60" s="40">
-        <v>1</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>217</v>
+        <v>0.99</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K60" s="47">
         <f>E60*F60</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L60" s="48">
         <f>ROUND(K60/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="26.25">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
         <f>B60+1</f>
         <v>59</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="12" t="s">
+      <c r="C61" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="36">
-        <v>5</v>
-      </c>
-      <c r="F61" s="24">
-        <v>4</v>
+      <c r="E61" s="35">
+        <v>1</v>
+      </c>
+      <c r="F61" s="52">
+        <v>8</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H61" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J61" s="30" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="K61" s="47">
         <f>E61*F61</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L61" s="48">
         <f>ROUND(K61/28,1)</f>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3900,7 +3930,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>7</v>
@@ -3932,199 +3962,199 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" ht="25.5">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
         <f>B62+1</f>
         <v>61</v>
       </c>
-      <c r="C63" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="25" t="s">
+      <c r="C63" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="42">
-        <v>1</v>
-      </c>
-      <c r="F63" s="52">
-        <v>8</v>
+      <c r="E63" s="43">
+        <v>5</v>
+      </c>
+      <c r="F63" s="24">
+        <v>4</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="H63" s="40">
-        <v>1</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="J63" s="25" t="s">
-        <v>85</v>
+        <v>0.93</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="K63" s="47">
         <f>E63*F63</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L63" s="48">
         <f>ROUND(K63/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="7"/>
       <c r="B64" s="14">
         <f>B63+1</f>
         <v>62</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="13" t="s">
+      <c r="C64" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="36">
-        <v>5</v>
-      </c>
-      <c r="F64" s="24">
-        <v>7</v>
+      <c r="E64" s="35">
+        <v>1</v>
+      </c>
+      <c r="F64" s="52">
+        <v>8</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="H64" s="101">
-        <v>0.97</v>
-      </c>
-      <c r="I64" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>82</v>
+        <v>112</v>
+      </c>
+      <c r="H64" s="40">
+        <v>1</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="K64" s="47">
         <f>E64*F64</f>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="L64" s="48">
         <f>ROUND(K64/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="7"/>
       <c r="B65" s="14">
         <f>B64+1</f>
         <v>63</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="13" t="s">
+      <c r="C65" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="36">
-        <v>5</v>
-      </c>
-      <c r="F65" s="24">
-        <v>4</v>
+      <c r="E65" s="35">
+        <v>1</v>
+      </c>
+      <c r="F65" s="52">
+        <v>8</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H65" s="40">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K65" s="47">
         <f>E65*F65</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L65" s="48">
         <f>ROUND(K65/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="38.25">
       <c r="A66" s="7"/>
       <c r="B66" s="35">
         <f>B65+1</f>
         <v>64</v>
       </c>
-      <c r="C66" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D66" s="25" t="s">
+      <c r="C66" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" s="52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G66" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H66" s="40">
+      <c r="H66" s="98">
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K66" s="47">
         <f>E66*F66</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L66" s="48">
         <f>ROUND(K66/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="38.25">
       <c r="A67" s="7"/>
       <c r="B67" s="35">
         <f>B66+1</f>
         <v>65</v>
       </c>
-      <c r="C67" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="D67" s="25" t="s">
+      <c r="C67" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F67" s="52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G67" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="98">
         <v>1</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="J67" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K67" s="47">
         <f>E67*F67</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L67" s="48">
         <f>ROUND(K67/28,1)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="25.5">
@@ -4133,37 +4163,37 @@
         <f>B67+1</f>
         <v>66</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="12" t="s">
+      <c r="C68" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="35">
-        <v>11</v>
-      </c>
-      <c r="F68" s="52">
-        <v>4</v>
+      <c r="E68" s="36">
+        <v>5</v>
+      </c>
+      <c r="F68" s="24">
+        <v>7</v>
       </c>
       <c r="G68" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="H68" s="100">
+        <v>0.97</v>
+      </c>
+      <c r="I68" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="H68" s="40">
-        <v>0.751</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J68" s="30" t="s">
-        <v>83</v>
+      <c r="J68" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="K68" s="47">
         <f>E68*F68</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L68" s="48">
         <f>ROUND(K68/28,1)</f>
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="25.5">
@@ -4172,37 +4202,37 @@
         <f>B68+1</f>
         <v>67</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="12" t="s">
+      <c r="C69" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="35">
-        <v>11</v>
-      </c>
-      <c r="F69" s="52">
+      <c r="E69" s="36">
+        <v>5</v>
+      </c>
+      <c r="F69" s="24">
         <v>4</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="H69" s="40">
-        <v>0.746</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J69" s="30" t="s">
-        <v>83</v>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J69" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="K69" s="47">
         <f>E69*F69</f>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L69" s="48">
         <f>ROUND(K69/28,1)</f>
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="25.5">
@@ -4211,44 +4241,47 @@
         <f>B69+1</f>
         <v>68</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="12" t="s">
+      <c r="C70" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70" s="52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G70" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H70" s="40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K70" s="47">
         <f>E70*F70</f>
-        <v>15</v>
-      </c>
-      <c r="L70" s="28"/>
-    </row>
-    <row r="71" spans="1:12" ht="39">
+        <v>8</v>
+      </c>
+      <c r="L70" s="48">
+        <f>ROUND(K70/28,1)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="35">
         <f>B70+1</f>
         <v>69</v>
       </c>
       <c r="C71" s="54" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>7</v>
@@ -4280,43 +4313,43 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" ht="25.5">
       <c r="A72" s="7"/>
       <c r="B72" s="35">
         <f>B71+1</f>
         <v>70</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E72" s="35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F72" s="52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H72" s="40">
-        <v>0.82599999999999996</v>
+        <v>0.751</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J72" s="30" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="K72" s="47">
         <f>E72*F72</f>
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L72" s="48">
         <f>ROUND(K72/28,1)</f>
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="25.5">
@@ -4325,37 +4358,37 @@
         <f>B72+1</f>
         <v>71</v>
       </c>
-      <c r="C73" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="65" t="s">
-        <v>141</v>
+      <c r="C73" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="56" t="s">
+        <v>7</v>
       </c>
       <c r="E73" s="52">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F73" s="52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="H73" s="107">
-        <v>0.93</v>
-      </c>
-      <c r="I73" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="J73" s="65" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="H73" s="53">
+        <v>0.746</v>
+      </c>
+      <c r="I73" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J73" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="K73" s="47">
         <f>E73*F73</f>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="L73" s="49">
         <f>ROUND(K73/28,1)</f>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="25.5">
@@ -4365,153 +4398,150 @@
         <v>72</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E74" s="35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F74" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G74" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H74" s="40">
-        <v>0.93700000000000006</v>
+        <v>0.96</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J74" s="30" t="s">
-        <v>83</v>
+        <v>163</v>
+      </c>
+      <c r="J74" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="K74" s="47">
         <f>E74*F74</f>
-        <v>48</v>
-      </c>
-      <c r="L74" s="48">
-        <f>ROUND(K74/28,1)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="25.5">
+        <v>15</v>
+      </c>
+      <c r="L74" s="28"/>
+    </row>
+    <row r="75" spans="1:12" ht="39">
       <c r="A75" s="7"/>
       <c r="B75" s="14">
         <f>B74+1</f>
         <v>73</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="24">
-        <v>4</v>
-      </c>
-      <c r="F75" s="24">
-        <v>6</v>
-      </c>
-      <c r="G75" s="43" t="s">
-        <v>86</v>
+      <c r="C75" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="52">
+        <v>1</v>
+      </c>
+      <c r="F75" s="52">
+        <v>8</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H75" s="53">
-        <v>0.91</v>
-      </c>
-      <c r="I75" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="J75" s="23" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="I75" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="J75" s="65" t="s">
+        <v>85</v>
       </c>
       <c r="K75" s="47">
         <f>E75*F75</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L75" s="48">
         <f>ROUND(K75/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="7"/>
       <c r="B76" s="14">
         <f>B75+1</f>
         <v>74</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="24">
-        <v>8</v>
-      </c>
-      <c r="F76" s="24">
-        <v>6</v>
+      <c r="C76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="52">
+        <v>5</v>
+      </c>
+      <c r="F76" s="52">
+        <v>2</v>
       </c>
       <c r="G76" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H76" s="53">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="I76" s="55" t="s">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I76" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="K76" s="47">
         <f>E76*F76</f>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="L76" s="48">
         <f>ROUND(K76/28,1)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="25.5">
       <c r="A77" s="7"/>
       <c r="B77" s="14">
         <f>B76+1</f>
         <v>75</v>
       </c>
-      <c r="C77" s="20" t="s">
-        <v>117</v>
+      <c r="C77" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E77" s="42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F77" s="52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G77" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="H77" s="40">
-        <v>1</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>86</v>
+      <c r="H77" s="110">
+        <v>0.93</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="J77" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K77" s="47">
         <f>E77*F77</f>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L77" s="48">
         <f>ROUND(K77/28,1)</f>
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="25.5">
@@ -4521,36 +4551,36 @@
         <v>76</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="E78" s="52">
+        <v>8</v>
+      </c>
+      <c r="F78" s="52">
         <v>6</v>
       </c>
-      <c r="F78" s="52">
-        <v>2</v>
-      </c>
-      <c r="G78" s="104" t="s">
-        <v>40</v>
+      <c r="G78" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H78" s="53">
-        <v>0.74</v>
-      </c>
-      <c r="I78" s="39" t="s">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I78" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J78" s="23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K78" s="47">
         <f>E78*F78</f>
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L78" s="48">
         <f>ROUND(K78/28,1)</f>
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="25.5">
@@ -4560,36 +4590,36 @@
         <v>77</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>76</v>
+        <v>193</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E79" s="36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F79" s="24">
         <v>6</v>
       </c>
-      <c r="G79" s="42" t="s">
-        <v>112</v>
+      <c r="G79" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="H79" s="40">
-        <v>0.83299999999999996</v>
+        <v>0.91</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="J79" s="30" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K79" s="47">
         <f>E79*F79</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L79" s="48">
         <f>ROUND(K79/28,1)</f>
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="25.5">
@@ -4598,25 +4628,25 @@
         <f>B79+1</f>
         <v>78</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="E80" s="52">
-        <v>5</v>
-      </c>
-      <c r="F80" s="52">
-        <v>4</v>
+      <c r="C80" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="24">
+        <v>8</v>
+      </c>
+      <c r="F80" s="24">
+        <v>6</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H80" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="I80" s="56" t="s">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I80" s="55" t="s">
         <v>86</v>
       </c>
       <c r="J80" s="23" t="s">
@@ -4624,30 +4654,30 @@
       </c>
       <c r="K80" s="47">
         <f>E80*F80</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L80" s="48">
         <f>ROUND(K80/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="38.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="7"/>
       <c r="B81" s="14">
         <f>B80+1</f>
         <v>79</v>
       </c>
-      <c r="C81" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="56" t="s">
-        <v>27</v>
+      <c r="C81" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="65" t="s">
+        <v>118</v>
       </c>
       <c r="E81" s="52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F81" s="52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G81" s="42" t="s">
         <v>228</v>
@@ -4656,447 +4686,447 @@
         <v>1</v>
       </c>
       <c r="I81" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="J81" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J81" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K81" s="47">
         <f>E81*F81</f>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L81" s="48">
         <f>ROUND(K81/28,1)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="38.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="25.5">
       <c r="A82" s="7"/>
       <c r="B82" s="14">
         <f>B81+1</f>
         <v>80</v>
       </c>
-      <c r="C82" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D82" s="65" t="s">
-        <v>27</v>
+      <c r="C82" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="56" t="s">
+        <v>76</v>
       </c>
       <c r="E82" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F82" s="52">
-        <v>5</v>
-      </c>
-      <c r="G82" s="42" t="s">
-        <v>228</v>
+        <v>2</v>
+      </c>
+      <c r="G82" s="102" t="s">
+        <v>40</v>
       </c>
       <c r="H82" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="I82" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="J82" s="65" t="s">
-        <v>82</v>
+        <v>0.74</v>
+      </c>
+      <c r="I82" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="J82" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K82" s="47">
         <f>E82*F82</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L82" s="48">
         <f>ROUND(K82/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="38.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="25.5">
       <c r="A83" s="7"/>
       <c r="B83" s="14">
         <f>B82+1</f>
         <v>81</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D83" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="52">
-        <v>4</v>
-      </c>
-      <c r="F83" s="52">
-        <v>5</v>
+      <c r="C83" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="24">
+        <v>6</v>
+      </c>
+      <c r="F83" s="24">
+        <v>6</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H83" s="53">
-        <v>0.98</v>
-      </c>
-      <c r="I83" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="J83" s="65" t="s">
-        <v>82</v>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I83" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="J83" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="K83" s="47">
         <f>E83*F83</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L83" s="48">
         <f>ROUND(K83/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="25.5">
       <c r="A84" s="7"/>
       <c r="B84" s="14">
         <f>B83+1</f>
         <v>82</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="E84" s="52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F84" s="52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G84" s="42" t="s">
         <v>228</v>
       </c>
       <c r="H84" s="53">
-        <v>0.90800000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="I84" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J84" s="23" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K84" s="47">
         <f>E84*F84</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L84" s="48">
         <f>ROUND(K84/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="38.25">
       <c r="A85" s="7"/>
       <c r="B85" s="14">
         <f>B84+1</f>
         <v>83</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="24">
+      <c r="C85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="52">
         <v>6</v>
       </c>
-      <c r="F85" s="24">
-        <v>4</v>
-      </c>
-      <c r="G85" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H85" s="82">
-        <v>0.92</v>
+      <c r="F85" s="52">
+        <v>7</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="H85" s="53">
+        <v>1</v>
       </c>
       <c r="I85" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J85" s="65" t="s">
-        <v>210</v>
+        <v>122</v>
+      </c>
+      <c r="J85" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="K85" s="47">
         <f>E85*F85</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L85" s="48">
         <f>ROUND(K85/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="26.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="38.25">
       <c r="A86" s="7"/>
       <c r="B86" s="14">
         <f>B85+1</f>
         <v>84</v>
       </c>
-      <c r="C86" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="65" t="s">
-        <v>119</v>
+      <c r="C86" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D86" s="56" t="s">
+        <v>27</v>
       </c>
       <c r="E86" s="52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F86" s="52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G86" s="42" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="H86" s="53">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="I86" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J86" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="J86" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K86" s="47">
         <f>E86*F86</f>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L86" s="48">
         <f>ROUND(K86/28,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="38.25">
       <c r="A87" s="7"/>
       <c r="B87" s="14">
         <f>B86+1</f>
         <v>85</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" s="24">
-        <v>6</v>
-      </c>
-      <c r="F87" s="24">
-        <v>6</v>
-      </c>
-      <c r="G87" s="43" t="s">
-        <v>112</v>
+      <c r="C87" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="52">
+        <v>4</v>
+      </c>
+      <c r="F87" s="52">
+        <v>5</v>
+      </c>
+      <c r="G87" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="H87" s="53">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="I87" s="56" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J87" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K87" s="47">
         <f>E87*F87</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L87" s="48">
         <f>ROUND(K87/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="38.25">
       <c r="A88" s="7"/>
       <c r="B88" s="14">
         <f>B87+1</f>
         <v>86</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D88" s="55" t="s">
-        <v>130</v>
+      <c r="C88" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="E88" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F88" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G88" s="42" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="H88" s="53">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="I88" s="56" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J88" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K88" s="47">
         <f>E88*F88</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L88" s="48">
         <f>ROUND(K88/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="14">
         <f>B88+1</f>
         <v>87</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="E89" s="52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F89" s="52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G89" s="42" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="H89" s="53">
-        <v>1</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I89" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J89" s="65" t="s">
-        <v>81</v>
+      <c r="J89" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="K89" s="47">
         <f>E89*F89</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="L89" s="48">
         <f>ROUND(K89/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="25.5">
       <c r="A90" s="7"/>
       <c r="B90" s="14">
         <f>B89+1</f>
         <v>88</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="E90" s="52">
+        <v>35</v>
+      </c>
+      <c r="E90" s="24">
         <v>6</v>
       </c>
-      <c r="F90" s="52">
-        <v>6</v>
-      </c>
-      <c r="G90" s="42" t="s">
+      <c r="F90" s="24">
+        <v>4</v>
+      </c>
+      <c r="G90" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H90" s="53">
-        <v>0.89</v>
+      <c r="H90" s="82">
+        <v>0.92</v>
       </c>
       <c r="I90" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J90" s="65" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="K90" s="47">
         <f>E90*F90</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L90" s="48">
         <f>ROUND(K90/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="26.25">
       <c r="A91" s="7"/>
       <c r="B91" s="14">
         <f>B90+1</f>
         <v>89</v>
       </c>
-      <c r="C91" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E91" s="36">
-        <v>9</v>
-      </c>
-      <c r="F91" s="24">
-        <v>6</v>
+      <c r="C91" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="35">
+        <v>5</v>
+      </c>
+      <c r="F91" s="52">
+        <v>3</v>
       </c>
       <c r="G91" s="42" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H91" s="53">
-        <v>1</v>
-      </c>
-      <c r="I91" s="55" t="s">
+        <v>0.91</v>
+      </c>
+      <c r="I91" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J91" s="23" t="s">
+      <c r="J91" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K91" s="48">
         <f>E91*F91</f>
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="L91" s="48">
         <f>ROUND(K91/28,1)</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="25.5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="7"/>
       <c r="B92" s="14">
         <f>B91+1</f>
         <v>90</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="D92" s="55" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="E92" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" s="24">
-        <v>4</v>
-      </c>
-      <c r="G92" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="43" t="s">
         <v>112</v>
       </c>
       <c r="H92" s="53">
-        <v>0.97499999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="I92" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J92" s="23" t="s">
+      <c r="J92" s="65" t="s">
         <v>82</v>
       </c>
       <c r="K92" s="47">
         <f>E92*F92</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L92" s="48">
         <f>ROUND(K92/28,1)</f>
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5105,101 +5135,101 @@
         <f>B92+1</f>
         <v>91</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>124</v>
+      <c r="C93" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D93" s="55" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="E93" s="52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F93" s="52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H93" s="53">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J93" s="30" t="s">
+      <c r="J93" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K93" s="47">
         <f>E93*F93</f>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L93" s="48">
         <f>ROUND(K93/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="25.5">
       <c r="A94" s="7"/>
       <c r="B94" s="14">
         <f>B93+1</f>
         <v>92</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="E94" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F94" s="52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H94" s="53">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="I94" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J94" s="23" t="s">
-        <v>82</v>
+      <c r="J94" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K94" s="48">
         <f>E94*F94</f>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L94" s="48">
         <f>ROUND(K94/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="25.5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="7"/>
       <c r="B95" s="14">
         <f>B94+1</f>
         <v>93</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E95" s="24">
-        <v>4</v>
-      </c>
-      <c r="F95" s="24">
-        <v>3</v>
+        <v>146</v>
+      </c>
+      <c r="E95" s="52">
+        <v>6</v>
+      </c>
+      <c r="F95" s="52">
+        <v>6</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H95" s="53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="I95" s="56" t="s">
         <v>86</v>
@@ -5209,50 +5239,50 @@
       </c>
       <c r="K95" s="48">
         <f>E95*F95</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L95" s="48">
         <f>ROUND(K95/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="26.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="7"/>
       <c r="B96" s="14">
         <f>B95+1</f>
         <v>94</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D96" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="52">
-        <v>4</v>
-      </c>
-      <c r="F96" s="52">
-        <v>4</v>
+      <c r="C96" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E96" s="24">
+        <v>9</v>
+      </c>
+      <c r="F96" s="24">
+        <v>6</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="H96" s="53">
         <v>1</v>
       </c>
-      <c r="I96" s="56" t="s">
+      <c r="I96" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J96" s="65" t="s">
+      <c r="J96" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K96" s="48">
         <f>E96*F96</f>
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="L96" s="48">
         <f>ROUND(K96/28,1)</f>
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="25.5">
@@ -5262,61 +5292,61 @@
         <v>95</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="D97" s="55" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E97" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F97" s="24">
         <v>4</v>
       </c>
-      <c r="G97" s="43" t="s">
+      <c r="G97" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H97" s="53">
-        <v>1</v>
-      </c>
-      <c r="I97" s="55" t="s">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I97" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J97" s="65" t="s">
+      <c r="J97" s="23" t="s">
         <v>82</v>
       </c>
       <c r="K97" s="48">
         <f>E97*F97</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L97" s="48">
         <f>ROUND(K97/28,1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="25.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="7"/>
       <c r="B98" s="14">
         <f>B97+1</f>
         <v>96</v>
       </c>
       <c r="C98" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="56" t="s">
-        <v>12</v>
+        <v>124</v>
+      </c>
+      <c r="D98" s="55" t="s">
+        <v>47</v>
       </c>
       <c r="E98" s="52">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F98" s="52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="H98" s="53">
-        <v>0.88900000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="I98" s="56" t="s">
         <v>86</v>
@@ -5326,36 +5356,36 @@
       </c>
       <c r="K98" s="48">
         <f>E98*F98</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="L98" s="48">
         <f>ROUND(K98/28,1)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="25.5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="7"/>
       <c r="B99" s="14">
         <f>B98+1</f>
         <v>97</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E99" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F99" s="52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G99" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H99" s="40">
-        <v>0.9</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>86</v>
@@ -5365,11 +5395,11 @@
       </c>
       <c r="K99" s="47">
         <f>E99*F99</f>
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="L99" s="48">
         <f>ROUND(K99/28,1)</f>
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="25.5">
@@ -5378,56 +5408,56 @@
         <f>B99+1</f>
         <v>98</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="35">
+      <c r="C100" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="36">
         <v>4</v>
       </c>
-      <c r="F100" s="52">
-        <v>6</v>
+      <c r="F100" s="24">
+        <v>3</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="H100" s="40">
-        <v>0.83299999999999996</v>
+        <v>1</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J100" s="30" t="s">
+      <c r="J100" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K100" s="47">
         <f>E100*F100</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L100" s="48">
         <f>ROUND(K100/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="25.5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="26.25">
       <c r="A101" s="7"/>
       <c r="B101" s="14">
         <f>B100+1</f>
         <v>99</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" s="13" t="s">
+      <c r="C101" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="36">
+      <c r="E101" s="35">
         <v>4</v>
       </c>
-      <c r="F101" s="24">
-        <v>3</v>
+      <c r="F101" s="52">
+        <v>4</v>
       </c>
       <c r="G101" s="42" t="s">
         <v>112</v>
@@ -5438,16 +5468,16 @@
       <c r="I101" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J101" s="30" t="s">
+      <c r="J101" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K101" s="47">
         <f>E101*F101</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L101" s="48">
         <f>ROUND(K101/28,1)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="25.5">
@@ -5457,75 +5487,75 @@
         <v>100</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="E102" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F102" s="24">
-        <v>5</v>
-      </c>
-      <c r="G102" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="43" t="s">
         <v>112</v>
       </c>
       <c r="H102" s="40">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="I102" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J102" s="30" t="s">
+      <c r="J102" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K102" s="47">
         <f>E102*F102</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L102" s="48">
         <f>ROUND(K102/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="25.5">
       <c r="A103" s="7"/>
       <c r="B103" s="14">
         <f>B102+1</f>
         <v>101</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E103" s="36">
-        <v>5</v>
-      </c>
-      <c r="F103" s="24">
-        <v>4</v>
+      <c r="C103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="35">
+        <v>7</v>
+      </c>
+      <c r="F103" s="52">
+        <v>6</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H103" s="40">
-        <v>0.89900000000000002</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J103" s="30" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K103" s="47">
         <f>E103*F103</f>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L103" s="48">
         <f>ROUND(K103/28,1)</f>
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="25.5">
@@ -5535,13 +5565,13 @@
         <v>102</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E104" s="35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F104" s="52">
         <v>6</v>
@@ -5550,46 +5580,46 @@
         <v>112</v>
       </c>
       <c r="H104" s="40">
-        <v>0.88900000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I104" s="12" t="s">
         <v>86</v>
       </c>
       <c r="J104" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K104" s="47">
         <f>E104*F104</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L104" s="48">
         <f>ROUND(K104/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="25.5">
       <c r="A105" s="7"/>
       <c r="B105" s="14">
         <f>B104+1</f>
         <v>103</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E105" s="35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F105" s="52">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G105" s="42" t="s">
         <v>112</v>
       </c>
       <c r="H105" s="40">
-        <v>0.84699999999999998</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>86</v>
@@ -5599,116 +5629,246 @@
       </c>
       <c r="K105" s="47">
         <f>E105*F105</f>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="L105" s="48">
         <f>ROUND(K105/28,1)</f>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="25.5">
       <c r="A106" s="7"/>
       <c r="B106" s="14">
         <f>B105+1</f>
         <v>104</v>
       </c>
-      <c r="C106" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="E106" s="35">
-        <v>8</v>
-      </c>
-      <c r="F106" s="52">
-        <v>15</v>
-      </c>
-      <c r="G106" s="106" t="s">
+      <c r="C106" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="36">
+        <v>4</v>
+      </c>
+      <c r="F106" s="24">
+        <v>3</v>
+      </c>
+      <c r="G106" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H106" s="103">
-        <v>0.9</v>
-      </c>
-      <c r="I106" s="97" t="s">
+      <c r="H106" s="40">
+        <v>1</v>
+      </c>
+      <c r="I106" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J106" s="25" t="s">
-        <v>180</v>
+      <c r="J106" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K106" s="47">
         <f>E106*F106</f>
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="L106" s="48">
         <f>ROUND(K106/28,1)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="25.5">
       <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
+      <c r="B107" s="14">
+        <f>B106+1</f>
+        <v>105</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="24">
+        <v>5</v>
+      </c>
+      <c r="F107" s="24">
+        <v>5</v>
+      </c>
+      <c r="G107" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H107" s="53">
+        <v>0.88</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K107" s="48">
+        <f>E107*F107</f>
+        <v>25</v>
+      </c>
+      <c r="L107" s="48">
+        <f>ROUND(K107/28,1)</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="B108" s="14">
+        <f>B107+1</f>
+        <v>106</v>
+      </c>
+      <c r="C108" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" s="24">
+        <v>5</v>
+      </c>
+      <c r="F108" s="24">
+        <v>4</v>
+      </c>
+      <c r="G108" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="H108" s="53">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I108" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J108" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K108" s="48">
+        <f>E108*F108</f>
+        <v>20</v>
+      </c>
+      <c r="L108" s="48">
+        <f>ROUND(K108/28,1)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="25.5">
       <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="H109" s="108"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
+      <c r="B109" s="14">
+        <f>B108+1</f>
+        <v>107</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="52">
+        <v>6</v>
+      </c>
+      <c r="F109" s="52">
+        <v>6</v>
+      </c>
+      <c r="G109" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H109" s="53">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I109" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J109" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K109" s="48">
+        <f>E109*F109</f>
+        <v>36</v>
+      </c>
+      <c r="L109" s="48">
+        <f>ROUND(K109/28,1)</f>
+        <v>1.3</v>
+      </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
+      <c r="B110" s="14">
+        <f>B109+1</f>
+        <v>108</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" s="52">
+        <v>8</v>
+      </c>
+      <c r="F110" s="52">
+        <v>12</v>
+      </c>
+      <c r="G110" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H110" s="53">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I110" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J110" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K110" s="48">
+        <f>E110*F110</f>
+        <v>96</v>
+      </c>
+      <c r="L110" s="48">
+        <f>ROUND(K110/28,1)</f>
+        <v>3.4</v>
+      </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
+      <c r="B111" s="14">
+        <f>B110+1</f>
+        <v>109</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" s="52">
+        <v>8</v>
+      </c>
+      <c r="F111" s="52">
+        <v>15</v>
+      </c>
+      <c r="G111" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="H111" s="109">
+        <v>0.9</v>
+      </c>
+      <c r="I111" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="J111" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="K111" s="48">
+        <f>E111*F111</f>
+        <v>120</v>
+      </c>
+      <c r="L111" s="48">
+        <f>ROUND(K111/28,1)</f>
+        <v>4.3</v>
+      </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="7"/>
@@ -5730,7 +5890,7 @@
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="H113" s="109"/>
+      <c r="H113" s="105"/>
       <c r="I113" s="5"/>
       <c r="J113" s="29"/>
       <c r="K113" s="15"/>
@@ -5743,7 +5903,7 @@
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="H114" s="110"/>
+      <c r="H114" s="106"/>
       <c r="I114" s="5"/>
       <c r="J114" s="29"/>
       <c r="K114" s="15"/>
@@ -5782,7 +5942,7 @@
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="H117" s="109"/>
+      <c r="H117" s="105"/>
       <c r="I117" s="5"/>
       <c r="J117" s="29"/>
       <c r="K117" s="15"/>
@@ -5795,7 +5955,7 @@
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="H118" s="111"/>
+      <c r="H118" s="107"/>
       <c r="I118" s="5"/>
       <c r="J118" s="29"/>
       <c r="K118" s="15"/>
@@ -5834,7 +5994,7 @@
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="H121" s="108"/>
+      <c r="H121" s="104"/>
       <c r="I121" s="5"/>
       <c r="J121" s="29"/>
       <c r="K121" s="15"/>
@@ -5847,7 +6007,7 @@
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="H122" s="108"/>
+      <c r="H122" s="104"/>
       <c r="I122" s="5"/>
       <c r="J122" s="29"/>
       <c r="K122" s="15"/>
@@ -6090,7 +6250,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:L106">
-    <sortState ref="B3:L106">
+    <sortState ref="B3:L111">
       <sortCondition ref="D2:D106"/>
     </sortState>
   </autoFilter>
@@ -6210,7 +6370,7 @@
       <c r="G4" s="53">
         <v>1</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="92" t="s">
         <v>82</v>
       </c>
       <c r="I4" s="42">
@@ -6274,7 +6434,7 @@
       <c r="G6" s="40">
         <v>0.91</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="92" t="s">
         <v>82</v>
       </c>
       <c r="I6" s="78">
@@ -6307,7 +6467,7 @@
       <c r="G7" s="40">
         <v>0.78</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="92" t="s">
         <v>198</v>
       </c>
       <c r="I7" s="78">
@@ -6340,7 +6500,7 @@
       <c r="G8" s="40">
         <v>0.97</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="92" t="s">
         <v>207</v>
       </c>
       <c r="I8" s="42">
@@ -6370,7 +6530,7 @@
       <c r="F9" s="76">
         <v>8</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="91">
         <v>0.85</v>
       </c>
       <c r="H9" s="77" t="s">
@@ -6437,7 +6597,7 @@
       <c r="G11" s="53">
         <v>0.88</v>
       </c>
-      <c r="H11" s="89" t="s">
+      <c r="H11" s="88" t="s">
         <v>81</v>
       </c>
       <c r="I11" s="78">
@@ -6500,7 +6660,7 @@
       <c r="F13" s="76">
         <v>4</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="91">
         <v>1</v>
       </c>
       <c r="H13" s="77" t="s">
@@ -6533,10 +6693,10 @@
       <c r="F14" s="52">
         <v>4</v>
       </c>
-      <c r="G14" s="100">
+      <c r="G14" s="99">
         <v>0.81</v>
       </c>
-      <c r="H14" s="89" t="s">
+      <c r="H14" s="88" t="s">
         <v>82</v>
       </c>
       <c r="I14" s="78">
@@ -6569,7 +6729,7 @@
       <c r="G15" s="53">
         <v>1</v>
       </c>
-      <c r="H15" s="89" t="s">
+      <c r="H15" s="88" t="s">
         <v>82</v>
       </c>
       <c r="I15" s="87">
@@ -6602,7 +6762,7 @@
       <c r="G16" s="40">
         <v>0.81</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="92" t="s">
         <v>82</v>
       </c>
       <c r="I16" s="78">
@@ -6632,7 +6792,7 @@
       <c r="F17" s="76">
         <v>5</v>
       </c>
-      <c r="G17" s="99">
+      <c r="G17" s="98">
         <v>0.94</v>
       </c>
       <c r="H17" s="77" t="s">
@@ -6666,7 +6826,7 @@
       <c r="G18" s="86">
         <v>0.8</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="H18" s="97" t="s">
         <v>103</v>
       </c>
       <c r="I18" s="87">
@@ -7594,124 +7754,124 @@
         <v>64</v>
       </c>
       <c r="K4" s="48">
-        <f t="shared" ref="K4:K5" si="3">E4*F4</f>
+        <f t="shared" ref="K4" si="3">E4*F4</f>
         <v>36</v>
       </c>
       <c r="L4" s="48">
-        <f t="shared" ref="L4:L5" si="4">ROUND(K4/28,1)</f>
+        <f t="shared" ref="L4" si="4">ROUND(K4/28,1)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="38.25">
+    <row r="5" spans="1:14" ht="25.5">
       <c r="A5" s="8"/>
       <c r="B5" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C5" s="70" t="s">
-        <v>215</v>
+      <c r="C5" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="52">
-        <v>6</v>
+        <v>220</v>
+      </c>
+      <c r="E5" s="42">
+        <v>7</v>
       </c>
       <c r="F5" s="52">
-        <v>6</v>
-      </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="12" t="s">
-        <v>122</v>
+        <v>7</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="K5" s="48">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <f t="shared" ref="K5:K7" si="5">E5*F5</f>
+        <v>49</v>
       </c>
       <c r="L5" s="48">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-    </row>
-    <row r="6" spans="1:14" ht="25.5">
+        <f t="shared" ref="L5:L7" si="6">ROUND(K5/28,1)</f>
+        <v>1.8</v>
+      </c>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="8"/>
       <c r="B6" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="42">
-        <v>7</v>
-      </c>
-      <c r="F6" s="52">
-        <v>7</v>
-      </c>
-      <c r="G6" s="102"/>
+      <c r="C6" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="43">
+        <v>4</v>
+      </c>
+      <c r="F6" s="43">
+        <v>9</v>
+      </c>
+      <c r="G6" s="42"/>
       <c r="H6" s="40"/>
-      <c r="I6" s="39" t="s">
-        <v>86</v>
+      <c r="I6" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="K6" s="48">
-        <f t="shared" ref="K6:K7" si="5">E6*F6</f>
-        <v>49</v>
+        <v>64</v>
+      </c>
+      <c r="K6" s="47">
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
       <c r="L6" s="48">
-        <f t="shared" ref="L6:L7" si="6">ROUND(K6/28,1)</f>
-        <v>1.8</v>
-      </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-    </row>
-    <row r="7" spans="1:14">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+    </row>
+    <row r="7" spans="1:14" ht="25.5">
       <c r="A7" s="8"/>
       <c r="B7" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="43">
+      <c r="C7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="35">
+        <v>5</v>
+      </c>
+      <c r="F7" s="42">
         <v>4</v>
       </c>
-      <c r="F7" s="43">
-        <v>9</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="47">
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="48">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L7" s="48">
         <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
+        <v>0.7</v>
+      </c>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8"/>
@@ -7719,18 +7879,18 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="66"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="58"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8"/>
@@ -7738,18 +7898,18 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="66"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8"/>
@@ -7757,18 +7917,18 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="66"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="58"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="8"/>
@@ -7776,18 +7936,18 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="35"/>
       <c r="H11" s="66"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="29"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="8"/>
@@ -7801,28 +7961,28 @@
       <c r="F12" s="36"/>
       <c r="G12" s="35"/>
       <c r="H12" s="66"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="58"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="66"/>
       <c r="I13" s="5"/>
       <c r="J13" s="58"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8"/>
@@ -7855,10 +8015,10 @@
     <row r="16" spans="1:14">
       <c r="A16" s="8"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="35"/>
       <c r="H16" s="66"/>
       <c r="I16" s="5"/>
@@ -7873,9 +8033,9 @@
       <c r="D17" s="6"/>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
-      <c r="G17" s="35"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="58"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -7883,13 +8043,13 @@
     <row r="18" spans="1:12">
       <c r="A18" s="8"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="66"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="58"/>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
@@ -7911,15 +8071,15 @@
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="49"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:12">
@@ -7944,11 +8104,11 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="32"/>
+      <c r="H22" s="57"/>
       <c r="I22" s="33"/>
       <c r="J22" s="29"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="49"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8"/>
@@ -7958,7 +8118,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="57"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="33"/>
       <c r="J23" s="29"/>
       <c r="K23" s="15"/>
@@ -9074,15 +9234,6 @@
     <row r="104" spans="1:12">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="15"/>
       <c r="L104" s="15"/>
     </row>
     <row r="105" spans="1:12">
@@ -9093,7 +9244,6 @@
     <row r="106" spans="1:12">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
-      <c r="L106" s="15"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="7"/>
@@ -9269,7 +9419,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25">
-      <c r="A1" s="90"/>
+      <c r="A1" s="89"/>
       <c r="B1" s="7"/>
       <c r="C1" s="72" t="s">
         <v>175</v>
@@ -9285,7 +9435,7 @@
       <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="25.5">
-      <c r="A2" s="91"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
@@ -9317,7 +9467,7 @@
       <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="90"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="74">
         <v>1</v>
       </c>
@@ -9326,14 +9476,14 @@
       <c r="E3" s="52"/>
       <c r="F3" s="42"/>
       <c r="G3" s="40"/>
-      <c r="H3" s="93"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="78"/>
       <c r="J3" s="73"/>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="90"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="74">
         <f>B3+1</f>
         <v>2</v>
@@ -9343,14 +9493,14 @@
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
       <c r="G4" s="53"/>
-      <c r="H4" s="89"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="90"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="74">
         <f>B4+1</f>
         <v>3</v>
@@ -9360,14 +9510,14 @@
       <c r="E5" s="42"/>
       <c r="F5" s="52"/>
       <c r="G5" s="53"/>
-      <c r="H5" s="89"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="90"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="74">
         <f>B5+1</f>
         <v>4</v>
@@ -9377,14 +9527,14 @@
       <c r="E6" s="42"/>
       <c r="F6" s="52"/>
       <c r="G6" s="53"/>
-      <c r="H6" s="89"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="90"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="74">
         <f>B6+1</f>
         <v>5</v>
@@ -9402,7 +9552,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7"/>
-      <c r="B8" s="94"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="15"/>
       <c r="D8" s="29"/>
       <c r="E8" s="35"/>
@@ -9417,7 +9567,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7"/>
-      <c r="B9" s="94"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="35"/>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -14,7 +14,7 @@
     <sheet name="In progress EdX" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursera!$B$2:$L$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursera!$B$2:$L$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EdX!$B$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'In progress Coursera'!$B$2:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'In progress EdX'!$B$2:$J$2</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="249">
   <si>
     <t>#</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Distinction</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Understanding economic policymaking</t>
   </si>
   <si>
@@ -687,18 +684,6 @@
     <t>Project management: the basics for success</t>
   </si>
   <si>
-    <t>Economics of money and banking, part 1</t>
-  </si>
-  <si>
-    <t>Colombia university, Barnard College</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Developing data products</t>
-  </si>
-  <si>
     <t>Work smarter, not harder: time management for personal &amp; professional productivity</t>
   </si>
   <si>
@@ -726,9 +711,6 @@
     <t>Effective problem-solving and decision-making</t>
   </si>
   <si>
-    <t>Women in leadership: inspiring positive change</t>
-  </si>
-  <si>
     <t>Content strategy for professionals 1: engaging audiences for your organization</t>
   </si>
   <si>
@@ -748,6 +730,51 @@
   </si>
   <si>
     <t>Managing risks and changes</t>
+  </si>
+  <si>
+    <t>Smartphone emerging technologies</t>
+  </si>
+  <si>
+    <t>Internet emerging technologies</t>
+  </si>
+  <si>
+    <t>Big data, cloud computing &amp; CDN emerging technologies</t>
+  </si>
+  <si>
+    <t>Internet of things &amp; augmented reality emerging technologies</t>
+  </si>
+  <si>
+    <t>Wireless communications emerging technologies</t>
+  </si>
+  <si>
+    <t>Yonsei University</t>
+  </si>
+  <si>
+    <t>Emerging Technologies: from smartphones to IoT to big data</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Psychological first-aid</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Content strategy for professionals 2: Expanding your content's impact and reach</t>
+  </si>
+  <si>
+    <t>University of Melbourne</t>
+  </si>
+  <si>
+    <t>The language and tools of financial analysis</t>
+  </si>
+  <si>
+    <t>Essentials of Corporate Financial Analysis and Decision-Making</t>
+  </si>
+  <si>
+    <t>Psychology of popularity</t>
   </si>
 </sst>
 </file>
@@ -757,7 +784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +843,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -914,7 +946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1203,32 +1235,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1237,6 +1251,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1561,7 +1587,7 @@
     <row r="1" spans="2:14" ht="26.25">
       <c r="B1" s="7"/>
       <c r="C1" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1599,13 +1625,13 @@
         <v>32</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>100</v>
       </c>
       <c r="M2" s="9"/>
     </row>
@@ -1614,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>37</v>
@@ -1626,16 +1652,16 @@
         <v>4</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H3" s="40">
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" s="47">
         <f>E3*F3</f>
@@ -1665,16 +1691,16 @@
         <v>4</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="40">
         <v>0.65</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="47">
         <f>E4*F4</f>
@@ -1692,10 +1718,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="36">
         <v>6</v>
@@ -1704,16 +1730,16 @@
         <v>6</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H5" s="40">
         <v>0.86699999999999999</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" s="47">
         <f>E5*F5</f>
@@ -1731,10 +1757,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="36">
         <v>6</v>
@@ -1743,16 +1769,16 @@
         <v>6</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H6" s="40">
         <v>0.93300000000000005</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" s="47">
         <f>E6*F6</f>
@@ -1770,10 +1796,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="36">
         <v>6</v>
@@ -1782,16 +1808,16 @@
         <v>6</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H7" s="40">
         <v>0.93</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" s="47">
         <f>E7*F7</f>
@@ -1809,10 +1835,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="36">
         <v>6</v>
@@ -1821,16 +1847,16 @@
         <v>6</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H8" s="40">
         <v>0.88</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="47">
         <f>E8*F8</f>
@@ -1848,10 +1874,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="36">
         <v>6</v>
@@ -1860,16 +1886,16 @@
         <v>6</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H9" s="40">
         <v>0.83299999999999996</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="47">
         <f>E9*F9</f>
@@ -1887,10 +1913,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="36">
         <v>6</v>
@@ -1899,16 +1925,16 @@
         <v>6</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H10" s="40">
         <v>0.92300000000000004</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10" s="47">
         <f>E10*F10</f>
@@ -1927,10 +1953,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="35">
         <v>6</v>
@@ -1939,16 +1965,16 @@
         <v>6</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H11" s="40">
         <v>0.92</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" s="47">
         <f>E11*F11</f>
@@ -1966,10 +1992,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="35">
         <v>6</v>
@@ -1978,16 +2004,16 @@
         <v>6</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H12" s="40">
         <v>0.89</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K12" s="47">
         <f>E12*F12</f>
@@ -2006,10 +2032,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="36">
         <v>4</v>
@@ -2018,16 +2044,16 @@
         <v>3</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H13" s="100">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K13" s="47">
         <f>E13*F13</f>
@@ -2045,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>33</v>
@@ -2057,16 +2083,16 @@
         <v>4</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="40">
         <v>1</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" s="47">
         <f>E14*F14</f>
@@ -2084,7 +2110,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>33</v>
@@ -2096,16 +2122,16 @@
         <v>3</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H15" s="40">
         <v>0.98</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="47">
         <f>E15*F15</f>
@@ -2123,7 +2149,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>33</v>
@@ -2135,16 +2161,16 @@
         <v>4</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H16" s="40">
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" s="47">
         <f>E16*F16</f>
@@ -2162,7 +2188,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>33</v>
@@ -2174,16 +2200,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H17" s="40">
         <v>0.92</v>
       </c>
       <c r="I17" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>156</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>157</v>
       </c>
       <c r="K17" s="47">
         <f>E17*F17</f>
@@ -2201,7 +2227,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>33</v>
@@ -2213,16 +2239,16 @@
         <v>4</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="40">
         <v>0.98</v>
       </c>
       <c r="I18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="30" t="s">
         <v>156</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>157</v>
       </c>
       <c r="K18" s="47">
         <f>E18*F18</f>
@@ -2240,10 +2266,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="E19" s="35">
         <v>6</v>
@@ -2252,16 +2278,16 @@
         <v>3</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19" s="40">
         <v>0.93</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" s="47">
         <f>E19*F19</f>
@@ -2280,10 +2306,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="35">
         <v>3</v>
@@ -2292,16 +2318,16 @@
         <v>3</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20" s="40">
         <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" s="47">
         <f>E20*F20</f>
@@ -2319,10 +2345,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="E21" s="36">
         <v>6</v>
@@ -2331,16 +2357,16 @@
         <v>4</v>
       </c>
       <c r="G21" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" s="41">
         <v>0.86</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K21" s="47">
         <f>E21*F21</f>
@@ -2358,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>25</v>
@@ -2370,16 +2396,16 @@
         <v>3</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H22" s="40">
         <v>0.78</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K22" s="47">
         <f>E22*F22</f>
@@ -2409,16 +2435,16 @@
         <v>4</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H23" s="40">
         <v>0.77</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K23" s="47">
         <f>E23*F23</f>
@@ -2436,10 +2462,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="36">
         <v>6</v>
@@ -2448,16 +2474,16 @@
         <v>9</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H24" s="40">
         <v>0.92</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="47">
         <f>E24*F24</f>
@@ -2487,16 +2513,16 @@
         <v>3</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H25" s="40">
         <v>0.872</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K25" s="47">
         <f>E25*F25</f>
@@ -2514,7 +2540,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>14</v>
@@ -2526,16 +2552,16 @@
         <v>5</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H26" s="40">
         <v>0.874</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K26" s="47">
         <f>E26*F26</f>
@@ -2554,7 +2580,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>29</v>
@@ -2566,16 +2592,16 @@
         <v>3</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H27" s="40">
         <v>0.92</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="47">
         <f>E27*F27</f>
@@ -2605,16 +2631,16 @@
         <v>7</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" s="40">
         <v>0.92200000000000004</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K28" s="47">
         <f>E28*F28</f>
@@ -2633,10 +2659,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="35">
         <v>4</v>
@@ -2645,16 +2671,16 @@
         <v>9</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H29" s="40">
         <v>1</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K29" s="47">
         <f>E29*F29</f>
@@ -2672,10 +2698,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="35">
         <v>4</v>
@@ -2684,16 +2710,16 @@
         <v>9</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H30" s="40">
         <v>1</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" s="47">
         <f>E30*F30</f>
@@ -2710,10 +2736,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="35">
         <v>7</v>
@@ -2722,16 +2748,16 @@
         <v>5</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H31" s="40">
         <v>0.94</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" s="47">
         <f>E31*F31</f>
@@ -2747,11 +2773,11 @@
         <f>B31+1</f>
         <v>30</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>63</v>
+      <c r="C32" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E32" s="35">
         <v>4</v>
@@ -2760,16 +2786,16 @@
         <v>9</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H32" s="40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="K32" s="47">
         <f>E32*F32</f>
@@ -2785,37 +2811,37 @@
         <f>B32+1</f>
         <v>31</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="36">
-        <v>4</v>
-      </c>
-      <c r="F33" s="24">
-        <v>9</v>
+      <c r="C33" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="35">
+        <v>6</v>
+      </c>
+      <c r="F33" s="52">
+        <v>3</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="H33" s="40">
         <v>1</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>64</v>
+      <c r="I33" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K33" s="47">
+        <v>243</v>
+      </c>
+      <c r="K33" s="109">
         <f>E33*F33</f>
-        <v>36</v>
-      </c>
-      <c r="L33" s="48">
+        <v>18</v>
+      </c>
+      <c r="L33" s="108">
         <f>ROUND(K33/28,1)</f>
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="M33" s="7"/>
     </row>
@@ -2824,11 +2850,11 @@
         <f>B33+1</f>
         <v>32</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>209</v>
+      <c r="C34" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="35">
         <v>4</v>
@@ -2837,16 +2863,16 @@
         <v>9</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H34" s="40">
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="K34" s="47">
         <f>E34*F34</f>
@@ -2863,33 +2889,33 @@
         <f>B34+1</f>
         <v>33</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="36">
+        <v>4</v>
+      </c>
+      <c r="F35" s="24">
+        <v>9</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H35" s="40">
+        <v>1</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="35">
-        <v>7</v>
-      </c>
-      <c r="F35" s="52">
-        <v>5</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="H35" s="40">
-        <v>0.95</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>64</v>
+      <c r="J35" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="K35" s="47">
         <f>E35*F35</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L35" s="48">
         <f>ROUND(K35/28,1)</f>
@@ -2903,37 +2929,37 @@
         <f>B35+1</f>
         <v>34</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="36">
+      <c r="E36" s="35">
         <v>4</v>
       </c>
-      <c r="F36" s="24">
-        <v>4</v>
+      <c r="F36" s="52">
+        <v>9</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H36" s="40">
         <v>1</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>64</v>
+      <c r="I36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="K36" s="47">
         <f>E36*F36</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L36" s="48">
         <f>ROUND(K36/28,1)</f>
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="M36" s="7"/>
     </row>
@@ -2942,37 +2968,37 @@
         <f>B36+1</f>
         <v>35</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="36">
-        <v>8</v>
-      </c>
-      <c r="F37" s="24">
-        <v>3</v>
+      <c r="C37" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="35">
+        <v>7</v>
+      </c>
+      <c r="F37" s="52">
+        <v>5</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H37" s="40">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="K37" s="47">
         <f>E37*F37</f>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L37" s="48">
         <f>ROUND(K37/28,1)</f>
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="M37" s="7"/>
     </row>
@@ -2981,37 +3007,37 @@
         <f>B37+1</f>
         <v>36</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="35">
-        <v>8</v>
-      </c>
-      <c r="F38" s="52">
-        <v>6</v>
+      <c r="C38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="36">
+        <v>4</v>
+      </c>
+      <c r="F38" s="24">
+        <v>4</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H38" s="40">
-        <v>0.79</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="K38" s="47">
         <f>E38*F38</f>
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="L38" s="48">
         <f>ROUND(K38/28,1)</f>
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="M38" s="7"/>
     </row>
@@ -3021,36 +3047,36 @@
         <v>37</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="E39" s="36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" s="24">
-        <v>8</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>223</v>
       </c>
       <c r="H39" s="40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K39" s="47">
         <f>E39*F39</f>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="L39" s="48">
         <f>ROUND(K39/28,1)</f>
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="3"/>
@@ -3060,29 +3086,29 @@
         <f>B39+1</f>
         <v>38</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="35">
+        <v>8</v>
+      </c>
+      <c r="F40" s="52">
+        <v>6</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="40">
+        <v>0.79</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="36">
-        <v>6</v>
-      </c>
-      <c r="F40" s="24">
-        <v>8</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="H40" s="40">
-        <v>0.873</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>64</v>
+      <c r="J40" s="30" t="s">
+        <v>77</v>
       </c>
       <c r="K40" s="47">
         <f>E40*F40</f>
@@ -3101,36 +3127,36 @@
         <v>39</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E41" s="36">
         <v>7</v>
       </c>
       <c r="F41" s="24">
-        <v>4</v>
-      </c>
-      <c r="G41" s="42" t="s">
-        <v>228</v>
+        <v>8</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="H41" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>82</v>
+        <v>0.9</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="K41" s="47">
         <f>E41*F41</f>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L41" s="48">
         <f>ROUND(K41/28,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="8"/>
@@ -3140,37 +3166,37 @@
         <f>B41+1</f>
         <v>40</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="35">
+      <c r="C42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="36">
         <v>6</v>
       </c>
-      <c r="F42" s="52">
-        <v>4</v>
+      <c r="F42" s="24">
+        <v>8</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H42" s="40">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J42" s="30" t="s">
-        <v>82</v>
+        <v>0.873</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="K42" s="47">
         <f>E42*F42</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="L42" s="48">
         <f>ROUND(K42/28,1)</f>
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="8"/>
@@ -3181,37 +3207,37 @@
         <f>B42+1</f>
         <v>41</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="35">
-        <v>5</v>
-      </c>
-      <c r="F43" s="52">
-        <v>8</v>
+      <c r="C43" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="36">
+        <v>7</v>
+      </c>
+      <c r="F43" s="24">
+        <v>4</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H43" s="40">
-        <v>0.95</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>86</v>
+        <v>0.98</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="J43" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K43" s="47">
         <f>E43*F43</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L43" s="48">
         <f>ROUND(K43/28,1)</f>
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="8"/>
@@ -3222,37 +3248,37 @@
         <f>B43+1</f>
         <v>42</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>161</v>
+      <c r="C44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="E44" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F44" s="52">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="H44" s="40">
-        <v>0.83</v>
-      </c>
-      <c r="I44" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="J44" s="25" t="s">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" s="30" t="s">
         <v>81</v>
       </c>
       <c r="K44" s="47">
         <f>E44*F44</f>
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="L44" s="48">
         <f>ROUND(K44/28,1)</f>
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="8"/>
@@ -3262,77 +3288,77 @@
         <f>B44+1</f>
         <v>43</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="36">
+      <c r="C45" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="35">
         <v>5</v>
       </c>
-      <c r="F45" s="24">
-        <v>4</v>
+      <c r="F45" s="52">
+        <v>8</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H45" s="40">
-        <v>0.95799999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K45" s="47">
         <f>E45*F45</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L45" s="48">
         <f>ROUND(K45/28,1)</f>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" ht="25.5">
+    <row r="46" spans="1:14">
       <c r="B46" s="14">
         <f>B45+1</f>
         <v>44</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>20</v>
+      <c r="C46" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="E46" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F46" s="52">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="H46" s="40">
-        <v>0.99</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J46" s="30" t="s">
-        <v>79</v>
+        <v>0.83</v>
+      </c>
+      <c r="I46" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="K46" s="47">
         <f>E46*F46</f>
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="L46" s="48">
         <f>ROUND(K46/28,1)</f>
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="8"/>
@@ -3342,37 +3368,37 @@
         <f>B46+1</f>
         <v>45</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E47" s="35">
-        <v>6</v>
-      </c>
-      <c r="F47" s="52">
+      <c r="C47" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="36">
+        <v>5</v>
+      </c>
+      <c r="F47" s="24">
         <v>4</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="H47" s="40">
-        <v>0.1</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="K47" s="47">
         <f>E47*F47</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L47" s="48">
         <f>ROUND(K47/28,1)</f>
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="8"/>
@@ -3382,272 +3408,272 @@
         <f>B47+1</f>
         <v>46</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="36">
-        <v>9</v>
-      </c>
-      <c r="F48" s="24">
-        <v>10</v>
+      <c r="C48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="35">
+        <v>4</v>
+      </c>
+      <c r="F48" s="52">
+        <v>4</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H48" s="40">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>61</v>
+        <v>0.99</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K48" s="47">
         <f>E48*F48</f>
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="L48" s="48">
         <f>ROUND(K48/28,1)</f>
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" ht="25.5">
       <c r="B49" s="14">
         <f>B48+1</f>
         <v>47</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="36">
-        <v>10</v>
-      </c>
-      <c r="F49" s="24">
-        <v>3</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>86</v>
+      <c r="C49" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="35">
+        <v>6</v>
+      </c>
+      <c r="F49" s="52">
+        <v>4</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="H49" s="40">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J49" s="30" t="s">
-        <v>82</v>
+        <v>0.1</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K49" s="47">
         <f>E49*F49</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L49" s="48">
         <f>ROUND(K49/28,1)</f>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" ht="25.5">
+    <row r="50" spans="1:14" ht="38.25">
       <c r="B50" s="14">
         <f>B49+1</f>
         <v>48</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="E50" s="35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="H50" s="40">
-        <v>0.88400000000000001</v>
+        <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J50" s="30" t="s">
-        <v>64</v>
+        <v>229</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="K50" s="47">
         <f>E50*F50</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L50" s="48">
         <f>ROUND(K50/28,1)</f>
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" ht="25.5">
       <c r="B51" s="14">
         <f>B50+1</f>
         <v>49</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E51" s="36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F51" s="24">
-        <v>3</v>
-      </c>
-      <c r="G51" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" s="41">
-        <v>0.87</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>84</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" s="40">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="K51" s="47">
         <f>E51*F51</f>
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="L51" s="48">
         <f>ROUND(K51/28,1)</f>
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="25.5">
+    <row r="52" spans="1:14">
       <c r="B52" s="14">
         <f>B51+1</f>
         <v>50</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="52">
-        <v>5</v>
-      </c>
-      <c r="F52" s="52">
-        <v>9</v>
-      </c>
-      <c r="G52" s="42" t="s">
-        <v>86</v>
+      <c r="C52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="24">
+        <v>10</v>
+      </c>
+      <c r="F52" s="24">
+        <v>3</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="H52" s="53">
-        <v>0.78</v>
-      </c>
-      <c r="I52" s="56" t="s">
-        <v>86</v>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I52" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K52" s="47">
         <f>E52*F52</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L52" s="48">
         <f>ROUND(K52/28,1)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="25.5">
       <c r="B53" s="14">
         <f>B52+1</f>
         <v>51</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="24">
-        <v>5</v>
-      </c>
-      <c r="F53" s="24">
+      <c r="C53" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D53" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="52">
+        <v>8</v>
+      </c>
+      <c r="F53" s="52">
+        <v>6</v>
+      </c>
       <c r="G53" s="42" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="H53" s="53">
-        <v>0.89300000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K53" s="47">
         <f>E53*F53</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L53" s="48">
         <f>ROUND(K53/28,1)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="25.5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="7"/>
       <c r="B54" s="14">
         <f>B53+1</f>
         <v>52</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="E54" s="24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F54" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G54" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="53">
-        <v>0.95299999999999996</v>
+        <v>85</v>
+      </c>
+      <c r="H54" s="82">
+        <v>0.87</v>
       </c>
       <c r="I54" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J54" s="65" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="K54" s="47">
         <f>E54*F54</f>
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="L54" s="48">
         <f>ROUND(K54/28,1)</f>
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="25.5">
@@ -3656,193 +3682,193 @@
         <f>B54+1</f>
         <v>53</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E55" s="24">
-        <v>6</v>
-      </c>
-      <c r="F55" s="24">
-        <v>6</v>
+      <c r="C55" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="52">
+        <v>5</v>
+      </c>
+      <c r="F55" s="52">
+        <v>9</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="H55" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="I55" s="55" t="s">
-        <v>86</v>
+        <v>0.78</v>
+      </c>
+      <c r="I55" s="56" t="s">
+        <v>85</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K55" s="47">
         <f>E55*F55</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L55" s="48">
         <f>ROUND(K55/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="25.5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="7"/>
       <c r="B56" s="14">
         <f>B55+1</f>
         <v>54</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E56" s="24">
         <v>5</v>
       </c>
       <c r="F56" s="24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="H56" s="53">
-        <v>1</v>
-      </c>
-      <c r="I56" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J56" s="65" t="s">
-        <v>79</v>
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="I56" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="K56" s="47">
         <f>E56*F56</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L56" s="48">
         <f>ROUND(K56/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="38.25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="7"/>
       <c r="B57" s="14">
         <f>B56+1</f>
         <v>55</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D57" s="12" t="s">
+      <c r="C57" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="36">
+        <v>15</v>
+      </c>
+      <c r="F57" s="24">
         <v>7</v>
       </c>
-      <c r="E57" s="35">
-        <v>4</v>
-      </c>
-      <c r="F57" s="52">
-        <v>3</v>
-      </c>
-      <c r="G57" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H57" s="98">
-        <v>1</v>
+      <c r="G57" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="40">
+        <v>0.97</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="J57" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="K57" s="47">
         <f>E57*F57</f>
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="L57" s="48">
         <f>ROUND(K57/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="26.25">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="25.5">
       <c r="A58" s="7"/>
       <c r="B58" s="14">
         <f>B57+1</f>
         <v>56</v>
       </c>
-      <c r="C58" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="35">
-        <v>1</v>
-      </c>
-      <c r="F58" s="52">
+      <c r="C58" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="36">
         <v>8</v>
       </c>
-      <c r="G58" s="42" t="s">
-        <v>112</v>
+      <c r="F58" s="24">
+        <v>6</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="H58" s="40">
-        <v>1</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="K58" s="47">
         <f>E58*F58</f>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="L58" s="48">
         <f>ROUND(K58/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="26.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="25.5">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
         <f>B58+1</f>
         <v>57</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D59" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="52">
-        <v>1</v>
-      </c>
-      <c r="F59" s="52">
-        <v>8</v>
+      <c r="C59" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="24">
+        <v>6</v>
+      </c>
+      <c r="F59" s="24">
+        <v>6</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="H59" s="53">
-        <v>1</v>
-      </c>
-      <c r="I59" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="J59" s="65" t="s">
+        <v>0.95</v>
+      </c>
+      <c r="I59" s="55" t="s">
         <v>85</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K59" s="47">
         <f>E59*F59</f>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="L59" s="48">
         <f>ROUND(K59/28,1)</f>
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="25.5">
@@ -3851,10 +3877,10 @@
         <f>B59+1</f>
         <v>58</v>
       </c>
-      <c r="C60" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="25" t="s">
+      <c r="C60" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="36">
@@ -3864,16 +3890,16 @@
         <v>4</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H60" s="40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K60" s="47">
         <f>E60*F60</f>
@@ -3884,53 +3910,53 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="26.25">
+    <row r="61" spans="1:14" ht="38.25">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
         <f>B60+1</f>
         <v>59</v>
       </c>
-      <c r="C61" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="D61" s="25" t="s">
+      <c r="C61" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="35">
+        <v>4</v>
+      </c>
+      <c r="F61" s="52">
+        <v>3</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="98">
         <v>1</v>
       </c>
-      <c r="F61" s="52">
-        <v>8</v>
-      </c>
-      <c r="G61" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61" s="40">
-        <v>1</v>
-      </c>
       <c r="I61" s="12" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K61" s="47">
         <f>E61*F61</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L61" s="48">
         <f>ROUND(K61/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="26.25">
       <c r="A62" s="7"/>
       <c r="B62" s="14">
         <f>B61+1</f>
         <v>60</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>7</v>
@@ -3942,16 +3968,16 @@
         <v>8</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H62" s="40">
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K62" s="47">
         <f>E62*F62</f>
@@ -3962,92 +3988,92 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="25.5">
+    <row r="63" spans="1:14" ht="26.25">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
         <f>B62+1</f>
         <v>61</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="12" t="s">
+      <c r="C63" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="43">
-        <v>5</v>
-      </c>
-      <c r="F63" s="24">
-        <v>4</v>
+      <c r="E63" s="42">
+        <v>1</v>
+      </c>
+      <c r="F63" s="52">
+        <v>8</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="H63" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J63" s="30" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="K63" s="47">
         <f>E63*F63</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L63" s="48">
         <f>ROUND(K63/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="25.5">
       <c r="A64" s="7"/>
       <c r="B64" s="14">
         <f>B63+1</f>
         <v>62</v>
       </c>
-      <c r="C64" s="54" t="s">
-        <v>226</v>
+      <c r="C64" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="35">
-        <v>1</v>
-      </c>
-      <c r="F64" s="52">
-        <v>8</v>
+      <c r="E64" s="36">
+        <v>5</v>
+      </c>
+      <c r="F64" s="24">
+        <v>4</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="H64" s="40">
-        <v>1</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>217</v>
+        <v>0.99</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K64" s="47">
         <f>E64*F64</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L64" s="48">
         <f>ROUND(K64/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="26.25">
       <c r="A65" s="7"/>
       <c r="B65" s="14">
         <f>B64+1</f>
         <v>63</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>7</v>
@@ -4059,16 +4085,16 @@
         <v>8</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H65" s="40">
         <v>1</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K65" s="47">
         <f>E65*F65</f>
@@ -4079,238 +4105,238 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="38.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="7"/>
       <c r="B66" s="35">
         <f>B65+1</f>
         <v>64</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D66" s="12" t="s">
+      <c r="C66" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66" s="52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="98">
+        <v>111</v>
+      </c>
+      <c r="H66" s="40">
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K66" s="47">
         <f>E66*F66</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L66" s="48">
         <f>ROUND(K66/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="38.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="25.5">
       <c r="A67" s="7"/>
       <c r="B67" s="35">
         <f>B66+1</f>
         <v>65</v>
       </c>
-      <c r="C67" s="25" t="s">
-        <v>239</v>
+      <c r="C67" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="35">
+      <c r="E67" s="36">
+        <v>5</v>
+      </c>
+      <c r="F67" s="24">
         <v>4</v>
       </c>
-      <c r="F67" s="52">
-        <v>3</v>
-      </c>
       <c r="G67" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H67" s="98">
-        <v>1</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J67" s="25" t="s">
-        <v>82</v>
+        <v>223</v>
+      </c>
+      <c r="H67" s="40">
+        <v>0.93</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J67" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="K67" s="47">
         <f>E67*F67</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L67" s="48">
         <f>ROUND(K67/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="7"/>
       <c r="B68" s="35">
         <f>B67+1</f>
         <v>66</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="C68" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="36">
-        <v>5</v>
-      </c>
-      <c r="F68" s="24">
-        <v>7</v>
+      <c r="E68" s="35">
+        <v>1</v>
+      </c>
+      <c r="F68" s="52">
+        <v>8</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="H68" s="100">
-        <v>0.97</v>
-      </c>
-      <c r="I68" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>82</v>
+        <v>111</v>
+      </c>
+      <c r="H68" s="40">
+        <v>1</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J68" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="K68" s="47">
         <f>E68*F68</f>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="L68" s="48">
         <f>ROUND(K68/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="7"/>
       <c r="B69" s="35">
         <f>B68+1</f>
         <v>67</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="13" t="s">
+      <c r="C69" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="36">
-        <v>5</v>
-      </c>
-      <c r="F69" s="24">
-        <v>4</v>
+      <c r="E69" s="35">
+        <v>1</v>
+      </c>
+      <c r="F69" s="52">
+        <v>8</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="H69" s="40">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K69" s="47">
         <f>E69*F69</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L69" s="48">
         <f>ROUND(K69/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="38.25">
       <c r="A70" s="7"/>
       <c r="B70" s="35">
         <f>B69+1</f>
         <v>68</v>
       </c>
-      <c r="C70" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D70" s="25" t="s">
+      <c r="C70" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="42">
+        <v>4</v>
+      </c>
+      <c r="F70" s="52">
+        <v>3</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H70" s="98">
         <v>1</v>
       </c>
-      <c r="F70" s="52">
-        <v>8</v>
-      </c>
-      <c r="G70" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H70" s="40">
-        <v>1</v>
-      </c>
       <c r="I70" s="12" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K70" s="47">
         <f>E70*F70</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L70" s="48">
         <f>ROUND(K70/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="38.25">
       <c r="A71" s="7"/>
       <c r="B71" s="35">
         <f>B70+1</f>
         <v>69</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="35">
+        <v>4</v>
+      </c>
+      <c r="F71" s="52">
+        <v>3</v>
+      </c>
+      <c r="G71" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H71" s="98">
+        <v>1</v>
+      </c>
+      <c r="I71" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D71" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="35">
-        <v>1</v>
-      </c>
-      <c r="F71" s="52">
-        <v>8</v>
-      </c>
-      <c r="G71" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" s="40">
-        <v>1</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>217</v>
-      </c>
       <c r="J71" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K71" s="47">
         <f>E71*F71</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L71" s="48">
         <f>ROUND(K71/28,1)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="25.5">
@@ -4319,37 +4345,37 @@
         <f>B71+1</f>
         <v>70</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="12" t="s">
+      <c r="C72" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E72" s="35">
-        <v>11</v>
-      </c>
-      <c r="F72" s="52">
-        <v>4</v>
+      <c r="E72" s="36">
+        <v>5</v>
+      </c>
+      <c r="F72" s="24">
+        <v>7</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="H72" s="40">
-        <v>0.751</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J72" s="30" t="s">
-        <v>83</v>
+        <v>223</v>
+      </c>
+      <c r="H72" s="100">
+        <v>0.97</v>
+      </c>
+      <c r="I72" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="K72" s="47">
         <f>E72*F72</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L72" s="48">
         <f>ROUND(K72/28,1)</f>
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="25.5">
@@ -4358,37 +4384,37 @@
         <f>B72+1</f>
         <v>71</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="56" t="s">
+      <c r="C73" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="52">
-        <v>11</v>
-      </c>
-      <c r="F73" s="52">
+      <c r="E73" s="24">
+        <v>5</v>
+      </c>
+      <c r="F73" s="24">
         <v>4</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="H73" s="53">
-        <v>0.746</v>
-      </c>
-      <c r="I73" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J73" s="23" t="s">
-        <v>83</v>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I73" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J73" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="K73" s="47">
         <f>E73*F73</f>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L73" s="49">
         <f>ROUND(K73/28,1)</f>
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="25.5">
@@ -4397,44 +4423,47 @@
         <f>B73+1</f>
         <v>72</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="12" t="s">
+      <c r="C74" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" s="52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G74" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H74" s="40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K74" s="47">
         <f>E74*F74</f>
-        <v>15</v>
-      </c>
-      <c r="L74" s="28"/>
-    </row>
-    <row r="75" spans="1:12" ht="39">
+        <v>8</v>
+      </c>
+      <c r="L74" s="48">
+        <f>ROUND(K74/28,1)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="7"/>
       <c r="B75" s="14">
         <f>B74+1</f>
         <v>73</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D75" s="65" t="s">
         <v>7</v>
@@ -4446,16 +4475,16 @@
         <v>8</v>
       </c>
       <c r="G75" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H75" s="53">
         <v>1</v>
       </c>
       <c r="I75" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J75" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K75" s="47">
         <f>E75*F75</f>
@@ -4466,43 +4495,43 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" ht="25.5">
       <c r="A76" s="7"/>
       <c r="B76" s="14">
         <f>B75+1</f>
         <v>74</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D76" s="56" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E76" s="52">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F76" s="52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="H76" s="53">
-        <v>0.82599999999999996</v>
+        <v>0.751</v>
       </c>
       <c r="I76" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="K76" s="47">
         <f>E76*F76</f>
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L76" s="48">
         <f>ROUND(K76/28,1)</f>
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="25.5">
@@ -4511,37 +4540,37 @@
         <f>B76+1</f>
         <v>75</v>
       </c>
-      <c r="C77" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>141</v>
+      <c r="C77" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="E77" s="42">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F77" s="52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="H77" s="110">
-        <v>0.93</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J77" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" s="40">
+        <v>0.746</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J77" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K77" s="47">
         <f>E77*F77</f>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="L77" s="48">
         <f>ROUND(K77/28,1)</f>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="25.5">
@@ -4551,153 +4580,150 @@
         <v>76</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E78" s="52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F78" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G78" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H78" s="53">
-        <v>0.93700000000000006</v>
+        <v>0.96</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J78" s="23" t="s">
-        <v>83</v>
+        <v>162</v>
+      </c>
+      <c r="J78" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="K78" s="47">
         <f>E78*F78</f>
-        <v>48</v>
-      </c>
-      <c r="L78" s="48">
-        <f>ROUND(K78/28,1)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="25.5">
+        <v>15</v>
+      </c>
+      <c r="L78" s="28"/>
+    </row>
+    <row r="79" spans="1:12" ht="39">
       <c r="A79" s="7"/>
       <c r="B79" s="14">
         <f>B78+1</f>
         <v>77</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="36">
-        <v>4</v>
-      </c>
-      <c r="F79" s="24">
-        <v>6</v>
-      </c>
-      <c r="G79" s="43" t="s">
-        <v>86</v>
+      <c r="C79" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="35">
+        <v>1</v>
+      </c>
+      <c r="F79" s="52">
+        <v>8</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="H79" s="40">
-        <v>0.91</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="J79" s="30" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J79" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="K79" s="47">
         <f>E79*F79</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L79" s="48">
         <f>ROUND(K79/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="7"/>
       <c r="B80" s="14">
         <f>B79+1</f>
         <v>78</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="24">
-        <v>8</v>
-      </c>
-      <c r="F80" s="24">
-        <v>6</v>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="52">
+        <v>5</v>
+      </c>
+      <c r="F80" s="52">
+        <v>2</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H80" s="53">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="I80" s="55" t="s">
-        <v>86</v>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I80" s="56" t="s">
+        <v>85</v>
       </c>
       <c r="J80" s="23" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="K80" s="47">
         <f>E80*F80</f>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="L80" s="48">
         <f>ROUND(K80/28,1)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="25.5">
       <c r="A81" s="7"/>
       <c r="B81" s="14">
         <f>B80+1</f>
         <v>79</v>
       </c>
-      <c r="C81" s="28" t="s">
-        <v>117</v>
+      <c r="C81" s="65" t="s">
+        <v>139</v>
       </c>
       <c r="D81" s="65" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E81" s="52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F81" s="52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="H81" s="53">
-        <v>1</v>
-      </c>
-      <c r="I81" s="56" t="s">
-        <v>86</v>
+        <v>223</v>
+      </c>
+      <c r="H81" s="110">
+        <v>0.93</v>
+      </c>
+      <c r="I81" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="J81" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K81" s="47">
         <f>E81*F81</f>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L81" s="48">
         <f>ROUND(K81/28,1)</f>
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="25.5">
@@ -4707,36 +4733,36 @@
         <v>80</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="E82" s="52">
+        <v>8</v>
+      </c>
+      <c r="F82" s="52">
         <v>6</v>
       </c>
-      <c r="F82" s="52">
-        <v>2</v>
-      </c>
-      <c r="G82" s="102" t="s">
-        <v>40</v>
+      <c r="G82" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="H82" s="53">
-        <v>0.74</v>
-      </c>
-      <c r="I82" s="113" t="s">
-        <v>86</v>
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I82" s="56" t="s">
+        <v>85</v>
       </c>
       <c r="J82" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K82" s="47">
         <f>E82*F82</f>
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L82" s="48">
         <f>ROUND(K82/28,1)</f>
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="25.5">
@@ -4746,36 +4772,36 @@
         <v>81</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" s="55" t="s">
-        <v>76</v>
+        <v>192</v>
+      </c>
+      <c r="D83" s="56" t="s">
+        <v>18</v>
       </c>
       <c r="E83" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F83" s="24">
         <v>6</v>
       </c>
-      <c r="G83" s="42" t="s">
-        <v>112</v>
+      <c r="G83" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="H83" s="53">
-        <v>0.83299999999999996</v>
+        <v>0.91</v>
       </c>
       <c r="I83" s="55" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="J83" s="23" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="K83" s="47">
         <f>E83*F83</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L83" s="48">
         <f>ROUND(K83/28,1)</f>
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="25.5">
@@ -4784,185 +4810,185 @@
         <f>B83+1</f>
         <v>82</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D84" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="E84" s="52">
-        <v>5</v>
-      </c>
-      <c r="F84" s="52">
-        <v>4</v>
+      <c r="C84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="24">
+        <v>8</v>
+      </c>
+      <c r="F84" s="24">
+        <v>6</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="H84" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="I84" s="56" t="s">
-        <v>86</v>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I84" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="J84" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K84" s="47">
         <f>E84*F84</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L84" s="48">
         <f>ROUND(K84/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="38.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="7"/>
       <c r="B85" s="14">
         <f>B84+1</f>
         <v>83</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="56" t="s">
-        <v>27</v>
+      <c r="C85" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="65" t="s">
+        <v>117</v>
       </c>
       <c r="E85" s="52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F85" s="52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G85" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H85" s="53">
         <v>1</v>
       </c>
       <c r="I85" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="J85" s="23" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="J85" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K85" s="47">
         <f>E85*F85</f>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L85" s="48">
         <f>ROUND(K85/28,1)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="38.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="25.5">
       <c r="A86" s="7"/>
       <c r="B86" s="14">
         <f>B85+1</f>
         <v>84</v>
       </c>
-      <c r="C86" s="20" t="s">
-        <v>215</v>
+      <c r="C86" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E86" s="52">
         <v>6</v>
       </c>
       <c r="F86" s="52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G86" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H86" s="53">
-        <v>1</v>
-      </c>
-      <c r="I86" s="56" t="s">
-        <v>122</v>
+        <v>0.74</v>
+      </c>
+      <c r="I86" s="107" t="s">
+        <v>85</v>
       </c>
       <c r="J86" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K86" s="47">
         <f>E86*F86</f>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L86" s="48">
         <f>ROUND(K86/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="38.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="25.5">
       <c r="A87" s="7"/>
       <c r="B87" s="14">
         <f>B86+1</f>
         <v>85</v>
       </c>
-      <c r="C87" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" s="52">
-        <v>4</v>
-      </c>
-      <c r="F87" s="52">
-        <v>5</v>
+      <c r="C87" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="24">
+        <v>6</v>
+      </c>
+      <c r="F87" s="24">
+        <v>6</v>
       </c>
       <c r="G87" s="42" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="H87" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="I87" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="J87" s="65" t="s">
-        <v>82</v>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I87" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J87" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="K87" s="47">
         <f>E87*F87</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L87" s="48">
         <f>ROUND(K87/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="38.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="25.5">
       <c r="A88" s="7"/>
       <c r="B88" s="14">
         <f>B87+1</f>
         <v>86</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D88" s="65" t="s">
-        <v>27</v>
+        <v>186</v>
+      </c>
+      <c r="D88" s="56" t="s">
+        <v>187</v>
       </c>
       <c r="E88" s="52">
+        <v>5</v>
+      </c>
+      <c r="F88" s="52">
         <v>4</v>
       </c>
-      <c r="F88" s="52">
-        <v>5</v>
-      </c>
       <c r="G88" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H88" s="53">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="I88" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="J88" s="65" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="J88" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K88" s="47">
         <f>E88*F88</f>
@@ -4973,355 +4999,355 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" ht="38.25">
       <c r="A89" s="7"/>
       <c r="B89" s="14">
         <f>B88+1</f>
         <v>87</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E89" s="52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F89" s="52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G89" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H89" s="53">
-        <v>0.90800000000000003</v>
+        <v>1</v>
       </c>
       <c r="I89" s="56" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="J89" s="23" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="K89" s="47">
         <f>E89*F89</f>
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="L89" s="48">
         <f>ROUND(K89/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="25.5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="38.25">
       <c r="A90" s="7"/>
       <c r="B90" s="14">
         <f>B89+1</f>
         <v>88</v>
       </c>
-      <c r="C90" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="D90" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="24">
+      <c r="C90" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="52">
         <v>6</v>
       </c>
-      <c r="F90" s="24">
-        <v>4</v>
-      </c>
-      <c r="G90" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H90" s="82">
-        <v>0.92</v>
+      <c r="F90" s="52">
+        <v>6</v>
+      </c>
+      <c r="G90" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H90" s="53">
+        <v>1</v>
       </c>
       <c r="I90" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J90" s="65" t="s">
-        <v>210</v>
+        <v>121</v>
+      </c>
+      <c r="J90" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K90" s="47">
         <f>E90*F90</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L90" s="48">
         <f>ROUND(K90/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="26.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="38.25">
       <c r="A91" s="7"/>
       <c r="B91" s="14">
         <f>B90+1</f>
         <v>89</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="25" t="s">
         <v>120</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="E91" s="35">
+        <v>4</v>
+      </c>
+      <c r="F91" s="52">
         <v>5</v>
       </c>
-      <c r="F91" s="52">
-        <v>3</v>
-      </c>
       <c r="G91" s="42" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="H91" s="53">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="I91" s="56" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="J91" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K91" s="48">
         <f>E91*F91</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L91" s="48">
         <f>ROUND(K91/28,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="38.25">
       <c r="A92" s="7"/>
       <c r="B92" s="14">
         <f>B91+1</f>
         <v>90</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D92" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E92" s="24">
-        <v>6</v>
-      </c>
-      <c r="F92" s="24">
-        <v>6</v>
-      </c>
-      <c r="G92" s="43" t="s">
-        <v>112</v>
+      <c r="C92" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="52">
+        <v>4</v>
+      </c>
+      <c r="F92" s="52">
+        <v>5</v>
+      </c>
+      <c r="G92" s="42" t="s">
+        <v>223</v>
       </c>
       <c r="H92" s="53">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I92" s="56" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="J92" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K92" s="47">
         <f>E92*F92</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L92" s="48">
         <f>ROUND(K92/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="38.25">
       <c r="A93" s="7"/>
       <c r="B93" s="14">
         <f>B92+1</f>
         <v>91</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="55" t="s">
-        <v>130</v>
+      <c r="C93" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="56" t="s">
+        <v>245</v>
       </c>
       <c r="E93" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F93" s="52">
         <v>6</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H93" s="53">
-        <v>0.96</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>86</v>
+        <v>111</v>
+      </c>
+      <c r="H93" s="86">
+        <v>0.97</v>
+      </c>
+      <c r="I93" s="111" t="s">
+        <v>247</v>
       </c>
       <c r="J93" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K93" s="47">
         <f>E93*F93</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L93" s="48">
         <f>ROUND(K93/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="25.5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="7"/>
       <c r="B94" s="14">
         <f>B93+1</f>
         <v>92</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="E94" s="35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F94" s="52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="H94" s="53">
-        <v>1</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I94" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J94" s="65" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="J94" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="K94" s="48">
         <f>E94*F94</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="L94" s="48">
         <f>ROUND(K94/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="25.5">
       <c r="A95" s="7"/>
       <c r="B95" s="14">
         <f>B94+1</f>
         <v>93</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E95" s="52">
+        <v>35</v>
+      </c>
+      <c r="E95" s="24">
         <v>6</v>
       </c>
-      <c r="F95" s="52">
-        <v>6</v>
-      </c>
-      <c r="G95" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H95" s="53">
-        <v>0.89</v>
+      <c r="F95" s="24">
+        <v>4</v>
+      </c>
+      <c r="G95" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H95" s="82">
+        <v>0.92</v>
       </c>
       <c r="I95" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J95" s="65" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="K95" s="48">
         <f>E95*F95</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L95" s="48">
         <f>ROUND(K95/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="26.25">
       <c r="A96" s="7"/>
       <c r="B96" s="14">
         <f>B95+1</f>
         <v>94</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D96" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E96" s="24">
-        <v>9</v>
-      </c>
-      <c r="F96" s="24">
-        <v>6</v>
+      <c r="C96" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" s="52">
+        <v>5</v>
+      </c>
+      <c r="F96" s="52">
+        <v>3</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="H96" s="53">
-        <v>1</v>
-      </c>
-      <c r="I96" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="J96" s="23" t="s">
-        <v>82</v>
+        <v>0.91</v>
+      </c>
+      <c r="I96" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J96" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K96" s="48">
         <f>E96*F96</f>
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="L96" s="48">
         <f>ROUND(K96/28,1)</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="25.5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="7"/>
       <c r="B97" s="14">
         <f>B96+1</f>
         <v>95</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="D97" s="55" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="E97" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" s="24">
-        <v>4</v>
-      </c>
-      <c r="G97" s="42" t="s">
-        <v>112</v>
+        <v>6</v>
+      </c>
+      <c r="G97" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="H97" s="53">
-        <v>0.97499999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="I97" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J97" s="23" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="J97" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K97" s="48">
         <f>E97*F97</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L97" s="48">
         <f>ROUND(K97/28,1)</f>
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5330,76 +5356,76 @@
         <f>B97+1</f>
         <v>96</v>
       </c>
-      <c r="C98" s="56" t="s">
-        <v>124</v>
+      <c r="C98" s="55" t="s">
+        <v>130</v>
       </c>
       <c r="D98" s="55" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="E98" s="52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F98" s="52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="H98" s="53">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="I98" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J98" s="23" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="J98" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K98" s="48">
         <f>E98*F98</f>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L98" s="48">
         <f>ROUND(K98/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="25.5">
       <c r="A99" s="7"/>
       <c r="B99" s="14">
         <f>B98+1</f>
         <v>97</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="E99" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F99" s="52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="H99" s="40">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J99" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="J99" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="K99" s="47">
         <f>E99*F99</f>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L99" s="48">
         <f>ROUND(K99/28,1)</f>
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="25.5">
@@ -5408,29 +5434,29 @@
         <f>B99+1</f>
         <v>98</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" s="36">
-        <v>4</v>
-      </c>
-      <c r="F100" s="24">
-        <v>3</v>
+      <c r="C100" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E100" s="35">
+        <v>6</v>
+      </c>
+      <c r="F100" s="52">
+        <v>2</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="H100" s="40">
+        <v>111</v>
+      </c>
+      <c r="H100" s="98">
         <v>1</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J100" s="25" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="K100" s="47">
         <f>E100*F100</f>
@@ -5441,82 +5467,82 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="26.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="7"/>
       <c r="B101" s="14">
         <f>B100+1</f>
         <v>99</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>12</v>
+      <c r="C101" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="E101" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F101" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H101" s="40">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J101" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K101" s="47">
         <f>E101*F101</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L101" s="48">
         <f>ROUND(K101/28,1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="25.5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="7"/>
       <c r="B102" s="14">
         <f>B101+1</f>
         <v>100</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E102" s="36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F102" s="24">
-        <v>4</v>
-      </c>
-      <c r="G102" s="43" t="s">
-        <v>112</v>
+        <v>6</v>
+      </c>
+      <c r="G102" s="42" t="s">
+        <v>223</v>
       </c>
       <c r="H102" s="40">
         <v>1</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J102" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="J102" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="K102" s="47">
         <f>E102*F102</f>
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="L102" s="48">
         <f>ROUND(K102/28,1)</f>
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="25.5">
@@ -5525,40 +5551,40 @@
         <f>B102+1</f>
         <v>101</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="35">
+      <c r="C103" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="36">
         <v>7</v>
       </c>
-      <c r="F103" s="52">
-        <v>6</v>
+      <c r="F103" s="24">
+        <v>4</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H103" s="40">
-        <v>0.88900000000000001</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J103" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K103" s="47">
         <f>E103*F103</f>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="L103" s="48">
         <f>ROUND(K103/28,1)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="25.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="7"/>
       <c r="B104" s="14">
         <f>B103+1</f>
@@ -5567,73 +5593,73 @@
       <c r="C104" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D104" s="12" t="s">
-        <v>12</v>
+      <c r="D104" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E104" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F104" s="52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="H104" s="40">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J104" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K104" s="47">
         <f>E104*F104</f>
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="L104" s="48">
         <f>ROUND(K104/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="25.5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="7"/>
       <c r="B105" s="14">
         <f>B104+1</f>
         <v>103</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E105" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F105" s="52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H105" s="40">
-        <v>0.83299999999999996</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J105" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K105" s="47">
         <f>E105*F105</f>
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="L105" s="48">
         <f>ROUND(K105/28,1)</f>
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="25.5">
@@ -5643,10 +5669,10 @@
         <v>104</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="E106" s="36">
         <v>4</v>
@@ -5655,16 +5681,16 @@
         <v>3</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="H106" s="40">
         <v>1</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J106" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="J106" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K106" s="47">
         <f>E106*F106</f>
@@ -5675,82 +5701,82 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="25.5">
+    <row r="107" spans="1:12" ht="26.25">
       <c r="A107" s="7"/>
       <c r="B107" s="14">
         <f>B106+1</f>
         <v>105</v>
       </c>
-      <c r="C107" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D107" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" s="24">
-        <v>5</v>
-      </c>
-      <c r="F107" s="24">
-        <v>5</v>
+      <c r="C107" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="52">
+        <v>4</v>
+      </c>
+      <c r="F107" s="52">
+        <v>4</v>
       </c>
       <c r="G107" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H107" s="53">
-        <v>0.88</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J107" s="30" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J107" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K107" s="48">
         <f>E107*F107</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L107" s="48">
         <f>ROUND(K107/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="25.5">
       <c r="A108" s="7"/>
       <c r="B108" s="14">
         <f>B107+1</f>
         <v>106</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E108" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F108" s="24">
         <v>4</v>
       </c>
-      <c r="G108" s="52" t="s">
-        <v>228</v>
+      <c r="G108" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="H108" s="53">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="I108" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J108" s="23" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="I108" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J108" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K108" s="48">
         <f>E108*F108</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L108" s="48">
         <f>ROUND(K108/28,1)</f>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="25.5">
@@ -5760,258 +5786,544 @@
         <v>107</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D109" s="56" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E109" s="52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F109" s="52">
         <v>6</v>
       </c>
       <c r="G109" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H109" s="53">
         <v>0.88900000000000001</v>
       </c>
       <c r="I109" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J109" s="23" t="s">
         <v>81</v>
       </c>
       <c r="K109" s="48">
         <f>E109*F109</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L109" s="48">
         <f>ROUND(K109/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="25.5">
       <c r="A110" s="7"/>
       <c r="B110" s="14">
         <f>B109+1</f>
         <v>108</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D110" s="56" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E110" s="52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F110" s="52">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G110" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H110" s="53">
-        <v>0.84699999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="I110" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J110" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K110" s="48">
         <f>E110*F110</f>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="L110" s="48">
         <f>ROUND(K110/28,1)</f>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="25.5">
       <c r="A111" s="7"/>
       <c r="B111" s="14">
         <f>B110+1</f>
         <v>109</v>
       </c>
-      <c r="C111" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D111" s="103" t="s">
-        <v>31</v>
+      <c r="C111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="56" t="s">
+        <v>12</v>
       </c>
       <c r="E111" s="52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F111" s="52">
-        <v>15</v>
-      </c>
-      <c r="G111" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="H111" s="109">
-        <v>0.9</v>
-      </c>
-      <c r="I111" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="J111" s="65" t="s">
-        <v>180</v>
+        <v>6</v>
+      </c>
+      <c r="G111" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H111" s="53">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I111" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J111" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K111" s="48">
         <f>E111*F111</f>
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="L111" s="48">
         <f>ROUND(K111/28,1)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="25.5">
       <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="B112" s="14">
+        <f>B111+1</f>
+        <v>110</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="24">
+        <v>4</v>
+      </c>
+      <c r="F112" s="24">
+        <v>3</v>
+      </c>
+      <c r="G112" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H112" s="53">
+        <v>1</v>
+      </c>
+      <c r="I112" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J112" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K112" s="47">
+        <f>E112*F112</f>
+        <v>12</v>
+      </c>
+      <c r="L112" s="48">
+        <f>ROUND(K112/28,1)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="25.5">
       <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="H113" s="105"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
+      <c r="B113" s="14">
+        <f>B112+1</f>
+        <v>111</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="24">
+        <v>5</v>
+      </c>
+      <c r="F113" s="24">
+        <v>5</v>
+      </c>
+      <c r="G113" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H113" s="53">
+        <v>0.88</v>
+      </c>
+      <c r="I113" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J113" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K113" s="48">
+        <f>E113*F113</f>
+        <v>25</v>
+      </c>
+      <c r="L113" s="48">
+        <f>ROUND(K113/28,1)</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="H114" s="106"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="B114" s="14">
+        <f>B113+1</f>
+        <v>112</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E114" s="24">
+        <v>5</v>
+      </c>
+      <c r="F114" s="24">
+        <v>4</v>
+      </c>
+      <c r="G114" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="H114" s="53">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I114" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J114" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K114" s="48">
+        <f>E114*F114</f>
+        <v>20</v>
+      </c>
+      <c r="L114" s="48">
+        <f>ROUND(K114/28,1)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="25.5">
       <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
+      <c r="B115" s="14">
+        <f>B114+1</f>
+        <v>113</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="52">
+        <v>6</v>
+      </c>
+      <c r="F115" s="52">
+        <v>6</v>
+      </c>
+      <c r="G115" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H115" s="53">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I115" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J115" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K115" s="48">
+        <f>E115*F115</f>
+        <v>36</v>
+      </c>
+      <c r="L115" s="48">
+        <f>ROUND(K115/28,1)</f>
+        <v>1.3</v>
+      </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="H116" s="67"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
+      <c r="B116" s="14">
+        <f>B115+1</f>
+        <v>114</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" s="52">
+        <v>8</v>
+      </c>
+      <c r="F116" s="52">
+        <v>12</v>
+      </c>
+      <c r="G116" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H116" s="53">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I116" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J116" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K116" s="48">
+        <f>E116*F116</f>
+        <v>96</v>
+      </c>
+      <c r="L116" s="48">
+        <f>ROUND(K116/28,1)</f>
+        <v>3.4</v>
+      </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="H117" s="105"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="29"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="B117" s="14">
+        <f>B116+1</f>
+        <v>115</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" s="52">
+        <v>8</v>
+      </c>
+      <c r="F117" s="52">
+        <v>15</v>
+      </c>
+      <c r="G117" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H117" s="104">
+        <v>0.9</v>
+      </c>
+      <c r="I117" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="J117" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="K117" s="48">
+        <f>E117*F117</f>
+        <v>120</v>
+      </c>
+      <c r="L117" s="48">
+        <f>ROUND(K117/28,1)</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="38.25">
       <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="H118" s="107"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="29"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="B118" s="14">
+        <f>B117+1</f>
+        <v>116</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E118" s="52">
+        <v>3</v>
+      </c>
+      <c r="F118" s="52">
+        <v>1</v>
+      </c>
+      <c r="G118" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H118" s="53">
+        <v>1</v>
+      </c>
+      <c r="I118" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="J118" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="K118" s="48">
+        <f>E118*F118</f>
+        <v>3</v>
+      </c>
+      <c r="L118" s="48">
+        <f>ROUND(K118/28,1)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="38.25">
       <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="B119" s="14">
+        <f>B118+1</f>
+        <v>117</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D119" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" s="52">
+        <v>3</v>
+      </c>
+      <c r="F119" s="52">
+        <v>1</v>
+      </c>
+      <c r="G119" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H119" s="82">
+        <v>1</v>
+      </c>
+      <c r="I119" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="J119" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="K119" s="48">
+        <f>E119*F119</f>
+        <v>3</v>
+      </c>
+      <c r="L119" s="48">
+        <f>ROUND(K119/28,1)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="38.25">
       <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="H120" s="66"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="B120" s="14">
+        <f>B119+1</f>
+        <v>118</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E120" s="52">
+        <v>2</v>
+      </c>
+      <c r="F120" s="52">
+        <v>1</v>
+      </c>
+      <c r="G120" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H120" s="86">
+        <v>1</v>
+      </c>
+      <c r="I120" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="J120" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="K120" s="48">
+        <f>E120*F120</f>
+        <v>2</v>
+      </c>
+      <c r="L120" s="48">
+        <f>ROUND(K120/28,1)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="38.25">
       <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="H121" s="104"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="B121" s="14">
+        <f>B120+1</f>
+        <v>119</v>
+      </c>
+      <c r="C121" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D121" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E121" s="52">
+        <v>3</v>
+      </c>
+      <c r="F121" s="52">
+        <v>1</v>
+      </c>
+      <c r="G121" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H121" s="82">
+        <v>1</v>
+      </c>
+      <c r="I121" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="J121" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="K121" s="48">
+        <f>E121*F121</f>
+        <v>3</v>
+      </c>
+      <c r="L121" s="48">
+        <f>ROUND(K121/28,1)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="38.25">
       <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="H122" s="104"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
+      <c r="B122" s="14">
+        <f>B121+1</f>
+        <v>120</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E122" s="52">
+        <v>2</v>
+      </c>
+      <c r="F122" s="52">
+        <v>1</v>
+      </c>
+      <c r="G122" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H122" s="53">
+        <v>1</v>
+      </c>
+      <c r="I122" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="J122" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="K122" s="48">
+        <f>E122*F122</f>
+        <v>2</v>
+      </c>
+      <c r="L122" s="48">
+        <f>ROUND(K122/28,1)</f>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="7"/>
@@ -6249,9 +6561,9 @@
       <c r="B142" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:L106">
-    <sortState ref="B3:L111">
-      <sortCondition ref="D2:D106"/>
+  <autoFilter ref="B2:L121">
+    <sortState ref="B3:L122">
+      <sortCondition ref="D2:D121"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6266,7 +6578,9 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6284,7 +6598,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25">
       <c r="C1" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5">
@@ -6308,13 +6622,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6323,10 +6637,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="24">
         <v>6</v>
@@ -6338,7 +6652,7 @@
         <v>0.94</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="47">
         <f>E3*F3</f>
@@ -6356,10 +6670,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="65" t="s">
         <v>203</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>204</v>
       </c>
       <c r="E4" s="52">
         <v>4</v>
@@ -6371,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="42">
         <f>E4*F4</f>
@@ -6389,10 +6703,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="84">
         <v>8</v>
@@ -6404,7 +6718,7 @@
         <v>0.59</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="78">
         <v>32</v>
@@ -6420,10 +6734,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="42">
         <v>6</v>
@@ -6435,7 +6749,7 @@
         <v>0.91</v>
       </c>
       <c r="H6" s="92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="78">
         <f>E6*F6</f>
@@ -6453,10 +6767,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>196</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>197</v>
       </c>
       <c r="E7" s="42">
         <v>6</v>
@@ -6468,7 +6782,7 @@
         <v>0.78</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I7" s="78">
         <f>E7*F7</f>
@@ -6486,10 +6800,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="E8" s="42">
         <v>5</v>
@@ -6501,7 +6815,7 @@
         <v>0.97</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I8" s="42">
         <f>E8*F8</f>
@@ -6519,10 +6833,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="76">
         <v>5</v>
@@ -6534,7 +6848,7 @@
         <v>0.85</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" s="78">
         <v>40</v>
@@ -6550,10 +6864,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="24">
         <v>5</v>
@@ -6565,7 +6879,7 @@
         <v>0.81</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="47">
         <f t="shared" ref="I10:I16" si="1">E10*F10</f>
@@ -6583,10 +6897,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="52">
         <v>8</v>
@@ -6598,7 +6912,7 @@
         <v>0.88</v>
       </c>
       <c r="H11" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="78">
         <f t="shared" si="1"/>
@@ -6616,10 +6930,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="43">
         <v>1</v>
@@ -6631,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="47">
         <f t="shared" si="1"/>
@@ -6649,10 +6963,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="84">
         <v>12</v>
@@ -6664,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" s="78">
         <f t="shared" si="1"/>
@@ -6682,10 +6996,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="52">
         <v>12</v>
@@ -6697,7 +7011,7 @@
         <v>0.81</v>
       </c>
       <c r="H14" s="88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" s="78">
         <f t="shared" si="1"/>
@@ -6715,10 +7029,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="42">
         <v>6</v>
@@ -6730,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" s="87">
         <f t="shared" si="1"/>
@@ -6748,10 +7062,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="42">
         <v>5</v>
@@ -6763,7 +7077,7 @@
         <v>0.81</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" s="78">
         <f t="shared" si="1"/>
@@ -6781,10 +7095,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="75" t="s">
         <v>150</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>151</v>
       </c>
       <c r="E17" s="84">
         <v>8</v>
@@ -6796,7 +7110,7 @@
         <v>0.94</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="78">
         <v>40</v>
@@ -6812,10 +7126,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="84">
         <v>8</v>
@@ -6827,7 +7141,7 @@
         <v>0.8</v>
       </c>
       <c r="H18" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I18" s="87">
         <f>E18*F18</f>
@@ -7089,7 +7403,7 @@
     <row r="1" spans="1:9" ht="26.25">
       <c r="B1" s="7"/>
       <c r="C1" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -7116,13 +7430,13 @@
         <v>4</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7131,10 +7445,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="24">
         <v>4</v>
@@ -7143,7 +7457,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="48">
         <f>E3*F3</f>
@@ -7161,10 +7475,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="24">
         <v>2</v>
@@ -7173,7 +7487,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="48">
         <f>E4*F4</f>
@@ -7623,7 +7937,9 @@
   </sheetPr>
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7645,7 +7961,7 @@
     <row r="1" spans="1:14" ht="52.5">
       <c r="B1" s="7"/>
       <c r="C1" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -7684,13 +8000,13 @@
         <v>32</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -7698,185 +8014,95 @@
       <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="24">
-        <v>16</v>
-      </c>
-      <c r="F3" s="24">
-        <v>7</v>
-      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="53"/>
-      <c r="I3" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="47">
-        <f t="shared" ref="K3" si="0">E3*F3</f>
-        <v>112</v>
-      </c>
-      <c r="L3" s="48">
-        <f t="shared" ref="L3" si="1">ROUND(K3/28,1)</f>
-        <v>4</v>
-      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="8"/>
       <c r="B4" s="14">
-        <f t="shared" ref="B4:B12" si="2">B3+1</f>
+        <f t="shared" ref="B4:B12" si="0">B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="52">
-        <v>4</v>
-      </c>
-      <c r="F4" s="52">
-        <v>9</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="48">
-        <f t="shared" ref="K4" si="3">E4*F4</f>
-        <v>36</v>
-      </c>
-      <c r="L4" s="48">
-        <f t="shared" ref="L4" si="4">ROUND(K4/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="25.5">
+      <c r="I4" s="56"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="8"/>
       <c r="B5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="42">
-        <v>7</v>
-      </c>
-      <c r="F5" s="52">
-        <v>7</v>
-      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="101"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="K5" s="48">
-        <f t="shared" ref="K5:K7" si="5">E5*F5</f>
-        <v>49</v>
-      </c>
-      <c r="L5" s="48">
-        <f t="shared" ref="L5:L7" si="6">ROUND(K5/28,1)</f>
-        <v>1.8</v>
-      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="89"/>
       <c r="N5" s="89"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8"/>
       <c r="B6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="43">
-        <v>4</v>
-      </c>
-      <c r="F6" s="43">
-        <v>9</v>
-      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="42"/>
       <c r="H6" s="40"/>
-      <c r="I6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="47">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="L6" s="48">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="89"/>
       <c r="N6" s="89"/>
     </row>
-    <row r="7" spans="1:14" ht="25.5">
+    <row r="7" spans="1:14">
       <c r="A7" s="8"/>
       <c r="B7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="35">
-        <v>5</v>
-      </c>
-      <c r="F7" s="42">
-        <v>4</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="52"/>
       <c r="H7" s="53"/>
-      <c r="I7" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="48">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="L7" s="48">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
-      </c>
+      <c r="I7" s="103"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="89"/>
       <c r="N7" s="89"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8"/>
       <c r="B8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="29"/>
@@ -7895,7 +8121,7 @@
     <row r="9" spans="1:14">
       <c r="A9" s="8"/>
       <c r="B9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="5"/>
@@ -7914,7 +8140,7 @@
     <row r="10" spans="1:14">
       <c r="A10" s="8"/>
       <c r="B10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="9"/>
@@ -7933,7 +8159,7 @@
     <row r="11" spans="1:14">
       <c r="A11" s="8"/>
       <c r="B11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="6"/>
@@ -7952,7 +8178,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="8"/>
       <c r="B12" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="6"/>
@@ -9422,7 +9648,7 @@
       <c r="A1" s="89"/>
       <c r="B1" s="7"/>
       <c r="C1" s="72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -9455,13 +9681,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="81" t="s">
         <v>99</v>
-      </c>
-      <c r="J2" s="81" t="s">
-        <v>100</v>
       </c>
       <c r="K2" s="71"/>
       <c r="L2" s="71"/>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -14,7 +14,7 @@
     <sheet name="In progress EdX" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursera!$B$2:$L$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursera!$B$2:$L$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EdX!$B$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'In progress Coursera'!$B$2:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'In progress EdX'!$B$2:$J$2</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="251">
   <si>
     <t>#</t>
   </si>
@@ -775,6 +775,12 @@
   </si>
   <si>
     <t>Psychology of popularity</t>
+  </si>
+  <si>
+    <t>The role of global capital markets</t>
+  </si>
+  <si>
+    <t>Entrepeneurial strategic management</t>
   </si>
 </sst>
 </file>
@@ -5174,7 +5180,7 @@
         <v>6</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="H93" s="86">
         <v>0.97</v>
@@ -5194,146 +5200,146 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" ht="38.25">
       <c r="A94" s="7"/>
       <c r="B94" s="14">
         <f>B93+1</f>
         <v>92</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>35</v>
+      <c r="C94" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>245</v>
       </c>
       <c r="E94" s="35">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F94" s="52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H94" s="53">
-        <v>0.90800000000000003</v>
+        <v>85</v>
+      </c>
+      <c r="H94" s="110">
+        <v>0.84</v>
       </c>
       <c r="I94" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="J94" s="23" t="s">
-        <v>63</v>
+        <v>247</v>
+      </c>
+      <c r="J94" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K94" s="48">
         <f>E94*F94</f>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="L94" s="48">
         <f>ROUND(K94/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="25.5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="7"/>
       <c r="B95" s="14">
         <f>B94+1</f>
         <v>93</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="13" t="s">
+      <c r="C95" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E95" s="24">
-        <v>6</v>
-      </c>
-      <c r="F95" s="24">
-        <v>4</v>
-      </c>
-      <c r="G95" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="H95" s="82">
-        <v>0.92</v>
+      <c r="E95" s="52">
+        <v>10</v>
+      </c>
+      <c r="F95" s="52">
+        <v>8</v>
+      </c>
+      <c r="G95" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H95" s="53">
+        <v>0.90800000000000003</v>
       </c>
       <c r="I95" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J95" s="65" t="s">
-        <v>209</v>
+      <c r="J95" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="K95" s="48">
         <f>E95*F95</f>
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="L95" s="48">
         <f>ROUND(K95/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="26.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="25.5">
       <c r="A96" s="7"/>
       <c r="B96" s="14">
         <f>B95+1</f>
         <v>94</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="E96" s="52">
-        <v>5</v>
-      </c>
-      <c r="F96" s="52">
-        <v>3</v>
-      </c>
-      <c r="G96" s="42" t="s">
+      <c r="C96" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="24">
+        <v>6</v>
+      </c>
+      <c r="F96" s="24">
+        <v>4</v>
+      </c>
+      <c r="G96" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="H96" s="53">
-        <v>0.91</v>
+      <c r="H96" s="82">
+        <v>0.92</v>
       </c>
       <c r="I96" s="56" t="s">
         <v>85</v>
       </c>
       <c r="J96" s="65" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="K96" s="48">
         <f>E96*F96</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L96" s="48">
         <f>ROUND(K96/28,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="26.25">
       <c r="A97" s="7"/>
       <c r="B97" s="14">
         <f>B96+1</f>
         <v>95</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="E97" s="24">
-        <v>6</v>
-      </c>
-      <c r="F97" s="24">
-        <v>6</v>
-      </c>
-      <c r="G97" s="43" t="s">
+      <c r="C97" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="52">
+        <v>5</v>
+      </c>
+      <c r="F97" s="52">
+        <v>3</v>
+      </c>
+      <c r="G97" s="42" t="s">
         <v>111</v>
       </c>
       <c r="H97" s="53">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="I97" s="56" t="s">
         <v>85</v>
@@ -5343,11 +5349,11 @@
       </c>
       <c r="K97" s="48">
         <f>E97*F97</f>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L97" s="48">
         <f>ROUND(K97/28,1)</f>
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5356,10 +5362,10 @@
         <f>B97+1</f>
         <v>96</v>
       </c>
-      <c r="C98" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="D98" s="55" t="s">
+      <c r="C98" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="D98" s="102" t="s">
         <v>129</v>
       </c>
       <c r="E98" s="52">
@@ -5371,8 +5377,8 @@
       <c r="G98" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H98" s="53">
-        <v>0.96</v>
+      <c r="H98" s="104">
+        <v>1</v>
       </c>
       <c r="I98" s="56" t="s">
         <v>85</v>
@@ -5389,35 +5395,35 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="25.5">
+    <row r="99" spans="1:12">
       <c r="A99" s="7"/>
       <c r="B99" s="14">
         <f>B98+1</f>
         <v>97</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E99" s="35">
+      <c r="C99" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E99" s="36">
         <v>6</v>
       </c>
-      <c r="F99" s="52">
+      <c r="F99" s="24">
         <v>6</v>
       </c>
-      <c r="G99" s="42" t="s">
-        <v>85</v>
+      <c r="G99" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="H99" s="40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>85</v>
       </c>
       <c r="J99" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K99" s="47">
         <f>E99*F99</f>
@@ -5428,56 +5434,56 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="25.5">
+    <row r="100" spans="1:12">
       <c r="A100" s="7"/>
       <c r="B100" s="14">
         <f>B99+1</f>
         <v>98</v>
       </c>
-      <c r="C100" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>165</v>
+      <c r="C100" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="E100" s="35">
         <v>6</v>
       </c>
       <c r="F100" s="52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G100" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H100" s="98">
-        <v>1</v>
+      <c r="H100" s="40">
+        <v>0.96</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>85</v>
       </c>
       <c r="J100" s="25" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="K100" s="47">
         <f>E100*F100</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L100" s="48">
         <f>ROUND(K100/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="25.5">
       <c r="A101" s="7"/>
       <c r="B101" s="14">
         <f>B100+1</f>
         <v>99</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>145</v>
+      <c r="C101" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="E101" s="35">
         <v>6</v>
@@ -5486,16 +5492,16 @@
         <v>6</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H101" s="40">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="I101" s="12" t="s">
         <v>85</v>
       </c>
       <c r="J101" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K101" s="47">
         <f>E101*F101</f>
@@ -5506,82 +5512,82 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" ht="25.5">
       <c r="A102" s="7"/>
       <c r="B102" s="14">
         <f>B101+1</f>
         <v>100</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E102" s="36">
-        <v>9</v>
-      </c>
-      <c r="F102" s="24">
+      <c r="C102" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E102" s="35">
         <v>6</v>
       </c>
+      <c r="F102" s="52">
+        <v>2</v>
+      </c>
       <c r="G102" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="40">
+        <v>111</v>
+      </c>
+      <c r="H102" s="98">
         <v>1</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="I102" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J102" s="30" t="s">
-        <v>81</v>
+      <c r="J102" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="K102" s="47">
         <f>E102*F102</f>
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="L102" s="48">
         <f>ROUND(K102/28,1)</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="25.5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="7"/>
       <c r="B103" s="14">
         <f>B102+1</f>
         <v>101</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E103" s="36">
-        <v>7</v>
-      </c>
-      <c r="F103" s="24">
-        <v>4</v>
+        <v>145</v>
+      </c>
+      <c r="E103" s="35">
+        <v>6</v>
+      </c>
+      <c r="F103" s="52">
+        <v>6</v>
       </c>
       <c r="G103" s="42" t="s">
         <v>111</v>
       </c>
       <c r="H103" s="40">
-        <v>0.97499999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J103" s="30" t="s">
+      <c r="J103" s="25" t="s">
         <v>81</v>
       </c>
       <c r="K103" s="47">
         <f>E103*F103</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L103" s="48">
         <f>ROUND(K103/28,1)</f>
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5590,25 +5596,25 @@
         <f>B103+1</f>
         <v>102</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>123</v>
+      <c r="C104" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E104" s="35">
-        <v>10</v>
-      </c>
-      <c r="F104" s="52">
-        <v>8</v>
+      <c r="E104" s="36">
+        <v>9</v>
+      </c>
+      <c r="F104" s="24">
+        <v>6</v>
       </c>
       <c r="G104" s="42" t="s">
         <v>223</v>
       </c>
       <c r="H104" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="I104" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I104" s="13" t="s">
         <v>85</v>
       </c>
       <c r="J104" s="30" t="s">
@@ -5616,36 +5622,36 @@
       </c>
       <c r="K104" s="47">
         <f>E104*F104</f>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="L104" s="48">
         <f>ROUND(K104/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="25.5">
       <c r="A105" s="7"/>
       <c r="B105" s="14">
         <f>B104+1</f>
         <v>103</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D105" s="12" t="s">
+      <c r="C105" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E105" s="35">
-        <v>10</v>
-      </c>
-      <c r="F105" s="52">
-        <v>8</v>
+      <c r="E105" s="36">
+        <v>7</v>
+      </c>
+      <c r="F105" s="24">
+        <v>4</v>
       </c>
       <c r="G105" s="42" t="s">
         <v>111</v>
       </c>
       <c r="H105" s="40">
-        <v>0.90500000000000003</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>85</v>
@@ -5655,89 +5661,89 @@
       </c>
       <c r="K105" s="47">
         <f>E105*F105</f>
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="L105" s="48">
         <f>ROUND(K105/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="25.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="7"/>
       <c r="B106" s="14">
         <f>B105+1</f>
         <v>104</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>135</v>
+      <c r="C106" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E106" s="36">
-        <v>4</v>
-      </c>
-      <c r="F106" s="24">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="E106" s="35">
+        <v>10</v>
+      </c>
+      <c r="F106" s="52">
+        <v>8</v>
       </c>
       <c r="G106" s="42" t="s">
         <v>223</v>
       </c>
       <c r="H106" s="40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J106" s="25" t="s">
+      <c r="J106" s="30" t="s">
         <v>81</v>
       </c>
       <c r="K106" s="47">
         <f>E106*F106</f>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L106" s="48">
         <f>ROUND(K106/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="26.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="7"/>
       <c r="B107" s="14">
         <f>B106+1</f>
         <v>105</v>
       </c>
-      <c r="C107" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="D107" s="102" t="s">
-        <v>12</v>
+      <c r="C107" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="56" t="s">
+        <v>46</v>
       </c>
       <c r="E107" s="52">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F107" s="52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G107" s="42" t="s">
         <v>111</v>
       </c>
       <c r="H107" s="53">
-        <v>1</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J107" s="25" t="s">
+      <c r="J107" s="30" t="s">
         <v>81</v>
       </c>
       <c r="K107" s="48">
         <f>E107*F107</f>
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L107" s="48">
         <f>ROUND(K107/28,1)</f>
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="25.5">
@@ -5747,24 +5753,24 @@
         <v>106</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="E108" s="24">
         <v>4</v>
       </c>
       <c r="F108" s="24">
-        <v>4</v>
-      </c>
-      <c r="G108" s="24" t="s">
-        <v>111</v>
+        <v>3</v>
+      </c>
+      <c r="G108" s="52" t="s">
+        <v>223</v>
       </c>
       <c r="H108" s="53">
         <v>1</v>
       </c>
-      <c r="I108" s="55" t="s">
+      <c r="I108" s="56" t="s">
         <v>85</v>
       </c>
       <c r="J108" s="65" t="s">
@@ -5772,50 +5778,50 @@
       </c>
       <c r="K108" s="48">
         <f>E108*F108</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L108" s="48">
         <f>ROUND(K108/28,1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="25.5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="26.25">
       <c r="A109" s="7"/>
       <c r="B109" s="14">
         <f>B108+1</f>
         <v>107</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="56" t="s">
+      <c r="C109" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" s="102" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F109" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G109" s="52" t="s">
         <v>111</v>
       </c>
       <c r="H109" s="53">
-        <v>0.88900000000000001</v>
+        <v>1</v>
       </c>
       <c r="I109" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J109" s="23" t="s">
+      <c r="J109" s="65" t="s">
         <v>81</v>
       </c>
       <c r="K109" s="48">
         <f>E109*F109</f>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L109" s="48">
         <f>ROUND(K109/28,1)</f>
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="25.5">
@@ -5824,37 +5830,37 @@
         <f>B109+1</f>
         <v>108</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D110" s="56" t="s">
+      <c r="C110" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="52">
+      <c r="E110" s="24">
         <v>4</v>
       </c>
-      <c r="F110" s="52">
-        <v>6</v>
-      </c>
-      <c r="G110" s="52" t="s">
+      <c r="F110" s="24">
+        <v>4</v>
+      </c>
+      <c r="G110" s="24" t="s">
         <v>111</v>
       </c>
       <c r="H110" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="I110" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="J110" s="23" t="s">
+      <c r="J110" s="65" t="s">
         <v>81</v>
       </c>
       <c r="K110" s="48">
         <f>E110*F110</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L110" s="48">
         <f>ROUND(K110/28,1)</f>
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="25.5">
@@ -5864,13 +5870,13 @@
         <v>109</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D111" s="56" t="s">
         <v>12</v>
       </c>
       <c r="E111" s="52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F111" s="52">
         <v>6</v>
@@ -5879,7 +5885,7 @@
         <v>111</v>
       </c>
       <c r="H111" s="53">
-        <v>0.83299999999999996</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I111" s="56" t="s">
         <v>85</v>
@@ -5889,11 +5895,11 @@
       </c>
       <c r="K111" s="48">
         <f>E111*F111</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L111" s="48">
         <f>ROUND(K111/28,1)</f>
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="25.5">
@@ -5902,23 +5908,23 @@
         <f>B111+1</f>
         <v>110</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D112" s="55" t="s">
+      <c r="C112" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E112" s="24">
+      <c r="E112" s="52">
         <v>4</v>
       </c>
-      <c r="F112" s="24">
-        <v>3</v>
+      <c r="F112" s="52">
+        <v>6</v>
       </c>
       <c r="G112" s="52" t="s">
         <v>111</v>
       </c>
       <c r="H112" s="53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I112" s="56" t="s">
         <v>85</v>
@@ -5928,11 +5934,11 @@
       </c>
       <c r="K112" s="47">
         <f>E112*F112</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L112" s="48">
         <f>ROUND(K112/28,1)</f>
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="25.5">
@@ -5941,25 +5947,25 @@
         <f>B112+1</f>
         <v>111</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D113" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" s="24">
-        <v>5</v>
-      </c>
-      <c r="F113" s="24">
-        <v>5</v>
+      <c r="C113" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="52">
+        <v>4</v>
+      </c>
+      <c r="F113" s="52">
+        <v>6</v>
       </c>
       <c r="G113" s="52" t="s">
         <v>111</v>
       </c>
       <c r="H113" s="53">
-        <v>0.88</v>
-      </c>
-      <c r="I113" s="55" t="s">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I113" s="56" t="s">
         <v>85</v>
       </c>
       <c r="J113" s="23" t="s">
@@ -5967,50 +5973,50 @@
       </c>
       <c r="K113" s="48">
         <f>E113*F113</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L113" s="48">
         <f>ROUND(K113/28,1)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" ht="25.5">
       <c r="A114" s="7"/>
       <c r="B114" s="14">
         <f>B113+1</f>
         <v>112</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E114" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F114" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G114" s="52" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="H114" s="53">
-        <v>0.89900000000000002</v>
+        <v>1</v>
       </c>
       <c r="I114" s="56" t="s">
         <v>85</v>
       </c>
       <c r="J114" s="23" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="K114" s="48">
         <f>E114*F114</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L114" s="48">
         <f>ROUND(K114/28,1)</f>
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="25.5">
@@ -6019,37 +6025,37 @@
         <f>B114+1</f>
         <v>113</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="52">
-        <v>6</v>
-      </c>
-      <c r="F115" s="52">
-        <v>6</v>
+      <c r="C115" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="24">
+        <v>5</v>
+      </c>
+      <c r="F115" s="24">
+        <v>5</v>
       </c>
       <c r="G115" s="52" t="s">
         <v>111</v>
       </c>
       <c r="H115" s="53">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="I115" s="56" t="s">
+        <v>0.88</v>
+      </c>
+      <c r="I115" s="55" t="s">
         <v>85</v>
       </c>
       <c r="J115" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K115" s="48">
         <f>E115*F115</f>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L115" s="48">
         <f>ROUND(K115/28,1)</f>
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6058,154 +6064,154 @@
         <f>B115+1</f>
         <v>114</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E116" s="52">
-        <v>8</v>
-      </c>
-      <c r="F116" s="52">
-        <v>12</v>
+      <c r="C116" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D116" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E116" s="24">
+        <v>5</v>
+      </c>
+      <c r="F116" s="24">
+        <v>4</v>
       </c>
       <c r="G116" s="52" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="H116" s="53">
-        <v>0.84699999999999998</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="I116" s="56" t="s">
         <v>85</v>
       </c>
       <c r="J116" s="23" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K116" s="48">
         <f>E116*F116</f>
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="L116" s="48">
         <f>ROUND(K116/28,1)</f>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="25.5">
       <c r="A117" s="7"/>
       <c r="B117" s="14">
         <f>B116+1</f>
         <v>115</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D117" s="102" t="s">
-        <v>31</v>
+      <c r="C117" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="E117" s="52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F117" s="52">
-        <v>15</v>
-      </c>
-      <c r="G117" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H117" s="104">
-        <v>0.9</v>
-      </c>
-      <c r="I117" s="105" t="s">
+      <c r="H117" s="53">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I117" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J117" s="65" t="s">
-        <v>179</v>
+      <c r="J117" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="K117" s="48">
         <f>E117*F117</f>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="L117" s="48">
         <f>ROUND(K117/28,1)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="38.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="7"/>
       <c r="B118" s="14">
         <f>B117+1</f>
         <v>116</v>
       </c>
-      <c r="C118" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="D118" s="65" t="s">
-        <v>239</v>
+      <c r="C118" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="56" t="s">
+        <v>31</v>
       </c>
       <c r="E118" s="52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F118" s="52">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G118" s="52" t="s">
         <v>111</v>
       </c>
       <c r="H118" s="53">
-        <v>1</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="I118" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="J118" s="65" t="s">
-        <v>241</v>
+        <v>85</v>
+      </c>
+      <c r="J118" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K118" s="48">
         <f>E118*F118</f>
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="L118" s="48">
         <f>ROUND(K118/28,1)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="38.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="7"/>
       <c r="B119" s="14">
         <f>B118+1</f>
         <v>117</v>
       </c>
-      <c r="C119" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="D119" s="65" t="s">
-        <v>239</v>
+      <c r="C119" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D119" s="102" t="s">
+        <v>31</v>
       </c>
       <c r="E119" s="52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F119" s="52">
-        <v>1</v>
-      </c>
-      <c r="G119" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H119" s="82">
-        <v>1</v>
-      </c>
-      <c r="I119" s="56" t="s">
-        <v>240</v>
+      <c r="H119" s="104">
+        <v>0.9</v>
+      </c>
+      <c r="I119" s="105" t="s">
+        <v>85</v>
       </c>
       <c r="J119" s="65" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="K119" s="48">
         <f>E119*F119</f>
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="L119" s="48">
         <f>ROUND(K119/28,1)</f>
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="38.25">
@@ -6215,13 +6221,13 @@
         <v>118</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D120" s="65" t="s">
         <v>239</v>
       </c>
       <c r="E120" s="52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F120" s="52">
         <v>1</v>
@@ -6229,7 +6235,7 @@
       <c r="G120" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H120" s="86">
+      <c r="H120" s="53">
         <v>1</v>
       </c>
       <c r="I120" s="56" t="s">
@@ -6240,7 +6246,7 @@
       </c>
       <c r="K120" s="48">
         <f>E120*F120</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L120" s="48">
         <f>ROUND(K120/28,1)</f>
@@ -6254,7 +6260,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D121" s="65" t="s">
         <v>239</v>
@@ -6293,7 +6299,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D122" s="65" t="s">
         <v>239</v>
@@ -6307,7 +6313,7 @@
       <c r="G122" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H122" s="53">
+      <c r="H122" s="86">
         <v>1</v>
       </c>
       <c r="I122" s="56" t="s">
@@ -6325,31 +6331,83 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" ht="38.25">
       <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="H123" s="57"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="29"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="B123" s="14">
+        <f>B122+1</f>
+        <v>121</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D123" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E123" s="52">
+        <v>3</v>
+      </c>
+      <c r="F123" s="52">
+        <v>1</v>
+      </c>
+      <c r="G123" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H123" s="82">
+        <v>1</v>
+      </c>
+      <c r="I123" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="J123" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="K123" s="48">
+        <f>E123*F123</f>
+        <v>3</v>
+      </c>
+      <c r="L123" s="48">
+        <f>ROUND(K123/28,1)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="38.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="29"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
+      <c r="B124" s="14">
+        <f>B123+1</f>
+        <v>122</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D124" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E124" s="52">
+        <v>2</v>
+      </c>
+      <c r="F124" s="52">
+        <v>1</v>
+      </c>
+      <c r="G124" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H124" s="53">
+        <v>1</v>
+      </c>
+      <c r="I124" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="J124" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="K124" s="48">
+        <f>E124*F124</f>
+        <v>2</v>
+      </c>
+      <c r="L124" s="48">
+        <f>ROUND(K124/28,1)</f>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="7"/>
@@ -6561,9 +6619,9 @@
       <c r="B142" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:L121">
-    <sortState ref="B3:L122">
-      <sortCondition ref="D2:D121"/>
+  <autoFilter ref="B2:L124">
+    <sortState ref="B3:L124">
+      <sortCondition ref="D2:D124"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6579,7 +6637,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="G18" sqref="G3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/MOOClist.xlsx
+++ b/MOOClist.xlsx
@@ -14,7 +14,7 @@
     <sheet name="In progress EdX" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursera!$B$2:$L$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursera!$B$2:$L$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EdX!$B$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'In progress Coursera'!$B$2:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'In progress EdX'!$B$2:$J$2</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="255">
   <si>
     <t>#</t>
   </si>
@@ -678,9 +678,6 @@
     <t>Practical machine learning</t>
   </si>
   <si>
-    <t>Career readiness</t>
-  </si>
-  <si>
     <t>Project management: the basics for success</t>
   </si>
   <si>
@@ -781,6 +778,21 @@
   </si>
   <si>
     <t>Entrepeneurial strategic management</t>
+  </si>
+  <si>
+    <t>Careeer success capstone</t>
+  </si>
+  <si>
+    <t>Career success</t>
+  </si>
+  <si>
+    <t>Introduction to project management capstone</t>
+  </si>
+  <si>
+    <t>Corporate financial decision-making for value creation</t>
+  </si>
+  <si>
+    <t>Content strategy for professionals capstone</t>
   </si>
 </sst>
 </file>
@@ -952,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1268,7 +1280,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1658,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="40">
         <v>1</v>
@@ -1736,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H5" s="40">
         <v>0.86699999999999999</v>
@@ -1775,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="40">
         <v>0.93300000000000005</v>
@@ -1814,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H7" s="40">
         <v>0.93</v>
@@ -1853,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" s="40">
         <v>0.88</v>
@@ -1892,7 +1913,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H9" s="40">
         <v>0.83299999999999996</v>
@@ -1931,7 +1952,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H10" s="40">
         <v>0.92300000000000004</v>
@@ -1971,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H11" s="40">
         <v>0.92</v>
@@ -2010,7 +2031,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H12" s="40">
         <v>0.89</v>
@@ -2050,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H13" s="100">
         <v>1</v>
@@ -2128,7 +2149,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H15" s="40">
         <v>0.98</v>
@@ -2167,7 +2188,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H16" s="40">
         <v>1</v>
@@ -2206,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H17" s="40">
         <v>0.92</v>
@@ -2402,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H22" s="40">
         <v>0.78</v>
@@ -2441,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H23" s="40">
         <v>0.77</v>
@@ -2480,7 +2501,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H24" s="40">
         <v>0.92</v>
@@ -2519,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H25" s="40">
         <v>0.872</v>
@@ -2558,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H26" s="40">
         <v>0.874</v>
@@ -2598,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H27" s="40">
         <v>0.92</v>
@@ -2677,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H29" s="40">
         <v>1</v>
@@ -2716,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H30" s="40">
         <v>1</v>
@@ -2754,7 +2775,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H31" s="40">
         <v>0.94</v>
@@ -2792,7 +2813,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H32" s="40">
         <v>0.97</v>
@@ -2818,7 +2839,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D33" s="54" t="s">
         <v>62</v>
@@ -2839,7 +2860,7 @@
         <v>85</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K33" s="109">
         <f>E33*F33</f>
@@ -2869,7 +2890,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H34" s="40">
         <v>1</v>
@@ -2908,7 +2929,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H35" s="40">
         <v>1</v>
@@ -2948,7 +2969,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H36" s="40">
         <v>1</v>
@@ -2987,7 +3008,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H37" s="40">
         <v>0.95</v>
@@ -3026,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H38" s="40">
         <v>1</v>
@@ -3065,7 +3086,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H39" s="40">
         <v>1</v>
@@ -3105,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H40" s="40">
         <v>0.79</v>
@@ -3185,7 +3206,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H42" s="40">
         <v>0.873</v>
@@ -3226,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H43" s="40">
         <v>0.98</v>
@@ -3267,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H44" s="40">
         <v>0.85599999999999998</v>
@@ -3307,7 +3328,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H45" s="40">
         <v>0.95</v>
@@ -3387,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H47" s="40">
         <v>0.95799999999999996</v>
@@ -3427,7 +3448,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H48" s="40">
         <v>0.99</v>
@@ -3455,10 +3476,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>227</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>228</v>
       </c>
       <c r="E49" s="35">
         <v>6</v>
@@ -3473,7 +3494,7 @@
         <v>0.1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J49" s="25" t="s">
         <v>81</v>
@@ -3495,10 +3516,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E50" s="35">
         <v>6</v>
@@ -3513,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>81</v>
@@ -3528,222 +3549,222 @@
       </c>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="25.5">
+    <row r="51" spans="1:14" ht="26.25">
       <c r="B51" s="14">
         <f>B50+1</f>
         <v>49</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="36">
-        <v>9</v>
-      </c>
-      <c r="F51" s="24">
-        <v>10</v>
+      <c r="C51" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="35">
+        <v>6</v>
+      </c>
+      <c r="F51" s="52">
+        <v>4</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="H51" s="40">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="K51" s="47">
         <f>E51*F51</f>
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="L51" s="48">
         <f>ROUND(K51/28,1)</f>
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" ht="25.5">
       <c r="B52" s="14">
         <f>B51+1</f>
         <v>50</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D52" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="24">
+        <v>9</v>
+      </c>
+      <c r="F52" s="24">
         <v>10</v>
       </c>
-      <c r="E52" s="24">
-        <v>10</v>
-      </c>
-      <c r="F52" s="24">
-        <v>3</v>
-      </c>
-      <c r="G52" s="43" t="s">
-        <v>85</v>
+      <c r="G52" s="42" t="s">
+        <v>222</v>
       </c>
       <c r="H52" s="53">
-        <v>0.82699999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="I52" s="55" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K52" s="47">
         <f>E52*F52</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L52" s="48">
         <f>ROUND(K52/28,1)</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="25.5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="B53" s="14">
         <f>B52+1</f>
         <v>51</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="56" t="s">
+      <c r="C53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="52">
-        <v>8</v>
-      </c>
-      <c r="F53" s="52">
-        <v>6</v>
-      </c>
-      <c r="G53" s="42" t="s">
+      <c r="E53" s="24">
+        <v>10</v>
+      </c>
+      <c r="F53" s="24">
+        <v>3</v>
+      </c>
+      <c r="G53" s="43" t="s">
         <v>85</v>
       </c>
       <c r="H53" s="53">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="I53" s="56" t="s">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I53" s="55" t="s">
         <v>85</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="K53" s="47">
         <f>E53*F53</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L53" s="48">
         <f>ROUND(K53/28,1)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="25.5">
       <c r="A54" s="7"/>
       <c r="B54" s="14">
         <f>B53+1</f>
         <v>52</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="24">
-        <v>5</v>
-      </c>
-      <c r="F54" s="24">
-        <v>3</v>
-      </c>
-      <c r="G54" s="43" t="s">
+      <c r="C54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="52">
+        <v>8</v>
+      </c>
+      <c r="F54" s="52">
+        <v>6</v>
+      </c>
+      <c r="G54" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="82">
-        <v>0.87</v>
+      <c r="H54" s="53">
+        <v>0.88400000000000001</v>
       </c>
       <c r="I54" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J54" s="65" t="s">
-        <v>83</v>
+      <c r="J54" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="K54" s="47">
         <f>E54*F54</f>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="L54" s="48">
         <f>ROUND(K54/28,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="25.5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="7"/>
       <c r="B55" s="14">
         <f>B54+1</f>
         <v>53</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="56" t="s">
+      <c r="C55" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="52">
+      <c r="E55" s="24">
         <v>5</v>
       </c>
-      <c r="F55" s="52">
-        <v>9</v>
-      </c>
-      <c r="G55" s="42" t="s">
+      <c r="F55" s="24">
+        <v>3</v>
+      </c>
+      <c r="G55" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="53">
-        <v>0.78</v>
+      <c r="H55" s="82">
+        <v>0.87</v>
       </c>
       <c r="I55" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J55" s="23" t="s">
+      <c r="J55" s="65" t="s">
         <v>83</v>
       </c>
       <c r="K55" s="47">
         <f>E55*F55</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L55" s="48">
         <f>ROUND(K55/28,1)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="25.5">
       <c r="A56" s="7"/>
       <c r="B56" s="14">
         <f>B55+1</f>
         <v>54</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="55" t="s">
+      <c r="C56" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="52">
         <v>5</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="52">
         <v>9</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H56" s="53">
-        <v>0.89300000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="I56" s="56" t="s">
         <v>85</v>
@@ -3767,75 +3788,75 @@
         <v>55</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="E57" s="36">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F57" s="24">
-        <v>7</v>
-      </c>
-      <c r="G57" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="42" t="s">
         <v>111</v>
       </c>
       <c r="H57" s="40">
-        <v>0.97</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>85</v>
       </c>
       <c r="J57" s="30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K57" s="47">
         <f>E57*F57</f>
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="L57" s="48">
         <f>ROUND(K57/28,1)</f>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="25.5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="7"/>
       <c r="B58" s="14">
         <f>B57+1</f>
         <v>56</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="E58" s="36">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F58" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G58" s="43" t="s">
         <v>111</v>
       </c>
       <c r="H58" s="40">
-        <v>0.95299999999999996</v>
+        <v>0.97</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J58" s="25" t="s">
-        <v>190</v>
+      <c r="J58" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="K58" s="47">
         <f>E58*F58</f>
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="L58" s="48">
         <f>ROUND(K58/28,1)</f>
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="25.5">
@@ -3845,36 +3866,36 @@
         <v>57</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>213</v>
+        <v>105</v>
+      </c>
+      <c r="D59" s="55" t="s">
+        <v>153</v>
       </c>
       <c r="E59" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F59" s="24">
         <v>6</v>
       </c>
-      <c r="G59" s="42" t="s">
-        <v>223</v>
+      <c r="G59" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="H59" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="I59" s="55" t="s">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I59" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J59" s="23" t="s">
-        <v>81</v>
+      <c r="J59" s="65" t="s">
+        <v>190</v>
       </c>
       <c r="K59" s="47">
         <f>E59*F59</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L59" s="48">
         <f>ROUND(K59/28,1)</f>
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="25.5">
@@ -3884,142 +3905,142 @@
         <v>58</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>7</v>
+        <v>212</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="E60" s="36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F60" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H60" s="40">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="K60" s="47">
         <f>E60*F60</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L60" s="48">
         <f>ROUND(K60/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="38.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="25.5">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
         <f>B60+1</f>
         <v>59</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="D61" s="12" t="s">
+      <c r="C61" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="36">
+        <v>5</v>
+      </c>
+      <c r="F61" s="24">
         <v>4</v>
       </c>
-      <c r="F61" s="52">
-        <v>3</v>
-      </c>
       <c r="G61" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H61" s="98">
+        <v>222</v>
+      </c>
+      <c r="H61" s="40">
         <v>1</v>
       </c>
-      <c r="I61" s="12" t="s">
-        <v>230</v>
+      <c r="I61" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K61" s="47">
         <f>E61*F61</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L61" s="48">
         <f>ROUND(K61/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="26.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="38.25">
       <c r="A62" s="7"/>
       <c r="B62" s="14">
         <f>B61+1</f>
         <v>60</v>
       </c>
-      <c r="C62" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" s="25" t="s">
+      <c r="C62" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F62" s="52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G62" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H62" s="40">
+      <c r="H62" s="98">
         <v>1</v>
       </c>
-      <c r="I62" s="12" t="s">
-        <v>216</v>
+      <c r="I62" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K62" s="47">
         <f>E62*F62</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L62" s="48">
         <f>ROUND(K62/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="26.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
         <f>B62+1</f>
         <v>61</v>
       </c>
       <c r="C63" s="54" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="42">
+      <c r="E63" s="112">
         <v>1</v>
       </c>
-      <c r="F63" s="52">
+      <c r="F63" s="106">
         <v>8</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="40">
+      <c r="H63" s="111">
         <v>1</v>
       </c>
-      <c r="I63" s="12" t="s">
-        <v>216</v>
+      <c r="I63" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="J63" s="25" t="s">
         <v>84</v>
@@ -4033,43 +4054,43 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="25.5">
+    <row r="64" spans="1:14" ht="26.25">
       <c r="A64" s="7"/>
       <c r="B64" s="14">
         <f>B63+1</f>
         <v>62</v>
       </c>
-      <c r="C64" s="25" t="s">
-        <v>103</v>
+      <c r="C64" s="54" t="s">
+        <v>219</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="36">
-        <v>5</v>
-      </c>
-      <c r="F64" s="24">
-        <v>4</v>
+      <c r="E64" s="35">
+        <v>1</v>
+      </c>
+      <c r="F64" s="52">
+        <v>8</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="H64" s="40">
-        <v>0.99</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K64" s="47">
         <f>E64*F64</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L64" s="48">
         <f>ROUND(K64/28,1)</f>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="26.25">
@@ -4079,7 +4100,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>7</v>
@@ -4096,8 +4117,8 @@
       <c r="H65" s="40">
         <v>1</v>
       </c>
-      <c r="I65" s="12" t="s">
-        <v>216</v>
+      <c r="I65" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>84</v>
@@ -4111,82 +4132,82 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" ht="25.5">
       <c r="A66" s="7"/>
       <c r="B66" s="35">
         <f>B65+1</f>
         <v>64</v>
       </c>
-      <c r="C66" s="54" t="s">
-        <v>219</v>
+      <c r="C66" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="35">
-        <v>1</v>
-      </c>
-      <c r="F66" s="52">
-        <v>8</v>
+      <c r="E66" s="36">
+        <v>5</v>
+      </c>
+      <c r="F66" s="24">
+        <v>4</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="H66" s="40">
-        <v>1</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>216</v>
+        <v>0.99</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K66" s="47">
         <f>E66*F66</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L66" s="48">
         <f>ROUND(K66/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="26.25">
       <c r="A67" s="7"/>
       <c r="B67" s="35">
         <f>B66+1</f>
         <v>65</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="12" t="s">
+      <c r="C67" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="36">
-        <v>5</v>
-      </c>
-      <c r="F67" s="24">
-        <v>4</v>
+      <c r="E67" s="35">
+        <v>1</v>
+      </c>
+      <c r="F67" s="52">
+        <v>8</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="H67" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J67" s="30" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="K67" s="47">
         <f>E67*F67</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L67" s="48">
         <f>ROUND(K67/28,1)</f>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4196,7 +4217,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>7</v>
@@ -4213,8 +4234,8 @@
       <c r="H68" s="40">
         <v>1</v>
       </c>
-      <c r="I68" s="12" t="s">
-        <v>216</v>
+      <c r="I68" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="J68" s="25" t="s">
         <v>84</v>
@@ -4228,277 +4249,277 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" ht="25.5">
       <c r="A69" s="7"/>
       <c r="B69" s="35">
         <f>B68+1</f>
         <v>67</v>
       </c>
-      <c r="C69" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="D69" s="25" t="s">
+      <c r="C69" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="35">
-        <v>1</v>
-      </c>
-      <c r="F69" s="52">
-        <v>8</v>
+      <c r="E69" s="36">
+        <v>5</v>
+      </c>
+      <c r="F69" s="24">
+        <v>4</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="H69" s="40">
-        <v>1</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="J69" s="25" t="s">
-        <v>84</v>
+        <v>0.93</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="K69" s="47">
         <f>E69*F69</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L69" s="48">
         <f>ROUND(K69/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="38.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="7"/>
       <c r="B70" s="35">
         <f>B69+1</f>
         <v>68</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D70" s="12" t="s">
+      <c r="C70" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70" s="52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G70" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H70" s="98">
+      <c r="H70" s="40">
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K70" s="47">
         <f>E70*F70</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L70" s="48">
         <f>ROUND(K70/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="38.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="35">
         <f>B70+1</f>
         <v>69</v>
       </c>
-      <c r="C71" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="D71" s="12" t="s">
+      <c r="C71" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71" s="52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G71" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H71" s="98">
+      <c r="H71" s="40">
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K71" s="47">
         <f>E71*F71</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L71" s="48">
         <f>ROUND(K71/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="38.25">
       <c r="A72" s="7"/>
       <c r="B72" s="35">
         <f>B71+1</f>
         <v>70</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="C72" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E72" s="36">
-        <v>5</v>
-      </c>
-      <c r="F72" s="24">
-        <v>7</v>
+      <c r="E72" s="35">
+        <v>4</v>
+      </c>
+      <c r="F72" s="52">
+        <v>3</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H72" s="100">
-        <v>0.97</v>
-      </c>
-      <c r="I72" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="J72" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" s="98">
+        <v>1</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="J72" s="25" t="s">
         <v>81</v>
       </c>
       <c r="K72" s="47">
         <f>E72*F72</f>
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L72" s="48">
         <f>ROUND(K72/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="25.5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="38.25">
       <c r="A73" s="7"/>
       <c r="B73" s="35">
         <f>B72+1</f>
         <v>71</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="55" t="s">
+      <c r="C73" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="24">
-        <v>5</v>
-      </c>
-      <c r="F73" s="24">
+      <c r="E73" s="52">
         <v>4</v>
       </c>
+      <c r="F73" s="52">
+        <v>2</v>
+      </c>
       <c r="G73" s="42" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="H73" s="53">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="I73" s="55" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="I73" s="56" t="s">
+        <v>229</v>
       </c>
       <c r="J73" s="65" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K73" s="47">
         <f>E73*F73</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L73" s="49">
         <f>ROUND(K73/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="38.25">
       <c r="A74" s="7"/>
       <c r="B74" s="14">
         <f>B73+1</f>
         <v>72</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74" s="52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G74" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H74" s="98">
         <v>1</v>
       </c>
-      <c r="I74" s="12" t="s">
-        <v>216</v>
+      <c r="I74" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K74" s="47">
         <f>E74*F74</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L74" s="48">
         <f>ROUND(K74/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="25.5">
       <c r="A75" s="7"/>
       <c r="B75" s="14">
         <f>B74+1</f>
         <v>73</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D75" s="65" t="s">
+      <c r="C75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="52">
-        <v>1</v>
-      </c>
-      <c r="F75" s="52">
-        <v>8</v>
+      <c r="E75" s="24">
+        <v>5</v>
+      </c>
+      <c r="F75" s="24">
+        <v>7</v>
       </c>
       <c r="G75" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H75" s="53">
-        <v>1</v>
-      </c>
-      <c r="I75" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="J75" s="65" t="s">
-        <v>84</v>
+        <v>222</v>
+      </c>
+      <c r="H75" s="113">
+        <v>0.97</v>
+      </c>
+      <c r="I75" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J75" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="K75" s="47">
         <f>E75*F75</f>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="L75" s="48">
         <f>ROUND(K75/28,1)</f>
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="25.5">
@@ -4507,37 +4528,37 @@
         <f>B75+1</f>
         <v>74</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="56" t="s">
+      <c r="C76" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="52">
-        <v>11</v>
-      </c>
-      <c r="F76" s="52">
+      <c r="E76" s="24">
+        <v>5</v>
+      </c>
+      <c r="F76" s="24">
         <v>4</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="H76" s="53">
-        <v>0.751</v>
-      </c>
-      <c r="I76" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="J76" s="23" t="s">
-        <v>82</v>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I76" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J76" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="K76" s="47">
         <f>E76*F76</f>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L76" s="48">
         <f>ROUND(K76/28,1)</f>
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="25.5">
@@ -4546,151 +4567,154 @@
         <f>B76+1</f>
         <v>75</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="42">
+        <v>1</v>
+      </c>
+      <c r="F77" s="52">
         <v>8</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="42">
-        <v>11</v>
-      </c>
-      <c r="F77" s="52">
-        <v>4</v>
-      </c>
       <c r="G77" s="42" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="H77" s="40">
-        <v>0.746</v>
+        <v>1</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J77" s="30" t="s">
-        <v>82</v>
+        <v>251</v>
+      </c>
+      <c r="J77" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="K77" s="47">
         <f>E77*F77</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L77" s="48">
         <f>ROUND(K77/28,1)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="7"/>
       <c r="B78" s="14">
         <f>B77+1</f>
         <v>76</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78" s="56" t="s">
+      <c r="C78" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" s="65" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" s="52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G78" s="42" t="s">
         <v>111</v>
       </c>
       <c r="H78" s="53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="J78" s="65" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K78" s="47">
         <f>E78*F78</f>
-        <v>15</v>
-      </c>
-      <c r="L78" s="28"/>
-    </row>
-    <row r="79" spans="1:12" ht="39">
+        <v>8</v>
+      </c>
+      <c r="L78" s="48">
+        <f>ROUND(K78/28,1)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="25.5">
       <c r="A79" s="7"/>
       <c r="B79" s="14">
         <f>B78+1</f>
         <v>77</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" s="25" t="s">
+      <c r="C79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F79" s="52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G79" s="42" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H79" s="40">
-        <v>1</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="J79" s="25" t="s">
-        <v>84</v>
+        <v>0.751</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J79" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K79" s="47">
         <f>E79*F79</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="L79" s="48">
         <f>ROUND(K79/28,1)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="25.5">
       <c r="A80" s="7"/>
       <c r="B80" s="14">
         <f>B79+1</f>
         <v>78</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E80" s="52">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F80" s="52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H80" s="53">
-        <v>0.82599999999999996</v>
+        <v>0.746</v>
       </c>
       <c r="I80" s="56" t="s">
         <v>85</v>
       </c>
       <c r="J80" s="23" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="K80" s="47">
         <f>E80*F80</f>
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L80" s="48">
         <f>ROUND(K80/28,1)</f>
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="25.5">
@@ -4699,115 +4723,112 @@
         <f>B80+1</f>
         <v>79</v>
       </c>
-      <c r="C81" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="65" t="s">
-        <v>140</v>
+      <c r="C81" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="56" t="s">
+        <v>7</v>
       </c>
       <c r="E81" s="52">
+        <v>3</v>
+      </c>
+      <c r="F81" s="52">
         <v>5</v>
       </c>
-      <c r="F81" s="52">
-        <v>3</v>
-      </c>
       <c r="G81" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H81" s="110">
-        <v>0.93</v>
-      </c>
-      <c r="I81" s="55" t="s">
-        <v>58</v>
+        <v>111</v>
+      </c>
+      <c r="H81" s="53">
+        <v>0.96</v>
+      </c>
+      <c r="I81" s="56" t="s">
+        <v>162</v>
       </c>
       <c r="J81" s="65" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K81" s="47">
         <f>E81*F81</f>
         <v>15</v>
       </c>
-      <c r="L81" s="48">
-        <f>ROUND(K81/28,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="25.5">
+      <c r="L81" s="28"/>
+    </row>
+    <row r="82" spans="1:12" ht="39">
       <c r="A82" s="7"/>
       <c r="B82" s="14">
         <f>B81+1</f>
         <v>80</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="56" t="s">
-        <v>18</v>
+      <c r="C82" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="65" t="s">
+        <v>7</v>
       </c>
       <c r="E82" s="52">
+        <v>1</v>
+      </c>
+      <c r="F82" s="52">
         <v>8</v>
-      </c>
-      <c r="F82" s="52">
-        <v>6</v>
       </c>
       <c r="G82" s="42" t="s">
         <v>111</v>
       </c>
       <c r="H82" s="53">
-        <v>0.93700000000000006</v>
+        <v>1</v>
       </c>
       <c r="I82" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="J82" s="23" t="s">
-        <v>82</v>
+        <v>251</v>
+      </c>
+      <c r="J82" s="65" t="s">
+        <v>84</v>
       </c>
       <c r="K82" s="47">
         <f>E82*F82</f>
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="L82" s="48">
         <f>ROUND(K82/28,1)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="25.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="7"/>
       <c r="B83" s="14">
         <f>B82+1</f>
         <v>81</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>192</v>
+      <c r="C83" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="24">
-        <v>4</v>
-      </c>
-      <c r="F83" s="24">
-        <v>6</v>
-      </c>
-      <c r="G83" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="52">
+        <v>5</v>
+      </c>
+      <c r="F83" s="52">
+        <v>2</v>
+      </c>
+      <c r="G83" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" s="53">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I83" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="H83" s="53">
-        <v>0.91</v>
-      </c>
-      <c r="I83" s="55" t="s">
-        <v>194</v>
-      </c>
       <c r="J83" s="23" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="K83" s="47">
         <f>E83*F83</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L83" s="48">
         <f>ROUND(K83/28,1)</f>
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="25.5">
@@ -4816,76 +4837,76 @@
         <f>B83+1</f>
         <v>82</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="24">
-        <v>8</v>
-      </c>
-      <c r="F84" s="24">
-        <v>6</v>
+      <c r="C84" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="52">
+        <v>5</v>
+      </c>
+      <c r="F84" s="52">
+        <v>3</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H84" s="53">
-        <v>0.91800000000000004</v>
+        <v>222</v>
+      </c>
+      <c r="H84" s="110">
+        <v>0.93</v>
       </c>
       <c r="I84" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="J84" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J84" s="65" t="s">
         <v>81</v>
       </c>
       <c r="K84" s="47">
         <f>E84*F84</f>
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="L84" s="48">
         <f>ROUND(K84/28,1)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="25.5">
       <c r="A85" s="7"/>
       <c r="B85" s="14">
         <f>B84+1</f>
         <v>83</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85" s="65" t="s">
-        <v>117</v>
+      <c r="C85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>18</v>
       </c>
       <c r="E85" s="52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F85" s="52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G85" s="42" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="H85" s="53">
-        <v>1</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="I85" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J85" s="65" t="s">
-        <v>81</v>
+      <c r="J85" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="K85" s="47">
         <f>E85*F85</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L85" s="48">
         <f>ROUND(K85/28,1)</f>
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="25.5">
@@ -4894,37 +4915,37 @@
         <f>B85+1</f>
         <v>84</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>104</v>
+      <c r="C86" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E86" s="52">
+        <v>18</v>
+      </c>
+      <c r="E86" s="24">
+        <v>4</v>
+      </c>
+      <c r="F86" s="24">
         <v>6</v>
       </c>
-      <c r="F86" s="52">
-        <v>2</v>
-      </c>
-      <c r="G86" s="42" t="s">
-        <v>223</v>
+      <c r="G86" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="H86" s="53">
-        <v>0.74</v>
-      </c>
-      <c r="I86" s="107" t="s">
-        <v>85</v>
+        <v>0.91</v>
+      </c>
+      <c r="I86" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="J86" s="23" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K86" s="47">
         <f>E86*F86</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L86" s="48">
         <f>ROUND(K86/28,1)</f>
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="25.5">
@@ -4934,13 +4955,13 @@
         <v>85</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E87" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F87" s="24">
         <v>6</v>
@@ -4949,130 +4970,130 @@
         <v>111</v>
       </c>
       <c r="H87" s="53">
-        <v>0.83299999999999996</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="I87" s="55" t="s">
         <v>85</v>
       </c>
       <c r="J87" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K87" s="47">
         <f>E87*F87</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L87" s="48">
         <f>ROUND(K87/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="25.5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="7"/>
       <c r="B88" s="14">
         <f>B87+1</f>
         <v>86</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D88" s="56" t="s">
-        <v>187</v>
+      <c r="C88" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="65" t="s">
+        <v>117</v>
       </c>
       <c r="E88" s="52">
+        <v>7</v>
+      </c>
+      <c r="F88" s="52">
         <v>5</v>
       </c>
-      <c r="F88" s="52">
-        <v>4</v>
-      </c>
       <c r="G88" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H88" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I88" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J88" s="23" t="s">
+      <c r="J88" s="65" t="s">
         <v>81</v>
       </c>
       <c r="K88" s="47">
         <f>E88*F88</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L88" s="48">
         <f>ROUND(K88/28,1)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="38.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="25.5">
       <c r="A89" s="7"/>
       <c r="B89" s="14">
         <f>B88+1</f>
         <v>87</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E89" s="52">
         <v>6</v>
       </c>
       <c r="F89" s="52">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G89" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H89" s="53">
-        <v>1</v>
-      </c>
-      <c r="I89" s="56" t="s">
-        <v>121</v>
+        <v>0.74</v>
+      </c>
+      <c r="I89" s="107" t="s">
+        <v>85</v>
       </c>
       <c r="J89" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K89" s="47">
         <f>E89*F89</f>
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L89" s="48">
         <f>ROUND(K89/28,1)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="38.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="25.5">
       <c r="A90" s="7"/>
       <c r="B90" s="14">
         <f>B89+1</f>
         <v>88</v>
       </c>
-      <c r="C90" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="52">
+      <c r="C90" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="24">
         <v>6</v>
       </c>
-      <c r="F90" s="52">
+      <c r="F90" s="24">
         <v>6</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="H90" s="53">
-        <v>1</v>
-      </c>
-      <c r="I90" s="56" t="s">
-        <v>121</v>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I90" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="J90" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K90" s="47">
         <f>E90*F90</f>
@@ -5083,34 +5104,34 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="38.25">
+    <row r="91" spans="1:12" ht="25.5">
       <c r="A91" s="7"/>
       <c r="B91" s="14">
         <f>B90+1</f>
         <v>89</v>
       </c>
-      <c r="C91" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>27</v>
+      <c r="C91" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="E91" s="35">
+        <v>5</v>
+      </c>
+      <c r="F91" s="52">
         <v>4</v>
       </c>
-      <c r="F91" s="52">
-        <v>5</v>
-      </c>
       <c r="G91" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H91" s="53">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="I91" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="J91" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="J91" s="23" t="s">
         <v>81</v>
       </c>
       <c r="K91" s="48">
@@ -5129,36 +5150,36 @@
         <v>90</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D92" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="56" t="s">
         <v>27</v>
       </c>
       <c r="E92" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F92" s="52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H92" s="53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I92" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="J92" s="65" t="s">
+      <c r="J92" s="23" t="s">
         <v>81</v>
       </c>
       <c r="K92" s="47">
         <f>E92*F92</f>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L92" s="48">
         <f>ROUND(K92/28,1)</f>
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="38.25">
@@ -5167,37 +5188,37 @@
         <f>B92+1</f>
         <v>91</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>246</v>
+      <c r="C93" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="D93" s="56" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="E93" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F93" s="52">
         <v>6</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H93" s="86">
-        <v>0.97</v>
-      </c>
-      <c r="I93" s="111" t="s">
-        <v>247</v>
-      </c>
-      <c r="J93" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="H93" s="53">
+        <v>1</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J93" s="30" t="s">
         <v>81</v>
       </c>
       <c r="K93" s="47">
         <f>E93*F93</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L93" s="48">
         <f>ROUND(K93/28,1)</f>
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="38.25">
@@ -5207,106 +5228,106 @@
         <v>92</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="E94" s="35">
         <v>4</v>
       </c>
       <c r="F94" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="H94" s="110">
-        <v>0.84</v>
+        <v>222</v>
+      </c>
+      <c r="H94" s="53">
+        <v>0.95</v>
       </c>
       <c r="I94" s="56" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="J94" s="65" t="s">
         <v>81</v>
       </c>
       <c r="K94" s="48">
         <f>E94*F94</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L94" s="48">
         <f>ROUND(K94/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="38.25">
       <c r="A95" s="7"/>
       <c r="B95" s="14">
         <f>B94+1</f>
         <v>93</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>35</v>
+        <v>141</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="E95" s="52">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F95" s="52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H95" s="53">
-        <v>0.90800000000000003</v>
+        <v>0.98</v>
       </c>
       <c r="I95" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="J95" s="23" t="s">
-        <v>63</v>
+        <v>121</v>
+      </c>
+      <c r="J95" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="K95" s="48">
         <f>E95*F95</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L95" s="48">
         <f>ROUND(K95/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="25.5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="38.25">
       <c r="A96" s="7"/>
       <c r="B96" s="14">
         <f>B95+1</f>
         <v>94</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D96" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="24">
+      <c r="C96" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="E96" s="52">
+        <v>4</v>
+      </c>
+      <c r="F96" s="52">
         <v>6</v>
       </c>
-      <c r="F96" s="24">
-        <v>4</v>
-      </c>
-      <c r="G96" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="H96" s="82">
-        <v>0.92</v>
+      <c r="G96" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="53">
+        <v>0.95</v>
       </c>
       <c r="I96" s="56" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="J96" s="65" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="K96" s="48">
         <f>E96*F96</f>
@@ -5317,82 +5338,82 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="26.25">
+    <row r="97" spans="1:12" ht="38.25">
       <c r="A97" s="7"/>
       <c r="B97" s="14">
         <f>B96+1</f>
         <v>95</v>
       </c>
-      <c r="C97" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" s="65" t="s">
-        <v>118</v>
+      <c r="C97" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D97" s="56" t="s">
+        <v>244</v>
       </c>
       <c r="E97" s="52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" s="52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H97" s="53">
-        <v>0.91</v>
-      </c>
-      <c r="I97" s="56" t="s">
-        <v>85</v>
+        <v>222</v>
+      </c>
+      <c r="H97" s="86">
+        <v>0.97</v>
+      </c>
+      <c r="I97" s="114" t="s">
+        <v>246</v>
       </c>
       <c r="J97" s="65" t="s">
         <v>81</v>
       </c>
       <c r="K97" s="48">
         <f>E97*F97</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L97" s="48">
         <f>ROUND(K97/28,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="38.25">
       <c r="A98" s="7"/>
       <c r="B98" s="14">
         <f>B97+1</f>
         <v>96</v>
       </c>
-      <c r="C98" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="D98" s="102" t="s">
-        <v>129</v>
+      <c r="C98" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="D98" s="65" t="s">
+        <v>244</v>
       </c>
       <c r="E98" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F98" s="52">
         <v>6</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H98" s="104">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="H98" s="110">
+        <v>0.84</v>
       </c>
       <c r="I98" s="56" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="J98" s="65" t="s">
         <v>81</v>
       </c>
       <c r="K98" s="48">
         <f>E98*F98</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L98" s="48">
         <f>ROUND(K98/28,1)</f>
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5401,154 +5422,154 @@
         <f>B98+1</f>
         <v>97</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E99" s="36">
-        <v>6</v>
-      </c>
-      <c r="F99" s="24">
-        <v>6</v>
-      </c>
-      <c r="G99" s="43" t="s">
-        <v>111</v>
+      <c r="C99" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="35">
+        <v>10</v>
+      </c>
+      <c r="F99" s="52">
+        <v>8</v>
+      </c>
+      <c r="G99" s="42" t="s">
+        <v>222</v>
       </c>
       <c r="H99" s="40">
-        <v>0.97</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J99" s="25" t="s">
-        <v>81</v>
+      <c r="J99" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="K99" s="47">
         <f>E99*F99</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="L99" s="48">
         <f>ROUND(K99/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="25.5">
       <c r="A100" s="7"/>
       <c r="B100" s="14">
         <f>B99+1</f>
         <v>98</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E100" s="35">
+        <v>35</v>
+      </c>
+      <c r="E100" s="36">
         <v>6</v>
       </c>
-      <c r="F100" s="52">
-        <v>6</v>
-      </c>
-      <c r="G100" s="42" t="s">
+      <c r="F100" s="24">
+        <v>4</v>
+      </c>
+      <c r="G100" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="H100" s="40">
-        <v>0.96</v>
+      <c r="H100" s="41">
+        <v>0.92</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>85</v>
       </c>
       <c r="J100" s="25" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="K100" s="47">
         <f>E100*F100</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L100" s="48">
         <f>ROUND(K100/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="25.5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="26.25">
       <c r="A101" s="7"/>
       <c r="B101" s="14">
         <f>B100+1</f>
         <v>99</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>165</v>
+      <c r="C101" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="E101" s="35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F101" s="52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="H101" s="40">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="I101" s="12" t="s">
         <v>85</v>
       </c>
       <c r="J101" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K101" s="47">
         <f>E101*F101</f>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L101" s="48">
         <f>ROUND(K101/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="25.5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="7"/>
       <c r="B102" s="14">
         <f>B101+1</f>
         <v>100</v>
       </c>
-      <c r="C102" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>165</v>
+      <c r="C102" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" s="54" t="s">
+        <v>129</v>
       </c>
       <c r="E102" s="35">
         <v>6</v>
       </c>
       <c r="F102" s="52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G102" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="98">
+      <c r="H102" s="111">
         <v>1</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>85</v>
       </c>
       <c r="J102" s="25" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="K102" s="47">
         <f>E102*F102</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L102" s="48">
         <f>ROUND(K102/28,1)</f>
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5558,22 +5579,22 @@
         <v>101</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E103" s="35">
+        <v>129</v>
+      </c>
+      <c r="E103" s="36">
         <v>6</v>
       </c>
-      <c r="F103" s="52">
+      <c r="F103" s="24">
         <v>6</v>
       </c>
-      <c r="G103" s="42" t="s">
+      <c r="G103" s="43" t="s">
         <v>111</v>
       </c>
       <c r="H103" s="40">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>85</v>
@@ -5597,36 +5618,36 @@
         <v>102</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E104" s="36">
-        <v>9</v>
-      </c>
-      <c r="F104" s="24">
+        <v>129</v>
+      </c>
+      <c r="E104" s="35">
         <v>6</v>
       </c>
+      <c r="F104" s="52">
+        <v>6</v>
+      </c>
       <c r="G104" s="42" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="H104" s="40">
-        <v>1</v>
-      </c>
-      <c r="I104" s="13" t="s">
+        <v>0.96</v>
+      </c>
+      <c r="I104" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J104" s="30" t="s">
+      <c r="J104" s="25" t="s">
         <v>81</v>
       </c>
       <c r="K104" s="47">
         <f>E104*F104</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L104" s="48">
         <f>ROUND(K104/28,1)</f>
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="25.5">
@@ -5635,76 +5656,76 @@
         <f>B104+1</f>
         <v>103</v>
       </c>
-      <c r="C105" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E105" s="36">
-        <v>7</v>
-      </c>
-      <c r="F105" s="24">
-        <v>4</v>
+      <c r="C105" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E105" s="35">
+        <v>6</v>
+      </c>
+      <c r="F105" s="52">
+        <v>6</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H105" s="40">
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J105" s="30" t="s">
-        <v>81</v>
+      <c r="J105" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="K105" s="47">
         <f>E105*F105</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L105" s="48">
         <f>ROUND(K105/28,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="25.5">
       <c r="A106" s="7"/>
       <c r="B106" s="14">
         <f>B105+1</f>
         <v>104</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>46</v>
+      <c r="C106" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="E106" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F106" s="52">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H106" s="40">
-        <v>0.98</v>
+        <v>111</v>
+      </c>
+      <c r="H106" s="98">
+        <v>1</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J106" s="30" t="s">
-        <v>81</v>
+      <c r="J106" s="25" t="s">
+        <v>242</v>
       </c>
       <c r="K106" s="47">
         <f>E106*F106</f>
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="L106" s="48">
         <f>ROUND(K106/28,1)</f>
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5713,179 +5734,179 @@
         <f>B106+1</f>
         <v>105</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D107" s="56" t="s">
-        <v>46</v>
+      <c r="C107" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="E107" s="52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F107" s="52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G107" s="42" t="s">
         <v>111</v>
       </c>
       <c r="H107" s="53">
-        <v>0.90500000000000003</v>
+        <v>0.89</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J107" s="30" t="s">
+      <c r="J107" s="25" t="s">
         <v>81</v>
       </c>
       <c r="K107" s="48">
         <f>E107*F107</f>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L107" s="48">
         <f>ROUND(K107/28,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="25.5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="7"/>
       <c r="B108" s="14">
         <f>B107+1</f>
         <v>106</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="E108" s="24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F108" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G108" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H108" s="53">
         <v>1</v>
       </c>
-      <c r="I108" s="56" t="s">
+      <c r="I108" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="J108" s="65" t="s">
+      <c r="J108" s="23" t="s">
         <v>81</v>
       </c>
       <c r="K108" s="48">
         <f>E108*F108</f>
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="L108" s="48">
         <f>ROUND(K108/28,1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="26.25">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="25.5">
       <c r="A109" s="7"/>
       <c r="B109" s="14">
         <f>B108+1</f>
         <v>107</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="52">
-        <v>4</v>
-      </c>
-      <c r="F109" s="52">
+      <c r="C109" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="24">
+        <v>7</v>
+      </c>
+      <c r="F109" s="24">
         <v>4</v>
       </c>
       <c r="G109" s="52" t="s">
         <v>111</v>
       </c>
       <c r="H109" s="53">
-        <v>1</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="I109" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J109" s="65" t="s">
+      <c r="J109" s="23" t="s">
         <v>81</v>
       </c>
       <c r="K109" s="48">
         <f>E109*F109</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L109" s="48">
         <f>ROUND(K109/28,1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="25.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="7"/>
       <c r="B110" s="14">
         <f>B109+1</f>
         <v>108</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>201</v>
+      <c r="C110" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="24">
-        <v>4</v>
-      </c>
-      <c r="F110" s="24">
-        <v>4</v>
-      </c>
-      <c r="G110" s="24" t="s">
-        <v>111</v>
+        <v>46</v>
+      </c>
+      <c r="E110" s="52">
+        <v>10</v>
+      </c>
+      <c r="F110" s="52">
+        <v>8</v>
+      </c>
+      <c r="G110" s="52" t="s">
+        <v>222</v>
       </c>
       <c r="H110" s="53">
-        <v>1</v>
-      </c>
-      <c r="I110" s="55" t="s">
+        <v>0.98</v>
+      </c>
+      <c r="I110" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J110" s="65" t="s">
+      <c r="J110" s="23" t="s">
         <v>81</v>
       </c>
       <c r="K110" s="48">
         <f>E110*F110</f>
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L110" s="48">
         <f>ROUND(K110/28,1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="25.5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="7"/>
       <c r="B111" s="14">
         <f>B110+1</f>
         <v>109</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D111" s="56" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E111" s="52">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F111" s="52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G111" s="52" t="s">
         <v>111</v>
       </c>
       <c r="H111" s="53">
-        <v>0.88900000000000001</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I111" s="56" t="s">
         <v>85</v>
@@ -5895,11 +5916,11 @@
       </c>
       <c r="K111" s="48">
         <f>E111*F111</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="L111" s="48">
         <f>ROUND(K111/28,1)</f>
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="25.5">
@@ -5908,76 +5929,76 @@
         <f>B111+1</f>
         <v>110</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D112" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="52">
+      <c r="C112" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="24">
         <v>4</v>
       </c>
-      <c r="F112" s="52">
-        <v>6</v>
+      <c r="F112" s="24">
+        <v>3</v>
       </c>
       <c r="G112" s="52" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="H112" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I112" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J112" s="23" t="s">
+      <c r="J112" s="65" t="s">
         <v>81</v>
       </c>
       <c r="K112" s="47">
         <f>E112*F112</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L112" s="48">
         <f>ROUND(K112/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="25.5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="26.25">
       <c r="A113" s="7"/>
       <c r="B113" s="14">
         <f>B112+1</f>
         <v>111</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="56" t="s">
+      <c r="C113" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" s="102" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="52">
         <v>4</v>
       </c>
       <c r="F113" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G113" s="52" t="s">
         <v>111</v>
       </c>
       <c r="H113" s="53">
-        <v>0.83299999999999996</v>
+        <v>1</v>
       </c>
       <c r="I113" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J113" s="23" t="s">
+      <c r="J113" s="65" t="s">
         <v>81</v>
       </c>
       <c r="K113" s="48">
         <f>E113*F113</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L113" s="48">
         <f>ROUND(K113/28,1)</f>
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="25.5">
@@ -5987,7 +6008,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="D114" s="55" t="s">
         <v>12</v>
@@ -5996,27 +6017,27 @@
         <v>4</v>
       </c>
       <c r="F114" s="24">
-        <v>3</v>
-      </c>
-      <c r="G114" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" s="24" t="s">
         <v>111</v>
       </c>
       <c r="H114" s="53">
         <v>1</v>
       </c>
-      <c r="I114" s="56" t="s">
+      <c r="I114" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="J114" s="23" t="s">
+      <c r="J114" s="65" t="s">
         <v>81</v>
       </c>
       <c r="K114" s="48">
         <f>E114*F114</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L114" s="48">
         <f>ROUND(K114/28,1)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="25.5">
@@ -6025,25 +6046,25 @@
         <f>B114+1</f>
         <v>113</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D115" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" s="24">
-        <v>5</v>
-      </c>
-      <c r="F115" s="24">
-        <v>5</v>
+      <c r="C115" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="52">
+        <v>7</v>
+      </c>
+      <c r="F115" s="52">
+        <v>6</v>
       </c>
       <c r="G115" s="52" t="s">
         <v>111</v>
       </c>
       <c r="H115" s="53">
-        <v>0.88</v>
-      </c>
-      <c r="I115" s="55" t="s">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I115" s="56" t="s">
         <v>85</v>
       </c>
       <c r="J115" s="23" t="s">
@@ -6051,50 +6072,50 @@
       </c>
       <c r="K115" s="48">
         <f>E115*F115</f>
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L115" s="48">
         <f>ROUND(K115/28,1)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="25.5">
       <c r="A116" s="7"/>
       <c r="B116" s="14">
         <f>B115+1</f>
         <v>114</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D116" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="E116" s="24">
-        <v>5</v>
-      </c>
-      <c r="F116" s="24">
+      <c r="C116" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="52">
         <v>4</v>
       </c>
+      <c r="F116" s="52">
+        <v>6</v>
+      </c>
       <c r="G116" s="52" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="H116" s="53">
-        <v>0.89900000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I116" s="56" t="s">
         <v>85</v>
       </c>
       <c r="J116" s="23" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="K116" s="48">
         <f>E116*F116</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L116" s="48">
         <f>ROUND(K116/28,1)</f>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="25.5">
@@ -6104,13 +6125,13 @@
         <v>115</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D117" s="56" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E117" s="52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F117" s="52">
         <v>6</v>
@@ -6119,46 +6140,46 @@
         <v>111</v>
       </c>
       <c r="H117" s="53">
-        <v>0.88900000000000001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="I117" s="56" t="s">
         <v>85</v>
       </c>
       <c r="J117" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K117" s="48">
         <f>E117*F117</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L117" s="48">
         <f>ROUND(K117/28,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="25.5">
       <c r="A118" s="7"/>
       <c r="B118" s="14">
         <f>B117+1</f>
         <v>116</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D118" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E118" s="52">
-        <v>8</v>
-      </c>
-      <c r="F118" s="52">
+      <c r="C118" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="55" t="s">
         <v>12</v>
+      </c>
+      <c r="E118" s="24">
+        <v>4</v>
+      </c>
+      <c r="F118" s="24">
+        <v>3</v>
       </c>
       <c r="G118" s="52" t="s">
         <v>111</v>
       </c>
       <c r="H118" s="53">
-        <v>0.84699999999999998</v>
+        <v>1</v>
       </c>
       <c r="I118" s="56" t="s">
         <v>85</v>
@@ -6168,206 +6189,206 @@
       </c>
       <c r="K118" s="48">
         <f>E118*F118</f>
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="L118" s="48">
         <f>ROUND(K118/28,1)</f>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="25.5">
       <c r="A119" s="7"/>
       <c r="B119" s="14">
         <f>B118+1</f>
         <v>117</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D119" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="E119" s="52">
-        <v>8</v>
-      </c>
-      <c r="F119" s="52">
-        <v>15</v>
-      </c>
-      <c r="G119" s="106" t="s">
+      <c r="C119" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D119" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="24">
+        <v>5</v>
+      </c>
+      <c r="F119" s="24">
+        <v>5</v>
+      </c>
+      <c r="G119" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H119" s="104">
-        <v>0.9</v>
-      </c>
-      <c r="I119" s="105" t="s">
+      <c r="H119" s="53">
+        <v>0.88</v>
+      </c>
+      <c r="I119" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="J119" s="65" t="s">
-        <v>179</v>
+      <c r="J119" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K119" s="48">
         <f>E119*F119</f>
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="L119" s="48">
         <f>ROUND(K119/28,1)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="38.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="7"/>
       <c r="B120" s="14">
         <f>B119+1</f>
         <v>118</v>
       </c>
-      <c r="C120" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="D120" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="E120" s="52">
-        <v>3</v>
-      </c>
-      <c r="F120" s="52">
-        <v>1</v>
+      <c r="C120" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E120" s="24">
+        <v>5</v>
+      </c>
+      <c r="F120" s="24">
+        <v>4</v>
       </c>
       <c r="G120" s="52" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="H120" s="53">
-        <v>1</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="I120" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="J120" s="65" t="s">
-        <v>241</v>
+        <v>85</v>
+      </c>
+      <c r="J120" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="K120" s="48">
         <f>E120*F120</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L120" s="48">
         <f>ROUND(K120/28,1)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="38.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="25.5">
       <c r="A121" s="7"/>
       <c r="B121" s="14">
         <f>B120+1</f>
         <v>119</v>
       </c>
-      <c r="C121" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="D121" s="65" t="s">
-        <v>239</v>
+      <c r="C121" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="E121" s="52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F121" s="52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G121" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H121" s="82">
-        <v>1</v>
+      <c r="H121" s="53">
+        <v>0.88900000000000001</v>
       </c>
       <c r="I121" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="J121" s="65" t="s">
-        <v>241</v>
+        <v>85</v>
+      </c>
+      <c r="J121" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="K121" s="48">
         <f>E121*F121</f>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="L121" s="48">
         <f>ROUND(K121/28,1)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="38.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="7"/>
       <c r="B122" s="14">
         <f>B121+1</f>
         <v>120</v>
       </c>
-      <c r="C122" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="D122" s="65" t="s">
-        <v>239</v>
+      <c r="C122" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="56" t="s">
+        <v>31</v>
       </c>
       <c r="E122" s="52">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F122" s="52">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G122" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H122" s="86">
-        <v>1</v>
+      <c r="H122" s="53">
+        <v>0.84699999999999998</v>
       </c>
       <c r="I122" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="J122" s="65" t="s">
-        <v>241</v>
+        <v>85</v>
+      </c>
+      <c r="J122" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K122" s="48">
         <f>E122*F122</f>
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="L122" s="48">
         <f>ROUND(K122/28,1)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="38.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="7"/>
       <c r="B123" s="14">
         <f>B122+1</f>
         <v>121</v>
       </c>
-      <c r="C123" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="D123" s="65" t="s">
-        <v>239</v>
+      <c r="C123" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D123" s="102" t="s">
+        <v>31</v>
       </c>
       <c r="E123" s="52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F123" s="52">
-        <v>1</v>
-      </c>
-      <c r="G123" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H123" s="82">
-        <v>1</v>
-      </c>
-      <c r="I123" s="56" t="s">
-        <v>240</v>
+      <c r="H123" s="104">
+        <v>0.9</v>
+      </c>
+      <c r="I123" s="105" t="s">
+        <v>85</v>
       </c>
       <c r="J123" s="65" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="K123" s="48">
         <f>E123*F123</f>
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="L123" s="48">
         <f>ROUND(K123/28,1)</f>
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="38.25">
@@ -6377,13 +6398,13 @@
         <v>122</v>
       </c>
       <c r="C124" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D124" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="D124" s="65" t="s">
-        <v>239</v>
-      </c>
       <c r="E124" s="52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F124" s="52">
         <v>1</v>
@@ -6395,71 +6416,175 @@
         <v>1</v>
       </c>
       <c r="I124" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="J124" s="65" t="s">
         <v>240</v>
-      </c>
-      <c r="J124" s="65" t="s">
-        <v>241</v>
       </c>
       <c r="K124" s="48">
         <f>E124*F124</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L124" s="48">
         <f>ROUND(K124/28,1)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" ht="38.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="B125" s="14">
+        <f>B124+1</f>
+        <v>123</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E125" s="35">
+        <v>3</v>
+      </c>
+      <c r="F125" s="52">
+        <v>1</v>
+      </c>
+      <c r="G125" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H125" s="82">
+        <v>1</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J125" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K125" s="48">
+        <f>E125*F125</f>
+        <v>3</v>
+      </c>
+      <c r="L125" s="48">
+        <f>ROUND(K125/28,1)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="38.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="B126" s="14">
+        <f>B125+1</f>
+        <v>124</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E126" s="52">
+        <v>2</v>
+      </c>
+      <c r="F126" s="52">
+        <v>1</v>
+      </c>
+      <c r="G126" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H126" s="98">
+        <v>1</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J126" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K126" s="47">
+        <f>E126*F126</f>
+        <v>2</v>
+      </c>
+      <c r="L126" s="48">
+        <f>ROUND(K126/28,1)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="38.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="29"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="B127" s="14">
+        <f>B126+1</f>
+        <v>125</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E127" s="35">
+        <v>3</v>
+      </c>
+      <c r="F127" s="42">
+        <v>1</v>
+      </c>
+      <c r="G127" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H127" s="67">
+        <v>1</v>
+      </c>
+      <c r="I127" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="J127" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="K127" s="48">
+        <f>E127*F127</f>
+        <v>3</v>
+      </c>
+      <c r="L127" s="48">
+        <f>ROUND(K127/28,1)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="38.25">
       <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="29"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
+      <c r="B128" s="14">
+        <f>B127+1</f>
+        <v>126</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E128" s="35">
+        <v>2</v>
+      </c>
+      <c r="F128" s="52">
+        <v>1</v>
+      </c>
+      <c r="G128" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H128" s="40">
+        <v>1</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J128" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K128" s="47">
+        <f>E128*F128</f>
+        <v>2</v>
+      </c>
+      <c r="L128" s="48">
+        <f>ROUND(K128/28,1)</f>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="7"/>
@@ -6619,9 +6744,9 @@
       <c r="B142" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:L124">
-    <sortState ref="B3:L124">
-      <sortCondition ref="D2:D124"/>
+  <autoFilter ref="B2:L128">
+    <sortState ref="B3:L128">
+      <sortCondition ref="D2:D128"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6636,9 +6761,7 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G3:G18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
